--- a/data/nzd0192/nzd0192.xlsx
+++ b/data/nzd0192/nzd0192.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M661"/>
+  <dimension ref="A1:M672"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27201,6 +27201,493 @@
         </is>
       </c>
     </row>
+    <row r="662">
+      <c r="A662" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B662" t="n">
+        <v>337.7133333333333</v>
+      </c>
+      <c r="C662" t="n">
+        <v>338.4082352941176</v>
+      </c>
+      <c r="D662" t="n">
+        <v>343.6966666666667</v>
+      </c>
+      <c r="E662" t="n">
+        <v>344.7482352941176</v>
+      </c>
+      <c r="F662" t="n">
+        <v>355.82</v>
+      </c>
+      <c r="G662" t="n">
+        <v>353.4230769230769</v>
+      </c>
+      <c r="H662" t="n">
+        <v>373.0182352941176</v>
+      </c>
+      <c r="I662" t="n">
+        <v>362.72</v>
+      </c>
+      <c r="J662" t="n">
+        <v>361.48</v>
+      </c>
+      <c r="K662" t="n">
+        <v>349.1988888888889</v>
+      </c>
+      <c r="L662" t="n">
+        <v>346.4590476190476</v>
+      </c>
+      <c r="M662" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B663" t="n">
+        <v>349.4166666666667</v>
+      </c>
+      <c r="C663" t="n">
+        <v>332.9970588235294</v>
+      </c>
+      <c r="D663" t="n">
+        <v>328.1833333333333</v>
+      </c>
+      <c r="E663" t="n">
+        <v>338.4670588235294</v>
+      </c>
+      <c r="F663" t="n">
+        <v>360.2504347826087</v>
+      </c>
+      <c r="G663" t="n">
+        <v>367.4853846153847</v>
+      </c>
+      <c r="H663" t="n">
+        <v>373.5370588235294</v>
+      </c>
+      <c r="I663" t="n">
+        <v>369.1804347826087</v>
+      </c>
+      <c r="J663" t="n">
+        <v>356.8204347826087</v>
+      </c>
+      <c r="K663" t="n">
+        <v>357.5011111111111</v>
+      </c>
+      <c r="L663" t="n">
+        <v>354.8395238095238</v>
+      </c>
+      <c r="M663" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B664" t="n">
+        <v>340.1133333333333</v>
+      </c>
+      <c r="C664" t="n">
+        <v>339.6064705882353</v>
+      </c>
+      <c r="D664" t="n">
+        <v>345.8466666666666</v>
+      </c>
+      <c r="E664" t="n">
+        <v>342.7764705882353</v>
+      </c>
+      <c r="F664" t="n">
+        <v>357.2665217391304</v>
+      </c>
+      <c r="G664" t="n">
+        <v>358.2669230769231</v>
+      </c>
+      <c r="H664" t="n">
+        <v>373.1264705882353</v>
+      </c>
+      <c r="I664" t="n">
+        <v>369.4965217391305</v>
+      </c>
+      <c r="J664" t="n">
+        <v>365.5565217391305</v>
+      </c>
+      <c r="K664" t="n">
+        <v>365.8355555555555</v>
+      </c>
+      <c r="L664" t="n">
+        <v>352.8861904761905</v>
+      </c>
+      <c r="M664" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-14 21:59:51+00:00</t>
+        </is>
+      </c>
+      <c r="B665" t="n">
+        <v>341.91</v>
+      </c>
+      <c r="C665" t="n">
+        <v>338.5664705882353</v>
+      </c>
+      <c r="D665" t="n">
+        <v>345.89</v>
+      </c>
+      <c r="E665" t="n">
+        <v>341.5764705882353</v>
+      </c>
+      <c r="F665" t="n">
+        <v>357.0430434782609</v>
+      </c>
+      <c r="G665" t="n">
+        <v>356.1676923076923</v>
+      </c>
+      <c r="H665" t="n">
+        <v>371.3964705882353</v>
+      </c>
+      <c r="I665" t="n">
+        <v>365.4430434782609</v>
+      </c>
+      <c r="J665" t="n">
+        <v>364.5030434782609</v>
+      </c>
+      <c r="K665" t="n">
+        <v>355.8933333333333</v>
+      </c>
+      <c r="L665" t="n">
+        <v>351.5242857142857</v>
+      </c>
+      <c r="M665" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B666" t="n">
+        <v>342.8566666666667</v>
+      </c>
+      <c r="C666" t="n">
+        <v>330.3876470588235</v>
+      </c>
+      <c r="D666" t="n">
+        <v>325.5933333333334</v>
+      </c>
+      <c r="E666" t="n">
+        <v>343.5176470588235</v>
+      </c>
+      <c r="F666" t="n">
+        <v>345.2617391304348</v>
+      </c>
+      <c r="G666" t="n">
+        <v>354.9</v>
+      </c>
+      <c r="H666" t="n">
+        <v>362.9476470588235</v>
+      </c>
+      <c r="I666" t="n">
+        <v>359.5117391304348</v>
+      </c>
+      <c r="J666" t="n">
+        <v>345.3917391304348</v>
+      </c>
+      <c r="K666" t="n">
+        <v>344.7477777777778</v>
+      </c>
+      <c r="L666" t="n">
+        <v>354.1523809523809</v>
+      </c>
+      <c r="M666" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B667" t="n">
+        <v>353.7233333333333</v>
+      </c>
+      <c r="C667" t="n">
+        <v>354.0764705882353</v>
+      </c>
+      <c r="D667" t="n">
+        <v>357.4566666666666</v>
+      </c>
+      <c r="E667" t="n">
+        <v>355.8664705882353</v>
+      </c>
+      <c r="F667" t="n">
+        <v>367.3260869565217</v>
+      </c>
+      <c r="G667" t="n">
+        <v>367.6792307692308</v>
+      </c>
+      <c r="H667" t="n">
+        <v>385.7964705882353</v>
+      </c>
+      <c r="I667" t="n">
+        <v>373.2660869565217</v>
+      </c>
+      <c r="J667" t="n">
+        <v>372.7560869565218</v>
+      </c>
+      <c r="K667" t="n">
+        <v>361.4788888888889</v>
+      </c>
+      <c r="L667" t="n">
+        <v>357.4504761904762</v>
+      </c>
+      <c r="M667" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-07 21:59:57+00:00</t>
+        </is>
+      </c>
+      <c r="B668" t="n">
+        <v>344.1933333333333</v>
+      </c>
+      <c r="C668" t="n">
+        <v>340.0252941176471</v>
+      </c>
+      <c r="D668" t="n">
+        <v>350.0866666666666</v>
+      </c>
+      <c r="E668" t="n">
+        <v>348.0952941176471</v>
+      </c>
+      <c r="F668" t="inlineStr"/>
+      <c r="G668" t="inlineStr"/>
+      <c r="H668" t="n">
+        <v>385.2752941176471</v>
+      </c>
+      <c r="I668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>360.7239130434783</v>
+      </c>
+      <c r="K668" t="n">
+        <v>372.7422222222222</v>
+      </c>
+      <c r="L668" t="inlineStr"/>
+      <c r="M668" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:06:13+00:00</t>
+        </is>
+      </c>
+      <c r="B669" t="n">
+        <v>343.99</v>
+      </c>
+      <c r="C669" t="n">
+        <v>336.4694117647059</v>
+      </c>
+      <c r="D669" t="n">
+        <v>338.53</v>
+      </c>
+      <c r="E669" t="n">
+        <v>346.4894117647058</v>
+      </c>
+      <c r="F669" t="n">
+        <v>359.488695652174</v>
+      </c>
+      <c r="G669" t="n">
+        <v>359.4053846153847</v>
+      </c>
+      <c r="H669" t="n">
+        <v>369.7594117647059</v>
+      </c>
+      <c r="I669" t="n">
+        <v>362.3586956521739</v>
+      </c>
+      <c r="J669" t="n">
+        <v>351.898695652174</v>
+      </c>
+      <c r="K669" t="n">
+        <v>351.0833333333333</v>
+      </c>
+      <c r="L669" t="n">
+        <v>353.6271428571428</v>
+      </c>
+      <c r="M669" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-23 22:00:02+00:00</t>
+        </is>
+      </c>
+      <c r="B670" t="n">
+        <v>345.8733333333333</v>
+      </c>
+      <c r="C670" t="n">
+        <v>353.3847058823529</v>
+      </c>
+      <c r="D670" t="n">
+        <v>349.3566666666666</v>
+      </c>
+      <c r="E670" t="n">
+        <v>351.2747058823529</v>
+      </c>
+      <c r="F670" t="n">
+        <v>360.2878260869565</v>
+      </c>
+      <c r="G670" t="n">
+        <v>357.9969230769231</v>
+      </c>
+      <c r="H670" t="n">
+        <v>376.364705882353</v>
+      </c>
+      <c r="I670" t="n">
+        <v>366.6578260869565</v>
+      </c>
+      <c r="J670" t="n">
+        <v>366.0778260869565</v>
+      </c>
+      <c r="K670" t="n">
+        <v>349.5288888888889</v>
+      </c>
+      <c r="L670" t="n">
+        <v>351.5304761904762</v>
+      </c>
+      <c r="M670" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B671" t="n">
+        <v>344.6866666666667</v>
+      </c>
+      <c r="C671" t="n">
+        <v>346.0764705882353</v>
+      </c>
+      <c r="D671" t="n">
+        <v>344.9833333333333</v>
+      </c>
+      <c r="E671" t="n">
+        <v>352.8064705882353</v>
+      </c>
+      <c r="F671" t="n">
+        <v>356.6747826086956</v>
+      </c>
+      <c r="G671" t="n">
+        <v>358.5223076923077</v>
+      </c>
+      <c r="H671" t="n">
+        <v>371.8264705882353</v>
+      </c>
+      <c r="I671" t="n">
+        <v>366.5347826086957</v>
+      </c>
+      <c r="J671" t="n">
+        <v>365.2547826086956</v>
+      </c>
+      <c r="K671" t="n">
+        <v>350.7044444444444</v>
+      </c>
+      <c r="L671" t="n">
+        <v>350.7052380952381</v>
+      </c>
+      <c r="M671" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-24 21:59:57+00:00</t>
+        </is>
+      </c>
+      <c r="B672" t="n">
+        <v>345.7133333333333</v>
+      </c>
+      <c r="C672" t="n">
+        <v>344.6982352941176</v>
+      </c>
+      <c r="D672" t="n">
+        <v>345.1566666666667</v>
+      </c>
+      <c r="E672" t="n">
+        <v>351.4282352941176</v>
+      </c>
+      <c r="F672" t="n">
+        <v>355.39</v>
+      </c>
+      <c r="G672" t="n">
+        <v>359.4530769230769</v>
+      </c>
+      <c r="H672" t="n">
+        <v>369.4482352941176</v>
+      </c>
+      <c r="I672" t="n">
+        <v>365.32</v>
+      </c>
+      <c r="J672" t="n">
+        <v>355.84</v>
+      </c>
+      <c r="K672" t="n">
+        <v>349.1388888888889</v>
+      </c>
+      <c r="L672" t="n">
+        <v>348.5590476190476</v>
+      </c>
+      <c r="M672" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -27212,7 +27699,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B670"/>
+  <dimension ref="A1:B681"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33920,6 +34407,116 @@
       </c>
       <c r="B670" t="n">
         <v>-0.36</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B671" t="n">
+        <v>-0.46</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B672" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B673" t="n">
+        <v>-0.58</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>2024-12-14 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B674" t="n">
+        <v>-0.24</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B675" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B676" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>2025-01-07 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B677" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B678" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>2025-01-23 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B679" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B680" t="n">
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>2025-02-24 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B681" t="n">
+        <v>-0.46</v>
       </c>
     </row>
   </sheetData>
@@ -34088,28 +34685,28 @@
         <v>0.068</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1531389979127499</v>
+        <v>0.1585725341335824</v>
       </c>
       <c r="J2" t="n">
-        <v>660</v>
+        <v>671</v>
       </c>
       <c r="K2" t="n">
-        <v>539</v>
+        <v>550</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01079092928980763</v>
+        <v>0.01198358430492308</v>
       </c>
       <c r="M2" t="n">
-        <v>8.474259182569183</v>
+        <v>8.366280067620819</v>
       </c>
       <c r="N2" t="n">
-        <v>115.7882803347128</v>
+        <v>113.8526654305978</v>
       </c>
       <c r="O2" t="n">
-        <v>10.76049628663626</v>
+        <v>10.67017644795988</v>
       </c>
       <c r="P2" t="n">
-        <v>339.2135688667858</v>
+        <v>339.1597572252656</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -34165,28 +34762,28 @@
         <v>0.1063</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3301156034354336</v>
+        <v>0.3216957618796663</v>
       </c>
       <c r="J3" t="n">
-        <v>660</v>
+        <v>671</v>
       </c>
       <c r="K3" t="n">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04717581688518668</v>
+        <v>0.04619583109627445</v>
       </c>
       <c r="M3" t="n">
-        <v>8.813815468062955</v>
+        <v>8.768904608907722</v>
       </c>
       <c r="N3" t="n">
-        <v>118.1428907470761</v>
+        <v>116.9260215640047</v>
       </c>
       <c r="O3" t="n">
-        <v>10.86935558103957</v>
+        <v>10.8132336312504</v>
       </c>
       <c r="P3" t="n">
-        <v>335.2238331299098</v>
+        <v>335.3066437186388</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -34242,28 +34839,28 @@
         <v>0.0847</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2752035845978422</v>
+        <v>0.2618170984509109</v>
       </c>
       <c r="J4" t="n">
-        <v>660</v>
+        <v>671</v>
       </c>
       <c r="K4" t="n">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03671153731295285</v>
+        <v>0.03405685733526576</v>
       </c>
       <c r="M4" t="n">
-        <v>7.967936388655078</v>
+        <v>7.94555226217846</v>
       </c>
       <c r="N4" t="n">
-        <v>105.7005227895673</v>
+        <v>105.3993882541051</v>
       </c>
       <c r="O4" t="n">
-        <v>10.28107595485839</v>
+        <v>10.26642042067756</v>
       </c>
       <c r="P4" t="n">
-        <v>339.7327352693908</v>
+        <v>339.8662537445874</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -34319,28 +34916,28 @@
         <v>0.0992</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3214146525903104</v>
+        <v>0.3120016916422583</v>
       </c>
       <c r="J5" t="n">
-        <v>660</v>
+        <v>671</v>
       </c>
       <c r="K5" t="n">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05205271431646163</v>
+        <v>0.05074731006181865</v>
       </c>
       <c r="M5" t="n">
-        <v>8.015667976630088</v>
+        <v>7.948590490040947</v>
       </c>
       <c r="N5" t="n">
-        <v>102.1752959469487</v>
+        <v>100.7478383486254</v>
       </c>
       <c r="O5" t="n">
-        <v>10.10817965545472</v>
+        <v>10.03732226983997</v>
       </c>
       <c r="P5" t="n">
-        <v>341.3714628692695</v>
+        <v>341.4639499035314</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -34396,28 +34993,28 @@
         <v>0.1358</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2778199241186234</v>
+        <v>0.2952235686961593</v>
       </c>
       <c r="J6" t="n">
-        <v>660</v>
+        <v>671</v>
       </c>
       <c r="K6" t="n">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="L6" t="n">
-        <v>0.03945336628799978</v>
+        <v>0.04562884485074081</v>
       </c>
       <c r="M6" t="n">
-        <v>8.386611657330562</v>
+        <v>8.331276788772342</v>
       </c>
       <c r="N6" t="n">
-        <v>101.2631545651678</v>
+        <v>100.2174716062041</v>
       </c>
       <c r="O6" t="n">
-        <v>10.06295953311787</v>
+        <v>10.01086767499222</v>
       </c>
       <c r="P6" t="n">
-        <v>345.709672621064</v>
+        <v>345.5389264640022</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -34473,28 +35070,28 @@
         <v>0.0796</v>
       </c>
       <c r="I7" t="n">
-        <v>0.192831284599698</v>
+        <v>0.1906828040966002</v>
       </c>
       <c r="J7" t="n">
-        <v>660</v>
+        <v>671</v>
       </c>
       <c r="K7" t="n">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01997240457689053</v>
+        <v>0.0201951757681994</v>
       </c>
       <c r="M7" t="n">
-        <v>7.990196924650673</v>
+        <v>7.907992182188672</v>
       </c>
       <c r="N7" t="n">
-        <v>98.72454361305402</v>
+        <v>97.23400697621254</v>
       </c>
       <c r="O7" t="n">
-        <v>9.936022524785963</v>
+        <v>9.860730549822996</v>
       </c>
       <c r="P7" t="n">
-        <v>355.0267768978137</v>
+        <v>355.0478684342716</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -34550,28 +35147,28 @@
         <v>0.09760000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>0.09496081737206834</v>
+        <v>0.1235181524331773</v>
       </c>
       <c r="J8" t="n">
-        <v>660</v>
+        <v>671</v>
       </c>
       <c r="K8" t="n">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="L8" t="n">
-        <v>0.004561525915311782</v>
+        <v>0.007879232745368392</v>
       </c>
       <c r="M8" t="n">
-        <v>8.37971787102461</v>
+        <v>8.357262512968701</v>
       </c>
       <c r="N8" t="n">
-        <v>106.7517013992711</v>
+        <v>106.3816793563162</v>
       </c>
       <c r="O8" t="n">
-        <v>10.33207149603946</v>
+        <v>10.314149473239</v>
       </c>
       <c r="P8" t="n">
-        <v>364.2238162874768</v>
+        <v>363.9433111955269</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -34627,28 +35224,28 @@
         <v>0.1378</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06453425687629261</v>
+        <v>0.07700233480146859</v>
       </c>
       <c r="J9" t="n">
-        <v>660</v>
+        <v>671</v>
       </c>
       <c r="K9" t="n">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="L9" t="n">
-        <v>0.002696701602336815</v>
+        <v>0.003954449004912486</v>
       </c>
       <c r="M9" t="n">
-        <v>6.702687500353383</v>
+        <v>6.650484029743406</v>
       </c>
       <c r="N9" t="n">
-        <v>83.32790337126877</v>
+        <v>82.28224867612981</v>
       </c>
       <c r="O9" t="n">
-        <v>9.1284118756369</v>
+        <v>9.07095632643713</v>
       </c>
       <c r="P9" t="n">
-        <v>360.7877872060121</v>
+        <v>360.6653201374911</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -34704,28 +35301,28 @@
         <v>0.1395</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01491712370247132</v>
+        <v>0.03454049118952906</v>
       </c>
       <c r="J10" t="n">
-        <v>660</v>
+        <v>671</v>
       </c>
       <c r="K10" t="n">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0001080834596324243</v>
+        <v>0.0005944812339140348</v>
       </c>
       <c r="M10" t="n">
-        <v>8.593453687486118</v>
+        <v>8.569585284731589</v>
       </c>
       <c r="N10" t="n">
-        <v>110.7705771687935</v>
+        <v>110.1245825223297</v>
       </c>
       <c r="O10" t="n">
-        <v>10.52476019531056</v>
+        <v>10.49402603972039</v>
       </c>
       <c r="P10" t="n">
-        <v>354.9875983589093</v>
+        <v>354.7946509623059</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -34781,28 +35378,28 @@
         <v>0.1023</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1149122162436653</v>
+        <v>0.1473847178482018</v>
       </c>
       <c r="J11" t="n">
-        <v>660</v>
+        <v>671</v>
       </c>
       <c r="K11" t="n">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="L11" t="n">
-        <v>0.007222148604428713</v>
+        <v>0.01198527615426059</v>
       </c>
       <c r="M11" t="n">
-        <v>7.685456968436594</v>
+        <v>7.686178103391465</v>
       </c>
       <c r="N11" t="n">
-        <v>98.66979967312375</v>
+        <v>99.36005328470104</v>
       </c>
       <c r="O11" t="n">
-        <v>9.93326732113476</v>
+        <v>9.967951308303078</v>
       </c>
       <c r="P11" t="n">
-        <v>343.9080505755882</v>
+        <v>343.5910436937698</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -34858,28 +35455,28 @@
         <v>0.1254</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1642854608079686</v>
+        <v>0.1843679783561016</v>
       </c>
       <c r="J12" t="n">
-        <v>660</v>
+        <v>671</v>
       </c>
       <c r="K12" t="n">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01657452142078408</v>
+        <v>0.02138186103559514</v>
       </c>
       <c r="M12" t="n">
-        <v>7.20737137734951</v>
+        <v>7.165952573756228</v>
       </c>
       <c r="N12" t="n">
-        <v>87.17862347826042</v>
+        <v>86.2757024684168</v>
       </c>
       <c r="O12" t="n">
-        <v>9.336949366803935</v>
+        <v>9.28847148181103</v>
       </c>
       <c r="P12" t="n">
-        <v>342.2935522708959</v>
+        <v>342.0970865844395</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -34916,7 +35513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M661"/>
+  <dimension ref="A1:M672"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -73207,6 +73804,727 @@
         </is>
       </c>
     </row>
+    <row r="662">
+      <c r="A662" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>-37.145386567831586,175.87937830724837</t>
+        </is>
+      </c>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>-37.1460972701208,175.87948685452764</t>
+        </is>
+      </c>
+      <c r="D662" t="inlineStr">
+        <is>
+          <t>-37.14680251696,175.87964663630729</t>
+        </is>
+      </c>
+      <c r="E662" t="inlineStr">
+        <is>
+          <t>-37.14751105661419,175.87975902492465</t>
+        </is>
+      </c>
+      <c r="F662" t="inlineStr">
+        <is>
+          <t>-37.14821140966439,175.87996035811761</t>
+        </is>
+      </c>
+      <c r="G662" t="inlineStr">
+        <is>
+          <t>-37.148927424690044,175.87998633849998</t>
+        </is>
+      </c>
+      <c r="H662" t="inlineStr">
+        <is>
+          <t>-37.149619893537185,175.88025696344184</t>
+        </is>
+      </c>
+      <c r="I662" t="inlineStr">
+        <is>
+          <t>-37.15032765344866,175.88031807826897</t>
+        </is>
+      </c>
+      <c r="J662" t="inlineStr">
+        <is>
+          <t>-37.15101551141405,175.88056195172612</t>
+        </is>
+      </c>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>-37.15173497743974,175.88070827601973</t>
+        </is>
+      </c>
+      <c r="L662" t="inlineStr">
+        <is>
+          <t>-37.15241354825183,175.88100938998053</t>
+        </is>
+      </c>
+      <c r="M662" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>-37.14537268579432,175.87950883905825</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>-37.146103688654556,175.87942650100857</t>
+        </is>
+      </c>
+      <c r="D663" t="inlineStr">
+        <is>
+          <t>-37.146820918443275,175.87947360686485</t>
+        </is>
+      </c>
+      <c r="E663" t="inlineStr">
+        <is>
+          <t>-37.14751777703582,175.8796888514385</t>
+        </is>
+      </c>
+      <c r="F663" t="inlineStr">
+        <is>
+          <t>-37.14820773280119,175.88000999641204</t>
+        </is>
+      </c>
+      <c r="G663" t="inlineStr">
+        <is>
+          <t>-37.148917493314976,175.88014407907434</t>
+        </is>
+      </c>
+      <c r="H663" t="inlineStr">
+        <is>
+          <t>-37.14961920002918,175.8802627366016</t>
+        </is>
+      </c>
+      <c r="I663" t="inlineStr">
+        <is>
+          <t>-37.150312383749025,175.88038822421694</t>
+        </is>
+      </c>
+      <c r="J663" t="inlineStr">
+        <is>
+          <t>-37.151028771234444,175.880512206972</t>
+        </is>
+      </c>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>-37.151708435138914,175.88079561227084</t>
+        </is>
+      </c>
+      <c r="L663" t="inlineStr">
+        <is>
+          <t>-37.152384595121866,175.8810964774978</t>
+        </is>
+      </c>
+      <c r="M663" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>-37.14538372105682,175.87940507538266</t>
+        </is>
+      </c>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>-37.14609584881512,175.87950021903498</t>
+        </is>
+      </c>
+      <c r="D664" t="inlineStr">
+        <is>
+          <t>-37.146799966670294,175.87967061652938</t>
+        </is>
+      </c>
+      <c r="E664" t="inlineStr">
+        <is>
+          <t>-37.147513166269604,175.87973699631365</t>
+        </is>
+      </c>
+      <c r="F664" t="inlineStr">
+        <is>
+          <t>-37.14821020918346,175.87997656485092</t>
+        </is>
+      </c>
+      <c r="G664" t="inlineStr">
+        <is>
+          <t>-37.14892400379192,175.8800406731923</t>
+        </is>
+      </c>
+      <c r="H664" t="inlineStr">
+        <is>
+          <t>-37.1496197488598,175.88025816781985</t>
+        </is>
+      </c>
+      <c r="I664" t="inlineStr">
+        <is>
+          <t>-37.150311636653846,175.88039165621726</t>
+        </is>
+      </c>
+      <c r="J664" t="inlineStr">
+        <is>
+          <t>-37.15100391075589,175.88060547198842</t>
+        </is>
+      </c>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>-37.15168178976096,175.8808832874224</t>
+        </is>
+      </c>
+      <c r="L664" t="inlineStr">
+        <is>
+          <t>-37.152391343564155,175.88107617902142</t>
+        </is>
+      </c>
+      <c r="M664" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-14 21:59:51+00:00</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>-37.14538158992569,175.87942511430384</t>
+        </is>
+      </c>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>-37.146097082427595,175.8794886194037</t>
+        </is>
+      </c>
+      <c r="D665" t="inlineStr">
+        <is>
+          <t>-37.14679991526906,175.87967109985166</t>
+        </is>
+      </c>
+      <c r="E665" t="inlineStr">
+        <is>
+          <t>-37.14751445018679,175.87972358987903</t>
+        </is>
+      </c>
+      <c r="F665" t="inlineStr">
+        <is>
+          <t>-37.14821039465015,175.87997406101542</t>
+        </is>
+      </c>
+      <c r="G665" t="inlineStr">
+        <is>
+          <t>-37.148925486347125,175.88001712557116</t>
+        </is>
+      </c>
+      <c r="H665" t="inlineStr">
+        <is>
+          <t>-37.14962206133761,175.88023891740758</t>
+        </is>
+      </c>
+      <c r="I665" t="inlineStr">
+        <is>
+          <t>-37.15032121734557,175.88034764446644</t>
+        </is>
+      </c>
+      <c r="J665" t="inlineStr">
+        <is>
+          <t>-37.15100690866635,175.88059422523258</t>
+        </is>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>-37.15171357522798,175.88077869905916</t>
+        </is>
+      </c>
+      <c r="L665" t="inlineStr">
+        <is>
+          <t>-37.152396048716966,175.88106202649786</t>
+        </is>
+      </c>
+      <c r="M665" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>-37.1453804670278,175.87943567284435</t>
+        </is>
+      </c>
+      <c r="C666" t="inlineStr">
+        <is>
+          <t>-37.14610678382969,175.87939739694826</t>
+        </is>
+      </c>
+      <c r="D666" t="inlineStr">
+        <is>
+          <t>-37.14682399060472,175.87944471904314</t>
+        </is>
+      </c>
+      <c r="E666" t="inlineStr">
+        <is>
+          <t>-37.14751237326119,175.87974527675829</t>
+        </is>
+      </c>
+      <c r="F666" t="inlineStr">
+        <is>
+          <t>-37.14822017199009,175.87984206404536</t>
+        </is>
+      </c>
+      <c r="G666" t="inlineStr">
+        <is>
+          <t>-37.148926381636535,175.88000290553404</t>
+        </is>
+      </c>
+      <c r="H666" t="inlineStr">
+        <is>
+          <t>-37.14963335477139,175.88014490389872</t>
+        </is>
+      </c>
+      <c r="I666" t="inlineStr">
+        <is>
+          <t>-37.15033523638767,175.88028324368253</t>
+        </is>
+      </c>
+      <c r="J666" t="inlineStr">
+        <is>
+          <t>-37.151061294022725,175.88039019601263</t>
+        </is>
+      </c>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>-37.15174920766811,175.8806614519805</t>
+        </is>
+      </c>
+      <c r="L666" t="inlineStr">
+        <is>
+          <t>-37.15238696908671,175.88108933690793</t>
+        </is>
+      </c>
+      <c r="M666" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>-37.14536757735865,175.87955687296534</t>
+        </is>
+      </c>
+      <c r="C667" t="inlineStr">
+        <is>
+          <t>-37.14607868487895,175.8796616100119</t>
+        </is>
+      </c>
+      <c r="D667" t="inlineStr">
+        <is>
+          <t>-37.14678619502305,175.8798001096952</t>
+        </is>
+      </c>
+      <c r="E667" t="inlineStr">
+        <is>
+          <t>-37.14749916077556,175.87988323813545</t>
+        </is>
+      </c>
+      <c r="F667" t="inlineStr">
+        <is>
+          <t>-37.14820186060223,175.88008927153209</t>
+        </is>
+      </c>
+      <c r="G667" t="inlineStr">
+        <is>
+          <t>-37.14891735641147,175.88014625349683</t>
+        </is>
+      </c>
+      <c r="H667" t="inlineStr">
+        <is>
+          <t>-37.14960281287332,175.88039915201105</t>
+        </is>
+      </c>
+      <c r="I667" t="inlineStr">
+        <is>
+          <t>-37.150302726997026,175.8804325852935</t>
+        </is>
+      </c>
+      <c r="J667" t="inlineStr">
+        <is>
+          <t>-37.150983422738335,175.88068233330418</t>
+        </is>
+      </c>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>-37.15169571811522,175.88083745697202</t>
+        </is>
+      </c>
+      <c r="L667" t="inlineStr">
+        <is>
+          <t>-37.15237557470978,175.88112360975563</t>
+        </is>
+      </c>
+      <c r="M667" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-07 21:59:57+00:00</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>-37.145378881526014,175.87945058120545</t>
+        </is>
+      </c>
+      <c r="C668" t="inlineStr">
+        <is>
+          <t>-37.14609535202064,175.8795048903796</t>
+        </is>
+      </c>
+      <c r="D668" t="inlineStr">
+        <is>
+          <t>-37.1467949372477,175.87971790775234</t>
+        </is>
+      </c>
+      <c r="E668" t="inlineStr">
+        <is>
+          <t>-37.14750747547743,175.87979641835693</t>
+        </is>
+      </c>
+      <c r="F668" t="inlineStr"/>
+      <c r="G668" t="inlineStr"/>
+      <c r="H668" t="inlineStr">
+        <is>
+          <t>-37.14960350953306,175.8803933526721</t>
+        </is>
+      </c>
+      <c r="I668" t="inlineStr"/>
+      <c r="J668" t="inlineStr">
+        <is>
+          <t>-37.151017663027595,175.88055387986705</t>
+        </is>
+      </c>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>-37.15165970896846,175.8809559428511</t>
+        </is>
+      </c>
+      <c r="L668" t="inlineStr"/>
+      <c r="M668" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:06:13+00:00</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>-37.145379122712185,175.87944831335005</t>
+        </is>
+      </c>
+      <c r="C669" t="inlineStr">
+        <is>
+          <t>-37.14609956988375,175.87946522987434</t>
+        </is>
+      </c>
+      <c r="D669" t="inlineStr">
+        <is>
+          <t>-37.14680864554359,175.8795890094092</t>
+        </is>
+      </c>
+      <c r="E669" t="inlineStr">
+        <is>
+          <t>-37.14750919366927,175.87977847739612</t>
+        </is>
+      </c>
+      <c r="F669" t="inlineStr">
+        <is>
+          <t>-37.148208364977776,175.88000146193832</t>
+        </is>
+      </c>
+      <c r="G669" t="inlineStr">
+        <is>
+          <t>-37.14892319976591,175.88005344361292</t>
+        </is>
+      </c>
+      <c r="H669" t="inlineStr">
+        <is>
+          <t>-37.14962424957884,175.88022070118825</t>
+        </is>
+      </c>
+      <c r="I669" t="inlineStr">
+        <is>
+          <t>-37.150328507416134,175.8803141553067</t>
+        </is>
+      </c>
+      <c r="J669" t="inlineStr">
+        <is>
+          <t>-37.151042777106575,175.88045966327198</t>
+        </is>
+      </c>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>-37.15172895285441,175.88072809967127</t>
+        </is>
+      </c>
+      <c r="L669" t="inlineStr">
+        <is>
+          <t>-37.15238878369712,175.8810838787852</t>
+        </is>
+      </c>
+      <c r="M669" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-23 22:00:02+00:00</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>-37.14537688877302,175.87946931889516</t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr">
+        <is>
+          <t>-37.14607950543713,175.87965389442428</t>
+        </is>
+      </c>
+      <c r="D670" t="inlineStr">
+        <is>
+          <t>-37.146795803163776,175.87970976563196</t>
+        </is>
+      </c>
+      <c r="E670" t="inlineStr">
+        <is>
+          <t>-37.14750407370139,175.87983193882775</t>
+        </is>
+      </c>
+      <c r="F670" t="inlineStr">
+        <is>
+          <t>-37.14820770176968,175.8800104153417</t>
+        </is>
+      </c>
+      <c r="G670" t="inlineStr">
+        <is>
+          <t>-37.14892419447628,175.88003764453168</t>
+        </is>
+      </c>
+      <c r="H670" t="inlineStr">
+        <is>
+          <t>-37.14961542032705,175.88029420097476</t>
+        </is>
+      </c>
+      <c r="I670" t="inlineStr">
+        <is>
+          <t>-37.15031834611988,175.8803608343027</t>
+        </is>
+      </c>
+      <c r="J670" t="inlineStr">
+        <is>
+          <t>-37.15100242726617,175.88061103734515</t>
+        </is>
+      </c>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>-37.15173392242709,175.8807117474967</t>
+        </is>
+      </c>
+      <c r="L670" t="inlineStr">
+        <is>
+          <t>-37.15239602732991,175.8810620908275</t>
+        </is>
+      </c>
+      <c r="M670" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>-37.14537829635283,175.879456083543</t>
+        </is>
+      </c>
+      <c r="C671" t="inlineStr">
+        <is>
+          <t>-37.1460881742969,175.87957238211564</t>
+        </is>
+      </c>
+      <c r="D671" t="inlineStr">
+        <is>
+          <t>-37.146800990740694,175.87966098726213</t>
+        </is>
+      </c>
+      <c r="E671" t="inlineStr">
+        <is>
+          <t>-37.14750243480314,175.87984905174145</t>
+        </is>
+      </c>
+      <c r="F671" t="inlineStr">
+        <is>
+          <t>-37.148210700273154,175.87996993504518</t>
+        </is>
+      </c>
+      <c r="G671" t="inlineStr">
+        <is>
+          <t>-37.14892382342944,175.8800435379083</t>
+        </is>
+      </c>
+      <c r="H671" t="inlineStr">
+        <is>
+          <t>-37.14962148656017,175.88024370219225</t>
+        </is>
+      </c>
+      <c r="I671" t="inlineStr">
+        <is>
+          <t>-37.15031863694203,175.88035949832434</t>
+        </is>
+      </c>
+      <c r="J671" t="inlineStr">
+        <is>
+          <t>-37.15100476942288,175.88060225067255</t>
+        </is>
+      </c>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>-37.151730164165755,175.88072411390198</t>
+        </is>
+      </c>
+      <c r="L671" t="inlineStr">
+        <is>
+          <t>-37.152398878388496,175.88105351518908</t>
+        </is>
+      </c>
+      <c r="M671" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-24 21:59:57+00:00</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>-37.14537707855916,175.87946753435332</t>
+        </is>
+      </c>
+      <c r="C672" t="inlineStr">
+        <is>
+          <t>-37.14608980912154,175.87955700998347</t>
+        </is>
+      </c>
+      <c r="D672" t="inlineStr">
+        <is>
+          <t>-37.14680078513587,175.87966292055134</t>
+        </is>
+      </c>
+      <c r="E672" t="inlineStr">
+        <is>
+          <t>-37.14750390943404,175.87983365406222</t>
+        </is>
+      </c>
+      <c r="F672" t="inlineStr">
+        <is>
+          <t>-37.1482117665247,175.8799555404261</t>
+        </is>
+      </c>
+      <c r="G672" t="inlineStr">
+        <is>
+          <t>-37.148923166083705,175.88005397858998</t>
+        </is>
+      </c>
+      <c r="H672" t="inlineStr">
+        <is>
+          <t>-37.149624665525195,175.88021723860095</t>
+        </is>
+      </c>
+      <c r="I672" t="inlineStr">
+        <is>
+          <t>-37.150321508167586,175.88034630848796</t>
+        </is>
+      </c>
+      <c r="J672" t="inlineStr">
+        <is>
+          <t>-37.15103156127525,175.8805017400087</t>
+        </is>
+      </c>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>-37.151735169260206,175.8807076448421</t>
+        </is>
+      </c>
+      <c r="L672" t="inlineStr">
+        <is>
+          <t>-37.152406293112236,175.88103121258789</t>
+        </is>
+      </c>
+      <c r="M672" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0192/nzd0192.xlsx
+++ b/data/nzd0192/nzd0192.xlsx
@@ -34530,7 +34530,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:X12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34621,35 +34621,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -34708,27 +34713,28 @@
       <c r="P2" t="n">
         <v>339.1597572252656</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (175.87561163501368 -37.14578708904558, 175.88586429282404 -37.14469660519142)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>175.8756116350137</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-37.14578708904558</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>175.885864292824</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-37.14469660519142</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>175.8807379639189</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-37.1452418471185</v>
       </c>
     </row>
@@ -34785,27 +34791,28 @@
       <c r="P3" t="n">
         <v>335.3066437186388</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (175.87571239712344 -37.14649861881582, 175.8859651157524 -37.14540812975488)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>175.8757123971234</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-37.14649861881582</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>175.8859651157524</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-37.14540812975488</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>175.8808387564379</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-37.14595337428535</v>
       </c>
     </row>
@@ -34862,27 +34869,28 @@
       <c r="P4" t="n">
         <v>339.8662537445874</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (175.87581315923276 -37.14721014189223, 175.88606593868187 -37.146119647624545)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>175.8758131592328</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-37.14721014189223</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>175.8860659386819</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-37.14611964762454</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>175.8809395489573</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-37.14666489475839</v>
       </c>
     </row>
@@ -34939,27 +34947,28 @@
       <c r="P5" t="n">
         <v>341.4639499035314</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (175.87590746520902 -37.14787985246273, 175.8861772075438 -37.146896215894124)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>175.875907465209</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-37.14787985246273</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>175.8861772075438</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-37.14689621589412</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>175.8810423363764</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-37.14738803417843</v>
       </c>
     </row>
@@ -35016,27 +35025,28 @@
       <c r="P6" t="n">
         <v>345.5389264640022</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (175.87597375450048 -37.148506640997724, 175.8862728808877 -37.147743652329055)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>175.8759737545005</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-37.14850664099772</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>175.8862728808877</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-37.14774365232905</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>175.8811233176941</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-37.14812514666339</v>
       </c>
     </row>
@@ -35093,27 +35103,28 @@
       <c r="P7" t="n">
         <v>355.0478684342716</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (175.87602188152414 -37.14917695799641, 175.88633326149161 -37.14852765392182)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>175.8760218815241</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-37.14917695799641</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>175.8863332614916</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-37.14852765392182</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>175.8811775715079</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-37.14885230595911</v>
       </c>
     </row>
@@ -35170,27 +35181,28 @@
       <c r="P8" t="n">
         <v>363.9433111955269</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (175.87610620624298 -37.1501184328042, 175.88633472221366 -37.14888963347168)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>175.876106206243</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-37.1501184328042</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>175.8863347222137</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-37.14888963347168</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>175.8812204642283</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-37.14950403313794</v>
       </c>
     </row>
@@ -35247,27 +35259,28 @@
       <c r="P9" t="n">
         <v>360.6653201374911</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (175.87637969666895 -37.151184903271336, 175.88635964151467 -37.14901232481162)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>175.8763796966689</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-37.15118490327134</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>175.8863596415147</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-37.14901232481162</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>175.8813696690918</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-37.15009861404148</v>
       </c>
     </row>
@@ -35324,27 +35337,28 @@
       <c r="P10" t="n">
         <v>354.7946509623059</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (175.87670279518804 -37.15204412246766, 175.88651502579847 -37.1494284951822)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>175.876702795188</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-37.15204412246766</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>175.8865150257985</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-37.1494284951822</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>175.8816089104932</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-37.15073630882493</v>
       </c>
     </row>
@@ -35401,27 +35415,28 @@
       <c r="P11" t="n">
         <v>343.5910436937698</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (175.87703477653557 -37.15285131422024, 175.88670302137444 -37.14991292887007)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>175.8770347765356</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-37.15285131422024</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>175.8867030213744</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-37.14991292887007</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>175.881868898955</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-37.15138212154515</v>
       </c>
     </row>
@@ -35478,27 +35493,28 @@
       <c r="P12" t="n">
         <v>342.0970865844395</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (175.87740902512695 -37.15361045201584, 175.88695938211592 -37.15043521817183)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>175.877409025127</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-37.15361045201584</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>175.8869593821159</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-37.15043521817183</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>175.8821842036214</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-37.15202283509383</v>
       </c>
     </row>

--- a/data/nzd0192/nzd0192.xlsx
+++ b/data/nzd0192/nzd0192.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M672"/>
+  <dimension ref="A1:M679"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27688,6 +27688,321 @@
         </is>
       </c>
     </row>
+    <row r="673">
+      <c r="A673" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-12 21:59:53+00:00</t>
+        </is>
+      </c>
+      <c r="B673" t="n">
+        <v>341.6066666666667</v>
+      </c>
+      <c r="C673" t="n">
+        <v>342.6241176470588</v>
+      </c>
+      <c r="D673" t="n">
+        <v>343.6633333333334</v>
+      </c>
+      <c r="E673" t="n">
+        <v>343.4041176470589</v>
+      </c>
+      <c r="F673" t="n">
+        <v>356.78</v>
+      </c>
+      <c r="G673" t="n">
+        <v>354.5015384615385</v>
+      </c>
+      <c r="H673" t="n">
+        <v>362.1641176470589</v>
+      </c>
+      <c r="I673" t="n">
+        <v>357.64</v>
+      </c>
+      <c r="J673" t="n">
+        <v>349.66</v>
+      </c>
+      <c r="K673" t="n">
+        <v>344.3944444444444</v>
+      </c>
+      <c r="L673" t="n">
+        <v>341.6595238095238</v>
+      </c>
+      <c r="M673" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B674" t="n">
+        <v>353.9366666666667</v>
+      </c>
+      <c r="C674" t="n">
+        <v>358.3735294117647</v>
+      </c>
+      <c r="D674" t="n">
+        <v>356.6633333333334</v>
+      </c>
+      <c r="E674" t="n">
+        <v>357.1635294117647</v>
+      </c>
+      <c r="F674" t="n">
+        <v>365.2134782608696</v>
+      </c>
+      <c r="G674" t="n">
+        <v>369.7130769230769</v>
+      </c>
+      <c r="H674" t="n">
+        <v>382.8935294117647</v>
+      </c>
+      <c r="I674" t="n">
+        <v>370.5334782608696</v>
+      </c>
+      <c r="J674" t="n">
+        <v>372.8134782608696</v>
+      </c>
+      <c r="K674" t="n">
+        <v>355.5044444444445</v>
+      </c>
+      <c r="L674" t="n">
+        <v>359.5138095238095</v>
+      </c>
+      <c r="M674" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-20 21:59:32+00:00</t>
+        </is>
+      </c>
+      <c r="B675" t="n">
+        <v>349.94</v>
+      </c>
+      <c r="C675" t="n">
+        <v>351.0511764705882</v>
+      </c>
+      <c r="D675" t="n">
+        <v>354.89</v>
+      </c>
+      <c r="E675" t="n">
+        <v>354.6111764705882</v>
+      </c>
+      <c r="F675" t="n">
+        <v>363.6021739130435</v>
+      </c>
+      <c r="G675" t="n">
+        <v>364.9015384615385</v>
+      </c>
+      <c r="H675" t="n">
+        <v>368.5711764705882</v>
+      </c>
+      <c r="I675" t="n">
+        <v>368.0021739130435</v>
+      </c>
+      <c r="J675" t="n">
+        <v>355.0721739130435</v>
+      </c>
+      <c r="K675" t="n">
+        <v>354.8266666666667</v>
+      </c>
+      <c r="L675" t="n">
+        <v>354.9</v>
+      </c>
+      <c r="M675" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B676" t="n">
+        <v>351.3566666666667</v>
+      </c>
+      <c r="C676" t="n">
+        <v>352.0588235294118</v>
+      </c>
+      <c r="D676" t="n">
+        <v>346.3933333333333</v>
+      </c>
+      <c r="E676" t="n">
+        <v>358.8788235294118</v>
+      </c>
+      <c r="F676" t="n">
+        <v>359.7995652173913</v>
+      </c>
+      <c r="G676" t="n">
+        <v>362.4730769230769</v>
+      </c>
+      <c r="H676" t="n">
+        <v>375.2888235294118</v>
+      </c>
+      <c r="I676" t="n">
+        <v>367.7995652173913</v>
+      </c>
+      <c r="J676" t="n">
+        <v>366.8995652173913</v>
+      </c>
+      <c r="K676" t="n">
+        <v>349.5344444444444</v>
+      </c>
+      <c r="L676" t="n">
+        <v>355.5609523809524</v>
+      </c>
+      <c r="M676" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B677" t="n">
+        <v>343.6566666666667</v>
+      </c>
+      <c r="C677" t="n">
+        <v>344.5270588235294</v>
+      </c>
+      <c r="D677" t="n">
+        <v>342.2733333333333</v>
+      </c>
+      <c r="E677" t="n">
+        <v>341.6270588235294</v>
+      </c>
+      <c r="F677" t="n">
+        <v>347.6256521739131</v>
+      </c>
+      <c r="G677" t="n">
+        <v>357.3992307692308</v>
+      </c>
+      <c r="H677" t="n">
+        <v>366.7470588235294</v>
+      </c>
+      <c r="I677" t="n">
+        <v>366.785652173913</v>
+      </c>
+      <c r="J677" t="n">
+        <v>358.1256521739131</v>
+      </c>
+      <c r="K677" t="n">
+        <v>349.1744444444445</v>
+      </c>
+      <c r="L677" t="n">
+        <v>346.2823809523809</v>
+      </c>
+      <c r="M677" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-05 21:59:29+00:00</t>
+        </is>
+      </c>
+      <c r="B678" t="n">
+        <v>341.7366666666667</v>
+      </c>
+      <c r="C678" t="n">
+        <v>347.6288235294118</v>
+      </c>
+      <c r="D678" t="n">
+        <v>347.6133333333333</v>
+      </c>
+      <c r="E678" t="n">
+        <v>343.5588235294118</v>
+      </c>
+      <c r="F678" t="n">
+        <v>355.4843478260869</v>
+      </c>
+      <c r="G678" t="n">
+        <v>357.0992307692308</v>
+      </c>
+      <c r="H678" t="n">
+        <v>366.9388235294118</v>
+      </c>
+      <c r="I678" t="n">
+        <v>364.9343478260869</v>
+      </c>
+      <c r="J678" t="n">
+        <v>356.4143478260869</v>
+      </c>
+      <c r="K678" t="n">
+        <v>347.0111111111111</v>
+      </c>
+      <c r="L678" t="n">
+        <v>348.7680952380952</v>
+      </c>
+      <c r="M678" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-21 21:59:16+00:00</t>
+        </is>
+      </c>
+      <c r="B679" t="n">
+        <v>337.17</v>
+      </c>
+      <c r="C679" t="n">
+        <v>333.2511764705882</v>
+      </c>
+      <c r="D679" t="n">
+        <v>339.82</v>
+      </c>
+      <c r="E679" t="n">
+        <v>339.2311764705883</v>
+      </c>
+      <c r="F679" t="n">
+        <v>352.7373913043478</v>
+      </c>
+      <c r="G679" t="n">
+        <v>355.0253846153847</v>
+      </c>
+      <c r="H679" t="n">
+        <v>357.7211764705882</v>
+      </c>
+      <c r="I679" t="n">
+        <v>361.5373913043478</v>
+      </c>
+      <c r="J679" t="n">
+        <v>354.9273913043478</v>
+      </c>
+      <c r="K679" t="n">
+        <v>343.83</v>
+      </c>
+      <c r="L679" t="n">
+        <v>344.1628571428571</v>
+      </c>
+      <c r="M679" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -27699,7 +28014,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B681"/>
+  <dimension ref="A1:B688"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34517,6 +34832,76 @@
       </c>
       <c r="B681" t="n">
         <v>-0.46</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>2025-03-12 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B682" t="n">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B683" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>2025-03-20 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B684" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B685" t="n">
+        <v>-0.59</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B686" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>2025-04-05 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B687" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>2025-04-21 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B688" t="n">
+        <v>-0.09</v>
       </c>
     </row>
   </sheetData>
@@ -34690,28 +35075,28 @@
         <v>0.068</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1585725341335824</v>
+        <v>0.1641368954092811</v>
       </c>
       <c r="J2" t="n">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="K2" t="n">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01198358430492308</v>
+        <v>0.01309035369846401</v>
       </c>
       <c r="M2" t="n">
-        <v>8.366280067620819</v>
+        <v>8.321163327881154</v>
       </c>
       <c r="N2" t="n">
-        <v>113.8526654305978</v>
+        <v>112.8996056469419</v>
       </c>
       <c r="O2" t="n">
-        <v>10.67017644795988</v>
+        <v>10.62542261027494</v>
       </c>
       <c r="P2" t="n">
-        <v>339.1597572252656</v>
+        <v>339.1043267373734</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -34768,28 +35153,28 @@
         <v>0.1063</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3216957618796663</v>
+        <v>0.3298115299809152</v>
       </c>
       <c r="J3" t="n">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="K3" t="n">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04619583109627445</v>
+        <v>0.04924769940541873</v>
       </c>
       <c r="M3" t="n">
-        <v>8.768904608907722</v>
+        <v>8.743118780868121</v>
       </c>
       <c r="N3" t="n">
-        <v>116.9260215640047</v>
+        <v>116.3015361251439</v>
       </c>
       <c r="O3" t="n">
-        <v>10.8132336312504</v>
+        <v>10.7843189921823</v>
       </c>
       <c r="P3" t="n">
-        <v>335.3066437186388</v>
+        <v>335.225523856179</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -34846,28 +35231,28 @@
         <v>0.0847</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2618170984509109</v>
+        <v>0.2635280330844273</v>
       </c>
       <c r="J4" t="n">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="K4" t="n">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03405685733526576</v>
+        <v>0.03517292250627402</v>
       </c>
       <c r="M4" t="n">
-        <v>7.94555226217846</v>
+        <v>7.905015018438474</v>
       </c>
       <c r="N4" t="n">
-        <v>105.3993882541051</v>
+        <v>104.5045302061709</v>
       </c>
       <c r="O4" t="n">
-        <v>10.26642042067756</v>
+        <v>10.22274572735578</v>
       </c>
       <c r="P4" t="n">
-        <v>339.8662537445874</v>
+        <v>339.8490754958123</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -34924,28 +35309,28 @@
         <v>0.0992</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3120016916422583</v>
+        <v>0.3093326697113673</v>
       </c>
       <c r="J5" t="n">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="K5" t="n">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05074731006181865</v>
+        <v>0.05073315693985792</v>
       </c>
       <c r="M5" t="n">
-        <v>7.948590490040947</v>
+        <v>7.941460379236394</v>
       </c>
       <c r="N5" t="n">
-        <v>100.7478383486254</v>
+        <v>100.2120625748985</v>
       </c>
       <c r="O5" t="n">
-        <v>10.03732226983997</v>
+        <v>10.01059751338043</v>
       </c>
       <c r="P5" t="n">
-        <v>341.4639499035314</v>
+        <v>341.4908385758535</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -35002,28 +35387,28 @@
         <v>0.1358</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2952235686961593</v>
+        <v>0.3058663859153823</v>
       </c>
       <c r="J6" t="n">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="K6" t="n">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04562884485074081</v>
+        <v>0.04977552249846251</v>
       </c>
       <c r="M6" t="n">
-        <v>8.331276788772342</v>
+        <v>8.290549044626978</v>
       </c>
       <c r="N6" t="n">
-        <v>100.2174716062041</v>
+        <v>99.52584065059506</v>
       </c>
       <c r="O6" t="n">
-        <v>10.01086767499222</v>
+        <v>9.976263862318151</v>
       </c>
       <c r="P6" t="n">
-        <v>345.5389264640022</v>
+        <v>345.4334658368882</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -35080,28 +35465,28 @@
         <v>0.0796</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1906828040966002</v>
+        <v>0.1911806177938046</v>
       </c>
       <c r="J7" t="n">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="K7" t="n">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0201951757681994</v>
+        <v>0.02074339531172031</v>
       </c>
       <c r="M7" t="n">
-        <v>7.907992182188672</v>
+        <v>7.865784835727553</v>
       </c>
       <c r="N7" t="n">
-        <v>97.23400697621254</v>
+        <v>96.31766957614774</v>
       </c>
       <c r="O7" t="n">
-        <v>9.860730549822996</v>
+        <v>9.814156590158307</v>
       </c>
       <c r="P7" t="n">
-        <v>355.0478684342716</v>
+        <v>355.0430121122637</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -35158,28 +35543,28 @@
         <v>0.09760000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1235181524331773</v>
+        <v>0.1271986206103776</v>
       </c>
       <c r="J8" t="n">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="K8" t="n">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="L8" t="n">
-        <v>0.007879232745368392</v>
+        <v>0.008505351211473777</v>
       </c>
       <c r="M8" t="n">
-        <v>8.357262512968701</v>
+        <v>8.321114816431596</v>
       </c>
       <c r="N8" t="n">
-        <v>106.3816793563162</v>
+        <v>105.7784233525196</v>
       </c>
       <c r="O8" t="n">
-        <v>10.314149473239</v>
+        <v>10.28486379844282</v>
       </c>
       <c r="P8" t="n">
-        <v>363.9433111955269</v>
+        <v>363.9068854705114</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -35236,28 +35621,28 @@
         <v>0.1378</v>
       </c>
       <c r="I9" t="n">
-        <v>0.07700233480146859</v>
+        <v>0.08334974207813704</v>
       </c>
       <c r="J9" t="n">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="K9" t="n">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003954449004912486</v>
+        <v>0.004730810206834413</v>
       </c>
       <c r="M9" t="n">
-        <v>6.650484029743406</v>
+        <v>6.619372766366865</v>
       </c>
       <c r="N9" t="n">
-        <v>82.28224867612981</v>
+        <v>81.53245174330506</v>
       </c>
       <c r="O9" t="n">
-        <v>9.07095632643713</v>
+        <v>9.029532199582937</v>
       </c>
       <c r="P9" t="n">
-        <v>360.6653201374911</v>
+        <v>360.6022469358178</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -35314,28 +35699,28 @@
         <v>0.1395</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03454049118952906</v>
+        <v>0.04267395323244652</v>
       </c>
       <c r="J10" t="n">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="K10" t="n">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0005944812339140348</v>
+        <v>0.0009232281346068794</v>
       </c>
       <c r="M10" t="n">
-        <v>8.569585284731589</v>
+        <v>8.53033906226891</v>
       </c>
       <c r="N10" t="n">
-        <v>110.1245825223297</v>
+        <v>109.5643579503181</v>
       </c>
       <c r="O10" t="n">
-        <v>10.49402603972039</v>
+        <v>10.46729945832821</v>
       </c>
       <c r="P10" t="n">
-        <v>354.7946509623059</v>
+        <v>354.7137783350953</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -35392,28 +35777,28 @@
         <v>0.1023</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1473847178482018</v>
+        <v>0.1517258745857474</v>
       </c>
       <c r="J11" t="n">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="K11" t="n">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01198527615426059</v>
+        <v>0.01298359273141647</v>
       </c>
       <c r="M11" t="n">
-        <v>7.686178103391465</v>
+        <v>7.632151938732754</v>
       </c>
       <c r="N11" t="n">
-        <v>99.36005328470104</v>
+        <v>98.34472330135598</v>
       </c>
       <c r="O11" t="n">
-        <v>9.967951308303078</v>
+        <v>9.916890808179547</v>
       </c>
       <c r="P11" t="n">
-        <v>343.5910436937698</v>
+        <v>343.548204912009</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -35470,28 +35855,28 @@
         <v>0.1254</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1843679783561016</v>
+        <v>0.1923313748935123</v>
       </c>
       <c r="J12" t="n">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="K12" t="n">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02138186103559514</v>
+        <v>0.02364784769419848</v>
       </c>
       <c r="M12" t="n">
-        <v>7.165952573756228</v>
+        <v>7.14246316422687</v>
       </c>
       <c r="N12" t="n">
-        <v>86.2757024684168</v>
+        <v>85.77527742873561</v>
       </c>
       <c r="O12" t="n">
-        <v>9.28847148181103</v>
+        <v>9.261494341019466</v>
       </c>
       <c r="P12" t="n">
-        <v>342.0970865844395</v>
+        <v>342.0182988696625</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -35529,7 +35914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M672"/>
+  <dimension ref="A1:M679"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74541,6 +74926,475 @@
         </is>
       </c>
     </row>
+    <row r="673">
+      <c r="A673" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-12 21:59:53+00:00</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>-37.14538194972729,175.87942173110946</t>
+        </is>
+      </c>
+      <c r="C673" t="inlineStr">
+        <is>
+          <t>-37.1460922693789,175.87953387633362</t>
+        </is>
+      </c>
+      <c r="D673" t="inlineStr">
+        <is>
+          <t>-37.146802556499345,175.8796462645209</t>
+        </is>
+      </c>
+      <c r="E673" t="inlineStr">
+        <is>
+          <t>-37.14751249472998,175.8797440084045</t>
+        </is>
+      </c>
+      <c r="F673" t="inlineStr">
+        <is>
+          <t>-37.14821061295231,175.87997111389382</t>
+        </is>
+      </c>
+      <c r="G673" t="inlineStr">
+        <is>
+          <t>-37.14892666304391,175.87999843588636</t>
+        </is>
+      </c>
+      <c r="H673" t="inlineStr">
+        <is>
+          <t>-37.14963440210136,175.8801361852454</t>
+        </is>
+      </c>
+      <c r="I673" t="inlineStr">
+        <is>
+          <t>-37.150339660363606,175.8802629207498</t>
+        </is>
+      </c>
+      <c r="J673" t="inlineStr">
+        <is>
+          <t>-37.15104914779131,175.88043576330824</t>
+        </is>
+      </c>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>-37.1517503372761,175.88065773504397</t>
+        </is>
+      </c>
+      <c r="L673" t="inlineStr">
+        <is>
+          <t>-37.15243012976842,175.88095951466707</t>
+        </is>
+      </c>
+      <c r="M673" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>-37.14536732430871,175.87955925235374</t>
+        </is>
+      </c>
+      <c r="C674" t="inlineStr">
+        <is>
+          <t>-37.14607358777818,175.87970953719073</t>
+        </is>
+      </c>
+      <c r="D674" t="inlineStr">
+        <is>
+          <t>-37.14678713607029,175.87979126118321</t>
+        </is>
+      </c>
+      <c r="E674" t="inlineStr">
+        <is>
+          <t>-37.14749777299275,175.8798977289069</t>
+        </is>
+      </c>
+      <c r="F674" t="inlineStr">
+        <is>
+          <t>-37.148203613896094,175.88006560201129</t>
+        </is>
+      </c>
+      <c r="G674" t="inlineStr">
+        <is>
+          <t>-37.14891592000871,175.88016906767513</t>
+        </is>
+      </c>
+      <c r="H674" t="inlineStr">
+        <is>
+          <t>-37.14960669324882,175.88036684982234</t>
+        </is>
+      </c>
+      <c r="I674" t="inlineStr">
+        <is>
+          <t>-37.150309185728865,175.88040291525485</t>
+        </is>
+      </c>
+      <c r="J674" t="inlineStr">
+        <is>
+          <t>-37.15098325941799,175.88068294600365</t>
+        </is>
+      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>-37.15171481851109,175.88077460809538</t>
+        </is>
+      </c>
+      <c r="L674" t="inlineStr">
+        <is>
+          <t>-37.15236844622744,175.88114505131077</t>
+        </is>
+      </c>
+      <c r="M674" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-20 21:59:32+00:00</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>-37.145372065033435,175.8795146759963</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>-37.14608227342178,175.8796278674363</t>
+        </is>
+      </c>
+      <c r="D675" t="inlineStr">
+        <is>
+          <t>-37.14678923958529,175.8797714821555</t>
+        </is>
+      </c>
+      <c r="E675" t="inlineStr">
+        <is>
+          <t>-37.14750050387072,175.87986921395964</t>
+        </is>
+      </c>
+      <c r="F675" t="inlineStr">
+        <is>
+          <t>-37.14820495114486,175.88004754906856</t>
+        </is>
+      </c>
+      <c r="G675" t="inlineStr">
+        <is>
+          <t>-37.14891931814813,175.88011509540203</t>
+        </is>
+      </c>
+      <c r="H675" t="inlineStr">
+        <is>
+          <t>-37.14962583788012,175.88020747921007</t>
+        </is>
+      </c>
+      <c r="I675" t="inlineStr">
+        <is>
+          <t>-37.15031516865586,175.8803754309277</t>
+        </is>
+      </c>
+      <c r="J675" t="inlineStr">
+        <is>
+          <t>-37.15103374629107,175.8804935428209</t>
+        </is>
+      </c>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>-37.151716985375614,175.88076747812957</t>
+        </is>
+      </c>
+      <c r="L675" t="inlineStr">
+        <is>
+          <t>-37.152384386186625,175.88109710594887</t>
+        </is>
+      </c>
+      <c r="M675" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-27 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>-37.145370384628315,175.87953047662418</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>-37.14608107817224,175.8796391062141</t>
+        </is>
+      </c>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t>-37.14679931822377,175.87967671382583</t>
+        </is>
+      </c>
+      <c r="E676" t="inlineStr">
+        <is>
+          <t>-37.14749593771811,175.87991689221184</t>
+        </is>
+      </c>
+      <c r="F676" t="inlineStr">
+        <is>
+          <t>-37.148208106983404,175.88000494489995</t>
+        </is>
+      </c>
+      <c r="G676" t="inlineStr">
+        <is>
+          <t>-37.14892103323495,175.88008785471752</t>
+        </is>
+      </c>
+      <c r="H676" t="inlineStr">
+        <is>
+          <t>-37.14961685845475,175.88028222919684</t>
+        </is>
+      </c>
+      <c r="I676" t="inlineStr">
+        <is>
+          <t>-37.15031564753638,175.88037323104834</t>
+        </is>
+      </c>
+      <c r="J676" t="inlineStr">
+        <is>
+          <t>-37.15100008882065,175.88061981009216</t>
+        </is>
+      </c>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>-37.15173390466593,175.88071180593906</t>
+        </is>
+      </c>
+      <c r="L676" t="inlineStr">
+        <is>
+          <t>-37.15238210270512,175.88110397437438</t>
+        </is>
+      </c>
+      <c r="M676" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>-37.14537951809928,175.8794445955543</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>-37.1460900121662,175.87955510076853</t>
+        </is>
+      </c>
+      <c r="D677" t="inlineStr">
+        <is>
+          <t>-37.1468042052887,175.87963076102744</t>
+        </is>
+      </c>
+      <c r="E677" t="inlineStr">
+        <is>
+          <t>-37.1475143960609,175.87972415505226</t>
+        </is>
+      </c>
+      <c r="F677" t="inlineStr">
+        <is>
+          <t>-37.14821821018323,175.87986854917733</t>
+        </is>
+      </c>
+      <c r="G677" t="inlineStr">
+        <is>
+          <t>-37.148924616589206,175.88003094006066</t>
+        </is>
+      </c>
+      <c r="H677" t="inlineStr">
+        <is>
+          <t>-37.14962827615564,175.8801871815087</t>
+        </is>
+      </c>
+      <c r="I677" t="inlineStr">
+        <is>
+          <t>-37.15031804399369,175.88036222220953</t>
+        </is>
+      </c>
+      <c r="J677" t="inlineStr">
+        <is>
+          <t>-37.15102505695254,175.88052614126073</t>
+        </is>
+      </c>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>-37.15173505558882,175.8807080188733</t>
+        </is>
+      </c>
+      <c r="L677" t="inlineStr">
+        <is>
+          <t>-37.15241415860467,175.88100755411017</t>
+        </is>
+      </c>
+      <c r="M677" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-05 21:59:29+00:00</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>-37.14538179552662,175.8794231810499</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>-37.146086332936356,175.87958969626612</t>
+        </is>
+      </c>
+      <c r="D678" t="inlineStr">
+        <is>
+          <t>-37.14679787107981,175.87969032120654</t>
+        </is>
+      </c>
+      <c r="E678" t="inlineStr">
+        <is>
+          <t>-37.147512329205135,175.87974573678298</t>
+        </is>
+      </c>
+      <c r="F678" t="inlineStr">
+        <is>
+          <t>-37.14821168822473,175.8799565974929</t>
+        </is>
+      </c>
+      <c r="G678" t="inlineStr">
+        <is>
+          <t>-37.14892482846043,175.88002757488215</t>
+        </is>
+      </c>
+      <c r="H678" t="inlineStr">
+        <is>
+          <t>-37.14962801982629,175.8801893153529</t>
+        </is>
+      </c>
+      <c r="I678" t="inlineStr">
+        <is>
+          <t>-37.150322419683775,175.88034212116315</t>
+        </is>
+      </c>
+      <c r="J678" t="inlineStr">
+        <is>
+          <t>-37.151029926843464,175.8805078716534</t>
+        </is>
+      </c>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>-37.15174197178038,175.88068526141066</t>
+        </is>
+      </c>
+      <c r="L678" t="inlineStr">
+        <is>
+          <t>-37.15240557088838,175.8810333849515</t>
+        </is>
+      </c>
+      <c r="M678" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-21 21:59:16+00:00</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>-37.14538721230893,175.8793722472399</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>-37.14610338723046,175.87942933530826</t>
+        </is>
+      </c>
+      <c r="D679" t="inlineStr">
+        <is>
+          <t>-37.14680711537725,175.87960339754542</t>
+        </is>
+      </c>
+      <c r="E679" t="inlineStr">
+        <is>
+          <t>-37.147516959485316,175.87969738818387</t>
+        </is>
+      </c>
+      <c r="F679" t="inlineStr">
+        <is>
+          <t>-37.148213967940755,175.87992582077268</t>
+        </is>
+      </c>
+      <c r="G679" t="inlineStr">
+        <is>
+          <t>-37.14892629308554,175.8800043120062</t>
+        </is>
+      </c>
+      <c r="H679" t="inlineStr">
+        <is>
+          <t>-37.14964034089064,175.8800867468102</t>
+        </is>
+      </c>
+      <c r="I679" t="inlineStr">
+        <is>
+          <t>-37.15033044862452,175.88030523776638</t>
+        </is>
+      </c>
+      <c r="J679" t="inlineStr">
+        <is>
+          <t>-37.15103415830136,175.88049199714496</t>
+        </is>
+      </c>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>-37.15175214180684,175.88065179729608</t>
+        </is>
+      </c>
+      <c r="L679" t="inlineStr">
+        <is>
+          <t>-37.15242148119144,175.88098552861206</t>
+        </is>
+      </c>
+      <c r="M679" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0192/nzd0192.xlsx
+++ b/data/nzd0192/nzd0192.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M679"/>
+  <dimension ref="A1:M682"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28003,6 +28003,141 @@
         </is>
       </c>
     </row>
+    <row r="680">
+      <c r="A680" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B680" t="n">
+        <v>344.79</v>
+      </c>
+      <c r="C680" t="n">
+        <v>347.6258823529412</v>
+      </c>
+      <c r="D680" t="n">
+        <v>349.41</v>
+      </c>
+      <c r="E680" t="n">
+        <v>360.5758823529412</v>
+      </c>
+      <c r="F680" t="n">
+        <v>358.4769565217391</v>
+      </c>
+      <c r="G680" t="n">
+        <v>365.6069230769231</v>
+      </c>
+      <c r="H680" t="n">
+        <v>372.9658823529412</v>
+      </c>
+      <c r="I680" t="n">
+        <v>367.0369565217391</v>
+      </c>
+      <c r="J680" t="n">
+        <v>364.4169565217391</v>
+      </c>
+      <c r="K680" t="n">
+        <v>347.62</v>
+      </c>
+      <c r="L680" t="n">
+        <v>347.9042857142857</v>
+      </c>
+      <c r="M680" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:05:26+00:00</t>
+        </is>
+      </c>
+      <c r="B681" t="n">
+        <v>334.6933333333333</v>
+      </c>
+      <c r="C681" t="n">
+        <v>336.3847058823529</v>
+      </c>
+      <c r="D681" t="n">
+        <v>338.2266666666666</v>
+      </c>
+      <c r="E681" t="n">
+        <v>342.1547058823529</v>
+      </c>
+      <c r="F681" t="n">
+        <v>358.8526086956522</v>
+      </c>
+      <c r="G681" t="n">
+        <v>358.8130769230769</v>
+      </c>
+      <c r="H681" t="n">
+        <v>364.7447058823529</v>
+      </c>
+      <c r="I681" t="n">
+        <v>365.1026086956522</v>
+      </c>
+      <c r="J681" t="n">
+        <v>359.1326086956522</v>
+      </c>
+      <c r="K681" t="n">
+        <v>345.5855555555555</v>
+      </c>
+      <c r="L681" t="n">
+        <v>347.637619047619</v>
+      </c>
+      <c r="M681" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-22 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B682" t="n">
+        <v>344.52</v>
+      </c>
+      <c r="C682" t="n">
+        <v>334.4341176470588</v>
+      </c>
+      <c r="D682" t="n">
+        <v>345.91</v>
+      </c>
+      <c r="E682" t="n">
+        <v>359.9541176470589</v>
+      </c>
+      <c r="F682" t="n">
+        <v>364.3534782608696</v>
+      </c>
+      <c r="G682" t="n">
+        <v>368.2107692307693</v>
+      </c>
+      <c r="H682" t="n">
+        <v>372.5241176470589</v>
+      </c>
+      <c r="I682" t="n">
+        <v>378.6634782608696</v>
+      </c>
+      <c r="J682" t="n">
+        <v>365.4334782608696</v>
+      </c>
+      <c r="K682" t="n">
+        <v>347.6666666666667</v>
+      </c>
+      <c r="L682" t="n">
+        <v>346.1114285714286</v>
+      </c>
+      <c r="M682" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -28014,7 +28149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B688"/>
+  <dimension ref="A1:B691"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34902,6 +35037,36 @@
       </c>
       <c r="B688" t="n">
         <v>-0.09</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B689" t="n">
+        <v>-0.45</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B690" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>2025-05-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B691" t="n">
+        <v>-0.57</v>
       </c>
     </row>
   </sheetData>
@@ -35075,28 +35240,28 @@
         <v>0.068</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1641368954092811</v>
+        <v>0.162134264244313</v>
       </c>
       <c r="J2" t="n">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="K2" t="n">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01309035369846401</v>
+        <v>0.01289395105889191</v>
       </c>
       <c r="M2" t="n">
-        <v>8.321163327881154</v>
+        <v>8.297809238776086</v>
       </c>
       <c r="N2" t="n">
-        <v>112.8996056469419</v>
+        <v>112.4342619331272</v>
       </c>
       <c r="O2" t="n">
-        <v>10.62542261027494</v>
+        <v>10.60350234276992</v>
       </c>
       <c r="P2" t="n">
-        <v>339.1043267373734</v>
+        <v>339.1244592870221</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -35153,28 +35318,28 @@
         <v>0.1063</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3298115299809152</v>
+        <v>0.3255644725405628</v>
       </c>
       <c r="J3" t="n">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="K3" t="n">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04924769940541873</v>
+        <v>0.04841718292783947</v>
       </c>
       <c r="M3" t="n">
-        <v>8.743118780868121</v>
+        <v>8.733001556498051</v>
       </c>
       <c r="N3" t="n">
-        <v>116.3015361251439</v>
+        <v>115.9568596753014</v>
       </c>
       <c r="O3" t="n">
-        <v>10.7843189921823</v>
+        <v>10.76832668873402</v>
       </c>
       <c r="P3" t="n">
-        <v>335.225523856179</v>
+        <v>335.2684046522694</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -35231,28 +35396,28 @@
         <v>0.0847</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2635280330844273</v>
+        <v>0.2613711537739534</v>
       </c>
       <c r="J4" t="n">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="K4" t="n">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03517292250627402</v>
+        <v>0.03492380306827592</v>
       </c>
       <c r="M4" t="n">
-        <v>7.905015018438474</v>
+        <v>7.884447843041525</v>
       </c>
       <c r="N4" t="n">
-        <v>104.5045302061709</v>
+        <v>104.0812141942306</v>
       </c>
       <c r="O4" t="n">
-        <v>10.22274572735578</v>
+        <v>10.20202010359863</v>
       </c>
       <c r="P4" t="n">
-        <v>339.8490754958123</v>
+        <v>339.8710713664246</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -35309,28 +35474,28 @@
         <v>0.0992</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3093326697113673</v>
+        <v>0.3140733021077209</v>
       </c>
       <c r="J5" t="n">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="K5" t="n">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05073315693985792</v>
+        <v>0.05247439869640658</v>
       </c>
       <c r="M5" t="n">
-        <v>7.941460379236394</v>
+        <v>7.952573848709984</v>
       </c>
       <c r="N5" t="n">
-        <v>100.2120625748985</v>
+        <v>100.1844244541141</v>
       </c>
       <c r="O5" t="n">
-        <v>10.01059751338043</v>
+        <v>10.00921697507423</v>
       </c>
       <c r="P5" t="n">
-        <v>341.4908385758535</v>
+        <v>341.4430827312082</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -35387,28 +35552,28 @@
         <v>0.1358</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3058663859153823</v>
+        <v>0.3137110714453313</v>
       </c>
       <c r="J6" t="n">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="K6" t="n">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04977552249846251</v>
+        <v>0.05262854275697704</v>
       </c>
       <c r="M6" t="n">
-        <v>8.290549044626978</v>
+        <v>8.278501578806926</v>
       </c>
       <c r="N6" t="n">
-        <v>99.52584065059506</v>
+        <v>99.28852577490468</v>
       </c>
       <c r="O6" t="n">
-        <v>9.976263862318151</v>
+        <v>9.964362788201997</v>
       </c>
       <c r="P6" t="n">
-        <v>345.4334658368882</v>
+        <v>345.3550894567603</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -35465,28 +35630,28 @@
         <v>0.0796</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1911806177938046</v>
+        <v>0.1955971568251849</v>
       </c>
       <c r="J7" t="n">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="K7" t="n">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02074339531172031</v>
+        <v>0.02188420578738115</v>
       </c>
       <c r="M7" t="n">
-        <v>7.865784835727553</v>
+        <v>7.8488243770825</v>
       </c>
       <c r="N7" t="n">
-        <v>96.31766957614774</v>
+        <v>95.96290495528868</v>
       </c>
       <c r="O7" t="n">
-        <v>9.814156590158307</v>
+        <v>9.796065789657023</v>
       </c>
       <c r="P7" t="n">
-        <v>355.0430121122637</v>
+        <v>354.9987270870427</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -35543,28 +35708,28 @@
         <v>0.09760000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1271986206103776</v>
+        <v>0.1302433804700821</v>
       </c>
       <c r="J8" t="n">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="K8" t="n">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="L8" t="n">
-        <v>0.008505351211473777</v>
+        <v>0.009001285828820427</v>
       </c>
       <c r="M8" t="n">
-        <v>8.321114816431596</v>
+        <v>8.298413689112484</v>
       </c>
       <c r="N8" t="n">
-        <v>105.7784233525196</v>
+        <v>105.3013542257244</v>
       </c>
       <c r="O8" t="n">
-        <v>10.28486379844282</v>
+        <v>10.26164481093184</v>
       </c>
       <c r="P8" t="n">
-        <v>363.9068854705114</v>
+        <v>363.8764177883054</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -35621,28 +35786,28 @@
         <v>0.1378</v>
       </c>
       <c r="I9" t="n">
-        <v>0.08334974207813704</v>
+        <v>0.09097119015761115</v>
       </c>
       <c r="J9" t="n">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="K9" t="n">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="L9" t="n">
-        <v>0.004730810206834413</v>
+        <v>0.005656270583972889</v>
       </c>
       <c r="M9" t="n">
-        <v>6.619372766366865</v>
+        <v>6.621258177809139</v>
       </c>
       <c r="N9" t="n">
-        <v>81.53245174330506</v>
+        <v>81.58604765269079</v>
       </c>
       <c r="O9" t="n">
-        <v>9.029532199582937</v>
+        <v>9.032499524090261</v>
       </c>
       <c r="P9" t="n">
-        <v>360.6022469358178</v>
+        <v>360.5259579411743</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -35699,28 +35864,28 @@
         <v>0.1395</v>
       </c>
       <c r="I10" t="n">
-        <v>0.04267395323244652</v>
+        <v>0.04990895063912321</v>
       </c>
       <c r="J10" t="n">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="K10" t="n">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0009232281346068794</v>
+        <v>0.001272257046726621</v>
       </c>
       <c r="M10" t="n">
-        <v>8.53033906226891</v>
+        <v>8.521890987487172</v>
       </c>
       <c r="N10" t="n">
-        <v>109.5643579503181</v>
+        <v>109.2889523799222</v>
       </c>
       <c r="O10" t="n">
-        <v>10.46729945832821</v>
+        <v>10.4541356591505</v>
       </c>
       <c r="P10" t="n">
-        <v>354.7137783350953</v>
+        <v>354.6413381548318</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -35777,28 +35942,28 @@
         <v>0.1023</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1517258745857474</v>
+        <v>0.1512014765368252</v>
       </c>
       <c r="J11" t="n">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="K11" t="n">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01298359273141647</v>
+        <v>0.01303402514948171</v>
       </c>
       <c r="M11" t="n">
-        <v>7.632151938732754</v>
+        <v>7.594265285815921</v>
       </c>
       <c r="N11" t="n">
-        <v>98.34472330135598</v>
+        <v>97.80500803897232</v>
       </c>
       <c r="O11" t="n">
-        <v>9.916890808179547</v>
+        <v>9.889641451487122</v>
       </c>
       <c r="P11" t="n">
-        <v>343.548204912009</v>
+        <v>343.553423760229</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -35855,28 +36020,28 @@
         <v>0.1254</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1923313748935123</v>
+        <v>0.192571275173528</v>
       </c>
       <c r="J12" t="n">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="K12" t="n">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02364784769419848</v>
+        <v>0.02395912523169397</v>
       </c>
       <c r="M12" t="n">
-        <v>7.14246316422687</v>
+        <v>7.106942900777691</v>
       </c>
       <c r="N12" t="n">
-        <v>85.77527742873561</v>
+        <v>85.29901035847729</v>
       </c>
       <c r="O12" t="n">
-        <v>9.261494341019466</v>
+        <v>9.23574633467579</v>
       </c>
       <c r="P12" t="n">
-        <v>342.0182988696625</v>
+        <v>342.0159141631058</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -35914,7 +36079,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M679"/>
+  <dimension ref="A1:M682"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75395,6 +75560,207 @@
         </is>
       </c>
     </row>
+    <row r="680">
+      <c r="A680" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>-37.14537817378274,175.87945723605964</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>-37.14608633642511,175.87958966346176</t>
+        </is>
+      </c>
+      <c r="D680" t="inlineStr">
+        <is>
+          <t>-37.14679573990051,175.87971036049007</t>
+        </is>
+      </c>
+      <c r="E680" t="inlineStr">
+        <is>
+          <t>-37.147494121951254,175.87993585179055</t>
+        </is>
+      </c>
+      <c r="F680" t="inlineStr">
+        <is>
+          <t>-37.14820920463144,175.87999012648118</t>
+        </is>
+      </c>
+      <c r="G680" t="inlineStr">
+        <is>
+          <t>-37.14891881997318,175.88012300788435</t>
+        </is>
+      </c>
+      <c r="H680" t="inlineStr">
+        <is>
+          <t>-37.14961996351699,175.88025638088942</t>
+        </is>
+      </c>
+      <c r="I680" t="inlineStr">
+        <is>
+          <t>-37.15031745001767,175.88036495081545</t>
+        </is>
+      </c>
+      <c r="J680" t="inlineStr">
+        <is>
+          <t>-37.15100715364621,175.88059330618273</t>
+        </is>
+      </c>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>-37.15174002515883,175.88069166669592</t>
+        </is>
+      </c>
+      <c r="L680" t="inlineStr">
+        <is>
+          <t>-37.15240855520267,175.88102440848743</t>
+        </is>
+      </c>
+      <c r="M680" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:05:26+00:00</t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>-37.145390150014684,175.87934462400935</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>-37.14609967035875,175.87946428510787</t>
+        </is>
+      </c>
+      <c r="D681" t="inlineStr">
+        <is>
+          <t>-37.146809005349894,175.87958562615222</t>
+        </is>
+      </c>
+      <c r="E681" t="inlineStr">
+        <is>
+          <t>-37.14751383151512,175.8797300499405</t>
+        </is>
+      </c>
+      <c r="F681" t="inlineStr">
+        <is>
+          <t>-37.14820889287361,175.87999433526292</t>
+        </is>
+      </c>
+      <c r="G681" t="inlineStr">
+        <is>
+          <t>-37.14892361807693,175.88004679954278</t>
+        </is>
+      </c>
+      <c r="H681" t="inlineStr">
+        <is>
+          <t>-37.14963095267214,175.8801649005087</t>
+        </is>
+      </c>
+      <c r="I681" t="inlineStr">
+        <is>
+          <t>-37.150322021987314,175.88034394810194</t>
+        </is>
+      </c>
+      <c r="J681" t="inlineStr">
+        <is>
+          <t>-37.151022191436184,175.88053689136387</t>
+        </is>
+      </c>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>-37.151746529289,175.88067026509364</t>
+        </is>
+      </c>
+      <c r="L681" t="inlineStr">
+        <is>
+          <t>-37.15240947649029,175.88102163736275</t>
+        </is>
+      </c>
+      <c r="M681" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-22 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>-37.145378494046504,175.8794542246452</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>-37.146101984072466,175.87944252923535</t>
+        </is>
+      </c>
+      <c r="D682" t="inlineStr">
+        <is>
+          <t>-37.1467998915454,175.87967132292346</t>
+        </is>
+      </c>
+      <c r="E682" t="inlineStr">
+        <is>
+          <t>-37.14749478720831,175.87992890542165</t>
+        </is>
+      </c>
+      <c r="F682" t="inlineStr">
+        <is>
+          <t>-37.148204327625,175.88005596663075</t>
+        </is>
+      </c>
+      <c r="G682" t="inlineStr">
+        <is>
+          <t>-37.14891698101313,175.88015221590135</t>
+        </is>
+      </c>
+      <c r="H682" t="inlineStr">
+        <is>
+          <t>-37.14962055402073,175.8802514651943</t>
+        </is>
+      </c>
+      <c r="I682" t="inlineStr">
+        <is>
+          <t>-37.150289969824314,175.88049118891456</t>
+        </is>
+      </c>
+      <c r="J682" t="inlineStr">
+        <is>
+          <t>-37.151004260903974,175.8806041583971</t>
+        </is>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>-37.1517398759652,175.88069215761192</t>
+        </is>
+      </c>
+      <c r="L682" t="inlineStr">
+        <is>
+          <t>-37.152414749215616,175.88100577762106</t>
+        </is>
+      </c>
+      <c r="M682" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0192/nzd0192.xlsx
+++ b/data/nzd0192/nzd0192.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M682"/>
+  <dimension ref="A1:M684"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28138,6 +28138,96 @@
         </is>
       </c>
     </row>
+    <row r="683">
+      <c r="A683" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-31 21:59:17+00:00</t>
+        </is>
+      </c>
+      <c r="B683" t="n">
+        <v>349.9666666666667</v>
+      </c>
+      <c r="C683" t="n">
+        <v>344.8494117647058</v>
+      </c>
+      <c r="D683" t="n">
+        <v>357.7333333333333</v>
+      </c>
+      <c r="E683" t="n">
+        <v>355.6794117647058</v>
+      </c>
+      <c r="F683" t="n">
+        <v>366.4052173913044</v>
+      </c>
+      <c r="G683" t="n">
+        <v>369.8461538461539</v>
+      </c>
+      <c r="H683" t="n">
+        <v>378.3894117647058</v>
+      </c>
+      <c r="I683" t="n">
+        <v>375.0552173913044</v>
+      </c>
+      <c r="J683" t="n">
+        <v>376.2952173913044</v>
+      </c>
+      <c r="K683" t="n">
+        <v>369.5011111111111</v>
+      </c>
+      <c r="L683" t="n">
+        <v>363.5952380952381</v>
+      </c>
+      <c r="M683" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:29+00:00</t>
+        </is>
+      </c>
+      <c r="B684" t="n">
+        <v>334.4033333333333</v>
+      </c>
+      <c r="C684" t="n">
+        <v>339.9705882352941</v>
+      </c>
+      <c r="D684" t="n">
+        <v>345.6866666666667</v>
+      </c>
+      <c r="E684" t="n">
+        <v>344.2805882352941</v>
+      </c>
+      <c r="F684" t="n">
+        <v>355.3747826086956</v>
+      </c>
+      <c r="G684" t="n">
+        <v>354.4338461538461</v>
+      </c>
+      <c r="H684" t="n">
+        <v>360.2905882352941</v>
+      </c>
+      <c r="I684" t="n">
+        <v>359.5147826086956</v>
+      </c>
+      <c r="J684" t="n">
+        <v>361.6647826086957</v>
+      </c>
+      <c r="K684" t="n">
+        <v>350.0488888888889</v>
+      </c>
+      <c r="L684" t="n">
+        <v>349.3347619047619</v>
+      </c>
+      <c r="M684" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -28149,7 +28239,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B691"/>
+  <dimension ref="A1:B693"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35067,6 +35157,26 @@
       </c>
       <c r="B691" t="n">
         <v>-0.57</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>2025-05-31 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B692" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B693" t="n">
+        <v>-0.64</v>
       </c>
     </row>
   </sheetData>
@@ -35240,28 +35350,28 @@
         <v>0.068</v>
       </c>
       <c r="I2" t="n">
-        <v>0.162134264244313</v>
+        <v>0.1613787052529251</v>
       </c>
       <c r="J2" t="n">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="K2" t="n">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01289395105889191</v>
+        <v>0.01283847500276569</v>
       </c>
       <c r="M2" t="n">
-        <v>8.297809238776086</v>
+        <v>8.296386736713078</v>
       </c>
       <c r="N2" t="n">
-        <v>112.4342619331272</v>
+        <v>112.2542614050675</v>
       </c>
       <c r="O2" t="n">
-        <v>10.60350234276992</v>
+        <v>10.59501115643903</v>
       </c>
       <c r="P2" t="n">
-        <v>339.1244592870221</v>
+        <v>339.1321018427276</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -35318,28 +35428,28 @@
         <v>0.1063</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3255644725405628</v>
+        <v>0.324715994657838</v>
       </c>
       <c r="J3" t="n">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="K3" t="n">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04841718292783947</v>
+        <v>0.0484840693436579</v>
       </c>
       <c r="M3" t="n">
-        <v>8.733001556498051</v>
+        <v>8.710687745952823</v>
       </c>
       <c r="N3" t="n">
-        <v>115.9568596753014</v>
+        <v>115.5726051273364</v>
       </c>
       <c r="O3" t="n">
-        <v>10.76832668873402</v>
+        <v>10.75046999564839</v>
       </c>
       <c r="P3" t="n">
-        <v>335.2684046522694</v>
+        <v>335.2769939696695</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -35396,28 +35506,28 @@
         <v>0.0847</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2613711537739534</v>
+        <v>0.2647581306143938</v>
       </c>
       <c r="J4" t="n">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="K4" t="n">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03492380306827592</v>
+        <v>0.03596729526117604</v>
       </c>
       <c r="M4" t="n">
-        <v>7.884447843041525</v>
+        <v>7.876689707594648</v>
       </c>
       <c r="N4" t="n">
-        <v>104.0812141942306</v>
+        <v>103.9291051964845</v>
       </c>
       <c r="O4" t="n">
-        <v>10.20202010359863</v>
+        <v>10.19456253090266</v>
       </c>
       <c r="P4" t="n">
-        <v>339.8710713664246</v>
+        <v>339.8364733232879</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -35474,28 +35584,28 @@
         <v>0.0992</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3140733021077209</v>
+        <v>0.3143405042104718</v>
       </c>
       <c r="J5" t="n">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="K5" t="n">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05247439869640658</v>
+        <v>0.05284242237184422</v>
       </c>
       <c r="M5" t="n">
-        <v>7.952573848709984</v>
+        <v>7.944516673591182</v>
       </c>
       <c r="N5" t="n">
-        <v>100.1844244541141</v>
+        <v>99.93941038395889</v>
       </c>
       <c r="O5" t="n">
-        <v>10.00921697507423</v>
+        <v>9.996970060171176</v>
       </c>
       <c r="P5" t="n">
-        <v>341.4430827312082</v>
+        <v>341.4404021927432</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -35552,28 +35662,28 @@
         <v>0.1358</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3137110714453313</v>
+        <v>0.3190368560453721</v>
       </c>
       <c r="J6" t="n">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="K6" t="n">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05262854275697704</v>
+        <v>0.05455502099729481</v>
       </c>
       <c r="M6" t="n">
-        <v>8.278501578806926</v>
+        <v>8.270996338380209</v>
       </c>
       <c r="N6" t="n">
-        <v>99.28852577490468</v>
+        <v>99.2328953337398</v>
       </c>
       <c r="O6" t="n">
-        <v>9.964362788201997</v>
+        <v>9.961570927004425</v>
       </c>
       <c r="P6" t="n">
-        <v>345.3550894567603</v>
+        <v>345.3017635652906</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -35630,28 +35740,28 @@
         <v>0.0796</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1955971568251849</v>
+        <v>0.1970307416926391</v>
       </c>
       <c r="J7" t="n">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="K7" t="n">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02188420578738115</v>
+        <v>0.02230293519046433</v>
       </c>
       <c r="M7" t="n">
-        <v>7.8488243770825</v>
+        <v>7.848014670654687</v>
       </c>
       <c r="N7" t="n">
-        <v>95.96290495528868</v>
+        <v>95.84225896376498</v>
       </c>
       <c r="O7" t="n">
-        <v>9.796065789657023</v>
+        <v>9.789905973183041</v>
       </c>
       <c r="P7" t="n">
-        <v>354.9987270870427</v>
+        <v>354.9843407429608</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -35708,28 +35818,28 @@
         <v>0.09760000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1302433804700821</v>
+        <v>0.131700992471295</v>
       </c>
       <c r="J8" t="n">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="K8" t="n">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="L8" t="n">
-        <v>0.009001285828820427</v>
+        <v>0.009240478038443634</v>
       </c>
       <c r="M8" t="n">
-        <v>8.298413689112484</v>
+        <v>8.300835178744995</v>
       </c>
       <c r="N8" t="n">
-        <v>105.3013542257244</v>
+        <v>105.2289026341047</v>
       </c>
       <c r="O8" t="n">
-        <v>10.26164481093184</v>
+        <v>10.25811399011069</v>
       </c>
       <c r="P8" t="n">
-        <v>363.8764177883054</v>
+        <v>363.861820375114</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -35786,28 +35896,28 @@
         <v>0.1378</v>
       </c>
       <c r="I9" t="n">
-        <v>0.09097119015761115</v>
+        <v>0.09392617936426724</v>
       </c>
       <c r="J9" t="n">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="K9" t="n">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="L9" t="n">
-        <v>0.005656270583972889</v>
+        <v>0.006048819543638007</v>
       </c>
       <c r="M9" t="n">
-        <v>6.621258177809139</v>
+        <v>6.624311600536347</v>
       </c>
       <c r="N9" t="n">
-        <v>81.58604765269079</v>
+        <v>81.57882543181124</v>
       </c>
       <c r="O9" t="n">
-        <v>9.032499524090261</v>
+        <v>9.032099724416867</v>
       </c>
       <c r="P9" t="n">
-        <v>360.5259579411743</v>
+        <v>360.4963373092166</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -35864,28 +35974,28 @@
         <v>0.1395</v>
       </c>
       <c r="I10" t="n">
-        <v>0.04990895063912321</v>
+        <v>0.0586236849532226</v>
       </c>
       <c r="J10" t="n">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="K10" t="n">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001272257046726621</v>
+        <v>0.001754173856587937</v>
       </c>
       <c r="M10" t="n">
-        <v>8.521890987487172</v>
+        <v>8.53680163268811</v>
       </c>
       <c r="N10" t="n">
-        <v>109.2889523799222</v>
+        <v>109.6912920354116</v>
       </c>
       <c r="O10" t="n">
-        <v>10.4541356591505</v>
+        <v>10.47336106679282</v>
       </c>
       <c r="P10" t="n">
-        <v>354.6413381548318</v>
+        <v>354.5538628429485</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -35942,28 +36052,28 @@
         <v>0.1023</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1512014765368252</v>
+        <v>0.1596047987963784</v>
       </c>
       <c r="J11" t="n">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="K11" t="n">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01303402514948171</v>
+        <v>0.01447305049522696</v>
       </c>
       <c r="M11" t="n">
-        <v>7.594265285815921</v>
+        <v>7.605583408832594</v>
       </c>
       <c r="N11" t="n">
-        <v>97.80500803897232</v>
+        <v>98.34625098233514</v>
       </c>
       <c r="O11" t="n">
-        <v>9.889641451487122</v>
+        <v>9.91696783207121</v>
       </c>
       <c r="P11" t="n">
-        <v>343.553423760229</v>
+        <v>343.4695822466836</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -36020,28 +36130,28 @@
         <v>0.1254</v>
       </c>
       <c r="I12" t="n">
-        <v>0.192571275173528</v>
+        <v>0.1990675343987414</v>
       </c>
       <c r="J12" t="n">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="K12" t="n">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02395912523169397</v>
+        <v>0.02558975336393621</v>
       </c>
       <c r="M12" t="n">
-        <v>7.106942900777691</v>
+        <v>7.112268659227172</v>
       </c>
       <c r="N12" t="n">
-        <v>85.29901035847729</v>
+        <v>85.50044412654897</v>
       </c>
       <c r="O12" t="n">
-        <v>9.23574633467579</v>
+        <v>9.24664502003559</v>
       </c>
       <c r="P12" t="n">
-        <v>342.0159141631058</v>
+        <v>341.9509847741674</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -36079,7 +36189,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M682"/>
+  <dimension ref="A1:M684"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39861,7 +39971,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>-37.148926657068074,175.87999853080166</t>
+          <t>-37.14892665706807,175.87999853080166</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -42820,7 +42930,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>-37.14820582616451,175.88003573622785</t>
+          <t>-37.1482058261645,175.88003573622785</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -49249,7 +49359,7 @@
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>-37.15174105175308,175.88068828872616</t>
+          <t>-37.151741051753085,175.88068828872616</t>
         </is>
       </c>
       <c r="L232" t="inlineStr">
@@ -72071,7 +72181,7 @@
       </c>
       <c r="K626" t="inlineStr">
         <is>
-          <t>-37.151723734623154,175.88074527003656</t>
+          <t>-37.15172373462316,175.88074527003656</t>
         </is>
       </c>
       <c r="L626" t="inlineStr">
@@ -75104,7 +75214,7 @@
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t>-37.1460922693789,175.87953387633362</t>
+          <t>-37.146092269378904,175.87953387633362</t>
         </is>
       </c>
       <c r="D673" t="inlineStr">
@@ -75149,7 +75259,7 @@
       </c>
       <c r="L673" t="inlineStr">
         <is>
-          <t>-37.15243012976842,175.88095951466707</t>
+          <t>-37.15243012976841,175.88095951466707</t>
         </is>
       </c>
       <c r="M673" t="inlineStr">
@@ -75756,6 +75866,140 @@
         </is>
       </c>
       <c r="M682" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-31 21:59:17+00:00</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>-37.145372033402296,175.8795149734199</t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>-37.146089629800265,175.87955869612858</t>
+        </is>
+      </c>
+      <c r="D683" t="inlineStr">
+        <is>
+          <t>-37.14678586684255,175.87980319552074</t>
+        </is>
+      </c>
+      <c r="E683" t="inlineStr">
+        <is>
+          <t>-37.14749936091823,175.87988114830986</t>
+        </is>
+      </c>
+      <c r="F683" t="inlineStr">
+        <is>
+          <t>-37.148202624849866,175.88007895417374</t>
+        </is>
+      </c>
+      <c r="G683" t="inlineStr">
+        <is>
+          <t>-37.14891582602306,175.88017056043336</t>
+        </is>
+      </c>
+      <c r="H683" t="inlineStr">
+        <is>
+          <t>-37.149612713907445,175.88031673069426</t>
+        </is>
+      </c>
+      <c r="I683" t="inlineStr">
+        <is>
+          <t>-37.150298498245064,175.8804520112586</t>
+        </is>
+      </c>
+      <c r="J683" t="inlineStr">
+        <is>
+          <t>-37.15097335131158,175.8807201164336</t>
+        </is>
+      </c>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>-37.15167007089009,175.88092184763698</t>
+        </is>
+      </c>
+      <c r="L683" t="inlineStr">
+        <is>
+          <t>-37.15235434554208,175.8811874643075</t>
+        </is>
+      </c>
+      <c r="M683" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:29+00:00</t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>-37.145390493998654,175.87934138952593</t>
+        </is>
+      </c>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t>-37.14609541691094,175.87950428021801</t>
+        </is>
+      </c>
+      <c r="D684" t="inlineStr">
+        <is>
+          <t>-37.146800156459456,175.87966883195477</t>
+        </is>
+      </c>
+      <c r="E684" t="inlineStr">
+        <is>
+          <t>-37.1475115569654,175.8797538003586</t>
+        </is>
+      </c>
+      <c r="F684" t="inlineStr">
+        <is>
+          <t>-37.14821177915372,175.87995536993142</t>
+        </is>
+      </c>
+      <c r="G684" t="inlineStr">
+        <is>
+          <t>-37.14892671085055,175.879997676564</t>
+        </is>
+      </c>
+      <c r="H684" t="inlineStr">
+        <is>
+          <t>-37.14963690641257,175.8801153377136</t>
+        </is>
+      </c>
+      <c r="I684" t="inlineStr">
+        <is>
+          <t>-37.150335229194205,175.88028327672794</t>
+        </is>
+      </c>
+      <c r="J684" t="inlineStr">
+        <is>
+          <t>-37.151014985573966,175.8805639244346</t>
+        </is>
+      </c>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>-37.15173225998272,175.8807172177026</t>
+        </is>
+      </c>
+      <c r="L684" t="inlineStr">
+        <is>
+          <t>-37.152403613151535,175.88103927359072</t>
+        </is>
+      </c>
+      <c r="M684" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0192/nzd0192.xlsx
+++ b/data/nzd0192/nzd0192.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M684"/>
+  <dimension ref="A1:M688"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28228,6 +28228,186 @@
         </is>
       </c>
     </row>
+    <row r="685">
+      <c r="A685" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-08 21:59:23+00:00</t>
+        </is>
+      </c>
+      <c r="B685" t="n">
+        <v>339.5166666666667</v>
+      </c>
+      <c r="C685" t="n">
+        <v>346.1417647058824</v>
+      </c>
+      <c r="D685" t="n">
+        <v>345.4933333333333</v>
+      </c>
+      <c r="E685" t="n">
+        <v>350.3717647058824</v>
+      </c>
+      <c r="F685" t="n">
+        <v>357.5904347826087</v>
+      </c>
+      <c r="G685" t="n">
+        <v>354.9946153846154</v>
+      </c>
+      <c r="H685" t="n">
+        <v>366.1517647058824</v>
+      </c>
+      <c r="I685" t="n">
+        <v>360.3304347826087</v>
+      </c>
+      <c r="J685" t="n">
+        <v>365.3304347826087</v>
+      </c>
+      <c r="K685" t="n">
+        <v>354.8177777777778</v>
+      </c>
+      <c r="L685" t="n">
+        <v>347.8866666666667</v>
+      </c>
+      <c r="M685" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B686" t="n">
+        <v>330.7933333333333</v>
+      </c>
+      <c r="C686" t="n">
+        <v>333.4782352941176</v>
+      </c>
+      <c r="D686" t="n">
+        <v>334.9666666666666</v>
+      </c>
+      <c r="E686" t="n">
+        <v>341.6682352941176</v>
+      </c>
+      <c r="F686" t="n">
+        <v>345.8695652173913</v>
+      </c>
+      <c r="G686" t="n">
+        <v>358.4453846153846</v>
+      </c>
+      <c r="H686" t="n">
+        <v>356.8782352941176</v>
+      </c>
+      <c r="I686" t="n">
+        <v>356.2095652173913</v>
+      </c>
+      <c r="J686" t="n">
+        <v>350.0195652173913</v>
+      </c>
+      <c r="K686" t="n">
+        <v>349.6722222222222</v>
+      </c>
+      <c r="L686" t="n">
+        <v>344.8433333333333</v>
+      </c>
+      <c r="M686" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-16 21:59:27+00:00</t>
+        </is>
+      </c>
+      <c r="B687" t="n">
+        <v>340.58</v>
+      </c>
+      <c r="C687" t="n">
+        <v>336.45</v>
+      </c>
+      <c r="D687" t="n">
+        <v>334.73</v>
+      </c>
+      <c r="E687" t="n">
+        <v>343.92</v>
+      </c>
+      <c r="F687" t="n">
+        <v>347.1847826086956</v>
+      </c>
+      <c r="G687" t="n">
+        <v>359.7661538461539</v>
+      </c>
+      <c r="H687" t="n">
+        <v>358.78</v>
+      </c>
+      <c r="I687" t="n">
+        <v>355.4847826086956</v>
+      </c>
+      <c r="J687" t="n">
+        <v>351.1647826086956</v>
+      </c>
+      <c r="K687" t="n">
+        <v>349.0466666666667</v>
+      </c>
+      <c r="L687" t="n">
+        <v>344.9771428571428</v>
+      </c>
+      <c r="M687" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B688" t="n">
+        <v>328.8766666666667</v>
+      </c>
+      <c r="C688" t="n">
+        <v>336.8052941176471</v>
+      </c>
+      <c r="D688" t="n">
+        <v>345.5533333333333</v>
+      </c>
+      <c r="E688" t="n">
+        <v>345.6652941176471</v>
+      </c>
+      <c r="F688" t="n">
+        <v>355.8526086956522</v>
+      </c>
+      <c r="G688" t="n">
+        <v>354.3507692307692</v>
+      </c>
+      <c r="H688" t="n">
+        <v>369.8052941176471</v>
+      </c>
+      <c r="I688" t="n">
+        <v>363.2826086956522</v>
+      </c>
+      <c r="J688" t="n">
+        <v>361.8026086956522</v>
+      </c>
+      <c r="K688" t="n">
+        <v>351.1777777777777</v>
+      </c>
+      <c r="L688" t="n">
+        <v>347.0652380952381</v>
+      </c>
+      <c r="M688" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -28239,7 +28419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B693"/>
+  <dimension ref="A1:B697"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35177,6 +35357,46 @@
       </c>
       <c r="B693" t="n">
         <v>-0.64</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>2025-06-08 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B694" t="n">
+        <v>-0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B695" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>2025-06-16 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B696" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B697" t="n">
+        <v>-0.83</v>
       </c>
     </row>
   </sheetData>
@@ -35350,28 +35570,28 @@
         <v>0.068</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1613787052529251</v>
+        <v>0.1504930305115368</v>
       </c>
       <c r="J2" t="n">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="K2" t="n">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01283847500276569</v>
+        <v>0.01126844194658239</v>
       </c>
       <c r="M2" t="n">
-        <v>8.296386736713078</v>
+        <v>8.302431636627961</v>
       </c>
       <c r="N2" t="n">
-        <v>112.2542614050675</v>
+        <v>112.1347712582919</v>
       </c>
       <c r="O2" t="n">
-        <v>10.59501115643903</v>
+        <v>10.58937067338243</v>
       </c>
       <c r="P2" t="n">
-        <v>339.1321018427276</v>
+        <v>339.2420635711318</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -35428,28 +35648,28 @@
         <v>0.1063</v>
       </c>
       <c r="I3" t="n">
-        <v>0.324715994657838</v>
+        <v>0.3176150438943324</v>
       </c>
       <c r="J3" t="n">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="K3" t="n">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0484840693436579</v>
+        <v>0.04694841419742601</v>
       </c>
       <c r="M3" t="n">
-        <v>8.710687745952823</v>
+        <v>8.696080473504262</v>
       </c>
       <c r="N3" t="n">
-        <v>115.5726051273364</v>
+        <v>115.1246064671322</v>
       </c>
       <c r="O3" t="n">
-        <v>10.75046999564839</v>
+        <v>10.72961352832115</v>
       </c>
       <c r="P3" t="n">
-        <v>335.2769939696695</v>
+        <v>335.3489637853003</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -35506,28 +35726,28 @@
         <v>0.0847</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2647581306143938</v>
+        <v>0.2562090425648106</v>
       </c>
       <c r="J4" t="n">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="K4" t="n">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03596729526117604</v>
+        <v>0.03404710979612724</v>
       </c>
       <c r="M4" t="n">
-        <v>7.876689707594648</v>
+        <v>7.868648134404609</v>
       </c>
       <c r="N4" t="n">
-        <v>103.9291051964845</v>
+        <v>103.6868894626496</v>
       </c>
       <c r="O4" t="n">
-        <v>10.19456253090266</v>
+        <v>10.18267594803299</v>
       </c>
       <c r="P4" t="n">
-        <v>339.8364733232879</v>
+        <v>339.9240000488251</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -35584,28 +35804,28 @@
         <v>0.0992</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3143405042104718</v>
+        <v>0.3088991942514606</v>
       </c>
       <c r="J5" t="n">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="K5" t="n">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05284242237184422</v>
+        <v>0.05168441440917859</v>
       </c>
       <c r="M5" t="n">
-        <v>7.944516673591182</v>
+        <v>7.917816488853865</v>
       </c>
       <c r="N5" t="n">
-        <v>99.93941038395889</v>
+        <v>99.41623740716913</v>
       </c>
       <c r="O5" t="n">
-        <v>9.996970060171176</v>
+        <v>9.970769148223678</v>
       </c>
       <c r="P5" t="n">
-        <v>341.4404021927432</v>
+        <v>341.4954925079378</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -35662,28 +35882,28 @@
         <v>0.1358</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3190368560453721</v>
+        <v>0.3162951310583504</v>
       </c>
       <c r="J6" t="n">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="K6" t="n">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05455502099729481</v>
+        <v>0.0543165265529526</v>
       </c>
       <c r="M6" t="n">
-        <v>8.270996338380209</v>
+        <v>8.248901985712484</v>
       </c>
       <c r="N6" t="n">
-        <v>99.2328953337398</v>
+        <v>98.70651027819862</v>
       </c>
       <c r="O6" t="n">
-        <v>9.961570927004425</v>
+        <v>9.93511501081888</v>
       </c>
       <c r="P6" t="n">
-        <v>345.3017635652906</v>
+        <v>345.3292777594514</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -35740,28 +35960,28 @@
         <v>0.0796</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1970307416926391</v>
+        <v>0.1926835003948659</v>
       </c>
       <c r="J7" t="n">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="K7" t="n">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02230293519046433</v>
+        <v>0.02162616519928684</v>
       </c>
       <c r="M7" t="n">
-        <v>7.848014670654687</v>
+        <v>7.813866834056454</v>
       </c>
       <c r="N7" t="n">
-        <v>95.84225896376498</v>
+        <v>95.24385824001979</v>
       </c>
       <c r="O7" t="n">
-        <v>9.789905973183041</v>
+        <v>9.759295991003643</v>
       </c>
       <c r="P7" t="n">
-        <v>354.9843407429608</v>
+        <v>355.0281225080163</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -35818,28 +36038,28 @@
         <v>0.09760000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>0.131700992471295</v>
+        <v>0.1257055170579862</v>
       </c>
       <c r="J8" t="n">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="K8" t="n">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="L8" t="n">
-        <v>0.009240478038443634</v>
+        <v>0.008518221766710576</v>
       </c>
       <c r="M8" t="n">
-        <v>8.300835178744995</v>
+        <v>8.282228511187256</v>
       </c>
       <c r="N8" t="n">
-        <v>105.2289026341047</v>
+        <v>104.7860846310523</v>
       </c>
       <c r="O8" t="n">
-        <v>10.25811399011069</v>
+        <v>10.23650744302237</v>
       </c>
       <c r="P8" t="n">
-        <v>363.861820375114</v>
+        <v>363.9220815654707</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -35896,28 +36116,28 @@
         <v>0.1378</v>
       </c>
       <c r="I9" t="n">
-        <v>0.09392617936426724</v>
+        <v>0.08851211638625572</v>
       </c>
       <c r="J9" t="n">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="K9" t="n">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="L9" t="n">
-        <v>0.006048819543638007</v>
+        <v>0.005437719063025037</v>
       </c>
       <c r="M9" t="n">
-        <v>6.624311600536347</v>
+        <v>6.609206991064921</v>
       </c>
       <c r="N9" t="n">
-        <v>81.57882543181124</v>
+        <v>81.18410824559039</v>
       </c>
       <c r="O9" t="n">
-        <v>9.032099724416867</v>
+        <v>9.010222430417043</v>
       </c>
       <c r="P9" t="n">
-        <v>360.4963373092166</v>
+        <v>360.550735292635</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -35974,28 +36194,28 @@
         <v>0.1395</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0586236849532226</v>
+        <v>0.05994272100035855</v>
       </c>
       <c r="J10" t="n">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="K10" t="n">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001754173856587937</v>
+        <v>0.001854109237739432</v>
       </c>
       <c r="M10" t="n">
-        <v>8.53680163268811</v>
+        <v>8.522176296613171</v>
       </c>
       <c r="N10" t="n">
-        <v>109.6912920354116</v>
+        <v>109.2310485003531</v>
       </c>
       <c r="O10" t="n">
-        <v>10.47336106679282</v>
+        <v>10.4513658676918</v>
       </c>
       <c r="P10" t="n">
-        <v>354.5538628429485</v>
+        <v>354.5406092631334</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -36052,28 +36272,28 @@
         <v>0.1023</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1596047987963784</v>
+        <v>0.1643957352802725</v>
       </c>
       <c r="J11" t="n">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="K11" t="n">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01447305049522696</v>
+        <v>0.01553774110326112</v>
       </c>
       <c r="M11" t="n">
-        <v>7.605583408832594</v>
+        <v>7.572511075861406</v>
       </c>
       <c r="N11" t="n">
-        <v>98.34625098233514</v>
+        <v>97.75409163593184</v>
       </c>
       <c r="O11" t="n">
-        <v>9.91696783207121</v>
+        <v>9.887066887400522</v>
       </c>
       <c r="P11" t="n">
-        <v>343.4695822466836</v>
+        <v>343.4216960375732</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -36130,28 +36350,28 @@
         <v>0.1254</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1990675343987414</v>
+        <v>0.1978316224066352</v>
       </c>
       <c r="J12" t="n">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="K12" t="n">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02558975336393621</v>
+        <v>0.02562923659000282</v>
       </c>
       <c r="M12" t="n">
-        <v>7.112268659227172</v>
+        <v>7.069975089408694</v>
       </c>
       <c r="N12" t="n">
-        <v>85.50044412654897</v>
+        <v>84.8883035857461</v>
       </c>
       <c r="O12" t="n">
-        <v>9.24664502003559</v>
+        <v>9.213484877381962</v>
       </c>
       <c r="P12" t="n">
-        <v>341.9509847741674</v>
+        <v>341.9633661077518</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -36189,7 +36409,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M684"/>
+  <dimension ref="A1:M688"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76005,6 +76225,274 @@
         </is>
       </c>
     </row>
+    <row r="685">
+      <c r="A685" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-08 21:59:23+00:00</t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>-37.14538442879723,175.8793984205273</t>
+        </is>
+      </c>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>-37.14608809684676,175.87957311037286</t>
+        </is>
+      </c>
+      <c r="D685" t="inlineStr">
+        <is>
+          <t>-37.146800385788005,175.8796666755938</t>
+        </is>
+      </c>
+      <c r="E685" t="inlineStr">
+        <is>
+          <t>-37.14750503979426,175.8798218511459</t>
+        </is>
+      </c>
+      <c r="F685" t="inlineStr">
+        <is>
+          <t>-37.14820994036491,175.87998019395104</t>
+        </is>
+      </c>
+      <c r="G685" t="inlineStr">
+        <is>
+          <t>-37.14892631481585,175.88000396685965</t>
+        </is>
+      </c>
+      <c r="H685" t="inlineStr">
+        <is>
+          <t>-37.1496290718772,175.8801805574278</t>
+        </is>
+      </c>
+      <c r="I685" t="inlineStr">
+        <is>
+          <t>-37.15033330134673,175.88029213289943</t>
+        </is>
+      </c>
+      <c r="J685" t="inlineStr">
+        <is>
+          <t>-37.1510045541375,175.88060305832235</t>
+        </is>
+      </c>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>-37.15171701379351,175.8807673846218</t>
+        </is>
+      </c>
+      <c r="L685" t="inlineStr">
+        <is>
+          <t>-37.15240861607346,175.88102422539527</t>
+        </is>
+      </c>
+      <c r="M685" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>-37.14539477599874,175.8793011257811</t>
+        </is>
+      </c>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>-37.14610311790239,175.87943186780748</t>
+        </is>
+      </c>
+      <c r="D686" t="inlineStr">
+        <is>
+          <t>-37.14681287227318,175.8795492654323</t>
+        </is>
+      </c>
+      <c r="E686" t="inlineStr">
+        <is>
+          <t>-37.14751435200494,175.87972461507698</t>
+        </is>
+      </c>
+      <c r="F686" t="inlineStr">
+        <is>
+          <t>-37.148219667556965,175.8798488740905</t>
+        </is>
+      </c>
+      <c r="G686" t="inlineStr">
+        <is>
+          <t>-37.14892387775551,175.88004267504206</t>
+        </is>
+      </c>
+      <c r="H686" t="inlineStr">
+        <is>
+          <t>-37.1496414676307,175.88007736705575</t>
+        </is>
+      </c>
+      <c r="I686" t="inlineStr">
+        <is>
+          <t>-37.15034304128602,175.88024738940106</t>
+        </is>
+      </c>
+      <c r="J686" t="inlineStr">
+        <is>
+          <t>-37.151048124572306,175.8804396019704</t>
+        </is>
+      </c>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>-37.15173346418924,175.8807132553099</t>
+        </is>
+      </c>
+      <c r="L686" t="inlineStr">
+        <is>
+          <t>-37.15241913026477,175.88099259993064</t>
+        </is>
+      </c>
+      <c r="M686" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-16 21:59:27+00:00</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>-37.1453831675166,175.8794102802974</t>
+        </is>
+      </c>
+      <c r="C687" t="inlineStr">
+        <is>
+          <t>-37.146099592909266,175.87946501336535</t>
+        </is>
+      </c>
+      <c r="D687" t="inlineStr">
+        <is>
+          <t>-37.146813153000295,175.87954662574793</t>
+        </is>
+      </c>
+      <c r="E687" t="inlineStr">
+        <is>
+          <t>-37.147511942770656,175.87974977185672</t>
+        </is>
+      </c>
+      <c r="F687" t="inlineStr">
+        <is>
+          <t>-37.14821857606048,175.8798636097028</t>
+        </is>
+      </c>
+      <c r="G687" t="inlineStr">
+        <is>
+          <t>-37.1489229449763,175.8800574904556</t>
+        </is>
+      </c>
+      <c r="H687" t="inlineStr">
+        <is>
+          <t>-37.14963892558456,175.88009852877624</t>
+        </is>
+      </c>
+      <c r="I687" t="inlineStr">
+        <is>
+          <t>-37.15034475435446,175.8802395198691</t>
+        </is>
+      </c>
+      <c r="J687" t="inlineStr">
+        <is>
+          <t>-37.15104486561279,175.8804518281319</t>
+        </is>
+      </c>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>-37.15173546409537,175.8807066746987</t>
+        </is>
+      </c>
+      <c r="L687" t="inlineStr">
+        <is>
+          <t>-37.152418667976136,175.88099399044182</t>
+        </is>
+      </c>
+      <c r="M687" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>-37.145397049446665,175.8792797484444</t>
+        </is>
+      </c>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>-37.14609917147243,175.87946897613568</t>
+        </is>
+      </c>
+      <c r="D688" t="inlineStr">
+        <is>
+          <t>-37.146800314617074,175.87966734480926</t>
+        </is>
+      </c>
+      <c r="E688" t="inlineStr">
+        <is>
+          <t>-37.147510075421636,175.87976927033122</t>
+        </is>
+      </c>
+      <c r="F688" t="inlineStr">
+        <is>
+          <t>-37.14821138260218,175.87996072346326</t>
+        </is>
+      </c>
+      <c r="G688" t="inlineStr">
+        <is>
+          <t>-37.148926769522326,175.87999674466832</t>
+        </is>
+      </c>
+      <c r="H688" t="inlineStr">
+        <is>
+          <t>-37.14962418824838,175.88022121173987</t>
+        </is>
+      </c>
+      <c r="I688" t="inlineStr">
+        <is>
+          <t>-37.15032632368438,175.88032418694888</t>
+        </is>
+      </c>
+      <c r="J688" t="inlineStr">
+        <is>
+          <t>-37.151014593359115,175.88056539584298</t>
+        </is>
+      </c>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>-37.15172865091462,175.88072909319146</t>
+        </is>
+      </c>
+      <c r="L688" t="inlineStr">
+        <is>
+          <t>-37.15241145396818,175.88101568934133</t>
+        </is>
+      </c>
+      <c r="M688" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0192/nzd0192.xlsx
+++ b/data/nzd0192/nzd0192.xlsx
@@ -28419,7 +28419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B697"/>
+  <dimension ref="A1:B698"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35397,6 +35397,16 @@
       </c>
       <c r="B697" t="n">
         <v>-0.83</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>2025-07-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B698" t="n">
+        <v>-0.42</v>
       </c>
     </row>
   </sheetData>

--- a/data/nzd0192/nzd0192.xlsx
+++ b/data/nzd0192/nzd0192.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M688"/>
+  <dimension ref="A1:M693"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28408,6 +28408,231 @@
         </is>
       </c>
     </row>
+    <row r="689">
+      <c r="A689" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:57+00:00</t>
+        </is>
+      </c>
+      <c r="B689" t="n">
+        <v>336.6933333333333</v>
+      </c>
+      <c r="C689" t="n">
+        <v>329.8347058823529</v>
+      </c>
+      <c r="D689" t="n">
+        <v>346.1366666666667</v>
+      </c>
+      <c r="E689" t="n">
+        <v>346.9147058823529</v>
+      </c>
+      <c r="F689" t="n">
+        <v>342.0978260869565</v>
+      </c>
+      <c r="G689" t="n">
+        <v>352.5069230769231</v>
+      </c>
+      <c r="H689" t="n">
+        <v>372.4547058823529</v>
+      </c>
+      <c r="I689" t="n">
+        <v>362.0578260869565</v>
+      </c>
+      <c r="J689" t="n">
+        <v>361.6878260869565</v>
+      </c>
+      <c r="K689" t="n">
+        <v>346.3988888888889</v>
+      </c>
+      <c r="L689" t="n">
+        <v>346.2604761904762</v>
+      </c>
+      <c r="M689" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B690" t="n">
+        <v>341.8</v>
+      </c>
+      <c r="C690" t="n">
+        <v>338.1005882352941</v>
+      </c>
+      <c r="D690" t="n">
+        <v>352.56</v>
+      </c>
+      <c r="E690" t="n">
+        <v>345.4905882352941</v>
+      </c>
+      <c r="F690" t="n">
+        <v>349.8660869565218</v>
+      </c>
+      <c r="G690" t="n">
+        <v>357.8307692307692</v>
+      </c>
+      <c r="H690" t="n">
+        <v>369.1805882352941</v>
+      </c>
+      <c r="I690" t="n">
+        <v>365.0560869565218</v>
+      </c>
+      <c r="J690" t="n">
+        <v>364.1760869565218</v>
+      </c>
+      <c r="K690" t="n">
+        <v>347.3033333333333</v>
+      </c>
+      <c r="L690" t="n">
+        <v>347.73</v>
+      </c>
+      <c r="M690" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-11 21:59:52+00:00</t>
+        </is>
+      </c>
+      <c r="B691" t="n">
+        <v>339.1333333333333</v>
+      </c>
+      <c r="C691" t="n">
+        <v>336.1582352941176</v>
+      </c>
+      <c r="D691" t="n">
+        <v>342.3066666666666</v>
+      </c>
+      <c r="E691" t="n">
+        <v>344.1482352941176</v>
+      </c>
+      <c r="F691" t="n">
+        <v>340.7395652173913</v>
+      </c>
+      <c r="G691" t="n">
+        <v>360.6053846153847</v>
+      </c>
+      <c r="H691" t="n">
+        <v>365.5082352941176</v>
+      </c>
+      <c r="I691" t="n">
+        <v>361.6795652173913</v>
+      </c>
+      <c r="J691" t="n">
+        <v>354.6995652173913</v>
+      </c>
+      <c r="K691" t="n">
+        <v>349.1522222222222</v>
+      </c>
+      <c r="L691" t="n">
+        <v>342.6333333333333</v>
+      </c>
+      <c r="M691" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B692" t="n">
+        <v>327.9266666666667</v>
+      </c>
+      <c r="C692" t="n">
+        <v>335.7417647058824</v>
+      </c>
+      <c r="D692" t="n">
+        <v>343.7033333333334</v>
+      </c>
+      <c r="E692" t="n">
+        <v>337.6717647058824</v>
+      </c>
+      <c r="F692" t="n">
+        <v>342.1004347826087</v>
+      </c>
+      <c r="G692" t="n">
+        <v>346.2146153846153</v>
+      </c>
+      <c r="H692" t="n">
+        <v>366.3617647058824</v>
+      </c>
+      <c r="I692" t="n">
+        <v>360.6704347826087</v>
+      </c>
+      <c r="J692" t="n">
+        <v>362.0704347826087</v>
+      </c>
+      <c r="K692" t="n">
+        <v>343.9977777777778</v>
+      </c>
+      <c r="L692" t="n">
+        <v>342.8866666666667</v>
+      </c>
+      <c r="M692" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-19 21:59:57+00:00</t>
+        </is>
+      </c>
+      <c r="B693" t="n">
+        <v>342.8</v>
+      </c>
+      <c r="C693" t="n">
+        <v>339.3864705882353</v>
+      </c>
+      <c r="D693" t="n">
+        <v>345.23</v>
+      </c>
+      <c r="E693" t="n">
+        <v>350.1364705882353</v>
+      </c>
+      <c r="F693" t="n">
+        <v>350.2082608695652</v>
+      </c>
+      <c r="G693" t="n">
+        <v>353.2615384615385</v>
+      </c>
+      <c r="H693" t="n">
+        <v>371.2364705882353</v>
+      </c>
+      <c r="I693" t="n">
+        <v>368.4782608695652</v>
+      </c>
+      <c r="J693" t="n">
+        <v>367.0882608695652</v>
+      </c>
+      <c r="K693" t="n">
+        <v>351.7466666666667</v>
+      </c>
+      <c r="L693" t="n">
+        <v>346.3471428571428</v>
+      </c>
+      <c r="M693" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -28419,7 +28644,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B698"/>
+  <dimension ref="A1:B703"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35407,6 +35632,56 @@
       </c>
       <c r="B698" t="n">
         <v>-0.42</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B699" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B700" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>2025-08-11 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B701" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B702" t="n">
+        <v>-0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>2025-08-19 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B703" t="n">
+        <v>-0.75</v>
       </c>
     </row>
   </sheetData>
@@ -35580,28 +35855,28 @@
         <v>0.068</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1504930305115368</v>
+        <v>0.1416618540759748</v>
       </c>
       <c r="J2" t="n">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="K2" t="n">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01126844194658239</v>
+        <v>0.01012240318958246</v>
       </c>
       <c r="M2" t="n">
-        <v>8.302431636627961</v>
+        <v>8.281204476045597</v>
       </c>
       <c r="N2" t="n">
-        <v>112.1347712582919</v>
+        <v>111.6581522393379</v>
       </c>
       <c r="O2" t="n">
-        <v>10.58937067338243</v>
+        <v>10.56684211291803</v>
       </c>
       <c r="P2" t="n">
-        <v>339.2420635711318</v>
+        <v>339.3319716254431</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -35658,28 +35933,28 @@
         <v>0.1063</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3176150438943324</v>
+        <v>0.3051389910071721</v>
       </c>
       <c r="J3" t="n">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="K3" t="n">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04694841419742601</v>
+        <v>0.04397778879826331</v>
       </c>
       <c r="M3" t="n">
-        <v>8.696080473504262</v>
+        <v>8.685904508939613</v>
       </c>
       <c r="N3" t="n">
-        <v>115.1246064671322</v>
+        <v>114.7291706564863</v>
       </c>
       <c r="O3" t="n">
-        <v>10.72961352832115</v>
+        <v>10.71117036819443</v>
       </c>
       <c r="P3" t="n">
-        <v>335.3489637853003</v>
+        <v>335.4763342735108</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -35736,28 +36011,28 @@
         <v>0.0847</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2562090425648106</v>
+        <v>0.2552061585220727</v>
       </c>
       <c r="J4" t="n">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="K4" t="n">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03404710979612724</v>
+        <v>0.03431335567918992</v>
       </c>
       <c r="M4" t="n">
-        <v>7.868648134404609</v>
+        <v>7.825662909464521</v>
       </c>
       <c r="N4" t="n">
-        <v>103.6868894626496</v>
+        <v>102.8833779122936</v>
       </c>
       <c r="O4" t="n">
-        <v>10.18267594803299</v>
+        <v>10.14314437993927</v>
       </c>
       <c r="P4" t="n">
-        <v>339.9240000488251</v>
+        <v>339.9343645384293</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -35814,28 +36089,28 @@
         <v>0.0992</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3088991942514606</v>
+        <v>0.3013714274483891</v>
       </c>
       <c r="J5" t="n">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="K5" t="n">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05168441440917859</v>
+        <v>0.04995251318694527</v>
       </c>
       <c r="M5" t="n">
-        <v>7.917816488853865</v>
+        <v>7.887337301192198</v>
       </c>
       <c r="N5" t="n">
-        <v>99.41623740716913</v>
+        <v>98.87005640486585</v>
       </c>
       <c r="O5" t="n">
-        <v>9.970769148223678</v>
+        <v>9.943342315583118</v>
       </c>
       <c r="P5" t="n">
-        <v>341.4954925079378</v>
+        <v>341.5723278190378</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -35892,28 +36167,28 @@
         <v>0.1358</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3162951310583504</v>
+        <v>0.3013937050910195</v>
       </c>
       <c r="J6" t="n">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="K6" t="n">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0543165265529526</v>
+        <v>0.05004533825038815</v>
       </c>
       <c r="M6" t="n">
-        <v>8.248901985712484</v>
+        <v>8.261456103857169</v>
       </c>
       <c r="N6" t="n">
-        <v>98.70651027819862</v>
+        <v>98.61092674944908</v>
       </c>
       <c r="O6" t="n">
-        <v>9.93511501081888</v>
+        <v>9.930303457067618</v>
       </c>
       <c r="P6" t="n">
-        <v>345.3292777594514</v>
+        <v>345.4799604424641</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -35970,28 +36245,28 @@
         <v>0.0796</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1926835003948659</v>
+        <v>0.1826691681802685</v>
       </c>
       <c r="J7" t="n">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="K7" t="n">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="L7" t="n">
-        <v>0.02162616519928684</v>
+        <v>0.01971171644886827</v>
       </c>
       <c r="M7" t="n">
-        <v>7.813866834056454</v>
+        <v>7.798881165117416</v>
       </c>
       <c r="N7" t="n">
-        <v>95.24385824001979</v>
+        <v>94.91075303987382</v>
       </c>
       <c r="O7" t="n">
-        <v>9.759295991003643</v>
+        <v>9.742214996594656</v>
       </c>
       <c r="P7" t="n">
-        <v>355.0281225080163</v>
+        <v>355.1298161473177</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -36048,28 +36323,28 @@
         <v>0.09760000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1257055170579862</v>
+        <v>0.1286665783020156</v>
       </c>
       <c r="J8" t="n">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="K8" t="n">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="L8" t="n">
-        <v>0.008518221766710576</v>
+        <v>0.009072754749173684</v>
       </c>
       <c r="M8" t="n">
-        <v>8.282228511187256</v>
+        <v>8.229763413793853</v>
       </c>
       <c r="N8" t="n">
-        <v>104.7860846310523</v>
+        <v>103.9021318456555</v>
       </c>
       <c r="O8" t="n">
-        <v>10.23650744302237</v>
+        <v>10.19323951674126</v>
       </c>
       <c r="P8" t="n">
-        <v>363.9220815654707</v>
+        <v>363.8920844260917</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -36126,28 +36401,28 @@
         <v>0.1378</v>
       </c>
       <c r="I9" t="n">
-        <v>0.08851211638625572</v>
+        <v>0.08970586939778807</v>
       </c>
       <c r="J9" t="n">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="K9" t="n">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="L9" t="n">
-        <v>0.005437719063025037</v>
+        <v>0.005676785218315605</v>
       </c>
       <c r="M9" t="n">
-        <v>6.609206991064921</v>
+        <v>6.571455081981634</v>
       </c>
       <c r="N9" t="n">
-        <v>81.18410824559039</v>
+        <v>80.53975050692168</v>
       </c>
       <c r="O9" t="n">
-        <v>9.010222430417043</v>
+        <v>8.974394158210441</v>
       </c>
       <c r="P9" t="n">
-        <v>360.550735292635</v>
+        <v>360.5386280340778</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -36204,28 +36479,28 @@
         <v>0.1395</v>
       </c>
       <c r="I10" t="n">
-        <v>0.05994272100035855</v>
+        <v>0.06942476158613455</v>
       </c>
       <c r="J10" t="n">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="K10" t="n">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001854109237739432</v>
+        <v>0.002518747992725112</v>
       </c>
       <c r="M10" t="n">
-        <v>8.522176296613171</v>
+        <v>8.502747875641344</v>
       </c>
       <c r="N10" t="n">
-        <v>109.2310485003531</v>
+        <v>108.7108749887146</v>
       </c>
       <c r="O10" t="n">
-        <v>10.4513658676918</v>
+        <v>10.42645073784529</v>
       </c>
       <c r="P10" t="n">
-        <v>354.5406092631334</v>
+        <v>354.4444686925208</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -36282,28 +36557,28 @@
         <v>0.1023</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1643957352802725</v>
+        <v>0.164417727299985</v>
       </c>
       <c r="J11" t="n">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="K11" t="n">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01553774110326112</v>
+        <v>0.01580565588518534</v>
       </c>
       <c r="M11" t="n">
-        <v>7.572511075861406</v>
+        <v>7.523566336450986</v>
       </c>
       <c r="N11" t="n">
-        <v>97.75409163593184</v>
+        <v>96.92877926333527</v>
       </c>
       <c r="O11" t="n">
-        <v>9.887066887400522</v>
+        <v>9.845241452769722</v>
       </c>
       <c r="P11" t="n">
-        <v>343.4216960375732</v>
+        <v>343.421465694725</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -36360,28 +36635,28 @@
         <v>0.1254</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1978316224066352</v>
+        <v>0.1945836712180791</v>
       </c>
       <c r="J12" t="n">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="K12" t="n">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02562923659000282</v>
+        <v>0.02522818881592748</v>
       </c>
       <c r="M12" t="n">
-        <v>7.069975089408694</v>
+        <v>7.026647767708963</v>
       </c>
       <c r="N12" t="n">
-        <v>84.8883035857461</v>
+        <v>84.1841873501677</v>
       </c>
       <c r="O12" t="n">
-        <v>9.213484877381962</v>
+        <v>9.175194131470336</v>
       </c>
       <c r="P12" t="n">
-        <v>341.9633661077518</v>
+        <v>341.9961697504777</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -36419,7 +36694,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M688"/>
+  <dimension ref="A1:M693"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76503,6 +76778,341 @@
         </is>
       </c>
     </row>
+    <row r="689">
+      <c r="A689" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:57+00:00</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>-37.145387777709054,175.8793669307906</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>-37.14610743970448,175.87939122972142</t>
+        </is>
+      </c>
+      <c r="D689" t="inlineStr">
+        <is>
+          <t>-37.146799622677364,175.8796738510708</t>
+        </is>
+      </c>
+      <c r="E689" t="inlineStr">
+        <is>
+          <t>-37.14750873863191,175.8797832287935</t>
+        </is>
+      </c>
+      <c r="F689" t="inlineStr">
+        <is>
+          <t>-37.148222797706225,175.8798066157613</t>
+        </is>
+      </c>
+      <c r="G689" t="inlineStr">
+        <is>
+          <t>-37.148928071708006,175.8799760617613</t>
+        </is>
+      </c>
+      <c r="H689" t="inlineStr">
+        <is>
+          <t>-37.14962064680292,175.88025069282145</t>
+        </is>
+      </c>
+      <c r="I689" t="inlineStr">
+        <is>
+          <t>-37.15032921854178,175.8803108885318</t>
+        </is>
+      </c>
+      <c r="J689" t="inlineStr">
+        <is>
+          <t>-37.15101491999861,175.8805641704429</t>
+        </is>
+      </c>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>-37.15174392905827,175.8806788210596</t>
+        </is>
+      </c>
+      <c r="L689" t="inlineStr">
+        <is>
+          <t>-37.152414234281835,175.88100732648203</t>
+        </is>
+      </c>
+      <c r="M689" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>-37.14538172040321,175.87942388743116</t>
+        </is>
+      </c>
+      <c r="C690" t="inlineStr">
+        <is>
+          <t>-37.146097635040974,175.87948342318865</t>
+        </is>
+      </c>
+      <c r="D690" t="inlineStr">
+        <is>
+          <t>-37.146792003409246,175.8797454942956</t>
+        </is>
+      </c>
+      <c r="E690" t="inlineStr">
+        <is>
+          <t>-37.1475102623455,175.87976731851228</t>
+        </is>
+      </c>
+      <c r="F690" t="inlineStr">
+        <is>
+          <t>-37.148216350845324,175.87989365086509</t>
+        </is>
+      </c>
+      <c r="G690" t="inlineStr">
+        <is>
+          <t>-37.14892431182045,175.8800357807405</t>
+        </is>
+      </c>
+      <c r="H690" t="inlineStr">
+        <is>
+          <t>-37.149625023286184,175.88021426038313</t>
+        </is>
+      </c>
+      <c r="I690" t="inlineStr">
+        <is>
+          <t>-37.15032213194474,175.88034344297935</t>
+        </is>
+      </c>
+      <c r="J690" t="inlineStr">
+        <is>
+          <t>-37.15100783909483,175.88059073469984</t>
+        </is>
+      </c>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>-37.15174103754418,175.8806883354801</t>
+        </is>
+      </c>
+      <c r="L690" t="inlineStr">
+        <is>
+          <t>-37.15240915732995,175.8810225973595</t>
+        </is>
+      </c>
+      <c r="M690" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-11 21:59:52+00:00</t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>-37.14538488349057,175.87939414506147</t>
+        </is>
+      </c>
+      <c r="C691" t="inlineStr">
+        <is>
+          <t>-37.14609993898977,175.8794617591698</t>
+        </is>
+      </c>
+      <c r="D691" t="inlineStr">
+        <is>
+          <t>-37.14680416574941,175.87963113281384</t>
+        </is>
+      </c>
+      <c r="E691" t="inlineStr">
+        <is>
+          <t>-37.147511698574206,175.87975232170785</t>
+        </is>
+      </c>
+      <c r="F691" t="inlineStr">
+        <is>
+          <t>-37.14822392491711,175.87979139789044</t>
+        </is>
+      </c>
+      <c r="G691" t="inlineStr">
+        <is>
+          <t>-37.14892235227755,175.88006690432618</t>
+        </is>
+      </c>
+      <c r="H691" t="inlineStr">
+        <is>
+          <t>-37.14962993207379,175.8801733966129</t>
+        </is>
+      </c>
+      <c r="I691" t="inlineStr">
+        <is>
+          <t>-37.15033011258691,175.88030678145918</t>
+        </is>
+      </c>
+      <c r="J691" t="inlineStr">
+        <is>
+          <t>-37.1510348066298,175.88048956491016</t>
+        </is>
+      </c>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>-37.15173512663343,175.8807077851038</t>
+        </is>
+      </c>
+      <c r="L691" t="inlineStr">
+        <is>
+          <t>-37.1524267654282,175.88096963422603</t>
+        </is>
+      </c>
+      <c r="M691" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>-37.145398176284644,175.8792691527204</t>
+        </is>
+      </c>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>-37.1461004329916,175.87945711406803</t>
+        </is>
+      </c>
+      <c r="D692" t="inlineStr">
+        <is>
+          <t>-37.14680250905214,175.8796467106646</t>
+        </is>
+      </c>
+      <c r="E692" t="inlineStr">
+        <is>
+          <t>-37.14751862794223,175.87967996638838</t>
+        </is>
+      </c>
+      <c r="F692" t="inlineStr">
+        <is>
+          <t>-37.14822279554128,175.87980664498897</t>
+        </is>
+      </c>
+      <c r="G692" t="inlineStr">
+        <is>
+          <t>-37.148932515518645,175.87990547928473</t>
+        </is>
+      </c>
+      <c r="H692" t="inlineStr">
+        <is>
+          <t>-37.149628791173086,175.88018289418363</t>
+        </is>
+      </c>
+      <c r="I692" t="inlineStr">
+        <is>
+          <t>-37.1503324977342,175.88029582454433</t>
+        </is>
+      </c>
+      <c r="J692" t="inlineStr">
+        <is>
+          <t>-37.151013831200224,175.8805682551097</t>
+        </is>
+      </c>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>-37.15175160542076,175.8806535622566</t>
+        </is>
+      </c>
+      <c r="L692" t="inlineStr">
+        <is>
+          <t>-37.15242589020607,175.8809722667957</t>
+        </is>
+      </c>
+      <c r="M692" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-19 21:59:57+00:00</t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>-37.14538053424354,175.87943504081903</t>
+        </is>
+      </c>
+      <c r="C693" t="inlineStr">
+        <is>
+          <t>-37.146096109771705,175.87949776526688</t>
+        </is>
+      </c>
+      <c r="D693" t="inlineStr">
+        <is>
+          <t>-37.14680069814922,175.87966373848138</t>
+        </is>
+      </c>
+      <c r="E693" t="inlineStr">
+        <is>
+          <t>-37.14750529154472,175.87981922243392</t>
+        </is>
+      </c>
+      <c r="F693" t="inlineStr">
+        <is>
+          <t>-37.14821606687457,175.87989748455954</t>
+        </is>
+      </c>
+      <c r="G693" t="inlineStr">
+        <is>
+          <t>-37.14892753877386,175.87998452648057</t>
+        </is>
+      </c>
+      <c r="H693" t="inlineStr">
+        <is>
+          <t>-37.14962227520825,175.88023713702256</t>
+        </is>
+      </c>
+      <c r="I693" t="inlineStr">
+        <is>
+          <t>-37.15031404338924,175.880380600172</t>
+        </is>
+      </c>
+      <c r="J693" t="inlineStr">
+        <is>
+          <t>-37.15099955184419,175.88062182457475</t>
+        </is>
+      </c>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>-37.1517268321712,175.88073507768934</t>
+        </is>
+      </c>
+      <c r="L693" t="inlineStr">
+        <is>
+          <t>-37.15241393486347,175.8810082270977</t>
+        </is>
+      </c>
+      <c r="M693" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0192/nzd0192.xlsx
+++ b/data/nzd0192/nzd0192.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M693"/>
+  <dimension ref="A1:M696"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28633,6 +28633,127 @@
         </is>
       </c>
     </row>
+    <row r="694">
+      <c r="A694" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-27 21:59:54+00:00</t>
+        </is>
+      </c>
+      <c r="B694" t="n">
+        <v>331.19</v>
+      </c>
+      <c r="C694" t="n">
+        <v>329.3576470588235</v>
+      </c>
+      <c r="D694" t="n">
+        <v>327.96</v>
+      </c>
+      <c r="E694" t="n">
+        <v>334.8276470588235</v>
+      </c>
+      <c r="F694" t="n">
+        <v>331.41</v>
+      </c>
+      <c r="G694" t="n">
+        <v>344.4453846153846</v>
+      </c>
+      <c r="H694" t="n">
+        <v>355.2676470588235</v>
+      </c>
+      <c r="I694" t="n">
+        <v>352.04</v>
+      </c>
+      <c r="J694" t="n">
+        <v>341.61</v>
+      </c>
+      <c r="K694" t="n">
+        <v>346.3466666666667</v>
+      </c>
+      <c r="L694" t="n">
+        <v>335.3414285714285</v>
+      </c>
+      <c r="M694" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-12 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr"/>
+      <c r="C695" t="inlineStr"/>
+      <c r="D695" t="inlineStr"/>
+      <c r="E695" t="n">
+        <v>351.6870588235294</v>
+      </c>
+      <c r="F695" t="n">
+        <v>369.3904347826087</v>
+      </c>
+      <c r="G695" t="n">
+        <v>371.1453846153846</v>
+      </c>
+      <c r="H695" t="n">
+        <v>368.6770588235294</v>
+      </c>
+      <c r="I695" t="inlineStr"/>
+      <c r="J695" t="inlineStr"/>
+      <c r="K695" t="inlineStr"/>
+      <c r="L695" t="inlineStr"/>
+      <c r="M695" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B696" t="n">
+        <v>340.24</v>
+      </c>
+      <c r="C696" t="n">
+        <v>335.5558823529412</v>
+      </c>
+      <c r="D696" t="n">
+        <v>335.17</v>
+      </c>
+      <c r="E696" t="n">
+        <v>342.1258823529412</v>
+      </c>
+      <c r="F696" t="n">
+        <v>335.9165217391304</v>
+      </c>
+      <c r="G696" t="n">
+        <v>362.5192307692308</v>
+      </c>
+      <c r="H696" t="n">
+        <v>365.8758823529412</v>
+      </c>
+      <c r="I696" t="n">
+        <v>359.8165217391305</v>
+      </c>
+      <c r="J696" t="n">
+        <v>354.0965217391304</v>
+      </c>
+      <c r="K696" t="n">
+        <v>352.6733333333333</v>
+      </c>
+      <c r="L696" t="n">
+        <v>355.1985714285714</v>
+      </c>
+      <c r="M696" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -28644,7 +28765,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B703"/>
+  <dimension ref="A1:B706"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35682,6 +35803,36 @@
       </c>
       <c r="B703" t="n">
         <v>-0.75</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>2025-08-27 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B704" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>2025-09-12 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B705" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B706" t="n">
+        <v>0.57</v>
       </c>
     </row>
   </sheetData>
@@ -35855,28 +36006,28 @@
         <v>0.068</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1416618540759748</v>
+        <v>0.1369782828162156</v>
       </c>
       <c r="J2" t="n">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="K2" t="n">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01012240318958246</v>
+        <v>0.009512392848580298</v>
       </c>
       <c r="M2" t="n">
-        <v>8.281204476045597</v>
+        <v>8.279366588627187</v>
       </c>
       <c r="N2" t="n">
-        <v>111.6581522393379</v>
+        <v>111.5249147030819</v>
       </c>
       <c r="O2" t="n">
-        <v>10.56684211291803</v>
+        <v>10.56053572045859</v>
       </c>
       <c r="P2" t="n">
-        <v>339.3319716254431</v>
+        <v>339.3797871065007</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -35933,28 +36084,28 @@
         <v>0.1063</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3051389910071721</v>
+        <v>0.2981075025528262</v>
       </c>
       <c r="J3" t="n">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="K3" t="n">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04397778879826331</v>
+        <v>0.0421721991597559</v>
       </c>
       <c r="M3" t="n">
-        <v>8.685904508939613</v>
+        <v>8.69285712611585</v>
       </c>
       <c r="N3" t="n">
-        <v>114.7291706564863</v>
+        <v>114.7798327135827</v>
       </c>
       <c r="O3" t="n">
-        <v>10.71117036819443</v>
+        <v>10.71353502414505</v>
       </c>
       <c r="P3" t="n">
-        <v>335.4763342735108</v>
+        <v>335.5484014160619</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -36011,28 +36162,28 @@
         <v>0.0847</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2552061585220727</v>
+        <v>0.2454655941676694</v>
       </c>
       <c r="J4" t="n">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="K4" t="n">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="L4" t="n">
-        <v>0.03431335567918992</v>
+        <v>0.0317837345661518</v>
       </c>
       <c r="M4" t="n">
-        <v>7.825662909464521</v>
+        <v>7.851944172590398</v>
       </c>
       <c r="N4" t="n">
-        <v>102.8833779122936</v>
+        <v>103.356179495871</v>
       </c>
       <c r="O4" t="n">
-        <v>10.14314437993927</v>
+        <v>10.16642412531914</v>
       </c>
       <c r="P4" t="n">
-        <v>339.9343645384293</v>
+        <v>340.0352675704106</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -36089,28 +36240,28 @@
         <v>0.0992</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3013714274483891</v>
+        <v>0.2950792198151075</v>
       </c>
       <c r="J5" t="n">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="K5" t="n">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04995251318694527</v>
+        <v>0.04822316872269594</v>
       </c>
       <c r="M5" t="n">
-        <v>7.887337301192198</v>
+        <v>7.885310908904844</v>
       </c>
       <c r="N5" t="n">
-        <v>98.87005640486585</v>
+        <v>98.82361688036022</v>
       </c>
       <c r="O5" t="n">
-        <v>9.943342315583118</v>
+        <v>9.941006834338271</v>
       </c>
       <c r="P5" t="n">
-        <v>341.5723278190378</v>
+        <v>341.6367677483271</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -36167,28 +36318,28 @@
         <v>0.1358</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3013937050910195</v>
+        <v>0.2933446848726275</v>
       </c>
       <c r="J6" t="n">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="K6" t="n">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05004533825038815</v>
+        <v>0.04714041149735793</v>
       </c>
       <c r="M6" t="n">
-        <v>8.261456103857169</v>
+        <v>8.324065038835052</v>
       </c>
       <c r="N6" t="n">
-        <v>98.61092674944908</v>
+        <v>100.0097902004652</v>
       </c>
       <c r="O6" t="n">
-        <v>9.930303457067618</v>
+        <v>10.00048949804284</v>
       </c>
       <c r="P6" t="n">
-        <v>345.4799604424641</v>
+        <v>345.5616698456244</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -36245,28 +36396,28 @@
         <v>0.0796</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1826691681802685</v>
+        <v>0.182157625681045</v>
       </c>
       <c r="J7" t="n">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="K7" t="n">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01971171644886827</v>
+        <v>0.01966876670241124</v>
       </c>
       <c r="M7" t="n">
-        <v>7.798881165117416</v>
+        <v>7.809681037259748</v>
       </c>
       <c r="N7" t="n">
-        <v>94.91075303987382</v>
+        <v>95.07008823531017</v>
       </c>
       <c r="O7" t="n">
-        <v>9.742214996594656</v>
+        <v>9.750389132506978</v>
       </c>
       <c r="P7" t="n">
-        <v>355.1298161473177</v>
+        <v>355.1348951680172</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -36323,28 +36474,28 @@
         <v>0.09760000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1286665783020156</v>
+        <v>0.1246642933823586</v>
       </c>
       <c r="J8" t="n">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="K8" t="n">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="L8" t="n">
-        <v>0.009072754749173684</v>
+        <v>0.008589779567872768</v>
       </c>
       <c r="M8" t="n">
-        <v>8.229763413793853</v>
+        <v>8.212432557617584</v>
       </c>
       <c r="N8" t="n">
-        <v>103.9021318456555</v>
+        <v>103.5956005570366</v>
       </c>
       <c r="O8" t="n">
-        <v>10.19323951674126</v>
+        <v>10.17819240125852</v>
       </c>
       <c r="P8" t="n">
-        <v>363.8920844260917</v>
+        <v>363.932745852206</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -36401,28 +36552,28 @@
         <v>0.1378</v>
       </c>
       <c r="I9" t="n">
-        <v>0.08970586939778807</v>
+        <v>0.08518852543779068</v>
       </c>
       <c r="J9" t="n">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="K9" t="n">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="L9" t="n">
-        <v>0.005676785218315605</v>
+        <v>0.00514341562901488</v>
       </c>
       <c r="M9" t="n">
-        <v>6.571455081981634</v>
+        <v>6.573831309049385</v>
       </c>
       <c r="N9" t="n">
-        <v>80.53975050692168</v>
+        <v>80.47759100753349</v>
       </c>
       <c r="O9" t="n">
-        <v>8.974394158210441</v>
+        <v>8.970930331216127</v>
       </c>
       <c r="P9" t="n">
-        <v>360.5386280340778</v>
+        <v>360.5845282568731</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -36479,28 +36630,28 @@
         <v>0.1395</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06942476158613455</v>
+        <v>0.06399775635380134</v>
       </c>
       <c r="J10" t="n">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="K10" t="n">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002518747992725112</v>
+        <v>0.002148382179745223</v>
       </c>
       <c r="M10" t="n">
-        <v>8.502747875641344</v>
+        <v>8.502461079375475</v>
       </c>
       <c r="N10" t="n">
-        <v>108.7108749887146</v>
+        <v>108.7115001063173</v>
       </c>
       <c r="O10" t="n">
-        <v>10.42645073784529</v>
+        <v>10.42648071529015</v>
       </c>
       <c r="P10" t="n">
-        <v>354.4444686925208</v>
+        <v>354.4996270036707</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -36557,28 +36708,28 @@
         <v>0.1023</v>
       </c>
       <c r="I11" t="n">
-        <v>0.164417727299985</v>
+        <v>0.1656082317091522</v>
       </c>
       <c r="J11" t="n">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="K11" t="n">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01580565588518534</v>
+        <v>0.01613515476590388</v>
       </c>
       <c r="M11" t="n">
-        <v>7.523566336450986</v>
+        <v>7.507113890295178</v>
       </c>
       <c r="N11" t="n">
-        <v>96.92877926333527</v>
+        <v>96.62569861237193</v>
       </c>
       <c r="O11" t="n">
-        <v>9.845241452769722</v>
+        <v>9.829837161030285</v>
       </c>
       <c r="P11" t="n">
-        <v>343.421465694725</v>
+        <v>343.409369395779</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -36635,28 +36786,28 @@
         <v>0.1254</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1945836712180791</v>
+        <v>0.1934043789122863</v>
       </c>
       <c r="J12" t="n">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="K12" t="n">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02522818881592748</v>
+        <v>0.02499515228343452</v>
       </c>
       <c r="M12" t="n">
-        <v>7.026647767708963</v>
+        <v>7.037736726030921</v>
       </c>
       <c r="N12" t="n">
-        <v>84.1841873501677</v>
+        <v>84.24790053559626</v>
       </c>
       <c r="O12" t="n">
-        <v>9.175194131470336</v>
+        <v>9.178665509516961</v>
       </c>
       <c r="P12" t="n">
-        <v>341.9961697504777</v>
+        <v>342.00798254859</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -36694,7 +36845,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M693"/>
+  <dimension ref="A1:M696"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77113,6 +77264,179 @@
         </is>
       </c>
     </row>
+    <row r="694">
+      <c r="A694" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-27 21:59:54+00:00</t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>-37.145394305493376,175.87930554996018</t>
+        </is>
+      </c>
+      <c r="C694" t="inlineStr">
+        <is>
+          <t>-37.14610800557067,175.87938590884795</t>
+        </is>
+      </c>
+      <c r="D694" t="inlineStr">
+        <is>
+          <t>-37.146821183353225,175.87947111589446</t>
+        </is>
+      </c>
+      <c r="E694" t="inlineStr">
+        <is>
+          <t>-37.14752167093428,175.8796481918175</t>
+        </is>
+      </c>
+      <c r="F694" t="inlineStr">
+        <is>
+          <t>-37.1482316674036,175.87968687000233</t>
+        </is>
+      </c>
+      <c r="G694" t="inlineStr">
+        <is>
+          <t>-37.14893376499332,175.87988563335412</t>
+        </is>
+      </c>
+      <c r="H694" t="inlineStr">
+        <is>
+          <t>-37.14964362046488,175.88005944537466</t>
+        </is>
+      </c>
+      <c r="I694" t="inlineStr">
+        <is>
+          <t>-37.150352896303865,175.88020211716324</t>
+        </is>
+      </c>
+      <c r="J694" t="inlineStr">
+        <is>
+          <t>-37.15107205574034,175.88034982273504</t>
+        </is>
+      </c>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>-37.151744096013,175.88067827170119</t>
+        </is>
+      </c>
+      <c r="L694" t="inlineStr">
+        <is>
+          <t>-37.15245195765339,175.8808938587476</t>
+        </is>
+      </c>
+      <c r="M694" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-12 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr"/>
+      <c r="C695" t="inlineStr"/>
+      <c r="D695" t="inlineStr"/>
+      <c r="E695" t="inlineStr">
+        <is>
+          <t>-37.147503632508204,175.87983654564525</t>
+        </is>
+      </c>
+      <c r="F695" t="inlineStr">
+        <is>
+          <t>-37.14820014735645,175.8801124003401</t>
+        </is>
+      </c>
+      <c r="G695" t="inlineStr">
+        <is>
+          <t>-37.14891490843955,175.88018513424024</t>
+        </is>
+      </c>
+      <c r="H695" t="inlineStr">
+        <is>
+          <t>-37.14962569634839,175.88020865740617</t>
+        </is>
+      </c>
+      <c r="I695" t="inlineStr"/>
+      <c r="J695" t="inlineStr"/>
+      <c r="K695" t="inlineStr"/>
+      <c r="L695" t="inlineStr"/>
+      <c r="M695" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>-37.1453835708102,175.87940648814524</t>
+        </is>
+      </c>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>-37.14610065347822,175.87945504083052</t>
+        </is>
+      </c>
+      <c r="D696" t="inlineStr">
+        <is>
+          <t>-37.146812631085034,175.8795515333301</t>
+        </is>
+      </c>
+      <c r="E696" t="inlineStr">
+        <is>
+          <t>-37.1475138623543,175.87972972792318</t>
+        </is>
+      </c>
+      <c r="F696" t="inlineStr">
+        <is>
+          <t>-37.14822792751043,175.87973736080454</t>
+        </is>
+      </c>
+      <c r="G696" t="inlineStr">
+        <is>
+          <t>-37.14892100063913,175.88008837243726</t>
+        </is>
+      </c>
+      <c r="H696" t="inlineStr">
+        <is>
+          <t>-37.14962944064525,175.88017748757207</t>
+        </is>
+      </c>
+      <c r="I696" t="inlineStr">
+        <is>
+          <t>-37.150334516014034,175.88028655294494</t>
+        </is>
+      </c>
+      <c r="J696" t="inlineStr">
+        <is>
+          <t>-37.15103652272035,175.88048312691444</t>
+        </is>
+      </c>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>-37.151723869608055,175.88074482587467</t>
+        </is>
+      </c>
+      <c r="L696" t="inlineStr">
+        <is>
+          <t>-37.15238335467161,175.88110020861666</t>
+        </is>
+      </c>
+      <c r="M696" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0192/nzd0192.xlsx
+++ b/data/nzd0192/nzd0192.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M696"/>
+  <dimension ref="A1:M697"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28754,6 +28754,51 @@
         </is>
       </c>
     </row>
+    <row r="697">
+      <c r="A697" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-28 22:00:04+00:00</t>
+        </is>
+      </c>
+      <c r="B697" t="n">
+        <v>354.3033333333333</v>
+      </c>
+      <c r="C697" t="n">
+        <v>345.2005882352942</v>
+      </c>
+      <c r="D697" t="n">
+        <v>351.1066666666667</v>
+      </c>
+      <c r="E697" t="n">
+        <v>348.6705882352941</v>
+      </c>
+      <c r="F697" t="n">
+        <v>345.8743478260869</v>
+      </c>
+      <c r="G697" t="n">
+        <v>363.0761538461539</v>
+      </c>
+      <c r="H697" t="n">
+        <v>380.7305882352941</v>
+      </c>
+      <c r="I697" t="n">
+        <v>369.284347826087</v>
+      </c>
+      <c r="J697" t="n">
+        <v>372.3743478260869</v>
+      </c>
+      <c r="K697" t="n">
+        <v>354.3422222222222</v>
+      </c>
+      <c r="L697" t="n">
+        <v>356.7990476190476</v>
+      </c>
+      <c r="M697" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -28765,7 +28810,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B706"/>
+  <dimension ref="A1:B707"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35833,6 +35878,16 @@
       </c>
       <c r="B706" t="n">
         <v>0.57</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>2025-09-28 22:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="B707" t="n">
+        <v>0.38</v>
       </c>
     </row>
   </sheetData>
@@ -36845,7 +36900,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M696"/>
+  <dimension ref="A1:M697"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77437,6 +77492,73 @@
         </is>
       </c>
     </row>
+    <row r="697">
+      <c r="A697" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-28 22:00:04+00:00</t>
+        </is>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>-37.14536688937901,175.87956334192748</t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>-37.14608921324458,175.87956261297154</t>
+        </is>
+      </c>
+      <c r="D697" t="inlineStr">
+        <is>
+          <t>-37.146793727336664,175.87972928441337</t>
+        </is>
+      </c>
+      <c r="E697" t="inlineStr">
+        <is>
+          <t>-37.147506859948706,175.87980284555806</t>
+        </is>
+      </c>
+      <c r="F697" t="inlineStr">
+        <is>
+          <t>-37.14821966358789,175.87984892767454</t>
+        </is>
+      </c>
+      <c r="G697" t="inlineStr">
+        <is>
+          <t>-37.14892060731597,175.88009461958833</t>
+        </is>
+      </c>
+      <c r="H697" t="inlineStr">
+        <is>
+          <t>-37.14960958445709,175.88034278190733</t>
+        </is>
+      </c>
+      <c r="I697" t="inlineStr">
+        <is>
+          <t>-37.15031213814277,175.88038935248113</t>
+        </is>
+      </c>
+      <c r="J697" t="inlineStr">
+        <is>
+          <t>-37.15098450906597,175.8806782579242</t>
+        </is>
+      </c>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>-37.151718534150675,175.88076238195703</t>
+        </is>
+      </c>
+      <c r="L697" t="inlineStr">
+        <is>
+          <t>-37.15237782528918,175.8811168403</t>
+        </is>
+      </c>
+      <c r="M697" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0192/nzd0192.xlsx
+++ b/data/nzd0192/nzd0192.xlsx
@@ -36061,28 +36061,28 @@
         <v>0.068</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1369782828162156</v>
+        <v>0.1406096430065779</v>
       </c>
       <c r="J2" t="n">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="K2" t="n">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="L2" t="n">
-        <v>0.009512392848580298</v>
+        <v>0.01003202859513985</v>
       </c>
       <c r="M2" t="n">
-        <v>8.279366588627187</v>
+        <v>8.283423353071102</v>
       </c>
       <c r="N2" t="n">
-        <v>111.5249147030819</v>
+        <v>111.5533100228315</v>
       </c>
       <c r="O2" t="n">
-        <v>10.56053572045859</v>
+        <v>10.5618800420584</v>
       </c>
       <c r="P2" t="n">
-        <v>339.3797871065007</v>
+        <v>339.3425795921759</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -36139,28 +36139,28 @@
         <v>0.1063</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2981075025528262</v>
+        <v>0.2986965043044345</v>
       </c>
       <c r="J3" t="n">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="K3" t="n">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0421721991597559</v>
+        <v>0.04246650931425544</v>
       </c>
       <c r="M3" t="n">
-        <v>8.69285712611585</v>
+        <v>8.681023068319552</v>
       </c>
       <c r="N3" t="n">
-        <v>114.7798327135827</v>
+        <v>114.586424145257</v>
       </c>
       <c r="O3" t="n">
-        <v>10.71353502414505</v>
+        <v>10.70450485287652</v>
       </c>
       <c r="P3" t="n">
-        <v>335.5484014160619</v>
+        <v>335.5423472085792</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -36217,28 +36217,28 @@
         <v>0.0847</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2454655941676694</v>
+        <v>0.2469682349546507</v>
       </c>
       <c r="J4" t="n">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="K4" t="n">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0317837345661518</v>
+        <v>0.03225517558811708</v>
       </c>
       <c r="M4" t="n">
-        <v>7.851944172590398</v>
+        <v>7.846044195571245</v>
       </c>
       <c r="N4" t="n">
-        <v>103.356179495871</v>
+        <v>103.211933833758</v>
       </c>
       <c r="O4" t="n">
-        <v>10.16642412531914</v>
+        <v>10.15932743018739</v>
       </c>
       <c r="P4" t="n">
-        <v>340.0352675704106</v>
+        <v>340.0196580599045</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -36295,28 +36295,28 @@
         <v>0.0992</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2950792198151075</v>
+        <v>0.2948567348317824</v>
       </c>
       <c r="J5" t="n">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="K5" t="n">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04822316872269594</v>
+        <v>0.04830611371590632</v>
       </c>
       <c r="M5" t="n">
-        <v>7.885310908904844</v>
+        <v>7.872458098147512</v>
       </c>
       <c r="N5" t="n">
-        <v>98.82361688036022</v>
+        <v>98.64925421995942</v>
       </c>
       <c r="O5" t="n">
-        <v>9.941006834338271</v>
+        <v>9.932233093315894</v>
       </c>
       <c r="P5" t="n">
-        <v>341.6367677483271</v>
+        <v>341.6390535372356</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -36373,28 +36373,28 @@
         <v>0.1358</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2933446848726275</v>
+        <v>0.2908065416104038</v>
       </c>
       <c r="J6" t="n">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="K6" t="n">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04714041149735793</v>
+        <v>0.04648257041017745</v>
       </c>
       <c r="M6" t="n">
-        <v>8.324065038835052</v>
+        <v>8.323836267769755</v>
       </c>
       <c r="N6" t="n">
-        <v>100.0097902004652</v>
+        <v>99.9235695106243</v>
       </c>
       <c r="O6" t="n">
-        <v>10.00048949804284</v>
+        <v>9.99617774504957</v>
       </c>
       <c r="P6" t="n">
-        <v>345.5616698456244</v>
+        <v>345.5875067045327</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -36451,28 +36451,28 @@
         <v>0.0796</v>
       </c>
       <c r="I7" t="n">
-        <v>0.182157625681045</v>
+        <v>0.183211114268145</v>
       </c>
       <c r="J7" t="n">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="K7" t="n">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01966876670241124</v>
+        <v>0.01995698005887037</v>
       </c>
       <c r="M7" t="n">
-        <v>7.809681037259748</v>
+        <v>7.801151613654941</v>
       </c>
       <c r="N7" t="n">
-        <v>95.07008823531017</v>
+        <v>94.91483120376083</v>
       </c>
       <c r="O7" t="n">
-        <v>9.750389132506978</v>
+        <v>9.742424298076985</v>
       </c>
       <c r="P7" t="n">
-        <v>355.1348951680172</v>
+        <v>355.1241291068228</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -36529,28 +36529,28 @@
         <v>0.09760000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1246642933823586</v>
+        <v>0.1292075785790484</v>
       </c>
       <c r="J8" t="n">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="K8" t="n">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="L8" t="n">
-        <v>0.008589779567872768</v>
+        <v>0.009223828664575717</v>
       </c>
       <c r="M8" t="n">
-        <v>8.212432557617584</v>
+        <v>8.220982671071129</v>
       </c>
       <c r="N8" t="n">
-        <v>103.5956005570366</v>
+        <v>103.7412987870984</v>
       </c>
       <c r="O8" t="n">
-        <v>10.17819240125852</v>
+        <v>10.18534725903336</v>
       </c>
       <c r="P8" t="n">
-        <v>363.932745852206</v>
+        <v>363.8863886386574</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -36607,28 +36607,28 @@
         <v>0.1378</v>
       </c>
       <c r="I9" t="n">
-        <v>0.08518852543779068</v>
+        <v>0.08729135398088676</v>
       </c>
       <c r="J9" t="n">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="K9" t="n">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="L9" t="n">
-        <v>0.00514341562901488</v>
+        <v>0.005412704491171594</v>
       </c>
       <c r="M9" t="n">
-        <v>6.573831309049385</v>
+        <v>6.573120474008202</v>
       </c>
       <c r="N9" t="n">
-        <v>80.47759100753349</v>
+        <v>80.40893357950604</v>
       </c>
       <c r="O9" t="n">
-        <v>8.970930331216127</v>
+        <v>8.96710285317984</v>
       </c>
       <c r="P9" t="n">
-        <v>360.5845282568731</v>
+        <v>360.5630870809641</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -36685,28 +36685,28 @@
         <v>0.1395</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06399775635380134</v>
+        <v>0.06923684216654778</v>
       </c>
       <c r="J10" t="n">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="K10" t="n">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002148382179745223</v>
+        <v>0.002511705993563762</v>
       </c>
       <c r="M10" t="n">
-        <v>8.502461079375475</v>
+        <v>8.515728158327256</v>
       </c>
       <c r="N10" t="n">
-        <v>108.7115001063173</v>
+        <v>108.9777741069128</v>
       </c>
       <c r="O10" t="n">
-        <v>10.42648071529015</v>
+        <v>10.43924202741333</v>
       </c>
       <c r="P10" t="n">
-        <v>354.4996270036707</v>
+        <v>354.4461731951048</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -36763,28 +36763,28 @@
         <v>0.1023</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1656082317091522</v>
+        <v>0.167785226139173</v>
       </c>
       <c r="J11" t="n">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="K11" t="n">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01613515476590388</v>
+        <v>0.01659906568668246</v>
       </c>
       <c r="M11" t="n">
-        <v>7.507113890295178</v>
+        <v>7.504252507455178</v>
       </c>
       <c r="N11" t="n">
-        <v>96.62569861237193</v>
+        <v>96.52935724840518</v>
       </c>
       <c r="O11" t="n">
-        <v>9.829837161030285</v>
+        <v>9.82493548316757</v>
       </c>
       <c r="P11" t="n">
-        <v>343.409369395779</v>
+        <v>343.3872828646145</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -36841,28 +36841,28 @@
         <v>0.1254</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1934043789122863</v>
+        <v>0.1966309398789469</v>
       </c>
       <c r="J12" t="n">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="K12" t="n">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02499515228343452</v>
+        <v>0.02585171668560282</v>
       </c>
       <c r="M12" t="n">
-        <v>7.037736726030921</v>
+        <v>7.041166774227152</v>
       </c>
       <c r="N12" t="n">
-        <v>84.24790053559626</v>
+        <v>84.26573384363844</v>
       </c>
       <c r="O12" t="n">
-        <v>9.178665509516961</v>
+        <v>9.179636912407725</v>
       </c>
       <c r="P12" t="n">
-        <v>342.00798254859</v>
+        <v>341.9751884507867</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">

--- a/data/nzd0192/nzd0192.xlsx
+++ b/data/nzd0192/nzd0192.xlsx
@@ -36052,13 +36052,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0523</v>
+        <v>0.08890000000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0.068</v>
+        <v>0.1851</v>
       </c>
       <c r="I2" t="n">
         <v>0.1405837556982518</v>
@@ -36130,13 +36130,13 @@
         <v>0.1000746347964821</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0718</v>
+        <v>0.1251</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1063</v>
+        <v>0.2</v>
       </c>
       <c r="I3" t="n">
         <v>0.2987300062329796</v>
@@ -36208,13 +36208,13 @@
         <v>0.2001492695929642</v>
       </c>
       <c r="F4" t="n">
-        <v>0.075</v>
+        <v>0.2</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0654</v>
+        <v>0.1637</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0847</v>
+        <v>0.2</v>
       </c>
       <c r="I4" t="n">
         <v>0.2469890488847646</v>
@@ -36286,13 +36286,13 @@
         <v>0.300223904389028</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0737</v>
+        <v>0.08890000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0992</v>
+        <v>0.2</v>
       </c>
       <c r="I5" t="n">
         <v>0.2948896719262918</v>
@@ -36364,13 +36364,13 @@
         <v>0.4002625367705889</v>
       </c>
       <c r="F6" t="n">
-        <v>0.115</v>
+        <v>0.11</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0973</v>
+        <v>0.09619999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1358</v>
+        <v>0.1235</v>
       </c>
       <c r="I6" t="n">
         <v>0.2908565160947866</v>
@@ -36442,13 +36442,13 @@
         <v>0.5003371715672236</v>
       </c>
       <c r="F7" t="n">
-        <v>0.065</v>
+        <v>0.125</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0586</v>
+        <v>0.1093</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0796</v>
+        <v>0.1495</v>
       </c>
       <c r="I7" t="n">
         <v>0.1832255365767532</v>
@@ -36520,13 +36520,13 @@
         <v>0.6004118063629279</v>
       </c>
       <c r="F8" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.095</v>
       </c>
       <c r="G8" t="n">
-        <v>0.07389999999999999</v>
+        <v>0.0822</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09760000000000001</v>
+        <v>0.1155</v>
       </c>
       <c r="I8" t="n">
         <v>0.1292525000305779</v>
@@ -36598,13 +36598,13 @@
         <v>0.6998414973787729</v>
       </c>
       <c r="F9" t="n">
-        <v>0.115</v>
+        <v>0.14</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0975</v>
+        <v>0.1105</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1378</v>
+        <v>0.1885</v>
       </c>
       <c r="I9" t="n">
         <v>0.08733886361385206</v>
@@ -36676,13 +36676,13 @@
         <v>0.7999161321750023</v>
       </c>
       <c r="F10" t="n">
-        <v>0.115</v>
+        <v>0.1</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0959</v>
+        <v>0.0876</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1395</v>
+        <v>0.1179</v>
       </c>
       <c r="I10" t="n">
         <v>0.06928206392661568</v>
@@ -36754,13 +36754,13 @@
         <v>0.8999253652034143</v>
       </c>
       <c r="F11" t="n">
-        <v>0.09</v>
+        <v>0.105</v>
       </c>
       <c r="G11" t="n">
-        <v>0.07820000000000001</v>
+        <v>0.0838</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1023</v>
+        <v>0.1331</v>
       </c>
       <c r="I11" t="n">
         <v>0.167791329834264</v>
@@ -36832,13 +36832,13 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.105</v>
+        <v>0.145</v>
       </c>
       <c r="G12" t="n">
-        <v>0.08890000000000001</v>
+        <v>0.1136</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1254</v>
+        <v>0.2</v>
       </c>
       <c r="I12" t="n">
         <v>0.1966219699993894</v>

--- a/data/nzd0192/nzd0192.xlsx
+++ b/data/nzd0192/nzd0192.xlsx
@@ -535,7 +535,7 @@
         <v>340.32</v>
       </c>
       <c r="K2" t="n">
-        <v>336.03</v>
+        <v>336.26</v>
       </c>
       <c r="L2" t="n">
         <v>335.1</v>
@@ -580,7 +580,7 @@
         <v>345.91</v>
       </c>
       <c r="K3" t="n">
-        <v>337.59</v>
+        <v>337.96</v>
       </c>
       <c r="L3" t="n">
         <v>336.42</v>
@@ -625,7 +625,7 @@
         <v>370.85</v>
       </c>
       <c r="K4" t="n">
-        <v>357.56</v>
+        <v>358.01</v>
       </c>
       <c r="L4" t="n">
         <v>351.82</v>
@@ -670,7 +670,7 @@
         <v>349.5</v>
       </c>
       <c r="K5" t="n">
-        <v>343.98</v>
+        <v>344.21</v>
       </c>
       <c r="L5" t="n">
         <v>345.26</v>
@@ -715,7 +715,7 @@
         <v>356.28</v>
       </c>
       <c r="K6" t="n">
-        <v>347.42</v>
+        <v>347.11</v>
       </c>
       <c r="L6" t="n">
         <v>346.98</v>
@@ -760,7 +760,7 @@
         <v>354.06</v>
       </c>
       <c r="K7" t="n">
-        <v>352.4</v>
+        <v>352.14</v>
       </c>
       <c r="L7" t="n">
         <v>352.41</v>
@@ -805,7 +805,7 @@
         <v>374.32</v>
       </c>
       <c r="K8" t="n">
-        <v>373.56</v>
+        <v>373.59</v>
       </c>
       <c r="L8" t="n">
         <v>370.97</v>
@@ -850,7 +850,7 @@
         <v>375.31</v>
       </c>
       <c r="K9" t="n">
-        <v>363.4</v>
+        <v>363.68</v>
       </c>
       <c r="L9" t="n">
         <v>359.6</v>
@@ -895,7 +895,7 @@
         <v>362.78</v>
       </c>
       <c r="K10" t="n">
-        <v>358.13</v>
+        <v>357.97</v>
       </c>
       <c r="L10" t="n">
         <v>360.1</v>
@@ -940,7 +940,7 @@
         <v>363.3</v>
       </c>
       <c r="K11" t="n">
-        <v>351.24</v>
+        <v>351.04</v>
       </c>
       <c r="L11" t="n">
         <v>350.28</v>
@@ -985,7 +985,7 @@
         <v>361.97</v>
       </c>
       <c r="K12" t="n">
-        <v>346.06</v>
+        <v>345.76</v>
       </c>
       <c r="L12" t="n">
         <v>351.04</v>
@@ -1030,7 +1030,7 @@
         <v>370.15</v>
       </c>
       <c r="K13" t="n">
-        <v>351.79</v>
+        <v>351.96</v>
       </c>
       <c r="L13" t="n">
         <v>352.19</v>
@@ -1075,7 +1075,7 @@
         <v>354.52</v>
       </c>
       <c r="K14" t="n">
-        <v>341.72</v>
+        <v>341.39</v>
       </c>
       <c r="L14" t="n">
         <v>343.63</v>
@@ -1120,7 +1120,7 @@
         <v>336.81</v>
       </c>
       <c r="K15" t="n">
-        <v>330.89</v>
+        <v>331.13</v>
       </c>
       <c r="L15" t="n">
         <v>335.5</v>
@@ -1165,7 +1165,7 @@
         <v>341.44</v>
       </c>
       <c r="K16" t="n">
-        <v>343.34</v>
+        <v>343.29</v>
       </c>
       <c r="L16" t="n">
         <v>345.3</v>
@@ -1210,7 +1210,7 @@
         <v>352.25</v>
       </c>
       <c r="K17" t="n">
-        <v>346.68</v>
+        <v>346.91</v>
       </c>
       <c r="L17" t="n">
         <v>340.42</v>
@@ -1255,7 +1255,7 @@
         <v>364.43</v>
       </c>
       <c r="K18" t="n">
-        <v>357.46</v>
+        <v>357.88</v>
       </c>
       <c r="L18" t="n">
         <v>351.71</v>
@@ -1300,7 +1300,7 @@
         <v>333.59</v>
       </c>
       <c r="K19" t="n">
-        <v>325.38</v>
+        <v>325.13</v>
       </c>
       <c r="L19" t="n">
         <v>331.11</v>
@@ -1345,7 +1345,7 @@
         <v>347.95</v>
       </c>
       <c r="K20" t="n">
-        <v>341</v>
+        <v>340.73</v>
       </c>
       <c r="L20" t="n">
         <v>337.8</v>
@@ -1390,7 +1390,7 @@
         <v>355.9</v>
       </c>
       <c r="K21" t="n">
-        <v>342.33</v>
+        <v>342.09</v>
       </c>
       <c r="L21" t="n">
         <v>346.07</v>
@@ -1433,7 +1433,7 @@
         <v>347.21</v>
       </c>
       <c r="K22" t="n">
-        <v>337.16</v>
+        <v>337.44</v>
       </c>
       <c r="L22" t="n">
         <v>338.26</v>
@@ -1472,7 +1472,7 @@
         <v>356.37</v>
       </c>
       <c r="K23" t="n">
-        <v>341.81</v>
+        <v>341.71</v>
       </c>
       <c r="L23" t="n">
         <v>347.01</v>
@@ -1538,7 +1538,7 @@
         <v>354.39</v>
       </c>
       <c r="K25" t="n">
-        <v>342.68</v>
+        <v>342.63</v>
       </c>
       <c r="L25" t="n">
         <v>342.6</v>
@@ -1583,7 +1583,7 @@
         <v>359.04</v>
       </c>
       <c r="K26" t="n">
-        <v>339.77</v>
+        <v>339.43</v>
       </c>
       <c r="L26" t="n">
         <v>341.69</v>
@@ -1628,7 +1628,7 @@
         <v>348.4</v>
       </c>
       <c r="K27" t="n">
-        <v>340.83</v>
+        <v>341.01</v>
       </c>
       <c r="L27" t="n">
         <v>340.11</v>
@@ -1671,7 +1671,7 @@
         <v>357.03</v>
       </c>
       <c r="K28" t="n">
-        <v>333.84</v>
+        <v>333.71</v>
       </c>
       <c r="L28" t="n">
         <v>334.01</v>
@@ -1716,7 +1716,7 @@
         <v>358.27</v>
       </c>
       <c r="K29" t="n">
-        <v>340.93</v>
+        <v>340.76</v>
       </c>
       <c r="L29" t="n">
         <v>338.8</v>
@@ -1788,7 +1788,7 @@
         <v>365.4</v>
       </c>
       <c r="K31" t="n">
-        <v>360.63</v>
+        <v>360.42</v>
       </c>
       <c r="L31" t="n">
         <v>352.72</v>
@@ -1833,7 +1833,7 @@
         <v>348.11</v>
       </c>
       <c r="K32" t="n">
-        <v>342.84</v>
+        <v>343.34</v>
       </c>
       <c r="L32" t="n">
         <v>344.24</v>
@@ -1878,7 +1878,7 @@
         <v>355.98</v>
       </c>
       <c r="K33" t="n">
-        <v>344.96</v>
+        <v>344.76</v>
       </c>
       <c r="L33" t="n">
         <v>347.64</v>
@@ -1923,7 +1923,7 @@
         <v>358.14</v>
       </c>
       <c r="K34" t="n">
-        <v>352.84</v>
+        <v>353.03</v>
       </c>
       <c r="L34" t="n">
         <v>349.17</v>
@@ -1968,7 +1968,7 @@
         <v>353.39</v>
       </c>
       <c r="K35" t="n">
-        <v>347.02</v>
+        <v>347.27</v>
       </c>
       <c r="L35" t="n">
         <v>346.26</v>
@@ -2013,7 +2013,7 @@
         <v>355.57</v>
       </c>
       <c r="K36" t="n">
-        <v>344.74</v>
+        <v>344.62</v>
       </c>
       <c r="L36" t="n">
         <v>347.65</v>
@@ -2058,7 +2058,7 @@
         <v>365.9</v>
       </c>
       <c r="K37" t="n">
-        <v>357.85</v>
+        <v>357.58</v>
       </c>
       <c r="L37" t="n">
         <v>353.58</v>
@@ -2103,7 +2103,7 @@
         <v>361.24</v>
       </c>
       <c r="K38" t="n">
-        <v>352.1</v>
+        <v>352.21</v>
       </c>
       <c r="L38" t="n">
         <v>353.54</v>
@@ -2148,7 +2148,7 @@
         <v>360.72</v>
       </c>
       <c r="K39" t="n">
-        <v>351.56</v>
+        <v>351.22</v>
       </c>
       <c r="L39" t="n">
         <v>350.23</v>
@@ -2193,7 +2193,7 @@
         <v>376.46</v>
       </c>
       <c r="K40" t="n">
-        <v>362.37</v>
+        <v>362.66</v>
       </c>
       <c r="L40" t="n">
         <v>355.63</v>
@@ -2238,7 +2238,7 @@
         <v>354.78</v>
       </c>
       <c r="K41" t="n">
-        <v>347.83</v>
+        <v>348.05</v>
       </c>
       <c r="L41" t="n">
         <v>348.52</v>
@@ -2283,7 +2283,7 @@
         <v>359.5</v>
       </c>
       <c r="K42" t="n">
-        <v>346.09</v>
+        <v>345.94</v>
       </c>
       <c r="L42" t="n">
         <v>343.58</v>
@@ -2328,7 +2328,7 @@
         <v>355.31</v>
       </c>
       <c r="K43" t="n">
-        <v>349.52</v>
+        <v>349.8</v>
       </c>
       <c r="L43" t="n">
         <v>341.84</v>
@@ -2398,7 +2398,7 @@
         <v>345.12</v>
       </c>
       <c r="K45" t="n">
-        <v>331.07</v>
+        <v>330.72</v>
       </c>
       <c r="L45" t="n">
         <v>335.98</v>
@@ -2443,7 +2443,7 @@
         <v>358.22</v>
       </c>
       <c r="K46" t="n">
-        <v>344.77</v>
+        <v>344.82</v>
       </c>
       <c r="L46" t="n">
         <v>333.78</v>
@@ -2488,7 +2488,7 @@
         <v>356.39</v>
       </c>
       <c r="K47" t="n">
-        <v>342.72</v>
+        <v>342.86</v>
       </c>
       <c r="L47" t="n">
         <v>343.65</v>
@@ -2533,7 +2533,7 @@
         <v>344.92</v>
       </c>
       <c r="K48" t="n">
-        <v>333.37</v>
+        <v>333.66</v>
       </c>
       <c r="L48" t="n">
         <v>339.23</v>
@@ -2578,7 +2578,7 @@
         <v>343.53</v>
       </c>
       <c r="K49" t="n">
-        <v>333.21</v>
+        <v>333.29</v>
       </c>
       <c r="L49" t="n">
         <v>322.45</v>
@@ -2623,7 +2623,7 @@
         <v>359.69</v>
       </c>
       <c r="K50" t="n">
-        <v>340.74</v>
+        <v>340.58</v>
       </c>
       <c r="L50" t="n">
         <v>341.57</v>
@@ -2668,7 +2668,7 @@
         <v>340.17</v>
       </c>
       <c r="K51" t="n">
-        <v>329.89</v>
+        <v>330.13</v>
       </c>
       <c r="L51" t="n">
         <v>325.29</v>
@@ -2713,7 +2713,7 @@
         <v>345.46</v>
       </c>
       <c r="K52" t="n">
-        <v>338.79</v>
+        <v>338.63</v>
       </c>
       <c r="L52" t="n">
         <v>338.59</v>
@@ -2758,7 +2758,7 @@
         <v>356.34</v>
       </c>
       <c r="K53" t="n">
-        <v>342.02</v>
+        <v>341.72</v>
       </c>
       <c r="L53" t="n">
         <v>343.89</v>
@@ -2803,7 +2803,7 @@
         <v>358.27</v>
       </c>
       <c r="K54" t="n">
-        <v>343.64</v>
+        <v>343.54</v>
       </c>
       <c r="L54" t="n">
         <v>342.81</v>
@@ -2848,7 +2848,7 @@
         <v>352.29</v>
       </c>
       <c r="K55" t="n">
-        <v>316.54</v>
+        <v>316.32</v>
       </c>
       <c r="L55" t="n">
         <v>326.7</v>
@@ -2881,7 +2881,7 @@
         <v>347.71</v>
       </c>
       <c r="K56" t="n">
-        <v>329.01</v>
+        <v>328.73</v>
       </c>
       <c r="L56" t="n">
         <v>324.79</v>
@@ -2926,7 +2926,7 @@
         <v>347.5</v>
       </c>
       <c r="K57" t="n">
-        <v>331.41</v>
+        <v>331.08</v>
       </c>
       <c r="L57" t="n">
         <v>334.85</v>
@@ -2996,7 +2996,7 @@
         <v>355.14</v>
       </c>
       <c r="K59" t="n">
-        <v>339.04</v>
+        <v>339.16</v>
       </c>
       <c r="L59" t="n">
         <v>338.84</v>
@@ -3086,7 +3086,7 @@
         <v>351.69</v>
       </c>
       <c r="K61" t="n">
-        <v>337.29</v>
+        <v>337.33</v>
       </c>
       <c r="L61" t="n">
         <v>330.55</v>
@@ -3119,7 +3119,7 @@
         <v>335.19</v>
       </c>
       <c r="K62" t="n">
-        <v>321.2</v>
+        <v>321.41</v>
       </c>
       <c r="L62" t="n">
         <v>323.9</v>
@@ -3158,7 +3158,7 @@
         <v>340.2</v>
       </c>
       <c r="K63" t="n">
-        <v>329.68</v>
+        <v>329.56</v>
       </c>
       <c r="L63" t="n">
         <v>325.93</v>
@@ -3195,7 +3195,7 @@
         <v>344.08</v>
       </c>
       <c r="K64" t="n">
-        <v>327.94</v>
+        <v>327.7</v>
       </c>
       <c r="L64" t="n">
         <v>330.52</v>
@@ -3234,7 +3234,7 @@
         <v>347.94</v>
       </c>
       <c r="K65" t="n">
-        <v>341.38</v>
+        <v>341.3</v>
       </c>
       <c r="L65" t="n">
         <v>336.3</v>
@@ -3308,7 +3308,7 @@
         <v>355.39</v>
       </c>
       <c r="K67" t="n">
-        <v>342.79</v>
+        <v>342.67</v>
       </c>
       <c r="L67" t="n">
         <v>346.42</v>
@@ -3427,7 +3427,7 @@
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>324.51</v>
+        <v>324.91</v>
       </c>
       <c r="L70" t="n">
         <v>324.08</v>
@@ -3472,7 +3472,7 @@
         <v>357.93</v>
       </c>
       <c r="K71" t="n">
-        <v>342.61</v>
+        <v>342.33</v>
       </c>
       <c r="L71" t="n">
         <v>344.61</v>
@@ -3585,7 +3585,7 @@
         <v>353.93</v>
       </c>
       <c r="K74" t="n">
-        <v>351.26</v>
+        <v>351.03</v>
       </c>
       <c r="L74" t="n">
         <v>350.17</v>
@@ -3620,7 +3620,7 @@
         <v>356.14</v>
       </c>
       <c r="K75" t="n">
-        <v>345.09</v>
+        <v>344.91</v>
       </c>
       <c r="L75" t="n">
         <v>343.88</v>
@@ -3665,7 +3665,7 @@
         <v>342.84</v>
       </c>
       <c r="K76" t="n">
-        <v>334.22</v>
+        <v>334.17</v>
       </c>
       <c r="L76" t="n">
         <v>329.53</v>
@@ -3710,7 +3710,7 @@
         <v>341.49</v>
       </c>
       <c r="K77" t="n">
-        <v>330.52</v>
+        <v>330.69</v>
       </c>
       <c r="L77" t="n">
         <v>331.92</v>
@@ -3747,7 +3747,7 @@
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>330.61</v>
+        <v>330.45</v>
       </c>
       <c r="L78" t="n">
         <v>333</v>
@@ -3825,7 +3825,7 @@
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>341.2</v>
+        <v>340.78</v>
       </c>
       <c r="L80" t="n">
         <v>337.56</v>
@@ -3899,7 +3899,7 @@
         <v>359.04</v>
       </c>
       <c r="K82" t="n">
-        <v>345.05</v>
+        <v>345.24</v>
       </c>
       <c r="L82" t="n">
         <v>345.67</v>
@@ -3979,7 +3979,7 @@
         <v>367.01</v>
       </c>
       <c r="K84" t="n">
-        <v>355.21</v>
+        <v>355.11</v>
       </c>
       <c r="L84" t="n">
         <v>353.79</v>
@@ -4016,7 +4016,7 @@
         <v>351.37</v>
       </c>
       <c r="K85" t="n">
-        <v>333.43</v>
+        <v>333.5</v>
       </c>
       <c r="L85" t="n">
         <v>328.24</v>
@@ -4049,7 +4049,7 @@
         <v>356.63</v>
       </c>
       <c r="K86" t="n">
-        <v>337.7</v>
+        <v>337.4</v>
       </c>
       <c r="L86" t="n">
         <v>341.84</v>
@@ -4094,7 +4094,7 @@
         <v>350.26</v>
       </c>
       <c r="K87" t="n">
-        <v>337.64</v>
+        <v>337.29</v>
       </c>
       <c r="L87" t="n">
         <v>336.71</v>
@@ -4139,7 +4139,7 @@
         <v>355.28</v>
       </c>
       <c r="K88" t="n">
-        <v>343.33</v>
+        <v>343.53</v>
       </c>
       <c r="L88" t="n">
         <v>347.97</v>
@@ -4174,7 +4174,7 @@
         <v>356.38</v>
       </c>
       <c r="K89" t="n">
-        <v>340.06</v>
+        <v>339.88</v>
       </c>
       <c r="L89" t="n">
         <v>342.73</v>
@@ -4219,7 +4219,7 @@
         <v>357.39</v>
       </c>
       <c r="K90" t="n">
-        <v>350.97</v>
+        <v>351.07</v>
       </c>
       <c r="L90" t="n">
         <v>349</v>
@@ -4264,7 +4264,7 @@
         <v>362.91</v>
       </c>
       <c r="K91" t="n">
-        <v>341.82</v>
+        <v>341.78</v>
       </c>
       <c r="L91" t="n">
         <v>340.5</v>
@@ -4350,7 +4350,7 @@
         <v>370.69</v>
       </c>
       <c r="K93" t="n">
-        <v>373.85</v>
+        <v>374.18</v>
       </c>
       <c r="L93" t="n">
         <v>351.27</v>
@@ -4438,7 +4438,7 @@
         <v>343.62</v>
       </c>
       <c r="K95" t="n">
-        <v>341.9</v>
+        <v>342.13</v>
       </c>
       <c r="L95" t="n">
         <v>339.04</v>
@@ -4504,7 +4504,7 @@
         <v>356.36</v>
       </c>
       <c r="K97" t="n">
-        <v>344.92</v>
+        <v>345.07</v>
       </c>
       <c r="L97" t="n">
         <v>343.6</v>
@@ -4549,7 +4549,7 @@
         <v>352.32</v>
       </c>
       <c r="K98" t="n">
-        <v>345.35</v>
+        <v>345.62</v>
       </c>
       <c r="L98" t="n">
         <v>343.7</v>
@@ -4580,7 +4580,7 @@
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>355.87</v>
+        <v>355.79</v>
       </c>
       <c r="L99" t="n">
         <v>364.52</v>
@@ -4664,7 +4664,7 @@
         <v>368.27</v>
       </c>
       <c r="K101" t="n">
-        <v>357.42</v>
+        <v>357.79</v>
       </c>
       <c r="L101" t="n">
         <v>355.51</v>
@@ -4705,7 +4705,7 @@
         <v>365.33</v>
       </c>
       <c r="K102" t="n">
-        <v>351.53</v>
+        <v>351.27</v>
       </c>
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="inlineStr">
@@ -4785,7 +4785,7 @@
         <v>357.52</v>
       </c>
       <c r="K104" t="n">
-        <v>346.79</v>
+        <v>346.57</v>
       </c>
       <c r="L104" t="n">
         <v>347.16</v>
@@ -4871,7 +4871,7 @@
         <v>350.12</v>
       </c>
       <c r="K106" t="n">
-        <v>342.55</v>
+        <v>342.46</v>
       </c>
       <c r="L106" t="n">
         <v>341.07</v>
@@ -4955,7 +4955,7 @@
         <v>355.61</v>
       </c>
       <c r="K108" t="n">
-        <v>340.23</v>
+        <v>340.17</v>
       </c>
       <c r="L108" t="n">
         <v>338.32</v>
@@ -5033,7 +5033,7 @@
         <v>364.85</v>
       </c>
       <c r="K110" t="n">
-        <v>357.32</v>
+        <v>357.01</v>
       </c>
       <c r="L110" t="n">
         <v>352.05</v>
@@ -5078,7 +5078,7 @@
         <v>372.19</v>
       </c>
       <c r="K111" t="n">
-        <v>359.46</v>
+        <v>359.64</v>
       </c>
       <c r="L111" t="n">
         <v>353.78</v>
@@ -5154,7 +5154,7 @@
         <v>343.64</v>
       </c>
       <c r="K113" t="n">
-        <v>334.41</v>
+        <v>334.8</v>
       </c>
       <c r="L113" t="n">
         <v>342.73</v>
@@ -5199,7 +5199,7 @@
         <v>343.73</v>
       </c>
       <c r="K114" t="n">
-        <v>333.81</v>
+        <v>333.46</v>
       </c>
       <c r="L114" t="n">
         <v>340.79</v>
@@ -5244,7 +5244,7 @@
         <v>358.01</v>
       </c>
       <c r="K115" t="n">
-        <v>351.27</v>
+        <v>351.53</v>
       </c>
       <c r="L115" t="n">
         <v>354.37</v>
@@ -5320,7 +5320,7 @@
         <v>345.91</v>
       </c>
       <c r="K117" t="n">
-        <v>334.98</v>
+        <v>334.85</v>
       </c>
       <c r="L117" t="n">
         <v>336.54</v>
@@ -5355,7 +5355,7 @@
         <v>346.54</v>
       </c>
       <c r="K118" t="n">
-        <v>344.37</v>
+        <v>344.17</v>
       </c>
       <c r="L118" t="n">
         <v>341.23</v>
@@ -5429,7 +5429,7 @@
         <v>357.09</v>
       </c>
       <c r="K120" t="n">
-        <v>350.58</v>
+        <v>350.9</v>
       </c>
       <c r="L120" t="n">
         <v>347.97</v>
@@ -5474,7 +5474,7 @@
         <v>358.71</v>
       </c>
       <c r="K121" t="n">
-        <v>339.25</v>
+        <v>339.05</v>
       </c>
       <c r="L121" t="n">
         <v>335.67</v>
@@ -5509,7 +5509,7 @@
         <v>341.89</v>
       </c>
       <c r="K122" t="n">
-        <v>340.76</v>
+        <v>340.64</v>
       </c>
       <c r="L122" t="n">
         <v>338.2</v>
@@ -5591,7 +5591,7 @@
         <v>363.48</v>
       </c>
       <c r="K124" t="n">
-        <v>357.34</v>
+        <v>357.3</v>
       </c>
       <c r="L124" t="n">
         <v>350.01</v>
@@ -5630,7 +5630,7 @@
         <v>366.8</v>
       </c>
       <c r="K125" t="n">
-        <v>356.5</v>
+        <v>356.4</v>
       </c>
       <c r="L125" t="n">
         <v>353.76</v>
@@ -5667,7 +5667,7 @@
         <v>364.7</v>
       </c>
       <c r="K126" t="n">
-        <v>357.3</v>
+        <v>357.06</v>
       </c>
       <c r="L126" t="n">
         <v>350.01</v>
@@ -5700,7 +5700,7 @@
         <v>350.15</v>
       </c>
       <c r="K127" t="n">
-        <v>342.32</v>
+        <v>342.5</v>
       </c>
       <c r="L127" t="n">
         <v>344.29</v>
@@ -5743,7 +5743,7 @@
         <v>347.06</v>
       </c>
       <c r="K128" t="n">
-        <v>341.33</v>
+        <v>341.27</v>
       </c>
       <c r="L128" t="n">
         <v>334.1</v>
@@ -5788,7 +5788,7 @@
         <v>349.88</v>
       </c>
       <c r="K129" t="n">
-        <v>348.38</v>
+        <v>348.58</v>
       </c>
       <c r="L129" t="n">
         <v>347.97</v>
@@ -5831,7 +5831,7 @@
         <v>345.64</v>
       </c>
       <c r="K130" t="n">
-        <v>334.77</v>
+        <v>334.93</v>
       </c>
       <c r="L130" t="n">
         <v>328.67</v>
@@ -5876,7 +5876,7 @@
         <v>360.59</v>
       </c>
       <c r="K131" t="n">
-        <v>349.4</v>
+        <v>349.17</v>
       </c>
       <c r="L131" t="n">
         <v>344.76</v>
@@ -5958,7 +5958,7 @@
         <v>367.16</v>
       </c>
       <c r="K133" t="n">
-        <v>353.26</v>
+        <v>353.54</v>
       </c>
       <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr">
@@ -5989,7 +5989,7 @@
         <v>335.92</v>
       </c>
       <c r="K134" t="n">
-        <v>321.11</v>
+        <v>320.79</v>
       </c>
       <c r="L134" t="n">
         <v>331.47</v>
@@ -6020,7 +6020,7 @@
         <v>375.48</v>
       </c>
       <c r="K135" t="n">
-        <v>350.84</v>
+        <v>350.68</v>
       </c>
       <c r="L135" t="n">
         <v>347.6</v>
@@ -6053,7 +6053,7 @@
         <v>339.72</v>
       </c>
       <c r="K136" t="n">
-        <v>332.58</v>
+        <v>332.61</v>
       </c>
       <c r="L136" t="n">
         <v>335.14</v>
@@ -6098,7 +6098,7 @@
         <v>347.87</v>
       </c>
       <c r="K137" t="n">
-        <v>337.68</v>
+        <v>337.86</v>
       </c>
       <c r="L137" t="n">
         <v>335.61</v>
@@ -6141,7 +6141,7 @@
         <v>355.55</v>
       </c>
       <c r="K138" t="n">
-        <v>336.41</v>
+        <v>336.13</v>
       </c>
       <c r="L138" t="n">
         <v>341.32</v>
@@ -6186,7 +6186,7 @@
         <v>369.26</v>
       </c>
       <c r="K139" t="n">
-        <v>357.32</v>
+        <v>357.63</v>
       </c>
       <c r="L139" t="n">
         <v>351.78</v>
@@ -6264,7 +6264,7 @@
         <v>360.52</v>
       </c>
       <c r="K141" t="n">
-        <v>345.46</v>
+        <v>345.59</v>
       </c>
       <c r="L141" t="n">
         <v>344.65</v>
@@ -6350,7 +6350,7 @@
         <v>364.37</v>
       </c>
       <c r="K143" t="n">
-        <v>347.19</v>
+        <v>347.17</v>
       </c>
       <c r="L143" t="n">
         <v>341.84</v>
@@ -6426,7 +6426,7 @@
         <v>352.43</v>
       </c>
       <c r="K145" t="n">
-        <v>335.96</v>
+        <v>335.87</v>
       </c>
       <c r="L145" t="n">
         <v>345.9</v>
@@ -6465,7 +6465,7 @@
         <v>360.01</v>
       </c>
       <c r="K146" t="n">
-        <v>343.5</v>
+        <v>343.63</v>
       </c>
       <c r="L146" t="n">
         <v>339.27</v>
@@ -6492,7 +6492,7 @@
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
-        <v>336.45</v>
+        <v>336.22</v>
       </c>
       <c r="L147" t="inlineStr"/>
       <c r="M147" t="inlineStr">
@@ -6566,7 +6566,7 @@
         <v>363.53</v>
       </c>
       <c r="K149" t="n">
-        <v>355.41</v>
+        <v>355.1</v>
       </c>
       <c r="L149" t="inlineStr"/>
       <c r="M149" t="inlineStr">
@@ -6603,7 +6603,7 @@
         <v>352.56</v>
       </c>
       <c r="K150" t="n">
-        <v>348.1</v>
+        <v>348.42</v>
       </c>
       <c r="L150" t="n">
         <v>336.69</v>
@@ -6667,7 +6667,7 @@
         <v>366.17</v>
       </c>
       <c r="K152" t="n">
-        <v>356.43</v>
+        <v>356.58</v>
       </c>
       <c r="L152" t="n">
         <v>349.35</v>
@@ -6712,7 +6712,7 @@
         <v>363.66</v>
       </c>
       <c r="K153" t="n">
-        <v>356.07</v>
+        <v>356.01</v>
       </c>
       <c r="L153" t="n">
         <v>348.62</v>
@@ -6790,7 +6790,7 @@
         <v>358.73</v>
       </c>
       <c r="K155" t="n">
-        <v>354.8</v>
+        <v>354.6</v>
       </c>
       <c r="L155" t="n">
         <v>357.21</v>
@@ -6829,7 +6829,7 @@
         <v>346.1</v>
       </c>
       <c r="K156" t="n">
-        <v>333.22</v>
+        <v>333.15</v>
       </c>
       <c r="L156" t="n">
         <v>335.41</v>
@@ -6868,7 +6868,7 @@
         <v>357.37</v>
       </c>
       <c r="K157" t="n">
-        <v>348.37</v>
+        <v>348.71</v>
       </c>
       <c r="L157" t="n">
         <v>347.47</v>
@@ -6992,7 +6992,7 @@
         <v>346.86</v>
       </c>
       <c r="K161" t="n">
-        <v>337.13</v>
+        <v>337.44</v>
       </c>
       <c r="L161" t="n">
         <v>339.28</v>
@@ -7025,7 +7025,7 @@
         <v>349.72</v>
       </c>
       <c r="K162" t="n">
-        <v>348.36</v>
+        <v>348.74</v>
       </c>
       <c r="L162" t="n">
         <v>336.96</v>
@@ -7064,7 +7064,7 @@
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="n">
-        <v>343.43</v>
+        <v>343.06</v>
       </c>
       <c r="L163" t="n">
         <v>348.86</v>
@@ -7103,7 +7103,7 @@
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="n">
-        <v>331.41</v>
+        <v>331.27</v>
       </c>
       <c r="L164" t="n">
         <v>339.6</v>
@@ -7142,7 +7142,7 @@
         <v>349.92</v>
       </c>
       <c r="K165" t="n">
-        <v>340.56</v>
+        <v>340.45</v>
       </c>
       <c r="L165" t="n">
         <v>342.97</v>
@@ -7216,7 +7216,7 @@
         <v>357.68</v>
       </c>
       <c r="K167" t="n">
-        <v>348.14</v>
+        <v>347.83</v>
       </c>
       <c r="L167" t="n">
         <v>349.09</v>
@@ -7255,7 +7255,7 @@
         <v>342.53</v>
       </c>
       <c r="K168" t="n">
-        <v>346.42</v>
+        <v>346.47</v>
       </c>
       <c r="L168" t="n">
         <v>343.94</v>
@@ -7290,7 +7290,7 @@
         <v>331.7</v>
       </c>
       <c r="K169" t="n">
-        <v>323.45</v>
+        <v>323.89</v>
       </c>
       <c r="L169" t="n">
         <v>321.65</v>
@@ -7364,7 +7364,7 @@
         <v>358.04</v>
       </c>
       <c r="K171" t="n">
-        <v>346.22</v>
+        <v>345.92</v>
       </c>
       <c r="L171" t="n">
         <v>348.29</v>
@@ -7399,7 +7399,7 @@
         <v>367.06</v>
       </c>
       <c r="K172" t="n">
-        <v>375.6</v>
+        <v>375.21</v>
       </c>
       <c r="L172" t="n">
         <v>370.56</v>
@@ -7502,7 +7502,7 @@
         <v>364.47</v>
       </c>
       <c r="K175" t="n">
-        <v>355.66</v>
+        <v>355.28</v>
       </c>
       <c r="L175" t="n">
         <v>350.13</v>
@@ -7533,7 +7533,7 @@
         <v>356.7</v>
       </c>
       <c r="K176" t="n">
-        <v>341.45</v>
+        <v>341.7</v>
       </c>
       <c r="L176" t="n">
         <v>339.83</v>
@@ -7574,7 +7574,7 @@
         <v>355.81</v>
       </c>
       <c r="K177" t="n">
-        <v>346.92</v>
+        <v>346.86</v>
       </c>
       <c r="L177" t="n">
         <v>343.09</v>
@@ -7615,7 +7615,7 @@
         <v>355.14</v>
       </c>
       <c r="K178" t="n">
-        <v>344.06</v>
+        <v>343.86</v>
       </c>
       <c r="L178" t="inlineStr"/>
       <c r="M178" t="inlineStr">
@@ -7654,7 +7654,7 @@
         <v>360.75</v>
       </c>
       <c r="K179" t="n">
-        <v>357.08</v>
+        <v>356.8</v>
       </c>
       <c r="L179" t="inlineStr"/>
       <c r="M179" t="inlineStr">
@@ -7685,7 +7685,7 @@
         <v>340.82</v>
       </c>
       <c r="K180" t="n">
-        <v>332.56</v>
+        <v>332.72</v>
       </c>
       <c r="L180" t="n">
         <v>326.72</v>
@@ -7724,7 +7724,7 @@
         <v>367.72</v>
       </c>
       <c r="K181" t="n">
-        <v>365.91</v>
+        <v>365.69</v>
       </c>
       <c r="L181" t="n">
         <v>355.37</v>
@@ -7761,7 +7761,7 @@
         <v>355.9</v>
       </c>
       <c r="K182" t="n">
-        <v>349.64</v>
+        <v>349.84</v>
       </c>
       <c r="L182" t="n">
         <v>345.57</v>
@@ -7806,7 +7806,7 @@
         <v>360.06</v>
       </c>
       <c r="K183" t="n">
-        <v>344.87</v>
+        <v>344.73</v>
       </c>
       <c r="L183" t="inlineStr"/>
       <c r="M183" t="inlineStr">
@@ -7839,7 +7839,7 @@
         <v>355.01</v>
       </c>
       <c r="K184" t="n">
-        <v>338.76</v>
+        <v>338.5</v>
       </c>
       <c r="L184" t="n">
         <v>341.64</v>
@@ -7878,7 +7878,7 @@
         <v>371.42</v>
       </c>
       <c r="K185" t="n">
-        <v>352.7</v>
+        <v>352.84</v>
       </c>
       <c r="L185" t="n">
         <v>354.69</v>
@@ -7913,7 +7913,7 @@
         <v>360.49</v>
       </c>
       <c r="K186" t="n">
-        <v>341.29</v>
+        <v>340.96</v>
       </c>
       <c r="L186" t="n">
         <v>342.8</v>
@@ -7985,7 +7985,7 @@
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="n">
-        <v>343.42</v>
+        <v>343.32</v>
       </c>
       <c r="L188" t="n">
         <v>341.04</v>
@@ -8022,7 +8022,7 @@
         <v>327.97</v>
       </c>
       <c r="K189" t="n">
-        <v>317.66</v>
+        <v>317.86</v>
       </c>
       <c r="L189" t="n">
         <v>322.62</v>
@@ -8063,7 +8063,7 @@
         <v>338.63</v>
       </c>
       <c r="K190" t="n">
-        <v>337.56</v>
+        <v>337.31</v>
       </c>
       <c r="L190" t="n">
         <v>329.16</v>
@@ -8108,7 +8108,7 @@
         <v>343.9</v>
       </c>
       <c r="K191" t="n">
-        <v>338.66</v>
+        <v>338.28</v>
       </c>
       <c r="L191" t="inlineStr"/>
       <c r="M191" t="inlineStr">
@@ -8147,7 +8147,7 @@
         <v>346.96</v>
       </c>
       <c r="K192" t="n">
-        <v>346.82</v>
+        <v>347.04</v>
       </c>
       <c r="L192" t="inlineStr"/>
       <c r="M192" t="inlineStr">
@@ -8225,7 +8225,7 @@
         <v>351.11</v>
       </c>
       <c r="K194" t="n">
-        <v>345.32</v>
+        <v>345.22</v>
       </c>
       <c r="L194" t="n">
         <v>340.27</v>
@@ -8270,7 +8270,7 @@
         <v>344.5</v>
       </c>
       <c r="K195" t="n">
-        <v>333.89</v>
+        <v>333.61</v>
       </c>
       <c r="L195" t="n">
         <v>331.64</v>
@@ -8311,7 +8311,7 @@
         <v>356.51</v>
       </c>
       <c r="K196" t="n">
-        <v>346.38</v>
+        <v>346.14</v>
       </c>
       <c r="L196" t="inlineStr"/>
       <c r="M196" t="inlineStr">
@@ -8391,7 +8391,7 @@
         <v>363.95</v>
       </c>
       <c r="K198" t="n">
-        <v>349.87</v>
+        <v>349.63</v>
       </c>
       <c r="L198" t="inlineStr"/>
       <c r="M198" t="inlineStr">
@@ -8471,7 +8471,7 @@
         <v>364.07</v>
       </c>
       <c r="K200" t="n">
-        <v>354.21</v>
+        <v>354.11</v>
       </c>
       <c r="L200" t="n">
         <v>344.88</v>
@@ -8506,7 +8506,7 @@
         <v>348.54</v>
       </c>
       <c r="K201" t="n">
-        <v>343.43</v>
+        <v>343.47</v>
       </c>
       <c r="L201" t="n">
         <v>330.76</v>
@@ -8541,7 +8541,7 @@
         <v>351.86</v>
       </c>
       <c r="K202" t="n">
-        <v>345.55</v>
+        <v>346.02</v>
       </c>
       <c r="L202" t="n">
         <v>334.71</v>
@@ -8617,7 +8617,7 @@
         <v>360.5</v>
       </c>
       <c r="K204" t="n">
-        <v>353.28</v>
+        <v>352.94</v>
       </c>
       <c r="L204" t="n">
         <v>351.05</v>
@@ -8654,7 +8654,7 @@
         <v>347.48</v>
       </c>
       <c r="K205" t="n">
-        <v>335.82</v>
+        <v>336.05</v>
       </c>
       <c r="L205" t="n">
         <v>338.2</v>
@@ -8689,7 +8689,7 @@
         <v>369.16</v>
       </c>
       <c r="K206" t="n">
-        <v>344.03</v>
+        <v>344.22</v>
       </c>
       <c r="L206" t="n">
         <v>341.93</v>
@@ -8728,7 +8728,7 @@
         <v>351.93</v>
       </c>
       <c r="K207" t="n">
-        <v>339.1</v>
+        <v>338.9</v>
       </c>
       <c r="L207" t="n">
         <v>340.82</v>
@@ -8767,7 +8767,7 @@
         <v>370.24</v>
       </c>
       <c r="K208" t="n">
-        <v>350.87</v>
+        <v>351.03</v>
       </c>
       <c r="L208" t="n">
         <v>352.69</v>
@@ -8812,7 +8812,7 @@
         <v>361.19</v>
       </c>
       <c r="K209" t="n">
-        <v>353.65</v>
+        <v>353.91</v>
       </c>
       <c r="L209" t="inlineStr"/>
       <c r="M209" t="inlineStr">
@@ -8886,7 +8886,7 @@
         <v>347.72</v>
       </c>
       <c r="K211" t="n">
-        <v>342.44</v>
+        <v>342.1</v>
       </c>
       <c r="L211" t="n">
         <v>347.85</v>
@@ -8919,7 +8919,7 @@
         <v>353.85</v>
       </c>
       <c r="K212" t="n">
-        <v>344.86</v>
+        <v>344.89</v>
       </c>
       <c r="L212" t="n">
         <v>343.81</v>
@@ -8962,7 +8962,7 @@
         <v>359.42</v>
       </c>
       <c r="K213" t="n">
-        <v>350.46</v>
+        <v>350.19</v>
       </c>
       <c r="L213" t="inlineStr"/>
       <c r="M213" t="inlineStr">
@@ -8997,7 +8997,7 @@
         <v>376.79</v>
       </c>
       <c r="K214" t="n">
-        <v>367.33</v>
+        <v>367.66</v>
       </c>
       <c r="L214" t="n">
         <v>363.28</v>
@@ -9036,7 +9036,7 @@
         <v>365.63</v>
       </c>
       <c r="K215" t="n">
-        <v>359.14</v>
+        <v>358.77</v>
       </c>
       <c r="L215" t="n">
         <v>355.79</v>
@@ -9069,7 +9069,7 @@
         <v>343.6</v>
       </c>
       <c r="K216" t="n">
-        <v>340.43</v>
+        <v>340.68</v>
       </c>
       <c r="L216" t="n">
         <v>341.56</v>
@@ -9155,7 +9155,7 @@
         <v>361.55</v>
       </c>
       <c r="K218" t="n">
-        <v>353.48</v>
+        <v>353.19</v>
       </c>
       <c r="L218" t="n">
         <v>355.16</v>
@@ -9278,7 +9278,7 @@
         <v>356.22</v>
       </c>
       <c r="K221" t="n">
-        <v>356.45</v>
+        <v>356.22</v>
       </c>
       <c r="L221" t="n">
         <v>357.04</v>
@@ -9323,7 +9323,7 @@
         <v>361.3</v>
       </c>
       <c r="K222" t="n">
-        <v>350.37</v>
+        <v>350.64</v>
       </c>
       <c r="L222" t="n">
         <v>348.04</v>
@@ -9368,7 +9368,7 @@
         <v>358.12</v>
       </c>
       <c r="K223" t="n">
-        <v>358.99</v>
+        <v>358.89</v>
       </c>
       <c r="L223" t="n">
         <v>353.71</v>
@@ -9442,7 +9442,7 @@
         <v>347.38</v>
       </c>
       <c r="K225" t="n">
-        <v>343.27</v>
+        <v>343.26</v>
       </c>
       <c r="L225" t="n">
         <v>341.89</v>
@@ -9475,7 +9475,7 @@
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="n">
-        <v>343.98</v>
+        <v>344.25</v>
       </c>
       <c r="L226" t="n">
         <v>339.74</v>
@@ -9520,7 +9520,7 @@
         <v>364.11</v>
       </c>
       <c r="K227" t="n">
-        <v>346.98</v>
+        <v>346.97</v>
       </c>
       <c r="L227" t="inlineStr"/>
       <c r="M227" t="inlineStr">
@@ -9557,7 +9557,7 @@
         <v>338.06</v>
       </c>
       <c r="K228" t="n">
-        <v>337.68</v>
+        <v>337.43</v>
       </c>
       <c r="L228" t="n">
         <v>341.73</v>
@@ -9592,7 +9592,7 @@
         <v>354.38</v>
       </c>
       <c r="K229" t="n">
-        <v>353.34</v>
+        <v>353.64</v>
       </c>
       <c r="L229" t="n">
         <v>352.25</v>
@@ -9627,7 +9627,7 @@
         <v>356.83</v>
       </c>
       <c r="K230" t="n">
-        <v>346.89</v>
+        <v>346.6</v>
       </c>
       <c r="L230" t="n">
         <v>350.83</v>
@@ -9664,7 +9664,7 @@
         <v>333.29</v>
       </c>
       <c r="K231" t="n">
-        <v>331.79</v>
+        <v>332.17</v>
       </c>
       <c r="L231" t="n">
         <v>329.31</v>
@@ -9703,7 +9703,7 @@
         <v>351.08</v>
       </c>
       <c r="K232" t="n">
-        <v>346.74</v>
+        <v>346.91</v>
       </c>
       <c r="L232" t="n">
         <v>341.23</v>
@@ -9783,7 +9783,7 @@
         <v>361.02</v>
       </c>
       <c r="K234" t="n">
-        <v>352.89</v>
+        <v>352.53</v>
       </c>
       <c r="L234" t="n">
         <v>349.7</v>
@@ -9816,7 +9816,7 @@
         <v>349.27</v>
       </c>
       <c r="K235" t="n">
-        <v>333.71</v>
+        <v>333.97</v>
       </c>
       <c r="L235" t="n">
         <v>335.71</v>
@@ -9958,7 +9958,7 @@
         <v>352.89</v>
       </c>
       <c r="K239" t="n">
-        <v>349.57</v>
+        <v>349.55</v>
       </c>
       <c r="L239" t="n">
         <v>349.79</v>
@@ -9995,7 +9995,7 @@
         <v>354.17</v>
       </c>
       <c r="K240" t="n">
-        <v>350.8</v>
+        <v>351.08</v>
       </c>
       <c r="L240" t="inlineStr"/>
       <c r="M240" t="inlineStr">
@@ -10028,7 +10028,7 @@
         <v>329.81</v>
       </c>
       <c r="K241" t="n">
-        <v>324.18</v>
+        <v>324.62</v>
       </c>
       <c r="L241" t="n">
         <v>327.7</v>
@@ -10143,7 +10143,7 @@
         <v>348.27</v>
       </c>
       <c r="K244" t="n">
-        <v>346.49</v>
+        <v>346.73</v>
       </c>
       <c r="L244" t="n">
         <v>339.07</v>
@@ -10182,7 +10182,7 @@
         <v>349.75</v>
       </c>
       <c r="K245" t="n">
-        <v>343.24</v>
+        <v>343.59</v>
       </c>
       <c r="L245" t="n">
         <v>342.07</v>
@@ -10221,7 +10221,7 @@
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="n">
-        <v>350.09</v>
+        <v>350.47</v>
       </c>
       <c r="L246" t="n">
         <v>344.26</v>
@@ -10301,7 +10301,7 @@
         <v>343.62</v>
       </c>
       <c r="K248" t="n">
-        <v>340.65</v>
+        <v>340.35</v>
       </c>
       <c r="L248" t="n">
         <v>338.82</v>
@@ -10377,7 +10377,7 @@
         <v>350.56</v>
       </c>
       <c r="K250" t="n">
-        <v>339.79</v>
+        <v>339.63</v>
       </c>
       <c r="L250" t="n">
         <v>340.45</v>
@@ -10449,7 +10449,7 @@
         <v>347.58</v>
       </c>
       <c r="K252" t="n">
-        <v>342.26</v>
+        <v>342.16</v>
       </c>
       <c r="L252" t="n">
         <v>337.33</v>
@@ -10675,7 +10675,7 @@
         <v>372.73</v>
       </c>
       <c r="K258" t="n">
-        <v>358.12</v>
+        <v>358.51</v>
       </c>
       <c r="L258" t="n">
         <v>358.53</v>
@@ -10761,7 +10761,7 @@
         <v>370.4</v>
       </c>
       <c r="K260" t="n">
-        <v>348.84</v>
+        <v>348.76</v>
       </c>
       <c r="L260" t="n">
         <v>350.65</v>
@@ -10876,7 +10876,7 @@
         <v>358.63</v>
       </c>
       <c r="K263" t="n">
-        <v>346.82</v>
+        <v>346.83</v>
       </c>
       <c r="L263" t="n">
         <v>347.23</v>
@@ -10919,7 +10919,7 @@
         <v>367.89</v>
       </c>
       <c r="K264" t="n">
-        <v>349.75</v>
+        <v>349.87</v>
       </c>
       <c r="L264" t="n">
         <v>350.23</v>
@@ -10997,7 +10997,7 @@
         <v>355.57</v>
       </c>
       <c r="K266" t="n">
-        <v>349.2</v>
+        <v>349.6</v>
       </c>
       <c r="L266" t="n">
         <v>344.25</v>
@@ -11073,7 +11073,7 @@
         <v>346.95</v>
       </c>
       <c r="K268" t="n">
-        <v>337.92</v>
+        <v>338.31</v>
       </c>
       <c r="L268" t="n">
         <v>336.93</v>
@@ -11118,7 +11118,7 @@
         <v>341.21</v>
       </c>
       <c r="K269" t="n">
-        <v>338.43</v>
+        <v>338.15</v>
       </c>
       <c r="L269" t="n">
         <v>342.34</v>
@@ -11208,7 +11208,7 @@
         <v>349.66</v>
       </c>
       <c r="K271" t="n">
-        <v>341.19</v>
+        <v>341.08</v>
       </c>
       <c r="L271" t="n">
         <v>337.45</v>
@@ -11253,7 +11253,7 @@
         <v>360.45</v>
       </c>
       <c r="K272" t="n">
-        <v>352.77</v>
+        <v>352.97</v>
       </c>
       <c r="L272" t="n">
         <v>351.05</v>
@@ -11298,7 +11298,7 @@
         <v>362.62</v>
       </c>
       <c r="K273" t="n">
-        <v>342.48</v>
+        <v>342.29</v>
       </c>
       <c r="L273" t="n">
         <v>342.08</v>
@@ -11343,7 +11343,7 @@
         <v>360.45</v>
       </c>
       <c r="K274" t="n">
-        <v>341.12</v>
+        <v>340.82</v>
       </c>
       <c r="L274" t="n">
         <v>337.91</v>
@@ -11388,7 +11388,7 @@
         <v>351.39</v>
       </c>
       <c r="K275" t="n">
-        <v>342.84</v>
+        <v>343.21</v>
       </c>
       <c r="L275" t="n">
         <v>332.58</v>
@@ -11421,7 +11421,7 @@
         <v>335.66</v>
       </c>
       <c r="K276" t="n">
-        <v>322.92</v>
+        <v>323.27</v>
       </c>
       <c r="L276" t="n">
         <v>317.77</v>
@@ -11466,7 +11466,7 @@
         <v>354.75</v>
       </c>
       <c r="K277" t="n">
-        <v>351.96</v>
+        <v>352.44</v>
       </c>
       <c r="L277" t="n">
         <v>345.01</v>
@@ -11544,7 +11544,7 @@
         <v>354.31</v>
       </c>
       <c r="K279" t="n">
-        <v>341.12</v>
+        <v>340.96</v>
       </c>
       <c r="L279" t="n">
         <v>339.51</v>
@@ -11589,7 +11589,7 @@
         <v>359.12</v>
       </c>
       <c r="K280" t="n">
-        <v>344.79</v>
+        <v>344.82</v>
       </c>
       <c r="L280" t="n">
         <v>343.79</v>
@@ -11622,7 +11622,7 @@
         <v>360.06</v>
       </c>
       <c r="K281" t="n">
-        <v>351.05</v>
+        <v>350.94</v>
       </c>
       <c r="L281" t="n">
         <v>348.64</v>
@@ -11655,7 +11655,7 @@
         <v>361.56</v>
       </c>
       <c r="K282" t="n">
-        <v>345.45</v>
+        <v>345.59</v>
       </c>
       <c r="L282" t="n">
         <v>341.97</v>
@@ -11700,7 +11700,7 @@
         <v>365.97</v>
       </c>
       <c r="K283" t="n">
-        <v>352.55</v>
+        <v>352.8</v>
       </c>
       <c r="L283" t="n">
         <v>350.82</v>
@@ -11745,7 +11745,7 @@
         <v>368.01</v>
       </c>
       <c r="K284" t="n">
-        <v>351.69</v>
+        <v>351.77</v>
       </c>
       <c r="L284" t="n">
         <v>351.98</v>
@@ -11786,7 +11786,7 @@
         <v>348.25</v>
       </c>
       <c r="K285" t="n">
-        <v>342.49</v>
+        <v>342.87</v>
       </c>
       <c r="L285" t="n">
         <v>339.92</v>
@@ -11831,7 +11831,7 @@
         <v>360.82</v>
       </c>
       <c r="K286" t="n">
-        <v>345.18</v>
+        <v>344.98</v>
       </c>
       <c r="L286" t="n">
         <v>349.28</v>
@@ -11876,7 +11876,7 @@
         <v>363.17</v>
       </c>
       <c r="K287" t="n">
-        <v>349.26</v>
+        <v>348.95</v>
       </c>
       <c r="L287" t="n">
         <v>348.14</v>
@@ -11999,7 +11999,7 @@
         <v>356.37</v>
       </c>
       <c r="K290" t="n">
-        <v>350.57</v>
+        <v>350.89</v>
       </c>
       <c r="L290" t="n">
         <v>348.24</v>
@@ -12044,7 +12044,7 @@
         <v>364.8</v>
       </c>
       <c r="K291" t="n">
-        <v>344.5</v>
+        <v>344.26</v>
       </c>
       <c r="L291" t="n">
         <v>347.62</v>
@@ -12081,7 +12081,7 @@
         <v>336.87</v>
       </c>
       <c r="K292" t="n">
-        <v>330.63</v>
+        <v>330.53</v>
       </c>
       <c r="L292" t="n">
         <v>323.39</v>
@@ -12118,7 +12118,7 @@
         <v>345.95</v>
       </c>
       <c r="K293" t="n">
-        <v>330.59</v>
+        <v>330.58</v>
       </c>
       <c r="L293" t="n">
         <v>333.14</v>
@@ -12163,7 +12163,7 @@
         <v>359.92</v>
       </c>
       <c r="K294" t="n">
-        <v>341.75</v>
+        <v>341.57</v>
       </c>
       <c r="L294" t="n">
         <v>344.84</v>
@@ -12208,7 +12208,7 @@
         <v>354.99</v>
       </c>
       <c r="K295" t="n">
-        <v>345.92</v>
+        <v>346.08</v>
       </c>
       <c r="L295" t="n">
         <v>347.95</v>
@@ -12286,7 +12286,7 @@
         <v>354.42</v>
       </c>
       <c r="K297" t="n">
-        <v>346.6</v>
+        <v>346.36</v>
       </c>
       <c r="L297" t="n">
         <v>337.5</v>
@@ -12331,7 +12331,7 @@
         <v>355.05</v>
       </c>
       <c r="K298" t="n">
-        <v>348.09</v>
+        <v>348.3</v>
       </c>
       <c r="L298" t="n">
         <v>350.35</v>
@@ -12430,7 +12430,7 @@
         <v>345.36</v>
       </c>
       <c r="K301" t="n">
-        <v>344.6</v>
+        <v>344.85</v>
       </c>
       <c r="L301" t="n">
         <v>346.72</v>
@@ -12475,7 +12475,7 @@
         <v>338.39</v>
       </c>
       <c r="K302" t="n">
-        <v>333.39</v>
+        <v>333.31</v>
       </c>
       <c r="L302" t="n">
         <v>334.74</v>
@@ -12596,7 +12596,7 @@
         <v>345.21</v>
       </c>
       <c r="K305" t="n">
-        <v>345.38</v>
+        <v>345.55</v>
       </c>
       <c r="L305" t="n">
         <v>348.71</v>
@@ -12641,7 +12641,7 @@
         <v>351.42</v>
       </c>
       <c r="K306" t="n">
-        <v>341.78</v>
+        <v>341.5</v>
       </c>
       <c r="L306" t="n">
         <v>345.97</v>
@@ -12713,7 +12713,7 @@
         <v>341.28</v>
       </c>
       <c r="K308" t="n">
-        <v>331.56</v>
+        <v>331.15</v>
       </c>
       <c r="L308" t="n">
         <v>337.11</v>
@@ -12746,7 +12746,7 @@
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="n">
-        <v>345.11</v>
+        <v>344.94</v>
       </c>
       <c r="L309" t="n">
         <v>345.52</v>
@@ -12791,7 +12791,7 @@
         <v>328.62</v>
       </c>
       <c r="K310" t="n">
-        <v>325.22</v>
+        <v>325.49</v>
       </c>
       <c r="L310" t="n">
         <v>323.29</v>
@@ -12824,7 +12824,7 @@
         <v>339.69</v>
       </c>
       <c r="K311" t="n">
-        <v>329.86</v>
+        <v>329.96</v>
       </c>
       <c r="L311" t="n">
         <v>335.95</v>
@@ -12869,7 +12869,7 @@
         <v>351.14</v>
       </c>
       <c r="K312" t="n">
-        <v>342.39</v>
+        <v>342.24</v>
       </c>
       <c r="L312" t="n">
         <v>345.69</v>
@@ -12914,7 +12914,7 @@
         <v>356.79</v>
       </c>
       <c r="K313" t="n">
-        <v>348.8</v>
+        <v>349.04</v>
       </c>
       <c r="L313" t="n">
         <v>347.72</v>
@@ -12955,7 +12955,7 @@
         <v>354.62</v>
       </c>
       <c r="K314" t="n">
-        <v>334.77</v>
+        <v>334.45</v>
       </c>
       <c r="L314" t="n">
         <v>337.63</v>
@@ -13015,7 +13015,7 @@
         <v>342.64</v>
       </c>
       <c r="K316" t="n">
-        <v>339.45</v>
+        <v>339.6</v>
       </c>
       <c r="L316" t="n">
         <v>343.71</v>
@@ -13060,7 +13060,7 @@
         <v>348.94</v>
       </c>
       <c r="K317" t="n">
-        <v>348.92</v>
+        <v>349.19</v>
       </c>
       <c r="L317" t="n">
         <v>339.28</v>
@@ -13105,7 +13105,7 @@
         <v>347.18</v>
       </c>
       <c r="K318" t="n">
-        <v>340.86</v>
+        <v>340.63</v>
       </c>
       <c r="L318" t="n">
         <v>341.04</v>
@@ -13183,7 +13183,7 @@
         <v>328.65</v>
       </c>
       <c r="K320" t="n">
-        <v>322.6</v>
+        <v>323.04</v>
       </c>
       <c r="L320" t="n">
         <v>321.04</v>
@@ -13243,7 +13243,7 @@
         <v>335.18</v>
       </c>
       <c r="K322" t="n">
-        <v>325.12</v>
+        <v>324.98</v>
       </c>
       <c r="L322" t="n">
         <v>333.46</v>
@@ -13288,7 +13288,7 @@
         <v>342.64</v>
       </c>
       <c r="K323" t="n">
-        <v>323.2</v>
+        <v>323.43</v>
       </c>
       <c r="L323" t="n">
         <v>339.05</v>
@@ -13364,7 +13364,7 @@
         <v>328.05</v>
       </c>
       <c r="K325" t="n">
-        <v>315.86</v>
+        <v>315.94</v>
       </c>
       <c r="L325" t="n">
         <v>317.17</v>
@@ -13405,7 +13405,7 @@
         <v>359.49</v>
       </c>
       <c r="K326" t="n">
-        <v>340.46</v>
+        <v>340.29</v>
       </c>
       <c r="L326" t="n">
         <v>347.53</v>
@@ -13450,7 +13450,7 @@
         <v>343.08</v>
       </c>
       <c r="K327" t="n">
-        <v>335.94</v>
+        <v>336.11</v>
       </c>
       <c r="L327" t="n">
         <v>341.7</v>
@@ -13483,7 +13483,7 @@
         <v>344.48</v>
       </c>
       <c r="K328" t="n">
-        <v>334.99</v>
+        <v>335.31</v>
       </c>
       <c r="L328" t="n">
         <v>339.17</v>
@@ -13522,7 +13522,7 @@
         <v>353.83</v>
       </c>
       <c r="K329" t="n">
-        <v>337.13</v>
+        <v>336.93</v>
       </c>
       <c r="L329" t="n">
         <v>338.66</v>
@@ -13596,7 +13596,7 @@
         <v>356.14</v>
       </c>
       <c r="K331" t="n">
-        <v>348.11</v>
+        <v>348.31</v>
       </c>
       <c r="L331" t="n">
         <v>350.78</v>
@@ -13623,7 +13623,7 @@
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="n">
-        <v>340.64</v>
+        <v>340.96</v>
       </c>
       <c r="L332" t="n">
         <v>340.58</v>
@@ -13658,7 +13658,7 @@
         <v>347.57</v>
       </c>
       <c r="K333" t="n">
-        <v>342.87</v>
+        <v>343.14</v>
       </c>
       <c r="L333" t="n">
         <v>343.36</v>
@@ -13703,7 +13703,7 @@
         <v>351.56</v>
       </c>
       <c r="K334" t="n">
-        <v>346.16</v>
+        <v>346.34</v>
       </c>
       <c r="L334" t="n">
         <v>350.53</v>
@@ -13748,7 +13748,7 @@
         <v>345.24</v>
       </c>
       <c r="K335" t="n">
-        <v>343.62</v>
+        <v>343.56</v>
       </c>
       <c r="L335" t="n">
         <v>347.28</v>
@@ -13793,7 +13793,7 @@
         <v>341.04</v>
       </c>
       <c r="K336" t="n">
-        <v>326.97</v>
+        <v>326.98</v>
       </c>
       <c r="L336" t="n">
         <v>310.14</v>
@@ -13869,7 +13869,7 @@
         <v>334.28</v>
       </c>
       <c r="K338" t="n">
-        <v>322.69</v>
+        <v>322.76</v>
       </c>
       <c r="L338" t="n">
         <v>330.08</v>
@@ -13914,7 +13914,7 @@
         <v>346.24</v>
       </c>
       <c r="K339" t="n">
-        <v>336.81</v>
+        <v>336.78</v>
       </c>
       <c r="L339" t="n">
         <v>335.36</v>
@@ -13959,7 +13959,7 @@
         <v>341.54</v>
       </c>
       <c r="K340" t="n">
-        <v>326.47</v>
+        <v>326.91</v>
       </c>
       <c r="L340" t="n">
         <v>327.79</v>
@@ -14002,7 +14002,7 @@
         <v>359.71</v>
       </c>
       <c r="K341" t="n">
-        <v>349.1</v>
+        <v>349.4</v>
       </c>
       <c r="L341" t="n">
         <v>346.04</v>
@@ -14123,7 +14123,7 @@
         <v>366.15</v>
       </c>
       <c r="K344" t="n">
-        <v>353.1</v>
+        <v>353.34</v>
       </c>
       <c r="L344" t="n">
         <v>346.49</v>
@@ -14158,7 +14158,7 @@
         <v>334.79</v>
       </c>
       <c r="K345" t="n">
-        <v>317.47</v>
+        <v>317.62</v>
       </c>
       <c r="L345" t="n">
         <v>326.47</v>
@@ -14240,7 +14240,7 @@
         <v>349.12</v>
       </c>
       <c r="K347" t="n">
-        <v>348.08</v>
+        <v>348.51</v>
       </c>
       <c r="L347" t="n">
         <v>344.32</v>
@@ -14275,7 +14275,7 @@
         <v>348.64</v>
       </c>
       <c r="K348" t="n">
-        <v>340.89</v>
+        <v>341.24</v>
       </c>
       <c r="L348" t="n">
         <v>344.11</v>
@@ -14310,7 +14310,7 @@
         <v>338.4</v>
       </c>
       <c r="K349" t="n">
-        <v>343.34</v>
+        <v>343.16</v>
       </c>
       <c r="L349" t="n">
         <v>342.18</v>
@@ -14400,7 +14400,7 @@
         <v>356.62</v>
       </c>
       <c r="K351" t="n">
-        <v>353.8</v>
+        <v>354.1</v>
       </c>
       <c r="L351" t="n">
         <v>349.13</v>
@@ -14435,7 +14435,7 @@
         <v>350.53</v>
       </c>
       <c r="K352" t="n">
-        <v>344.69</v>
+        <v>344.57</v>
       </c>
       <c r="L352" t="n">
         <v>351.33</v>
@@ -14517,7 +14517,7 @@
         <v>367.59</v>
       </c>
       <c r="K354" t="n">
-        <v>365.46</v>
+        <v>365.33</v>
       </c>
       <c r="L354" t="n">
         <v>365.6</v>
@@ -14562,7 +14562,7 @@
         <v>362.62</v>
       </c>
       <c r="K355" t="n">
-        <v>355.01</v>
+        <v>354.96</v>
       </c>
       <c r="L355" t="n">
         <v>355.6</v>
@@ -14722,7 +14722,7 @@
         <v>369.66</v>
       </c>
       <c r="K359" t="n">
-        <v>359.77</v>
+        <v>360.06</v>
       </c>
       <c r="L359" t="inlineStr"/>
       <c r="M359" t="inlineStr">
@@ -14761,7 +14761,7 @@
         <v>360.53</v>
       </c>
       <c r="K360" t="n">
-        <v>356.19</v>
+        <v>355.8</v>
       </c>
       <c r="L360" t="n">
         <v>355.67</v>
@@ -14806,7 +14806,7 @@
         <v>363.66</v>
       </c>
       <c r="K361" t="n">
-        <v>365.66</v>
+        <v>365.23</v>
       </c>
       <c r="L361" t="n">
         <v>365.77</v>
@@ -14845,7 +14845,7 @@
         <v>354.51</v>
       </c>
       <c r="K362" t="n">
-        <v>345.16</v>
+        <v>344.85</v>
       </c>
       <c r="L362" t="n">
         <v>344.4</v>
@@ -14890,7 +14890,7 @@
         <v>366</v>
       </c>
       <c r="K363" t="n">
-        <v>343.52</v>
+        <v>343.25</v>
       </c>
       <c r="L363" t="n">
         <v>348.47</v>
@@ -14935,7 +14935,7 @@
         <v>369.66</v>
       </c>
       <c r="K364" t="n">
-        <v>362.12</v>
+        <v>362.49</v>
       </c>
       <c r="L364" t="n">
         <v>358.35</v>
@@ -14978,7 +14978,7 @@
         <v>359.02</v>
       </c>
       <c r="K365" t="n">
-        <v>344.5</v>
+        <v>344.21</v>
       </c>
       <c r="L365" t="n">
         <v>348.43</v>
@@ -15017,7 +15017,7 @@
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="n">
-        <v>342.2</v>
+        <v>342</v>
       </c>
       <c r="L366" t="n">
         <v>341.94</v>
@@ -15062,7 +15062,7 @@
         <v>361.19</v>
       </c>
       <c r="K367" t="n">
-        <v>342.92</v>
+        <v>342.89</v>
       </c>
       <c r="L367" t="n">
         <v>340.55</v>
@@ -15095,7 +15095,7 @@
         <v>345.89</v>
       </c>
       <c r="K368" t="n">
-        <v>340.57</v>
+        <v>340.39</v>
       </c>
       <c r="L368" t="n">
         <v>349.72</v>
@@ -15140,7 +15140,7 @@
         <v>353.5</v>
       </c>
       <c r="K369" t="n">
-        <v>345.78</v>
+        <v>345.71</v>
       </c>
       <c r="L369" t="n">
         <v>346.51</v>
@@ -15216,7 +15216,7 @@
         <v>354.48</v>
       </c>
       <c r="K371" t="n">
-        <v>348.67</v>
+        <v>348.93</v>
       </c>
       <c r="L371" t="n">
         <v>341.53</v>
@@ -15257,7 +15257,7 @@
         <v>341</v>
       </c>
       <c r="K372" t="n">
-        <v>337.53</v>
+        <v>337.86</v>
       </c>
       <c r="L372" t="n">
         <v>338.46</v>
@@ -15343,7 +15343,7 @@
         <v>352.4</v>
       </c>
       <c r="K374" t="n">
-        <v>355.61</v>
+        <v>355.94</v>
       </c>
       <c r="L374" t="n">
         <v>352.17</v>
@@ -15382,7 +15382,7 @@
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="n">
-        <v>351.53</v>
+        <v>351.62</v>
       </c>
       <c r="L375" t="n">
         <v>343.37</v>
@@ -15427,7 +15427,7 @@
         <v>350.34</v>
       </c>
       <c r="K376" t="n">
-        <v>350.24</v>
+        <v>350.14</v>
       </c>
       <c r="L376" t="n">
         <v>349.74</v>
@@ -15462,7 +15462,7 @@
         <v>353.74</v>
       </c>
       <c r="K377" t="n">
-        <v>350.74</v>
+        <v>351.21</v>
       </c>
       <c r="L377" t="n">
         <v>344.82</v>
@@ -15501,7 +15501,7 @@
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="n">
-        <v>348.87</v>
+        <v>348.69</v>
       </c>
       <c r="L378" t="n">
         <v>343.66</v>
@@ -15546,7 +15546,7 @@
         <v>352.66</v>
       </c>
       <c r="K379" t="n">
-        <v>352.48</v>
+        <v>352.93</v>
       </c>
       <c r="L379" t="n">
         <v>352.69</v>
@@ -15591,7 +15591,7 @@
         <v>366.29</v>
       </c>
       <c r="K380" t="n">
-        <v>349.21</v>
+        <v>349.06</v>
       </c>
       <c r="L380" t="n">
         <v>344.5</v>
@@ -15634,7 +15634,7 @@
         <v>343.5</v>
       </c>
       <c r="K381" t="n">
-        <v>340.28</v>
+        <v>340.08</v>
       </c>
       <c r="L381" t="n">
         <v>339.68</v>
@@ -15763,7 +15763,7 @@
         <v>363.3</v>
       </c>
       <c r="K384" t="n">
-        <v>357.22</v>
+        <v>357.31</v>
       </c>
       <c r="L384" t="n">
         <v>353.6</v>
@@ -15808,7 +15808,7 @@
         <v>361.93</v>
       </c>
       <c r="K385" t="n">
-        <v>347.51</v>
+        <v>347.45</v>
       </c>
       <c r="L385" t="n">
         <v>349.6</v>
@@ -15853,7 +15853,7 @@
         <v>355.74</v>
       </c>
       <c r="K386" t="n">
-        <v>354.62</v>
+        <v>355.04</v>
       </c>
       <c r="L386" t="n">
         <v>351.39</v>
@@ -15884,7 +15884,7 @@
         <v>364.51</v>
       </c>
       <c r="K387" t="n">
-        <v>350.65</v>
+        <v>350.35</v>
       </c>
       <c r="L387" t="n">
         <v>351.17</v>
@@ -15962,7 +15962,7 @@
         <v>347.43</v>
       </c>
       <c r="K389" t="n">
-        <v>337.71</v>
+        <v>338.02</v>
       </c>
       <c r="L389" t="n">
         <v>331.33</v>
@@ -16083,7 +16083,7 @@
         <v>365.36</v>
       </c>
       <c r="K392" t="n">
-        <v>350.46</v>
+        <v>350.75</v>
       </c>
       <c r="L392" t="n">
         <v>351.84</v>
@@ -16128,7 +16128,7 @@
         <v>364.78</v>
       </c>
       <c r="K393" t="n">
-        <v>340.57</v>
+        <v>340.31</v>
       </c>
       <c r="L393" t="n">
         <v>342.83</v>
@@ -16173,7 +16173,7 @@
         <v>363.96</v>
       </c>
       <c r="K394" t="n">
-        <v>353.96</v>
+        <v>353.64</v>
       </c>
       <c r="L394" t="n">
         <v>347.63</v>
@@ -16212,7 +16212,7 @@
         <v>365.5</v>
       </c>
       <c r="K395" t="n">
-        <v>349.89</v>
+        <v>349.87</v>
       </c>
       <c r="L395" t="n">
         <v>349.08</v>
@@ -16245,7 +16245,7 @@
         <v>355.53</v>
       </c>
       <c r="K396" t="n">
-        <v>346.08</v>
+        <v>346.19</v>
       </c>
       <c r="L396" t="n">
         <v>342.75</v>
@@ -16290,7 +16290,7 @@
         <v>360.3</v>
       </c>
       <c r="K397" t="n">
-        <v>347.41</v>
+        <v>347.6</v>
       </c>
       <c r="L397" t="n">
         <v>348.25</v>
@@ -16407,7 +16407,7 @@
         <v>368.91</v>
       </c>
       <c r="K400" t="n">
-        <v>351.58</v>
+        <v>351.78</v>
       </c>
       <c r="L400" t="n">
         <v>354.02</v>
@@ -16448,7 +16448,7 @@
         <v>351.92</v>
       </c>
       <c r="K401" t="n">
-        <v>349.77</v>
+        <v>350.05</v>
       </c>
       <c r="L401" t="inlineStr"/>
       <c r="M401" t="inlineStr">
@@ -16528,7 +16528,7 @@
         <v>364.39</v>
       </c>
       <c r="K403" t="n">
-        <v>347.59</v>
+        <v>347.36</v>
       </c>
       <c r="L403" t="n">
         <v>349.93</v>
@@ -16608,7 +16608,7 @@
         <v>367.65</v>
       </c>
       <c r="K405" t="n">
-        <v>349.41</v>
+        <v>349.31</v>
       </c>
       <c r="L405" t="n">
         <v>345.38</v>
@@ -16653,7 +16653,7 @@
         <v>370.48</v>
       </c>
       <c r="K406" t="n">
-        <v>348.45</v>
+        <v>348.46</v>
       </c>
       <c r="L406" t="n">
         <v>351.09</v>
@@ -16686,7 +16686,7 @@
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="n">
-        <v>348.28</v>
+        <v>348.13</v>
       </c>
       <c r="L407" t="n">
         <v>349.29</v>
@@ -16731,7 +16731,7 @@
         <v>372</v>
       </c>
       <c r="K408" t="n">
-        <v>354.31</v>
+        <v>354.62</v>
       </c>
       <c r="L408" t="n">
         <v>354.45</v>
@@ -16776,7 +16776,7 @@
         <v>370.27</v>
       </c>
       <c r="K409" t="n">
-        <v>355</v>
+        <v>354.9</v>
       </c>
       <c r="L409" t="n">
         <v>350.54</v>
@@ -16821,7 +16821,7 @@
         <v>359.88</v>
       </c>
       <c r="K410" t="n">
-        <v>357.17</v>
+        <v>357.65</v>
       </c>
       <c r="L410" t="inlineStr"/>
       <c r="M410" t="inlineStr">
@@ -16864,7 +16864,7 @@
         <v>365.75</v>
       </c>
       <c r="K411" t="n">
-        <v>354.74</v>
+        <v>354.5</v>
       </c>
       <c r="L411" t="n">
         <v>354.06</v>
@@ -16897,7 +16897,7 @@
         <v>360.03</v>
       </c>
       <c r="K412" t="n">
-        <v>353.82</v>
+        <v>353.79</v>
       </c>
       <c r="L412" t="n">
         <v>352.64</v>
@@ -16942,7 +16942,7 @@
         <v>363.97</v>
       </c>
       <c r="K413" t="n">
-        <v>355.01</v>
+        <v>354.9</v>
       </c>
       <c r="L413" t="n">
         <v>353.54</v>
@@ -16981,7 +16981,7 @@
         <v>361.8</v>
       </c>
       <c r="K414" t="n">
-        <v>355.47</v>
+        <v>355.55</v>
       </c>
       <c r="L414" t="n">
         <v>352.16</v>
@@ -17026,7 +17026,7 @@
         <v>368.22</v>
       </c>
       <c r="K415" t="n">
-        <v>356.17</v>
+        <v>356.09</v>
       </c>
       <c r="L415" t="n">
         <v>353.47</v>
@@ -17061,7 +17061,7 @@
         <v>362.25</v>
       </c>
       <c r="K416" t="n">
-        <v>354.98</v>
+        <v>355.35</v>
       </c>
       <c r="L416" t="n">
         <v>353.23</v>
@@ -17096,7 +17096,7 @@
         <v>365.4</v>
       </c>
       <c r="K417" t="n">
-        <v>357.52</v>
+        <v>357.83</v>
       </c>
       <c r="L417" t="n">
         <v>356.71</v>
@@ -17178,7 +17178,7 @@
         <v>351.67</v>
       </c>
       <c r="K419" t="n">
-        <v>351.16</v>
+        <v>351.25</v>
       </c>
       <c r="L419" t="n">
         <v>351.92</v>
@@ -17223,7 +17223,7 @@
         <v>356.14</v>
       </c>
       <c r="K420" t="n">
-        <v>349.79</v>
+        <v>349.98</v>
       </c>
       <c r="L420" t="inlineStr"/>
       <c r="M420" t="inlineStr">
@@ -17338,7 +17338,7 @@
         <v>387.71</v>
       </c>
       <c r="K423" t="n">
-        <v>377.54</v>
+        <v>377.21</v>
       </c>
       <c r="L423" t="n">
         <v>373.95</v>
@@ -17379,7 +17379,7 @@
         <v>351.99</v>
       </c>
       <c r="K424" t="n">
-        <v>345.97</v>
+        <v>346.29</v>
       </c>
       <c r="L424" t="n">
         <v>345.08</v>
@@ -17424,7 +17424,7 @@
         <v>376.87</v>
       </c>
       <c r="K425" t="n">
-        <v>361.51</v>
+        <v>361.79</v>
       </c>
       <c r="L425" t="n">
         <v>356.73</v>
@@ -17459,7 +17459,7 @@
         <v>361.11</v>
       </c>
       <c r="K426" t="n">
-        <v>349.06</v>
+        <v>348.92</v>
       </c>
       <c r="L426" t="n">
         <v>349.66</v>
@@ -17504,7 +17504,7 @@
         <v>366.74</v>
       </c>
       <c r="K427" t="n">
-        <v>349.24</v>
+        <v>349.33</v>
       </c>
       <c r="L427" t="n">
         <v>357.33</v>
@@ -17539,7 +17539,7 @@
         <v>357.99</v>
       </c>
       <c r="K428" t="n">
-        <v>347.46</v>
+        <v>347.34</v>
       </c>
       <c r="L428" t="n">
         <v>343.05</v>
@@ -17584,7 +17584,7 @@
         <v>346.52</v>
       </c>
       <c r="K429" t="n">
-        <v>340.48</v>
+        <v>340.3</v>
       </c>
       <c r="L429" t="n">
         <v>339.63</v>
@@ -17738,7 +17738,7 @@
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="n">
-        <v>357.97</v>
+        <v>357.67</v>
       </c>
       <c r="L433" t="n">
         <v>349.78</v>
@@ -17783,7 +17783,7 @@
         <v>364.73</v>
       </c>
       <c r="K434" t="n">
-        <v>358.67</v>
+        <v>358.34</v>
       </c>
       <c r="L434" t="n">
         <v>346.95</v>
@@ -17828,7 +17828,7 @@
         <v>362.07</v>
       </c>
       <c r="K435" t="n">
-        <v>343.16</v>
+        <v>342.74</v>
       </c>
       <c r="L435" t="n">
         <v>344.27</v>
@@ -17912,7 +17912,7 @@
         <v>366.43</v>
       </c>
       <c r="K437" t="n">
-        <v>361.96</v>
+        <v>361.76</v>
       </c>
       <c r="L437" t="n">
         <v>347.95</v>
@@ -17949,7 +17949,7 @@
         <v>346.07</v>
       </c>
       <c r="K438" t="n">
-        <v>344.24</v>
+        <v>344.56</v>
       </c>
       <c r="L438" t="n">
         <v>340.22</v>
@@ -17994,7 +17994,7 @@
         <v>371.05</v>
       </c>
       <c r="K439" t="n">
-        <v>353.71</v>
+        <v>353.77</v>
       </c>
       <c r="L439" t="n">
         <v>351.58</v>
@@ -18031,7 +18031,7 @@
         <v>364.51</v>
       </c>
       <c r="K440" t="n">
-        <v>345.37</v>
+        <v>345.47</v>
       </c>
       <c r="L440" t="n">
         <v>339.42</v>
@@ -18076,7 +18076,7 @@
         <v>369.03</v>
       </c>
       <c r="K441" t="n">
-        <v>355.46</v>
+        <v>355.32</v>
       </c>
       <c r="L441" t="n">
         <v>351.14</v>
@@ -18156,7 +18156,7 @@
         <v>360.36</v>
       </c>
       <c r="K443" t="n">
-        <v>351.64</v>
+        <v>352</v>
       </c>
       <c r="L443" t="n">
         <v>351.05</v>
@@ -18232,7 +18232,7 @@
         <v>359.39</v>
       </c>
       <c r="K445" t="n">
-        <v>346.41</v>
+        <v>346.47</v>
       </c>
       <c r="L445" t="n">
         <v>343.24</v>
@@ -18306,7 +18306,7 @@
         <v>367.97</v>
       </c>
       <c r="K447" t="n">
-        <v>357.81</v>
+        <v>357.84</v>
       </c>
       <c r="L447" t="n">
         <v>351.33</v>
@@ -18351,7 +18351,7 @@
         <v>372.81</v>
       </c>
       <c r="K448" t="n">
-        <v>354.58</v>
+        <v>354.88</v>
       </c>
       <c r="L448" t="n">
         <v>355.87</v>
@@ -18394,7 +18394,7 @@
         <v>359.83</v>
       </c>
       <c r="K449" t="n">
-        <v>346.23</v>
+        <v>345.97</v>
       </c>
       <c r="L449" t="n">
         <v>347.23</v>
@@ -18433,7 +18433,7 @@
         <v>365.77</v>
       </c>
       <c r="K450" t="n">
-        <v>356.66</v>
+        <v>356.48</v>
       </c>
       <c r="L450" t="n">
         <v>349.36</v>
@@ -18478,7 +18478,7 @@
         <v>369.2</v>
       </c>
       <c r="K451" t="n">
-        <v>360.88</v>
+        <v>360.78</v>
       </c>
       <c r="L451" t="n">
         <v>355.03</v>
@@ -18523,7 +18523,7 @@
         <v>365.03</v>
       </c>
       <c r="K452" t="n">
-        <v>353.97</v>
+        <v>353.92</v>
       </c>
       <c r="L452" t="n">
         <v>348.46</v>
@@ -18568,7 +18568,7 @@
         <v>369.17</v>
       </c>
       <c r="K453" t="n">
-        <v>352.53</v>
+        <v>352.62</v>
       </c>
       <c r="L453" t="n">
         <v>356.09</v>
@@ -18644,7 +18644,7 @@
         <v>361.64</v>
       </c>
       <c r="K455" t="n">
-        <v>353.34</v>
+        <v>353.56</v>
       </c>
       <c r="L455" t="n">
         <v>349.96</v>
@@ -18683,7 +18683,7 @@
         <v>361.63</v>
       </c>
       <c r="K456" t="n">
-        <v>355.66</v>
+        <v>355.41</v>
       </c>
       <c r="L456" t="inlineStr"/>
       <c r="M456" t="inlineStr">
@@ -18722,7 +18722,7 @@
         <v>358.7</v>
       </c>
       <c r="K457" t="n">
-        <v>339.42</v>
+        <v>339.63</v>
       </c>
       <c r="L457" t="n">
         <v>339.77</v>
@@ -18794,7 +18794,7 @@
         <v>349.5</v>
       </c>
       <c r="K459" t="n">
-        <v>341.01</v>
+        <v>340.73</v>
       </c>
       <c r="L459" t="n">
         <v>343.95</v>
@@ -18839,7 +18839,7 @@
         <v>378.02</v>
       </c>
       <c r="K460" t="n">
-        <v>359.52</v>
+        <v>359.79</v>
       </c>
       <c r="L460" t="n">
         <v>366.73</v>
@@ -18884,7 +18884,7 @@
         <v>370.02</v>
       </c>
       <c r="K461" t="n">
-        <v>367.86</v>
+        <v>367.56</v>
       </c>
       <c r="L461" t="n">
         <v>367.78</v>
@@ -18923,7 +18923,7 @@
         <v>373.9</v>
       </c>
       <c r="K462" t="n">
-        <v>365.75</v>
+        <v>365.9</v>
       </c>
       <c r="L462" t="inlineStr"/>
       <c r="M462" t="inlineStr">
@@ -18966,7 +18966,7 @@
         <v>373.59</v>
       </c>
       <c r="K463" t="n">
-        <v>361.03</v>
+        <v>361.07</v>
       </c>
       <c r="L463" t="n">
         <v>365.42</v>
@@ -19005,7 +19005,7 @@
         <v>373.46</v>
       </c>
       <c r="K464" t="n">
-        <v>362.17</v>
+        <v>362.13</v>
       </c>
       <c r="L464" t="n">
         <v>358.21</v>
@@ -19050,7 +19050,7 @@
         <v>372.55</v>
       </c>
       <c r="K465" t="n">
-        <v>366.37</v>
+        <v>366.19</v>
       </c>
       <c r="L465" t="n">
         <v>367.26</v>
@@ -19095,7 +19095,7 @@
         <v>377.69</v>
       </c>
       <c r="K466" t="n">
-        <v>379.39</v>
+        <v>379.42</v>
       </c>
       <c r="L466" t="n">
         <v>377.51</v>
@@ -19140,7 +19140,7 @@
         <v>348.22</v>
       </c>
       <c r="K467" t="n">
-        <v>350.84</v>
+        <v>351.1</v>
       </c>
       <c r="L467" t="n">
         <v>345.69</v>
@@ -19185,7 +19185,7 @@
         <v>375.85</v>
       </c>
       <c r="K468" t="n">
-        <v>356.78</v>
+        <v>357.08</v>
       </c>
       <c r="L468" t="n">
         <v>358.78</v>
@@ -19218,7 +19218,7 @@
         <v>356.55</v>
       </c>
       <c r="K469" t="n">
-        <v>351.06</v>
+        <v>351.27</v>
       </c>
       <c r="L469" t="n">
         <v>348.44</v>
@@ -19298,7 +19298,7 @@
         <v>372.39</v>
       </c>
       <c r="K471" t="n">
-        <v>359.91</v>
+        <v>360.01</v>
       </c>
       <c r="L471" t="n">
         <v>357.6</v>
@@ -19337,7 +19337,7 @@
         <v>372.11</v>
       </c>
       <c r="K472" t="n">
-        <v>353.98</v>
+        <v>354.27</v>
       </c>
       <c r="L472" t="n">
         <v>353.48</v>
@@ -19382,7 +19382,7 @@
         <v>363.45</v>
       </c>
       <c r="K473" t="n">
-        <v>356.14</v>
+        <v>355.98</v>
       </c>
       <c r="L473" t="n">
         <v>350.72</v>
@@ -19415,7 +19415,7 @@
         <v>355.1</v>
       </c>
       <c r="K474" t="n">
-        <v>345.38</v>
+        <v>345.14</v>
       </c>
       <c r="L474" t="n">
         <v>342.99</v>
@@ -19460,7 +19460,7 @@
         <v>361.57</v>
       </c>
       <c r="K475" t="n">
-        <v>360.21</v>
+        <v>359.91</v>
       </c>
       <c r="L475" t="n">
         <v>355.38</v>
@@ -19495,7 +19495,7 @@
         <v>360.08</v>
       </c>
       <c r="K476" t="n">
-        <v>354.39</v>
+        <v>354.04</v>
       </c>
       <c r="L476" t="n">
         <v>356.93</v>
@@ -19565,7 +19565,7 @@
         <v>370.49</v>
       </c>
       <c r="K478" t="n">
-        <v>360.27</v>
+        <v>360.47</v>
       </c>
       <c r="L478" t="n">
         <v>355.37</v>
@@ -19610,7 +19610,7 @@
         <v>360.36</v>
       </c>
       <c r="K479" t="n">
-        <v>364.71</v>
+        <v>364.58</v>
       </c>
       <c r="L479" t="n">
         <v>364.38</v>
@@ -19690,7 +19690,7 @@
         <v>362.69</v>
       </c>
       <c r="K481" t="n">
-        <v>357.09</v>
+        <v>357</v>
       </c>
       <c r="L481" t="n">
         <v>354.49</v>
@@ -19735,7 +19735,7 @@
         <v>370.21</v>
       </c>
       <c r="K482" t="n">
-        <v>352.41</v>
+        <v>352.57</v>
       </c>
       <c r="L482" t="n">
         <v>354.81</v>
@@ -19819,7 +19819,7 @@
         <v>362.99</v>
       </c>
       <c r="K484" t="n">
-        <v>353.4</v>
+        <v>353.3</v>
       </c>
       <c r="L484" t="n">
         <v>350.08</v>
@@ -19864,7 +19864,7 @@
         <v>375.59</v>
       </c>
       <c r="K485" t="n">
-        <v>357.08</v>
+        <v>357.36</v>
       </c>
       <c r="L485" t="n">
         <v>356.78</v>
@@ -19897,7 +19897,7 @@
         <v>379.17</v>
       </c>
       <c r="K486" t="n">
-        <v>364.08</v>
+        <v>364.58</v>
       </c>
       <c r="L486" t="n">
         <v>361.16</v>
@@ -19942,7 +19942,7 @@
         <v>364.48</v>
       </c>
       <c r="K487" t="n">
-        <v>351.16</v>
+        <v>350.91</v>
       </c>
       <c r="L487" t="n">
         <v>350.34</v>
@@ -19987,7 +19987,7 @@
         <v>351.56</v>
       </c>
       <c r="K488" t="n">
-        <v>347.42</v>
+        <v>347.76</v>
       </c>
       <c r="L488" t="n">
         <v>342.39</v>
@@ -20020,7 +20020,7 @@
         <v>351.32</v>
       </c>
       <c r="K489" t="n">
-        <v>350.43</v>
+        <v>350.78</v>
       </c>
       <c r="L489" t="n">
         <v>346.25</v>
@@ -20065,7 +20065,7 @@
         <v>350.95</v>
       </c>
       <c r="K490" t="n">
-        <v>348.34</v>
+        <v>348.82</v>
       </c>
       <c r="L490" t="n">
         <v>356.86</v>
@@ -20098,7 +20098,7 @@
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
       <c r="K491" t="n">
-        <v>347.91</v>
+        <v>348.22</v>
       </c>
       <c r="L491" t="n">
         <v>342.88</v>
@@ -20139,7 +20139,7 @@
         <v>345.5</v>
       </c>
       <c r="K492" t="n">
-        <v>346.28</v>
+        <v>346.47</v>
       </c>
       <c r="L492" t="inlineStr"/>
       <c r="M492" t="inlineStr">
@@ -20176,7 +20176,7 @@
         <v>365.28</v>
       </c>
       <c r="K493" t="n">
-        <v>352.52</v>
+        <v>352.33</v>
       </c>
       <c r="L493" t="n">
         <v>357.25</v>
@@ -20221,7 +20221,7 @@
         <v>352</v>
       </c>
       <c r="K494" t="n">
-        <v>349.42</v>
+        <v>349.53</v>
       </c>
       <c r="L494" t="n">
         <v>349.16</v>
@@ -20314,7 +20314,7 @@
         <v>350.19</v>
       </c>
       <c r="K497" t="n">
-        <v>340.95</v>
+        <v>341.28</v>
       </c>
       <c r="L497" t="n">
         <v>344.69</v>
@@ -20355,7 +20355,7 @@
         <v>358.51</v>
       </c>
       <c r="K498" t="n">
-        <v>331.3</v>
+        <v>331.15</v>
       </c>
       <c r="L498" t="n">
         <v>334.38</v>
@@ -20419,7 +20419,7 @@
         <v>355.82</v>
       </c>
       <c r="K500" t="n">
-        <v>334.07</v>
+        <v>334.47</v>
       </c>
       <c r="L500" t="inlineStr"/>
       <c r="M500" t="inlineStr">
@@ -20503,7 +20503,7 @@
         <v>372.81</v>
       </c>
       <c r="K502" t="n">
-        <v>352.79</v>
+        <v>353.25</v>
       </c>
       <c r="L502" t="n">
         <v>350.36</v>
@@ -20548,7 +20548,7 @@
         <v>363.31</v>
       </c>
       <c r="K503" t="n">
-        <v>343.14</v>
+        <v>343</v>
       </c>
       <c r="L503" t="n">
         <v>344.09</v>
@@ -20593,7 +20593,7 @@
         <v>371.72</v>
       </c>
       <c r="K504" t="n">
-        <v>350.21</v>
+        <v>350.32</v>
       </c>
       <c r="L504" t="n">
         <v>352.4</v>
@@ -20628,7 +20628,7 @@
         <v>356.69</v>
       </c>
       <c r="K505" t="n">
-        <v>340.68</v>
+        <v>340.5</v>
       </c>
       <c r="L505" t="n">
         <v>340.29</v>
@@ -20673,7 +20673,7 @@
         <v>363.21</v>
       </c>
       <c r="K506" t="n">
-        <v>354.5</v>
+        <v>354.85</v>
       </c>
       <c r="L506" t="n">
         <v>352.66</v>
@@ -20745,7 +20745,7 @@
         <v>349.1</v>
       </c>
       <c r="K508" t="n">
-        <v>341.55</v>
+        <v>341.92</v>
       </c>
       <c r="L508" t="n">
         <v>331.51</v>
@@ -20790,7 +20790,7 @@
         <v>371.22</v>
       </c>
       <c r="K509" t="n">
-        <v>358.87</v>
+        <v>359.22</v>
       </c>
       <c r="L509" t="n">
         <v>354.93</v>
@@ -20835,7 +20835,7 @@
         <v>367.32</v>
       </c>
       <c r="K510" t="n">
-        <v>351.64</v>
+        <v>351.72</v>
       </c>
       <c r="L510" t="n">
         <v>352.51</v>
@@ -20870,7 +20870,7 @@
         <v>367.46</v>
       </c>
       <c r="K511" t="n">
-        <v>352.07</v>
+        <v>352.25</v>
       </c>
       <c r="L511" t="n">
         <v>354.11</v>
@@ -20915,7 +20915,7 @@
         <v>356.38</v>
       </c>
       <c r="K512" t="n">
-        <v>349.36</v>
+        <v>349.55</v>
       </c>
       <c r="L512" t="n">
         <v>348.64</v>
@@ -21038,7 +21038,7 @@
         <v>349.54</v>
       </c>
       <c r="K515" t="n">
-        <v>340.91</v>
+        <v>341.36</v>
       </c>
       <c r="L515" t="n">
         <v>341.1</v>
@@ -21116,7 +21116,7 @@
         <v>369.28</v>
       </c>
       <c r="K517" t="n">
-        <v>355.39</v>
+        <v>355.63</v>
       </c>
       <c r="L517" t="n">
         <v>356.78</v>
@@ -21155,7 +21155,7 @@
         <v>358.82</v>
       </c>
       <c r="K518" t="n">
-        <v>345.32</v>
+        <v>345.17</v>
       </c>
       <c r="L518" t="n">
         <v>354.54</v>
@@ -21200,7 +21200,7 @@
         <v>371.13</v>
       </c>
       <c r="K519" t="n">
-        <v>354.09</v>
+        <v>354.16</v>
       </c>
       <c r="L519" t="n">
         <v>355.7</v>
@@ -21237,7 +21237,7 @@
         <v>360.24</v>
       </c>
       <c r="K520" t="n">
-        <v>347.35</v>
+        <v>347.49</v>
       </c>
       <c r="L520" t="inlineStr"/>
       <c r="M520" t="inlineStr">
@@ -21280,7 +21280,7 @@
         <v>373.52</v>
       </c>
       <c r="K521" t="n">
-        <v>364.43</v>
+        <v>364.47</v>
       </c>
       <c r="L521" t="n">
         <v>361.09</v>
@@ -21319,7 +21319,7 @@
         <v>345.31</v>
       </c>
       <c r="K522" t="n">
-        <v>337.65</v>
+        <v>337.9</v>
       </c>
       <c r="L522" t="n">
         <v>336.48</v>
@@ -21364,7 +21364,7 @@
         <v>341.13</v>
       </c>
       <c r="K523" t="n">
-        <v>338.47</v>
+        <v>338.14</v>
       </c>
       <c r="L523" t="n">
         <v>334.18</v>
@@ -21407,7 +21407,7 @@
         <v>372.49</v>
       </c>
       <c r="K524" t="n">
-        <v>354.48</v>
+        <v>354.76</v>
       </c>
       <c r="L524" t="n">
         <v>355.36</v>
@@ -21516,7 +21516,7 @@
         <v>342.93</v>
       </c>
       <c r="K527" t="n">
-        <v>333.86</v>
+        <v>333.85</v>
       </c>
       <c r="L527" t="n">
         <v>334.49</v>
@@ -21592,7 +21592,7 @@
         <v>349.98</v>
       </c>
       <c r="K529" t="n">
-        <v>349.52</v>
+        <v>349.42</v>
       </c>
       <c r="L529" t="n">
         <v>352.65</v>
@@ -21637,7 +21637,7 @@
         <v>364.55</v>
       </c>
       <c r="K530" t="n">
-        <v>346.62</v>
+        <v>346.42</v>
       </c>
       <c r="L530" t="n">
         <v>341.34</v>
@@ -21682,7 +21682,7 @@
         <v>360.12</v>
       </c>
       <c r="K531" t="n">
-        <v>343.63</v>
+        <v>343.28</v>
       </c>
       <c r="L531" t="n">
         <v>345.89</v>
@@ -21727,7 +21727,7 @@
         <v>356.66</v>
       </c>
       <c r="K532" t="n">
-        <v>352.09</v>
+        <v>352.43</v>
       </c>
       <c r="L532" t="n">
         <v>350.82</v>
@@ -21768,7 +21768,7 @@
         <v>336.37</v>
       </c>
       <c r="K533" t="n">
-        <v>342.05</v>
+        <v>341.79</v>
       </c>
       <c r="L533" t="n">
         <v>337.94</v>
@@ -21813,7 +21813,7 @@
         <v>353.39</v>
       </c>
       <c r="K534" t="n">
-        <v>349.75</v>
+        <v>349.95</v>
       </c>
       <c r="L534" t="n">
         <v>339.99</v>
@@ -21858,7 +21858,7 @@
         <v>359.93</v>
       </c>
       <c r="K535" t="n">
-        <v>347.11</v>
+        <v>346.88</v>
       </c>
       <c r="L535" t="n">
         <v>348.25</v>
@@ -21903,7 +21903,7 @@
         <v>363.68</v>
       </c>
       <c r="K536" t="n">
-        <v>352.07</v>
+        <v>351.75</v>
       </c>
       <c r="L536" t="n">
         <v>348.82</v>
@@ -21948,7 +21948,7 @@
         <v>346.08</v>
       </c>
       <c r="K537" t="n">
-        <v>350.03</v>
+        <v>350.42</v>
       </c>
       <c r="L537" t="n">
         <v>347.66</v>
@@ -21993,7 +21993,7 @@
         <v>343.5</v>
       </c>
       <c r="K538" t="n">
-        <v>340.15</v>
+        <v>340.03</v>
       </c>
       <c r="L538" t="n">
         <v>337.9</v>
@@ -22032,7 +22032,7 @@
         <v>346.13</v>
       </c>
       <c r="K539" t="n">
-        <v>334.88</v>
+        <v>335.16</v>
       </c>
       <c r="L539" t="n">
         <v>331.26</v>
@@ -22077,7 +22077,7 @@
         <v>339.22</v>
       </c>
       <c r="K540" t="n">
-        <v>332.98</v>
+        <v>333.36</v>
       </c>
       <c r="L540" t="n">
         <v>336.86</v>
@@ -22122,7 +22122,7 @@
         <v>350.88</v>
       </c>
       <c r="K541" t="n">
-        <v>337.93</v>
+        <v>337.7</v>
       </c>
       <c r="L541" t="n">
         <v>338.89</v>
@@ -22167,7 +22167,7 @@
         <v>364.16</v>
       </c>
       <c r="K542" t="n">
-        <v>348.84</v>
+        <v>348.81</v>
       </c>
       <c r="L542" t="n">
         <v>351.99</v>
@@ -22212,7 +22212,7 @@
         <v>361.88</v>
       </c>
       <c r="K543" t="n">
-        <v>355.83</v>
+        <v>355.93</v>
       </c>
       <c r="L543" t="n">
         <v>354.06</v>
@@ -22253,7 +22253,7 @@
         <v>355.7</v>
       </c>
       <c r="K544" t="n">
-        <v>347.49</v>
+        <v>347.43</v>
       </c>
       <c r="L544" t="n">
         <v>346.64</v>
@@ -22298,7 +22298,7 @@
         <v>344.03</v>
       </c>
       <c r="K545" t="n">
-        <v>344.37</v>
+        <v>344.54</v>
       </c>
       <c r="L545" t="n">
         <v>335.52</v>
@@ -22343,7 +22343,7 @@
         <v>344.62</v>
       </c>
       <c r="K546" t="n">
-        <v>341.14</v>
+        <v>341.12</v>
       </c>
       <c r="L546" t="n">
         <v>335.49</v>
@@ -22388,7 +22388,7 @@
         <v>346.08</v>
       </c>
       <c r="K547" t="n">
-        <v>338.54</v>
+        <v>338.89</v>
       </c>
       <c r="L547" t="n">
         <v>336.91</v>
@@ -22429,7 +22429,7 @@
         <v>344.12</v>
       </c>
       <c r="K548" t="n">
-        <v>341.28</v>
+        <v>341.1</v>
       </c>
       <c r="L548" t="n">
         <v>336.31</v>
@@ -22474,7 +22474,7 @@
         <v>342.03</v>
       </c>
       <c r="K549" t="n">
-        <v>339.42</v>
+        <v>339.35</v>
       </c>
       <c r="L549" t="n">
         <v>340.58</v>
@@ -22519,7 +22519,7 @@
         <v>355.72</v>
       </c>
       <c r="K550" t="n">
-        <v>339.83</v>
+        <v>339.57</v>
       </c>
       <c r="L550" t="n">
         <v>343.12</v>
@@ -22564,7 +22564,7 @@
         <v>346.07</v>
       </c>
       <c r="K551" t="n">
-        <v>344.77</v>
+        <v>344.87</v>
       </c>
       <c r="L551" t="n">
         <v>339.02</v>
@@ -22603,7 +22603,7 @@
         <v>370.51</v>
       </c>
       <c r="K552" t="n">
-        <v>354.02</v>
+        <v>354.43</v>
       </c>
       <c r="L552" t="n">
         <v>348.52</v>
@@ -22648,7 +22648,7 @@
         <v>364.25</v>
       </c>
       <c r="K553" t="n">
-        <v>347.47</v>
+        <v>347.34</v>
       </c>
       <c r="L553" t="n">
         <v>351.13</v>
@@ -22771,7 +22771,7 @@
         <v>351.67</v>
       </c>
       <c r="K556" t="n">
-        <v>350.47</v>
+        <v>350.66</v>
       </c>
       <c r="L556" t="n">
         <v>353.02</v>
@@ -22816,7 +22816,7 @@
         <v>359.19</v>
       </c>
       <c r="K557" t="n">
-        <v>350.35</v>
+        <v>350.59</v>
       </c>
       <c r="L557" t="n">
         <v>354.17</v>
@@ -22917,7 +22917,7 @@
         <v>361.59</v>
       </c>
       <c r="K560" t="n">
-        <v>355.08</v>
+        <v>354.78</v>
       </c>
       <c r="L560" t="n">
         <v>352.67</v>
@@ -22995,7 +22995,7 @@
         <v>367.05</v>
       </c>
       <c r="K562" t="n">
-        <v>348.53</v>
+        <v>348.39</v>
       </c>
       <c r="L562" t="n">
         <v>352.85</v>
@@ -23040,7 +23040,7 @@
         <v>334.42</v>
       </c>
       <c r="K563" t="n">
-        <v>339.95</v>
+        <v>339.65</v>
       </c>
       <c r="L563" t="n">
         <v>341.78</v>
@@ -23120,7 +23120,7 @@
         <v>365.08</v>
       </c>
       <c r="K565" t="n">
-        <v>360.92</v>
+        <v>361.2</v>
       </c>
       <c r="L565" t="n">
         <v>354.91</v>
@@ -23165,7 +23165,7 @@
         <v>351.29</v>
       </c>
       <c r="K566" t="n">
-        <v>351.49</v>
+        <v>351.72</v>
       </c>
       <c r="L566" t="n">
         <v>349.84</v>
@@ -23210,7 +23210,7 @@
         <v>347.74</v>
       </c>
       <c r="K567" t="n">
-        <v>338.9</v>
+        <v>338.54</v>
       </c>
       <c r="L567" t="n">
         <v>343.55</v>
@@ -23286,7 +23286,7 @@
         <v>345.58</v>
       </c>
       <c r="K569" t="n">
-        <v>341.43</v>
+        <v>341.25</v>
       </c>
       <c r="L569" t="n">
         <v>345.59</v>
@@ -23331,7 +23331,7 @@
         <v>366.95</v>
       </c>
       <c r="K570" t="n">
-        <v>356.87</v>
+        <v>356.89</v>
       </c>
       <c r="L570" t="n">
         <v>356.38</v>
@@ -23442,7 +23442,7 @@
         <v>365.71</v>
       </c>
       <c r="K573" t="n">
-        <v>352.45</v>
+        <v>352.75</v>
       </c>
       <c r="L573" t="n">
         <v>354.01</v>
@@ -23518,7 +23518,7 @@
         <v>347.03</v>
       </c>
       <c r="K575" t="n">
-        <v>340.69</v>
+        <v>340.56</v>
       </c>
       <c r="L575" t="n">
         <v>336.27</v>
@@ -23563,7 +23563,7 @@
         <v>362.43</v>
       </c>
       <c r="K576" t="n">
-        <v>353.19</v>
+        <v>352.83</v>
       </c>
       <c r="L576" t="n">
         <v>352.24</v>
@@ -23606,7 +23606,7 @@
         <v>352.4</v>
       </c>
       <c r="K577" t="n">
-        <v>345.98</v>
+        <v>345.77</v>
       </c>
       <c r="L577" t="n">
         <v>344.17</v>
@@ -23651,7 +23651,7 @@
         <v>359.18</v>
       </c>
       <c r="K578" t="n">
-        <v>345.14</v>
+        <v>344.89</v>
       </c>
       <c r="L578" t="n">
         <v>347.62</v>
@@ -23696,7 +23696,7 @@
         <v>364.75</v>
       </c>
       <c r="K579" t="n">
-        <v>359.8</v>
+        <v>359.55</v>
       </c>
       <c r="L579" t="n">
         <v>350.33</v>
@@ -23737,7 +23737,7 @@
         <v>371.63</v>
       </c>
       <c r="K580" t="n">
-        <v>359.21</v>
+        <v>359.14</v>
       </c>
       <c r="L580" t="n">
         <v>360.64</v>
@@ -23813,7 +23813,7 @@
         <v>355.87</v>
       </c>
       <c r="K582" t="n">
-        <v>346.83</v>
+        <v>347.06</v>
       </c>
       <c r="L582" t="n">
         <v>345.73</v>
@@ -23858,7 +23858,7 @@
         <v>339.63</v>
       </c>
       <c r="K583" t="n">
-        <v>339.06</v>
+        <v>338.81</v>
       </c>
       <c r="L583" t="n">
         <v>335.91</v>
@@ -23903,7 +23903,7 @@
         <v>332.22</v>
       </c>
       <c r="K584" t="n">
-        <v>320.11</v>
+        <v>320.1</v>
       </c>
       <c r="L584" t="n">
         <v>321.67</v>
@@ -23948,7 +23948,7 @@
         <v>341.19</v>
       </c>
       <c r="K585" t="n">
-        <v>317.24</v>
+        <v>317.35</v>
       </c>
       <c r="L585" t="n">
         <v>317.52</v>
@@ -24030,7 +24030,7 @@
         <v>347.87</v>
       </c>
       <c r="K587" t="n">
-        <v>335.91</v>
+        <v>336.07</v>
       </c>
       <c r="L587" t="n">
         <v>338.75</v>
@@ -24075,7 +24075,7 @@
         <v>345.76</v>
       </c>
       <c r="K588" t="n">
-        <v>333.8</v>
+        <v>333.79</v>
       </c>
       <c r="L588" t="n">
         <v>334.61</v>
@@ -24120,7 +24120,7 @@
         <v>346.53</v>
       </c>
       <c r="K589" t="n">
-        <v>330.01</v>
+        <v>330.36</v>
       </c>
       <c r="L589" t="n">
         <v>339.74</v>
@@ -24163,7 +24163,7 @@
         <v>351.83</v>
       </c>
       <c r="K590" t="n">
-        <v>338.94</v>
+        <v>338.73</v>
       </c>
       <c r="L590" t="n">
         <v>335.8</v>
@@ -24208,7 +24208,7 @@
         <v>340.48</v>
       </c>
       <c r="K591" t="n">
-        <v>342.22</v>
+        <v>342.11</v>
       </c>
       <c r="L591" t="n">
         <v>331.9</v>
@@ -24239,7 +24239,7 @@
         <v>346.42</v>
       </c>
       <c r="K592" t="n">
-        <v>334.91</v>
+        <v>335.09</v>
       </c>
       <c r="L592" t="n">
         <v>331.05</v>
@@ -24284,7 +24284,7 @@
         <v>331.69</v>
       </c>
       <c r="K593" t="n">
-        <v>316.11</v>
+        <v>316.29</v>
       </c>
       <c r="L593" t="n">
         <v>312.76</v>
@@ -24329,7 +24329,7 @@
         <v>344.26</v>
       </c>
       <c r="K594" t="n">
-        <v>322.87</v>
+        <v>323.17</v>
       </c>
       <c r="L594" t="n">
         <v>338.58</v>
@@ -24434,7 +24434,7 @@
         <v>346.41</v>
       </c>
       <c r="K597" t="n">
-        <v>335.37</v>
+        <v>335.55</v>
       </c>
       <c r="L597" t="n">
         <v>332.96</v>
@@ -24506,7 +24506,7 @@
         <v>345.94</v>
       </c>
       <c r="K599" t="n">
-        <v>336.88</v>
+        <v>336.96</v>
       </c>
       <c r="L599" t="n">
         <v>340.69</v>
@@ -24551,7 +24551,7 @@
         <v>361.2</v>
       </c>
       <c r="K600" t="n">
-        <v>345.19</v>
+        <v>345.06</v>
       </c>
       <c r="L600" t="n">
         <v>350.89</v>
@@ -24596,7 +24596,7 @@
         <v>341.53</v>
       </c>
       <c r="K601" t="n">
-        <v>332.1</v>
+        <v>332.08</v>
       </c>
       <c r="L601" t="n">
         <v>329.21</v>
@@ -24641,7 +24641,7 @@
         <v>346.1</v>
       </c>
       <c r="K602" t="n">
-        <v>342.89</v>
+        <v>343.01</v>
       </c>
       <c r="L602" t="n">
         <v>336.89</v>
@@ -24686,7 +24686,7 @@
         <v>335.7</v>
       </c>
       <c r="K603" t="n">
-        <v>330.5</v>
+        <v>330.35</v>
       </c>
       <c r="L603" t="n">
         <v>328.59</v>
@@ -24731,7 +24731,7 @@
         <v>361.83</v>
       </c>
       <c r="K604" t="n">
-        <v>337.18</v>
+        <v>336.9</v>
       </c>
       <c r="L604" t="n">
         <v>337.6</v>
@@ -24776,7 +24776,7 @@
         <v>358.6</v>
       </c>
       <c r="K605" t="n">
-        <v>336.58</v>
+        <v>336.21</v>
       </c>
       <c r="L605" t="n">
         <v>333.41</v>
@@ -24821,7 +24821,7 @@
         <v>353.57</v>
       </c>
       <c r="K606" t="n">
-        <v>352.66</v>
+        <v>353.08</v>
       </c>
       <c r="L606" t="n">
         <v>343.19</v>
@@ -24918,7 +24918,7 @@
         <v>359.33</v>
       </c>
       <c r="K609" t="n">
-        <v>338.79</v>
+        <v>338.59</v>
       </c>
       <c r="L609" t="n">
         <v>332.94</v>
@@ -24963,7 +24963,7 @@
         <v>351.88</v>
       </c>
       <c r="K610" t="n">
-        <v>347.27</v>
+        <v>347.54</v>
       </c>
       <c r="L610" t="n">
         <v>339.58</v>
@@ -25008,7 +25008,7 @@
         <v>363.13</v>
       </c>
       <c r="K611" t="n">
-        <v>341.32</v>
+        <v>341.14</v>
       </c>
       <c r="L611" t="n">
         <v>341.84</v>
@@ -25053,7 +25053,7 @@
         <v>367.58</v>
       </c>
       <c r="K612" t="n">
-        <v>347.09</v>
+        <v>347.16</v>
       </c>
       <c r="L612" t="n">
         <v>344.1</v>
@@ -25098,7 +25098,7 @@
         <v>352</v>
       </c>
       <c r="K613" t="n">
-        <v>347.65</v>
+        <v>347.79</v>
       </c>
       <c r="L613" t="n">
         <v>344.61</v>
@@ -25143,7 +25143,7 @@
         <v>369.55</v>
       </c>
       <c r="K614" t="n">
-        <v>352.62</v>
+        <v>352.96</v>
       </c>
       <c r="L614" t="n">
         <v>349.76</v>
@@ -25182,7 +25182,7 @@
         <v>355.53</v>
       </c>
       <c r="K615" t="n">
-        <v>341.64</v>
+        <v>341.36</v>
       </c>
       <c r="L615" t="n">
         <v>340.96</v>
@@ -25227,7 +25227,7 @@
         <v>338.47</v>
       </c>
       <c r="K616" t="n">
-        <v>326.79</v>
+        <v>327.2</v>
       </c>
       <c r="L616" t="n">
         <v>330.25</v>
@@ -25272,7 +25272,7 @@
         <v>341.95</v>
       </c>
       <c r="K617" t="n">
-        <v>333.93</v>
+        <v>333.7</v>
       </c>
       <c r="L617" t="n">
         <v>339.02</v>
@@ -25317,7 +25317,7 @@
         <v>346.64</v>
       </c>
       <c r="K618" t="n">
-        <v>332.88</v>
+        <v>332.67</v>
       </c>
       <c r="L618" t="n">
         <v>340.1</v>
@@ -25362,7 +25362,7 @@
         <v>339.5</v>
       </c>
       <c r="K619" t="n">
-        <v>329.97</v>
+        <v>329.87</v>
       </c>
       <c r="L619" t="n">
         <v>331.14</v>
@@ -25438,7 +25438,7 @@
         <v>337.6</v>
       </c>
       <c r="K621" t="n">
-        <v>324.89</v>
+        <v>324.74</v>
       </c>
       <c r="L621" t="n">
         <v>332.1</v>
@@ -25483,7 +25483,7 @@
         <v>347.25</v>
       </c>
       <c r="K622" t="n">
-        <v>346.1</v>
+        <v>346.06</v>
       </c>
       <c r="L622" t="n">
         <v>337.57</v>
@@ -25524,7 +25524,7 @@
         <v>362.69</v>
       </c>
       <c r="K623" t="n">
-        <v>349.7</v>
+        <v>349.65</v>
       </c>
       <c r="L623" t="n">
         <v>348.76</v>
@@ -25557,7 +25557,7 @@
         <v>358.89</v>
       </c>
       <c r="K624" t="n">
-        <v>346.84</v>
+        <v>347.25</v>
       </c>
       <c r="L624" t="n">
         <v>345.51</v>
@@ -25602,7 +25602,7 @@
         <v>349.73</v>
       </c>
       <c r="K625" t="n">
-        <v>340.29</v>
+        <v>340.51</v>
       </c>
       <c r="L625" t="n">
         <v>346.53</v>
@@ -25647,7 +25647,7 @@
         <v>352.68</v>
       </c>
       <c r="K626" t="n">
-        <v>351.35</v>
+        <v>351.76</v>
       </c>
       <c r="L626" t="n">
         <v>337.48</v>
@@ -25731,7 +25731,7 @@
         <v>340.22</v>
       </c>
       <c r="K628" t="n">
-        <v>330.81</v>
+        <v>331.18</v>
       </c>
       <c r="L628" t="n">
         <v>327.91</v>
@@ -25776,7 +25776,7 @@
         <v>355.09</v>
       </c>
       <c r="K629" t="n">
-        <v>340.77</v>
+        <v>340.6</v>
       </c>
       <c r="L629" t="n">
         <v>340.42</v>
@@ -25821,7 +25821,7 @@
         <v>349.04</v>
       </c>
       <c r="K630" t="n">
-        <v>339.22</v>
+        <v>338.98</v>
       </c>
       <c r="L630" t="n">
         <v>338.44</v>
@@ -25866,7 +25866,7 @@
         <v>341.92</v>
       </c>
       <c r="K631" t="n">
-        <v>337.37</v>
+        <v>337.87</v>
       </c>
       <c r="L631" t="n">
         <v>343.04</v>
@@ -25911,7 +25911,7 @@
         <v>346.36</v>
       </c>
       <c r="K632" t="n">
-        <v>330.03</v>
+        <v>330.45</v>
       </c>
       <c r="L632" t="n">
         <v>327.46</v>
@@ -25956,7 +25956,7 @@
         <v>349.46</v>
       </c>
       <c r="K633" t="n">
-        <v>349.04</v>
+        <v>349.35</v>
       </c>
       <c r="L633" t="n">
         <v>350.14</v>
@@ -26001,7 +26001,7 @@
         <v>355.62</v>
       </c>
       <c r="K634" t="n">
-        <v>341.53</v>
+        <v>341.26</v>
       </c>
       <c r="L634" t="n">
         <v>347.48</v>
@@ -26046,7 +26046,7 @@
         <v>347.6</v>
       </c>
       <c r="K635" t="n">
-        <v>345.59</v>
+        <v>345.49</v>
       </c>
       <c r="L635" t="n">
         <v>348.17</v>
@@ -26091,7 +26091,7 @@
         <v>366.6</v>
       </c>
       <c r="K636" t="n">
-        <v>352.31</v>
+        <v>352.48</v>
       </c>
       <c r="L636" t="n">
         <v>350.26</v>
@@ -26136,7 +26136,7 @@
         <v>347.44</v>
       </c>
       <c r="K637" t="n">
-        <v>343.44</v>
+        <v>343.43</v>
       </c>
       <c r="L637" t="n">
         <v>348.08</v>
@@ -26171,7 +26171,7 @@
         <v>357.74</v>
       </c>
       <c r="K638" t="n">
-        <v>346.26</v>
+        <v>346.39</v>
       </c>
       <c r="L638" t="n">
         <v>348.36</v>
@@ -26216,7 +26216,7 @@
         <v>353.73</v>
       </c>
       <c r="K639" t="n">
-        <v>338.97</v>
+        <v>338.96</v>
       </c>
       <c r="L639" t="n">
         <v>345.96</v>
@@ -26257,7 +26257,7 @@
         <v>345.53</v>
       </c>
       <c r="K640" t="n">
-        <v>336.3</v>
+        <v>336.43</v>
       </c>
       <c r="L640" t="n">
         <v>339.72</v>
@@ -26302,7 +26302,7 @@
         <v>357.48</v>
       </c>
       <c r="K641" t="n">
-        <v>350.53</v>
+        <v>350.36</v>
       </c>
       <c r="L641" t="n">
         <v>348.45</v>
@@ -26347,7 +26347,7 @@
         <v>358.69</v>
       </c>
       <c r="K642" t="n">
-        <v>353.35</v>
+        <v>353.6</v>
       </c>
       <c r="L642" t="n">
         <v>352.82</v>
@@ -26392,7 +26392,7 @@
         <v>353.93</v>
       </c>
       <c r="K643" t="n">
-        <v>341.61</v>
+        <v>341.33</v>
       </c>
       <c r="L643" t="n">
         <v>344.85</v>
@@ -26437,7 +26437,7 @@
         <v>350.53</v>
       </c>
       <c r="K644" t="n">
-        <v>345.52</v>
+        <v>345.85</v>
       </c>
       <c r="L644" t="n">
         <v>347.17</v>
@@ -26476,7 +26476,7 @@
         <v>361.49</v>
       </c>
       <c r="K645" t="n">
-        <v>364.03</v>
+        <v>364.33</v>
       </c>
       <c r="L645" t="n">
         <v>347.22</v>
@@ -26519,7 +26519,7 @@
         <v>333.99</v>
       </c>
       <c r="K646" t="n">
-        <v>336.7</v>
+        <v>336.81</v>
       </c>
       <c r="L646" t="n">
         <v>342.14</v>
@@ -26564,7 +26564,7 @@
         <v>350.93</v>
       </c>
       <c r="K647" t="n">
-        <v>346.11</v>
+        <v>346.02</v>
       </c>
       <c r="L647" t="n">
         <v>351.59</v>
@@ -26609,7 +26609,7 @@
         <v>351.44</v>
       </c>
       <c r="K648" t="n">
-        <v>347.29</v>
+        <v>347.45</v>
       </c>
       <c r="L648" t="n">
         <v>351.19</v>
@@ -26652,7 +26652,7 @@
         <v>332.98</v>
       </c>
       <c r="K649" t="n">
-        <v>322.9</v>
+        <v>322.99</v>
       </c>
       <c r="L649" t="n">
         <v>337.42</v>
@@ -26697,7 +26697,7 @@
         <v>359.05</v>
       </c>
       <c r="K650" t="n">
-        <v>349.47</v>
+        <v>349.75</v>
       </c>
       <c r="L650" t="n">
         <v>353.95</v>
@@ -26742,7 +26742,7 @@
         <v>341.3</v>
       </c>
       <c r="K651" t="n">
-        <v>345.99</v>
+        <v>345.7</v>
       </c>
       <c r="L651" t="n">
         <v>347.81</v>
@@ -26787,7 +26787,7 @@
         <v>335.25</v>
       </c>
       <c r="K652" t="n">
-        <v>337.96</v>
+        <v>338.25</v>
       </c>
       <c r="L652" t="n">
         <v>340.2</v>
@@ -26832,7 +26832,7 @@
         <v>350.2</v>
       </c>
       <c r="K653" t="n">
-        <v>343.34</v>
+        <v>343.06</v>
       </c>
       <c r="L653" t="n">
         <v>346.57</v>
@@ -26877,7 +26877,7 @@
         <v>347.08</v>
       </c>
       <c r="K654" t="n">
-        <v>344.74</v>
+        <v>344.56</v>
       </c>
       <c r="L654" t="n">
         <v>348.24</v>
@@ -26922,7 +26922,7 @@
         <v>362.33</v>
       </c>
       <c r="K655" t="n">
-        <v>355.56</v>
+        <v>355.83</v>
       </c>
       <c r="L655" t="n">
         <v>356.43</v>
@@ -26967,7 +26967,7 @@
         <v>359.03</v>
       </c>
       <c r="K656" t="n">
-        <v>351.92</v>
+        <v>351.74</v>
       </c>
       <c r="L656" t="n">
         <v>352.29</v>
@@ -27012,7 +27012,7 @@
         <v>357.19</v>
       </c>
       <c r="K657" t="n">
-        <v>351.06</v>
+        <v>351.22</v>
       </c>
       <c r="L657" t="n">
         <v>353.35</v>
@@ -27057,7 +27057,7 @@
         <v>361.28</v>
       </c>
       <c r="K658" t="n">
-        <v>347.7</v>
+        <v>347.66</v>
       </c>
       <c r="L658" t="n">
         <v>351.88</v>
@@ -27102,7 +27102,7 @@
         <v>349.1</v>
       </c>
       <c r="K659" t="n">
-        <v>347.46</v>
+        <v>347.57</v>
       </c>
       <c r="L659" t="n">
         <v>340.8</v>
@@ -27147,7 +27147,7 @@
         <v>361.2</v>
       </c>
       <c r="K660" t="n">
-        <v>345.66</v>
+        <v>345.64</v>
       </c>
       <c r="L660" t="n">
         <v>346.77</v>
@@ -27192,7 +27192,7 @@
         <v>365.64</v>
       </c>
       <c r="K661" t="n">
-        <v>351.2</v>
+        <v>351.03</v>
       </c>
       <c r="L661" t="n">
         <v>350.46</v>
@@ -27237,7 +27237,7 @@
         <v>360.88</v>
       </c>
       <c r="K662" t="n">
-        <v>349.93</v>
+        <v>349.71</v>
       </c>
       <c r="L662" t="n">
         <v>347.67</v>
@@ -27282,7 +27282,7 @@
         <v>357.89</v>
       </c>
       <c r="K663" t="n">
-        <v>356.2</v>
+        <v>356.59</v>
       </c>
       <c r="L663" t="n">
         <v>352.69</v>
@@ -27327,7 +27327,7 @@
         <v>364.8</v>
       </c>
       <c r="K664" t="n">
-        <v>366.76</v>
+        <v>366.48</v>
       </c>
       <c r="L664" t="n">
         <v>354.41</v>
@@ -27372,7 +27372,7 @@
         <v>364.19</v>
       </c>
       <c r="K665" t="n">
-        <v>356.27</v>
+        <v>356.16</v>
       </c>
       <c r="L665" t="n">
         <v>352.15</v>
@@ -27417,7 +27417,7 @@
         <v>346.07</v>
       </c>
       <c r="K666" t="n">
-        <v>343.92</v>
+        <v>344.17</v>
       </c>
       <c r="L666" t="n">
         <v>352.79</v>
@@ -27462,7 +27462,7 @@
         <v>373.33</v>
       </c>
       <c r="K667" t="n">
-        <v>360.78</v>
+        <v>360.99</v>
       </c>
       <c r="L667" t="n">
         <v>356.29</v>
@@ -27501,7 +27501,7 @@
         <v>360.75</v>
       </c>
       <c r="K668" t="n">
-        <v>372.71</v>
+        <v>372.72</v>
       </c>
       <c r="L668" t="inlineStr"/>
       <c r="M668" t="inlineStr">
@@ -27544,7 +27544,7 @@
         <v>352.29</v>
       </c>
       <c r="K669" t="n">
-        <v>350.61</v>
+        <v>350.75</v>
       </c>
       <c r="L669" t="n">
         <v>352.84</v>
@@ -27589,7 +27589,7 @@
         <v>365.83</v>
       </c>
       <c r="K670" t="n">
-        <v>349.83</v>
+        <v>349.74</v>
       </c>
       <c r="L670" t="n">
         <v>352.03</v>
@@ -27634,7 +27634,7 @@
         <v>364.72</v>
       </c>
       <c r="K671" t="n">
-        <v>351.36</v>
+        <v>351.16</v>
       </c>
       <c r="L671" t="n">
         <v>351.78</v>
@@ -27679,7 +27679,7 @@
         <v>355.24</v>
       </c>
       <c r="K672" t="n">
-        <v>349.87</v>
+        <v>349.65</v>
       </c>
       <c r="L672" t="n">
         <v>349.77</v>
@@ -27724,7 +27724,7 @@
         <v>349.36</v>
       </c>
       <c r="K673" t="n">
-        <v>344.76</v>
+        <v>344.65</v>
       </c>
       <c r="L673" t="n">
         <v>342.26</v>
@@ -27769,7 +27769,7 @@
         <v>373.57</v>
       </c>
       <c r="K674" t="n">
-        <v>354.58</v>
+        <v>354.86</v>
       </c>
       <c r="L674" t="n">
         <v>357.99</v>
@@ -27814,7 +27814,7 @@
         <v>355.62</v>
       </c>
       <c r="K675" t="n">
-        <v>354.16</v>
+        <v>354.36</v>
       </c>
       <c r="L675" t="n">
         <v>353.8</v>
@@ -27859,7 +27859,7 @@
         <v>366.13</v>
       </c>
       <c r="K676" t="n">
-        <v>350.47</v>
+        <v>350.19</v>
       </c>
       <c r="L676" t="n">
         <v>357.11</v>
@@ -27904,7 +27904,7 @@
         <v>358.53</v>
       </c>
       <c r="K677" t="n">
-        <v>348.68</v>
+        <v>348.83</v>
       </c>
       <c r="L677" t="n">
         <v>345.47</v>
@@ -27949,7 +27949,7 @@
         <v>356.31</v>
       </c>
       <c r="K678" t="n">
-        <v>347.14</v>
+        <v>347.1</v>
       </c>
       <c r="L678" t="n">
         <v>348.98</v>
@@ -27994,7 +27994,7 @@
         <v>354.81</v>
       </c>
       <c r="K679" t="n">
-        <v>343.97</v>
+        <v>343.93</v>
       </c>
       <c r="L679" t="n">
         <v>344.4</v>
@@ -28039,7 +28039,7 @@
         <v>363.83</v>
       </c>
       <c r="K680" t="n">
-        <v>348.33</v>
+        <v>348.12</v>
       </c>
       <c r="L680" t="n">
         <v>349.09</v>
@@ -28084,7 +28084,7 @@
         <v>359.55</v>
       </c>
       <c r="K681" t="n">
-        <v>345.08</v>
+        <v>345.23</v>
       </c>
       <c r="L681" t="n">
         <v>346.8</v>
@@ -28129,7 +28129,7 @@
         <v>364.69</v>
       </c>
       <c r="K682" t="n">
-        <v>348.57</v>
+        <v>348.3</v>
       </c>
       <c r="L682" t="n">
         <v>347.61</v>
@@ -28174,7 +28174,7 @@
         <v>377.13</v>
       </c>
       <c r="K683" t="n">
-        <v>368.49</v>
+        <v>368.79</v>
       </c>
       <c r="L683" t="n">
         <v>361.91</v>
@@ -28219,7 +28219,7 @@
         <v>360.83</v>
       </c>
       <c r="K684" t="n">
-        <v>351.06</v>
+        <v>350.76</v>
       </c>
       <c r="L684" t="n">
         <v>351.02</v>
@@ -28264,7 +28264,7 @@
         <v>364.6</v>
       </c>
       <c r="K685" t="n">
-        <v>355.71</v>
+        <v>355.44</v>
       </c>
       <c r="L685" t="n">
         <v>349.36</v>
@@ -28309,7 +28309,7 @@
         <v>350.75</v>
       </c>
       <c r="K686" t="n">
-        <v>348.78</v>
+        <v>349.05</v>
       </c>
       <c r="L686" t="n">
         <v>343.37</v>
@@ -28354,7 +28354,7 @@
         <v>351.83</v>
       </c>
       <c r="K687" t="n">
-        <v>348.24</v>
+        <v>348.48</v>
       </c>
       <c r="L687" t="n">
         <v>343.64</v>
@@ -28399,7 +28399,7 @@
         <v>360.72</v>
       </c>
       <c r="K688" t="n">
-        <v>352.5</v>
+        <v>352.1</v>
       </c>
       <c r="L688" t="n">
         <v>349.25</v>
@@ -28444,7 +28444,7 @@
         <v>361.44</v>
       </c>
       <c r="K689" t="n">
-        <v>346.7</v>
+        <v>346.61</v>
       </c>
       <c r="L689" t="n">
         <v>346.76</v>
@@ -28489,7 +28489,7 @@
         <v>364.45</v>
       </c>
       <c r="K690" t="n">
-        <v>346.97</v>
+        <v>347.07</v>
       </c>
       <c r="L690" t="n">
         <v>347.18</v>
@@ -28534,7 +28534,7 @@
         <v>355.43</v>
       </c>
       <c r="K691" t="n">
-        <v>348.26</v>
+        <v>348.53</v>
       </c>
       <c r="L691" t="n">
         <v>341.16</v>
@@ -28579,7 +28579,7 @@
         <v>361.34</v>
       </c>
       <c r="K692" t="n">
-        <v>344.89</v>
+        <v>344.62</v>
       </c>
       <c r="L692" t="n">
         <v>344.36</v>
@@ -28624,7 +28624,7 @@
         <v>366.11</v>
       </c>
       <c r="K693" t="n">
-        <v>352.94</v>
+        <v>352.58</v>
       </c>
       <c r="L693" t="n">
         <v>348.32</v>
@@ -28669,7 +28669,7 @@
         <v>342.51</v>
       </c>
       <c r="K694" t="n">
-        <v>345.25</v>
+        <v>345.58</v>
       </c>
       <c r="L694" t="n">
         <v>333.53</v>
@@ -28745,7 +28745,7 @@
         <v>354.84</v>
       </c>
       <c r="K696" t="n">
-        <v>351.77</v>
+        <v>352.04</v>
       </c>
       <c r="L696" t="n">
         <v>353.7</v>
@@ -28790,7 +28790,7 @@
         <v>372.87</v>
       </c>
       <c r="K697" t="n">
-        <v>353.74</v>
+        <v>353.92</v>
       </c>
       <c r="L697" t="n">
         <v>355.8</v>
@@ -28835,7 +28835,7 @@
         <v>368.79</v>
       </c>
       <c r="K698" t="n">
-        <v>368.35</v>
+        <v>368.32</v>
       </c>
       <c r="L698" t="n">
         <v>353.51</v>
@@ -28880,7 +28880,7 @@
         <v>373.69</v>
       </c>
       <c r="K699" t="n">
-        <v>356.81</v>
+        <v>356.95</v>
       </c>
       <c r="L699" t="n">
         <v>354.32</v>
@@ -36875,7 +36875,7 @@
         <v>0.1328</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1694719924369056</v>
+        <v>0.1719259867164722</v>
       </c>
       <c r="J11" t="n">
         <v>698</v>
@@ -36884,19 +36884,19 @@
         <v>556</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01701305580884838</v>
+        <v>0.01748724675898106</v>
       </c>
       <c r="M11" t="n">
-        <v>7.407750931255064</v>
+        <v>7.438922031867714</v>
       </c>
       <c r="N11" t="n">
-        <v>96.37640799520049</v>
+        <v>96.45155885838298</v>
       </c>
       <c r="O11" t="n">
-        <v>9.817148669303144</v>
+        <v>9.820975453506794</v>
       </c>
       <c r="P11" t="n">
-        <v>343.3489106664258</v>
+        <v>343.3303763169767</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -37136,7 +37136,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>-37.151777078403285,175.88056974413524</t>
+          <t>-37.15177634309416,175.88057216365235</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -37203,7 +37203,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>-37.15177209108837,175.88058615477198</t>
+          <t>-37.15177090819926,175.88059004703805</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -37270,7 +37270,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>-37.15170824687024,175.88079623175952</t>
+          <t>-37.15170680821323,175.88080096558818</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -37337,7 +37337,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>-37.15175166225638,175.88065337524094</t>
+          <t>-37.15175092694563,175.8806557947563</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -37404,7 +37404,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>-37.151740664560116,175.88068956277016</t>
+          <t>-37.151741655632016,175.88068630168513</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -37471,7 +37471,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>-37.151724743457706,175.88074195051072</t>
+          <t>-37.15172557468047,175.8807392154084</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -37538,7 +37538,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>-37.151657094508856,175.8809645455501</t>
+          <t>-37.151656998597964,175.88096486113827</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -37605,7 +37605,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>-37.15168957628501,175.880857666321</t>
+          <t>-37.15168868111919,175.88086061181286</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -37672,7 +37672,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>-37.151706424571316,175.88080222794247</t>
+          <t>-37.15170693609384,175.88080054480344</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -37739,7 +37739,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>-37.15172845198957,175.88072974774596</t>
+          <t>-37.151729091391495,175.88072764382082</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -37806,7 +37806,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>-37.151745012487815,175.88067525607389</t>
+          <t>-37.151745971589285,175.88067210018477</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -37873,7 +37873,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>-37.15172669363408,175.88073553353976</t>
+          <t>-37.151726150142345,175.88073732187596</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -37940,7 +37940,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>-37.151758887481286,175.88062960086975</t>
+          <t>-37.151759942491616,175.88062612939038</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -38007,7 +38007,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>-37.15179351095104,175.88051567317487</t>
+          <t>-37.15179274367307,175.88051819788953</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -38074,7 +38074,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>-37.151753708338234,175.88064664267614</t>
+          <t>-37.15175386818836,175.8806461166945</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -38141,7 +38141,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>-37.15174303034452,175.88068177824445</t>
+          <t>-37.151742295033195,175.88068419775925</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -38208,7 +38208,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>-37.15170856657177,175.8807951797976</t>
+          <t>-37.15170722382527,175.8807995980377</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -38275,7 +38275,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>-37.1518111263601,175.88045770991937</t>
+          <t>-37.15181192560668,175.88045508000693</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -38342,7 +38342,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>-37.15176118932188,175.88062202673282</t>
+          <t>-37.15176205251198,175.88061918643132</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -38409,7 +38409,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>-37.151756937310424,175.8806360178465</t>
+          <t>-37.1517577045908,175.8806334931344</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -38472,7 +38472,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>-37.15177346579719,175.88058163132746</t>
+          <t>-37.15177257063799,175.88058457682624</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -38527,7 +38527,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>-37.15175859975117,175.88063054763683</t>
+          <t>-37.15175891945129,175.88062949567342</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -38613,7 +38613,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>-37.15175581835976,175.88063969971827</t>
+          <t>-37.151755978209856,175.88063917373663</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -38680,7 +38680,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>-37.15176512163182,175.88060908758104</t>
+          <t>-37.15176620861156,175.8806055109047</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -38747,7 +38747,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>-37.15176173281195,175.88062023839484</t>
+          <t>-37.151761157351864,175.88062213192916</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -38810,7 +38810,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>-37.15178407982244,175.8805467061221</t>
+          <t>-37.15178449543168,175.88054533856865</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -38877,7 +38877,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>-37.15176141311191,175.88062129035833</t>
+          <t>-37.15176195660198,175.88061950202038</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -38975,7 +38975,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>-37.15169843202874,175.88082852698676</t>
+          <t>-37.151699103402535,175.88082631786727</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -39042,7 +39042,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>-37.15175530683943,175.8806413828596</t>
+          <t>-37.151753708338234,175.88064664267614</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -39109,7 +39109,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>-37.151748529192815,175.88066368448006</t>
+          <t>-37.15174916859362,175.88066158055378</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -39176,7 +39176,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>-37.151723336772875,175.88074657914535</t>
+          <t>-37.15172272934074,175.88074857787385</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -39243,7 +39243,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>-37.15174194336256,175.88068535491848</t>
+          <t>-37.15174114411105,175.88068798482578</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -39310,7 +39310,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>-37.1517492325337,175.88066137016114</t>
+          <t>-37.15174961617415,175.88066010780534</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -39377,7 +39377,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>-37.151707319735735,175.88079928244912</t>
+          <t>-37.15170818292993,175.88079644215193</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -39444,7 +39444,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>-37.15172570256088,175.88073879462343</t>
+          <t>-37.15172535088972,175.88073995178212</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -39511,7 +39511,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>-37.15172742894641,175.88073311402601</t>
+          <t>-37.15172851592976,175.88072953735343</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -39578,7 +39578,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>-37.1516928692158,175.88084683111813</t>
+          <t>-37.15169194208004,175.88084988180643</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -39645,7 +39645,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>-37.151739353787455,175.88069387581794</t>
+          <t>-37.15173865044598,175.8806961901362</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -39712,7 +39712,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>-37.151744916577655,175.8806755716628</t>
+          <t>-37.15174539612841,175.88067399371823</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -39779,7 +39779,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>-37.15173395084494,175.8807116539889</t>
+          <t>-37.15173305568261,175.8807145994844</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -39873,7 +39873,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>-37.15179293549258,175.88051756671086</t>
+          <t>-37.151794054439584,175.8805138848353</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -39940,7 +39940,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>-37.15174913662358,175.88066168575008</t>
+          <t>-37.15174897677339,175.88066221173165</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -40007,7 +40007,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>-37.15175569047968,175.8806401205036</t>
+          <t>-37.15175524289937,175.88064159325228</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -40074,7 +40074,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>-37.151785582409566,175.88054176189036</t>
+          <t>-37.151784655281375,175.88054481258655</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -40141,7 +40141,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>-37.15178609392853,175.8805400787476</t>
+          <t>-37.15178583816905,175.880540920319</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -40208,7 +40208,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>-37.15176202054199,175.88061929162765</t>
+          <t>-37.15176253206201,175.880617608486</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -40275,7 +40275,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>-37.15179670794201,175.8805051535299</t>
+          <t>-37.15179594066426,175.88050767824478</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -40342,7 +40342,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>-37.151768254690786,175.88059877833714</t>
+          <t>-37.15176876621056,175.88059709519518</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -40409,7 +40409,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>-37.151757928380896,175.88063275676</t>
+          <t>-37.151758887481286,175.88062960086975</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -40476,7 +40476,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>-37.15175274923741,175.88064979856594</t>
+          <t>-37.1517530689377,175.88064874660267</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -40543,7 +40543,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>-37.151839387685285,175.88036471617937</t>
+          <t>-37.151840091020546,175.8803624018546</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -40586,7 +40586,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>-37.151799521293306,175.88049589624154</t>
+          <t>-37.15180041645041,175.88049295074055</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -40653,7 +40653,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>-37.15179184851539,175.8805211433899</t>
+          <t>-37.151792903522654,175.8805176719073</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -40747,7 +40747,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>-37.151767455441146,175.8806014082464</t>
+          <t>-37.15176707180129,175.8806026706028</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -40881,7 +40881,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>-37.151773050187565,175.88058299888047</t>
+          <t>-37.15177292230767,175.880583419666</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -40924,7 +40924,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>-37.15182448975565,175.88041373777546</t>
+          <t>-37.15182381838926,175.8804159469027</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -40979,7 +40979,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>-37.15179737931,175.88050294440436</t>
+          <t>-37.15179776294883,175.88050168204686</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -41030,7 +41030,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>-37.151802942071804,175.8804846402195</t>
+          <t>-37.15180370934908,175.8804821155041</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -41085,7 +41085,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>-37.151759974461626,175.88062602419404</t>
+          <t>-37.15176023022168,175.88062518262325</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -41187,7 +41187,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>-37.15175546668954,175.88064085687796</t>
+          <t>-37.15175585032979,175.88063959452194</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -41356,7 +41356,7 @@
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
-          <t>-37.15181390773797,175.8804485578238</t>
+          <t>-37.15181262894364,175.8804527656839</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -41423,7 +41423,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>-37.1517560421499,175.88063896334393</t>
+          <t>-37.151756937310424,175.8806360178465</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -41580,7 +41580,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>-37.15172838804937,175.88072995813843</t>
+          <t>-37.151729123361584,175.8807275386246</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -41627,7 +41627,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>-37.15174811358229,175.8806650520321</t>
+          <t>-37.15174868904303,175.88066315849846</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -41694,7 +41694,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>-37.15178286496464,175.8805507035859</t>
+          <t>-37.15178302481436,175.88055017760382</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -41761,7 +41761,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>-37.15179469383781,175.88051178090635</t>
+          <t>-37.15179415034931,175.88051356924595</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -41812,7 +41812,7 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>-37.15179440610859,175.88051272767436</t>
+          <t>-37.15179491762718,175.88051104453118</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -41922,7 +41922,7 @@
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
-          <t>-37.15176054992176,175.88062413065978</t>
+          <t>-37.15176189266196,175.88061971241308</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -42024,7 +42024,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>-37.15174824146246,175.88066463124684</t>
+          <t>-37.15174763403166,175.88066662997676</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -42138,7 +42138,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>-37.15171575985393,175.88077151065124</t>
+          <t>-37.15171607955526,175.8807704586891</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -42189,7 +42189,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>-37.15178539058995,175.88054239306888</t>
+          <t>-37.15178516680037,175.88054312944382</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -42232,7 +42232,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>-37.15177173941865,175.88058731193217</t>
+          <t>-37.15177269851788,175.8805841560407</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -42299,7 +42299,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>-37.15177193123849,175.88058668075388</t>
+          <t>-37.151773050187565,175.88058299888047</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -42366,7 +42366,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>-37.151753740308266,175.8806465374798</t>
+          <t>-37.151753100907726,175.88064864140634</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -42413,7 +42413,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>-37.15176419450196,175.8806121382755</t>
+          <t>-37.15176476996188,175.880610244741</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -42480,7 +42480,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>-37.151729315182166,175.88072690744704</t>
+          <t>-37.151728995481214,175.88072795940963</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -42547,7 +42547,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>-37.151758567781165,175.8806306528332</t>
+          <t>-37.151758695661215,175.88063023204782</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -42673,7 +42673,7 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>-37.15165616737019,175.88096759623534</t>
+          <t>-37.15165511235023,175.88097106770468</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -42803,7 +42803,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>-37.15175831202105,175.88063149440393</t>
+          <t>-37.15175757671073,175.88063391391975</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -42889,7 +42889,7 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>-37.15174865707299,175.88066326369477</t>
+          <t>-37.15174817752237,175.8806648416395</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -42956,7 +42956,7 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>-37.15174728236117,175.88066778713616</t>
+          <t>-37.151746419169946,175.88067062743647</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
@@ -42995,7 +42995,7 @@
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
-          <t>-37.15171364982497,175.88077845360135</t>
+          <t>-37.15171390558608,175.88077761203166</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -43117,7 +43117,7 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>-37.15170869445239,175.8807947590128</t>
+          <t>-37.15170751155668,175.880798651272</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
@@ -43176,7 +43176,7 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>-37.15172752485671,175.88073279843726</t>
+          <t>-37.151728356079275,175.8807300633347</t>
         </is>
       </c>
       <c r="L102" t="inlineStr"/>
@@ -43290,7 +43290,7 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>-37.15174267867388,175.8806829354037</t>
+          <t>-37.15174338201511,175.88068062108516</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
@@ -43416,7 +43416,7 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>-37.15175623397001,175.88063833216592</t>
+          <t>-37.151756521700186,175.8806373853989</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
@@ -43538,7 +43538,7 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>-37.151763651012,175.88061392661356</t>
+          <t>-37.151763842832,175.8806132954354</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
@@ -43648,7 +43648,7 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>-37.1517090141539,175.88079370705086</t>
+          <t>-37.151710005228566,175.8807904459687</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
@@ -43715,7 +43715,7 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>-37.151702172539366,175.88081621903476</t>
+          <t>-37.15170159707626,175.88081811256592</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
@@ -43821,7 +43821,7 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>-37.15178225753569,175.88055270231771</t>
+          <t>-37.151781010707744,175.88055680497772</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
@@ -43888,7 +43888,7 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>-37.15178417573227,175.88054639053283</t>
+          <t>-37.15178529468014,175.88054270865814</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
@@ -43955,7 +43955,7 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>-37.151728356079275,175.8807300633347</t>
+          <t>-37.15172752485671,175.88073279843726</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
@@ -44061,7 +44061,7 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>-37.15178043524864,175.88055869851306</t>
+          <t>-37.15178085085798,175.88055733095976</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
@@ -44108,7 +44108,7 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>-37.15175041542508,175.88065747789742</t>
+          <t>-37.15175105482577,175.88065537397105</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
@@ -44210,7 +44210,7 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>-37.151730562015786,175.88072280479298</t>
+          <t>-37.151729538972816,175.88072617107326</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
@@ -44277,7 +44277,7 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>-37.15176678407139,175.8806036173701</t>
+          <t>-37.15176742347115,175.88060151344274</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
@@ -44324,7 +44324,7 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>-37.15176195660198,175.88061950202038</t>
+          <t>-37.15176234024201,175.88061823966413</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
@@ -44442,7 +44442,7 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>-37.1517089502136,175.88079391744324</t>
+          <t>-37.15170907809421,175.88079349665844</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
@@ -44497,7 +44497,7 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>-37.15171163570605,175.8807850809624</t>
+          <t>-37.151711955407485,175.88078402900035</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
@@ -44548,7 +44548,7 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>-37.15170907809421,175.88079349665844</t>
+          <t>-37.15170984537782,175.8807909719497</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
@@ -44591,7 +44591,7 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>-37.15175696928043,175.88063591265018</t>
+          <t>-37.151756393820115,175.88063780618427</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
@@ -44654,7 +44654,7 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>-37.15176013431166,175.88062549821228</t>
+          <t>-37.1517603261317,175.88062486703421</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
@@ -44721,7 +44721,7 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>-37.15173759543366,175.8806996616135</t>
+          <t>-37.15173695603223,175.8807017655391</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
@@ -44784,7 +44784,7 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>-37.15178110661757,175.8805564893885</t>
+          <t>-37.15178059509839,175.880558172531</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
@@ -44851,7 +44851,7 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>-37.151734334485916,175.88071039163367</t>
+          <t>-37.15173506979775,175.88070797211938</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
@@ -44969,7 +44969,7 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>-37.151721994028115,175.88075099738728</t>
+          <t>-37.15172109886484,175.88075394288182</t>
         </is>
       </c>
       <c r="L133" t="inlineStr"/>
@@ -45008,7 +45008,7 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>-37.15182477748408,175.88041279100662</t>
+          <t>-37.15182580051849,175.88040942471739</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
@@ -45047,7 +45047,7 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>-37.15172973079338,175.8807255398957</t>
+          <t>-37.15173024231487,175.8807238567556</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
@@ -45090,7 +45090,7 @@
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>-37.15178810803427,175.88053345137274</t>
+          <t>-37.15178801212447,175.88053376696203</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
@@ -45157,7 +45157,7 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>-37.15177180335859,175.88058710153942</t>
+          <t>-37.15177122789903,175.88058899507425</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
@@ -45220,7 +45220,7 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>-37.15177586354472,175.88057374159823</t>
+          <t>-37.15177675870368,175.8805707960992</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
@@ -45287,7 +45287,7 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>-37.1517090141539,175.88079370705086</t>
+          <t>-37.15170802307916,175.8807969681329</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
@@ -45397,7 +45397,7 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>-37.151746930690685,175.88066894429556</t>
+          <t>-37.15174651508008,175.88067031184755</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
@@ -45523,7 +45523,7 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>-37.15174139987153,175.88068714325547</t>
+          <t>-37.151741463811646,175.88068693286286</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
@@ -45629,7 +45629,7 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>-37.151777302193004,175.88056900776044</t>
+          <t>-37.151777589922645,175.88056806099286</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
@@ -45684,7 +45684,7 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>-37.1517531968178,175.88064832581736</t>
+          <t>-37.15175278120744,175.8806496933696</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
@@ -45715,7 +45715,7 @@
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
-          <t>-37.15177573566488,175.88057416238382</t>
+          <t>-37.15177647097403,175.88057174286675</t>
         </is>
       </c>
       <c r="L147" t="inlineStr"/>
@@ -45817,7 +45817,7 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>-37.15171512045126,175.8807736145756</t>
+          <t>-37.151716111525374,175.88077035349286</t>
         </is>
       </c>
       <c r="L149" t="inlineStr"/>
@@ -45868,7 +45868,7 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>-37.15173849059563,175.88069671611763</t>
+          <t>-37.15173746755339,175.88070008239865</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
@@ -45950,7 +45950,7 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>-37.15171185949706,175.880784344589</t>
+          <t>-37.151711379944885,175.88078592253203</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
@@ -46017,7 +46017,7 @@
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>-37.15171301042218,175.88078055752555</t>
+          <t>-37.151713202243016,175.88077992634828</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
@@ -46127,7 +46127,7 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>-37.1517170706293,175.8807671976063</t>
+          <t>-37.15171771003186,175.8807650936819</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
@@ -46182,7 +46182,7 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>-37.15178606195861,175.88054018394402</t>
+          <t>-37.15178628574814,175.88053944756905</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
@@ -46237,7 +46237,7 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>-37.15173762740374,175.88069955641726</t>
+          <t>-37.15173654042127,175.88070313309072</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
@@ -46393,7 +46393,7 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>-37.15177356170711,175.8805813157383</t>
+          <t>-37.15177257063799,175.88058457682624</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
@@ -46436,7 +46436,7 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>-37.15173765937381,175.88069945122095</t>
+          <t>-37.151736444511045,175.88070344867955</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
@@ -46491,7 +46491,7 @@
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
-          <t>-37.151753420607996,175.88064758944307</t>
+          <t>-37.15175460349894,175.8806436971789</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
@@ -46546,7 +46546,7 @@
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
-          <t>-37.15179184851539,175.8805211433899</t>
+          <t>-37.151792296094236,175.88051967063973</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
@@ -46601,7 +46601,7 @@
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>-37.15176259600201,175.8806173980933</t>
+          <t>-37.15176294767201,175.8806162409334</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
@@ -46703,7 +46703,7 @@
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>-37.15173836271536,175.88069713690277</t>
+          <t>-37.151739353787455,175.88069387581794</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
@@ -46758,7 +46758,7 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>-37.15174386156593,175.8806790431407</t>
+          <t>-37.15174370171567,175.8806795691222</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
@@ -46805,7 +46805,7 @@
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>-37.15181729654229,175.88043740699374</t>
+          <t>-37.15181588986893,175.8804420356403</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
@@ -46907,7 +46907,7 @@
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>-37.15174450096699,175.8806769392147</t>
+          <t>-37.15174546006852,175.88067378332565</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
@@ -46954,7 +46954,7 @@
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>-37.15165057256623,175.88098600554113</t>
+          <t>-37.1516518194085,175.88098190289608</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
@@ -47091,7 +47091,7 @@
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>-37.151714321197865,175.8807762444809</t>
+          <t>-37.151715536063,175.88077224702477</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
@@ -47130,7 +47130,7 @@
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>-37.15175975067156,175.88062676056848</t>
+          <t>-37.1517589514213,175.88062939047708</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
@@ -47189,7 +47189,7 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>-37.15174226306313,175.88068430295556</t>
+          <t>-37.15174245488348,175.88068367177777</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
@@ -47248,7 +47248,7 @@
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>-37.15175140649612,175.8806542168115</t>
+          <t>-37.15175204589676,175.88065211288506</t>
         </is>
       </c>
       <c r="L178" t="inlineStr"/>
@@ -47303,7 +47303,7 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>-37.151709781437525,175.88079118234208</t>
+          <t>-37.151710676601674,175.8807882368485</t>
         </is>
       </c>
       <c r="L179" t="inlineStr"/>
@@ -47342,7 +47342,7 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>-37.15178817197412,175.8805332409799</t>
+          <t>-37.15178766045525,175.88053492412277</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
@@ -47397,7 +47397,7 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>-37.15168155176036,175.880884070549</t>
+          <t>-37.15168225510537,175.88088175623446</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
@@ -47448,7 +47448,7 @@
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>-37.151733567203955,175.88071291634412</t>
+          <t>-37.151732927802286,175.8807150202695</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
@@ -47515,7 +47515,7 @@
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>-37.15174881692318,175.8806627377132</t>
+          <t>-37.15174926450374,175.88066126496483</t>
         </is>
       </c>
       <c r="L183" t="inlineStr"/>
@@ -47558,7 +47558,7 @@
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>-37.15176835060076,175.88059846274803</t>
+          <t>-37.15176918182034,175.88059572764234</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
@@ -47613,7 +47613,7 @@
       </c>
       <c r="K185" t="inlineStr">
         <is>
-          <t>-37.151723784354424,175.88074510639797</t>
+          <t>-37.151723336772875,175.88074657914535</t>
         </is>
       </c>
       <c r="L185" t="inlineStr">
@@ -47660,7 +47660,7 @@
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>-37.1517602621917,175.8806250774269</t>
+          <t>-37.151761317201895,175.8806216059474</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
@@ -47758,7 +47758,7 @@
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
-          <t>-37.15175345257803,175.88064748424674</t>
+          <t>-37.15175377227828,175.88064643228347</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
@@ -47809,7 +47809,7 @@
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>-37.15183580706879,175.88037649819577</t>
+          <t>-37.15183516767286,175.8803786021271</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
@@ -47868,7 +47868,7 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>-37.1517721869983,175.88058583918283</t>
+          <t>-37.151772986247614,175.88058320927323</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
@@ -47935,7 +47935,7 @@
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>-37.1517686703006,175.88059741078433</t>
+          <t>-37.15176988515992,175.88059341332212</t>
         </is>
       </c>
       <c r="L191" t="inlineStr"/>
@@ -47990,7 +47990,7 @@
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>-37.15174258276371,175.88068325099258</t>
+          <t>-37.151741879422424,175.88068556531107</t>
         </is>
       </c>
       <c r="L192" t="inlineStr"/>
@@ -48100,7 +48100,7 @@
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>-37.1517473782713,175.88066747154724</t>
+          <t>-37.151747697971736,175.88066641958412</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
@@ -48167,7 +48167,7 @@
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>-37.15178391997275,175.88054723210416</t>
+          <t>-37.151784815131066,175.88054428660445</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
@@ -48226,7 +48226,7 @@
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>-37.151743989446146,175.8806786223555</t>
+          <t>-37.1517447567274,175.8806760976443</t>
         </is>
       </c>
       <c r="L196" t="inlineStr"/>
@@ -48340,7 +48340,7 @@
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>-37.15173283189203,175.88071533585827</t>
+          <t>-37.15173359917404,175.88071281114787</t>
         </is>
       </c>
       <c r="L198" t="inlineStr"/>
@@ -48454,7 +48454,7 @@
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>-37.151718956866766,175.88076099102918</t>
+          <t>-37.15171927656799,175.88075993906688</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
@@ -48501,7 +48501,7 @@
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>-37.151753420607996,175.88064758944307</t>
+          <t>-37.15175329272789,175.88064801022838</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
@@ -48548,7 +48548,7 @@
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>-37.151746642960276,175.88066989106235</t>
+          <t>-37.15174514036801,175.88067483528866</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
@@ -48654,7 +48654,7 @@
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>-37.15172193008789,175.88075120777975</t>
+          <t>-37.15172301707176,175.8807476311077</t>
         </is>
       </c>
       <c r="L204" t="inlineStr">
@@ -48705,7 +48705,7 @@
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>-37.15177774977244,175.88056753501087</t>
+          <t>-37.15177701446337,175.88056995452803</t>
         </is>
       </c>
       <c r="L205" t="inlineStr">
@@ -48752,7 +48752,7 @@
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>-37.15175150240623,175.88065390122256</t>
+          <t>-37.15175089497559,175.88065589995261</t>
         </is>
       </c>
       <c r="L206" t="inlineStr">
@@ -48807,7 +48807,7 @@
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>-37.15176726362122,175.8806020394246</t>
+          <t>-37.15176790302096,175.8805999354972</t>
         </is>
       </c>
       <c r="L207" t="inlineStr">
@@ -48862,7 +48862,7 @@
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>-37.1517296348831,175.88072585548449</t>
+          <t>-37.151729123361584,175.8807275386246</t>
         </is>
       </c>
       <c r="L208" t="inlineStr">
@@ -48929,7 +48929,7 @@
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>-37.15172074719355,175.88075510004037</t>
+          <t>-37.151719915970425,175.88075783514233</t>
         </is>
       </c>
       <c r="L209" t="inlineStr"/>
@@ -49031,7 +49031,7 @@
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>-37.15175658564022,175.88063717500623</t>
+          <t>-37.15175767262079,175.88063359833075</t>
         </is>
       </c>
       <c r="L211" t="inlineStr">
@@ -49074,7 +49074,7 @@
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>-37.15174884889324,175.8806626325169</t>
+          <t>-37.15174875298311,175.88066294810585</t>
         </is>
       </c>
       <c r="L212" t="inlineStr">
@@ -49137,7 +49137,7 @@
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>-37.15173094565687,175.88072154243784</t>
+          <t>-37.15173180884928,175.88071870213878</t>
         </is>
       </c>
       <c r="L213" t="inlineStr"/>
@@ -49184,7 +49184,7 @@
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>-37.151677011986926,175.88089900839654</t>
+          <t>-37.1516759569689,175.88090247986784</t>
         </is>
       </c>
       <c r="L214" t="inlineStr">
@@ -49239,7 +49239,7 @@
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>-37.151703195584794,175.88081285275706</t>
+          <t>-37.15170437848095,175.88080896049834</t>
         </is>
       </c>
       <c r="L215" t="inlineStr">
@@ -49282,7 +49282,7 @@
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>-37.151763011612026,175.8806160305407</t>
+          <t>-37.151762212361994,175.88061866044956</t>
         </is>
       </c>
       <c r="L216" t="inlineStr">
@@ -49408,7 +49408,7 @@
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>-37.15172129068556,175.8807533117044</t>
+          <t>-37.15172221781892,175.88075026101365</t>
         </is>
       </c>
       <c r="L218" t="inlineStr">
@@ -49585,7 +49585,7 @@
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>-37.15171179555677,175.88078455498137</t>
+          <t>-37.15171253087005,175.88078213546865</t>
         </is>
       </c>
       <c r="L221" t="inlineStr">
@@ -49652,7 +49652,7 @@
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>-37.15173123338767,175.8807205956715</t>
+          <t>-37.15173037019523,175.88072343597054</t>
         </is>
       </c>
       <c r="L222" t="inlineStr">
@@ -49719,7 +49719,7 @@
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>-37.151703675137306,175.88081127481436</t>
+          <t>-37.151703994838975,175.88081022285255</t>
         </is>
       </c>
       <c r="L223" t="inlineStr">
@@ -49821,7 +49821,7 @@
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>-37.151753932128415,175.88064590630185</t>
+          <t>-37.15175396409844,175.8806458011055</t>
         </is>
       </c>
       <c r="L225" t="inlineStr">
@@ -49864,7 +49864,7 @@
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
-          <t>-37.15175166225638,175.88065337524094</t>
+          <t>-37.15175079906549,175.8806562155416</t>
         </is>
       </c>
       <c r="L226" t="inlineStr">
@@ -49931,7 +49931,7 @@
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>-37.151742071242786,175.88068493413328</t>
+          <t>-37.15174210321284,175.880684828937</t>
         </is>
       </c>
       <c r="L227" t="inlineStr"/>
@@ -49982,7 +49982,7 @@
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>-37.15177180335859,175.88058710153942</t>
+          <t>-37.15177260260796,175.88058447162985</t>
         </is>
       </c>
       <c r="L228" t="inlineStr">
@@ -50029,7 +50029,7 @@
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>-37.15172173826719,175.88075183895714</t>
+          <t>-37.151720779163675,175.88075499484412</t>
         </is>
       </c>
       <c r="L229" t="inlineStr">
@@ -50076,7 +50076,7 @@
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>-37.15174235897331,175.88068398736667</t>
+          <t>-37.151743286104946,175.88068093667408</t>
         </is>
       </c>
       <c r="L230" t="inlineStr">
@@ -50127,7 +50127,7 @@
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>-37.15179063365841,175.88052514085453</t>
+          <t>-37.15178941880129,175.88052913831908</t>
         </is>
       </c>
       <c r="L231" t="inlineStr">
@@ -50182,7 +50182,7 @@
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>-37.151742838524164,175.8806824094222</t>
+          <t>-37.151742295033195,175.88068419775925</t>
         </is>
       </c>
       <c r="L232" t="inlineStr">
@@ -50296,7 +50296,7 @@
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>-37.15172317692232,175.88074710512652</t>
+          <t>-37.15172432784628,175.8807433180619</t>
         </is>
       </c>
       <c r="L234" t="inlineStr">
@@ -50339,7 +50339,7 @@
       </c>
       <c r="K235" t="inlineStr">
         <is>
-          <t>-37.15178449543168,175.88054533856865</t>
+          <t>-37.15178366421323,175.8805480736755</t>
         </is>
       </c>
       <c r="L235" t="inlineStr">
@@ -50531,7 +50531,7 @@
       </c>
       <c r="K239" t="inlineStr">
         <is>
-          <t>-37.15173379099453,175.88071217997026</t>
+          <t>-37.151733854934704,175.8807119695777</t>
         </is>
       </c>
       <c r="L239" t="inlineStr">
@@ -50582,7 +50582,7 @@
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>-37.15172985867376,175.88072511911068</t>
+          <t>-37.151728963511104,175.88072806460588</t>
         </is>
       </c>
       <c r="L240" t="inlineStr"/>
@@ -50625,7 +50625,7 @@
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>-37.1518149627432,175.88044508633905</t>
+          <t>-37.151813556069555,175.88044971498533</t>
         </is>
       </c>
       <c r="L241" t="inlineStr">
@@ -50786,7 +50786,7 @@
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>-37.15174363777556,175.88067977951482</t>
+          <t>-37.151742870494225,175.88068230422593</t>
         </is>
       </c>
       <c r="L244" t="inlineStr">
@@ -50841,7 +50841,7 @@
       </c>
       <c r="K245" t="inlineStr">
         <is>
-          <t>-37.151754028038496,175.88064559071285</t>
+          <t>-37.15175290908756,175.8806492725843</t>
         </is>
       </c>
       <c r="L245" t="inlineStr">
@@ -50896,7 +50896,7 @@
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
-          <t>-37.151732128550144,175.88071765017614</t>
+          <t>-37.151730913686784,175.88072164763412</t>
         </is>
       </c>
       <c r="L246" t="inlineStr">
@@ -51010,7 +51010,7 @@
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>-37.151762308272,175.8806183448605</t>
+          <t>-37.15176326737201,175.88061518896984</t>
         </is>
       </c>
       <c r="L248" t="inlineStr">
@@ -51116,7 +51116,7 @@
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>-37.15176505769183,175.88060929797376</t>
+          <t>-37.15176556921172,175.88060761483197</t>
         </is>
       </c>
       <c r="L250" t="inlineStr">
@@ -51214,7 +51214,7 @@
       </c>
       <c r="K252" t="inlineStr">
         <is>
-          <t>-37.151757161100534,175.88063528147217</t>
+          <t>-37.15175748080068,175.88063422950876</t>
         </is>
       </c>
       <c r="L252" t="inlineStr">
@@ -51528,7 +51528,7 @@
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>-37.15170645654147,175.88080212274627</t>
+          <t>-37.151705209705206,175.88080622539758</t>
         </is>
       </c>
       <c r="L258" t="inlineStr">
@@ -51654,7 +51654,7 @@
       </c>
       <c r="K260" t="inlineStr">
         <is>
-          <t>-37.15173612481028,175.8807045006423</t>
+          <t>-37.15173638057089,175.8807036590721</t>
         </is>
       </c>
       <c r="L260" t="inlineStr">
@@ -51815,7 +51815,7 @@
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>-37.15174258276371,175.88068325099258</t>
+          <t>-37.15174255079365,175.8806833561889</t>
         </is>
       </c>
       <c r="L263" t="inlineStr">
@@ -51878,7 +51878,7 @@
       </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>-37.15173321553304,175.88071407350307</t>
+          <t>-37.15173283189203,175.88071533585827</t>
         </is>
       </c>
       <c r="L264" t="inlineStr">
@@ -51988,7 +51988,7 @@
       </c>
       <c r="K266" t="inlineStr">
         <is>
-          <t>-37.15173497388751,175.88070828770822</t>
+          <t>-37.15173369508428,175.88071249555907</t>
         </is>
       </c>
       <c r="L266" t="inlineStr">
@@ -52094,7 +52094,7 @@
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>-37.151771036079175,175.88058962625252</t>
+          <t>-37.15176978924998,175.88059372891124</t>
         </is>
       </c>
       <c r="L268" t="inlineStr">
@@ -52161,7 +52161,7 @@
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>-37.15176940561021,175.88059499126774</t>
+          <t>-37.15177030076967,175.88059204576922</t>
         </is>
       </c>
       <c r="L269" t="inlineStr">
@@ -52295,7 +52295,7 @@
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>-37.151760581891764,175.88062402546345</t>
+          <t>-37.15176093356183,175.88062286830362</t>
         </is>
       </c>
       <c r="L271" t="inlineStr">
@@ -52362,7 +52362,7 @@
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>-37.15172356056367,175.88074584277166</t>
+          <t>-37.15172292116142,175.88074794669643</t>
         </is>
       </c>
       <c r="L272" t="inlineStr">
@@ -52429,7 +52429,7 @@
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>-37.15175645776015,175.88063759579157</t>
+          <t>-37.15175706519048,175.88063559706117</t>
         </is>
       </c>
       <c r="L273" t="inlineStr">
@@ -52496,7 +52496,7 @@
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>-37.15176080568182,175.880623289089</t>
+          <t>-37.15176176478196,175.88062013319848</t>
         </is>
       </c>
       <c r="L274" t="inlineStr">
@@ -52563,7 +52563,7 @@
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>-37.15175530683943,175.8806413828596</t>
+          <t>-37.151754123948564,175.88064527512387</t>
         </is>
       </c>
       <c r="L275" t="inlineStr">
@@ -52606,7 +52606,7 @@
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>-37.15181899094407,175.88043183157828</t>
+          <t>-37.151817871999526,175.88043551345643</t>
         </is>
       </c>
       <c r="L276" t="inlineStr">
@@ -52673,7 +52673,7 @@
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>-37.151726150142345,175.88073732187596</t>
+          <t>-37.151724615577265,175.8807423712957</t>
         </is>
       </c>
       <c r="L277" t="inlineStr">
@@ -52783,7 +52783,7 @@
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>-37.15176080568182,175.880623289089</t>
+          <t>-37.151761317201895,175.8806216059474</t>
         </is>
       </c>
       <c r="L279" t="inlineStr">
@@ -52850,7 +52850,7 @@
       </c>
       <c r="K280" t="inlineStr">
         <is>
-          <t>-37.15174907268351,175.8806618961427</t>
+          <t>-37.15174897677339,175.88066221173165</t>
         </is>
       </c>
       <c r="L280" t="inlineStr">
@@ -52893,7 +52893,7 @@
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>-37.151729059421406,175.8807277490171</t>
+          <t>-37.151729411092454,175.88072659185826</t>
         </is>
       </c>
       <c r="L281" t="inlineStr">
@@ -52936,7 +52936,7 @@
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>-37.15174696266072,175.88066883909926</t>
+          <t>-37.15174651508008,175.88067031184755</t>
         </is>
       </c>
       <c r="L282" t="inlineStr">
@@ -53003,7 +53003,7 @@
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>-37.151724263906075,175.88074352845436</t>
+          <t>-37.15172346465332,175.88074615836038</t>
         </is>
       </c>
       <c r="L283" t="inlineStr">
@@ -53070,7 +53070,7 @@
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>-37.15172701333511,175.88073448157726</t>
+          <t>-37.15172675757431,175.88073532314726</t>
         </is>
       </c>
       <c r="L284" t="inlineStr">
@@ -53129,7 +53129,7 @@
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>-37.15175642579013,175.8806377009879</t>
+          <t>-37.151755210929366,175.8806416984486</t>
         </is>
       </c>
       <c r="L285" t="inlineStr">
@@ -53196,7 +53196,7 @@
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>-37.15174782585191,175.88066599879892</t>
+          <t>-37.15174846525275,175.88066389487267</t>
         </is>
       </c>
       <c r="L286" t="inlineStr">
@@ -53263,7 +53263,7 @@
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>-37.15173478206704,175.88070891888586</t>
+          <t>-37.15173577313946,175.88070565780137</t>
         </is>
       </c>
       <c r="L287" t="inlineStr">
@@ -53440,7 +53440,7 @@
       </c>
       <c r="K290" t="inlineStr">
         <is>
-          <t>-37.151730593985874,175.88072269959673</t>
+          <t>-37.15172957094292,175.88072606587698</t>
         </is>
       </c>
       <c r="L290" t="inlineStr">
@@ -53507,7 +53507,7 @@
       </c>
       <c r="K291" t="inlineStr">
         <is>
-          <t>-37.151749999814605,175.88065884544955</t>
+          <t>-37.151750767095464,175.88065632073793</t>
         </is>
       </c>
       <c r="L291" t="inlineStr">
@@ -53558,7 +53558,7 @@
       </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t>-37.151794342168785,175.88051293806726</t>
+          <t>-37.15179466186789,175.8805118861028</t>
         </is>
       </c>
       <c r="L292" t="inlineStr">
@@ -53609,7 +53609,7 @@
       </c>
       <c r="K293" t="inlineStr">
         <is>
-          <t>-37.15179447004842,175.8805125172815</t>
+          <t>-37.15179450201835,175.880512412085</t>
         </is>
       </c>
       <c r="L293" t="inlineStr">
@@ -53676,7 +53676,7 @@
       </c>
       <c r="K294" t="inlineStr">
         <is>
-          <t>-37.15175879157125,175.8806299164588</t>
+          <t>-37.15175936703145,175.88062802292458</t>
         </is>
       </c>
       <c r="L294" t="inlineStr">
@@ -53743,7 +53743,7 @@
       </c>
       <c r="K295" t="inlineStr">
         <is>
-          <t>-37.15174546006852,175.88067378332565</t>
+          <t>-37.151744948547716,175.88067546646647</t>
         </is>
       </c>
       <c r="L295" t="inlineStr">
@@ -53853,7 +53853,7 @@
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>-37.151743286104946,175.88068093667408</t>
+          <t>-37.15174405338627,175.88067841196292</t>
         </is>
       </c>
       <c r="L297" t="inlineStr">
@@ -53920,7 +53920,7 @@
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>-37.1517385225657,175.88069661092132</t>
+          <t>-37.151737851194234,175.88069882004328</t>
         </is>
       </c>
       <c r="L298" t="inlineStr">
@@ -54049,7 +54049,7 @@
       </c>
       <c r="K301" t="inlineStr">
         <is>
-          <t>-37.15174968011424,175.88065989741273</t>
+          <t>-37.15174888086327,175.8806625273206</t>
         </is>
       </c>
       <c r="L301" t="inlineStr">
@@ -54116,7 +54116,7 @@
       </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t>-37.15178551846969,175.8805419722832</t>
+          <t>-37.15178577422918,175.88054113071183</t>
         </is>
       </c>
       <c r="L302" t="inlineStr">
@@ -54289,7 +54289,7 @@
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>-37.15174718645104,175.88066810272508</t>
+          <t>-37.151746642960276,175.88066989106235</t>
         </is>
       </c>
       <c r="L305" t="inlineStr">
@@ -54356,7 +54356,7 @@
       </c>
       <c r="K306" t="inlineStr">
         <is>
-          <t>-37.151758695661215,175.88063023204782</t>
+          <t>-37.15175959082151,175.88062728655018</t>
         </is>
       </c>
       <c r="L306" t="inlineStr">
@@ -54454,7 +54454,7 @@
       </c>
       <c r="K308" t="inlineStr">
         <is>
-          <t>-37.1517913689666,175.88052272133646</t>
+          <t>-37.15179267973325,175.88051840828243</t>
         </is>
       </c>
       <c r="L308" t="inlineStr">
@@ -54497,7 +54497,7 @@
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
-          <t>-37.151748049642215,175.8806652624247</t>
+          <t>-37.15174859313291,175.8806634740874</t>
         </is>
       </c>
       <c r="L309" t="inlineStr">
@@ -54564,7 +54564,7 @@
       </c>
       <c r="K310" t="inlineStr">
         <is>
-          <t>-37.15181163787792,175.88045602677542</t>
+          <t>-37.15181077469157,175.88045886708082</t>
         </is>
       </c>
       <c r="L310" t="inlineStr">
@@ -54607,7 +54607,7 @@
       </c>
       <c r="K311" t="inlineStr">
         <is>
-          <t>-37.151796803851724,175.88050483794052</t>
+          <t>-37.15179648415266,175.88050588990507</t>
         </is>
       </c>
       <c r="L311" t="inlineStr">
@@ -54674,7 +54674,7 @@
       </c>
       <c r="K312" t="inlineStr">
         <is>
-          <t>-37.1517567454903,175.88063664902455</t>
+          <t>-37.15175722504057,175.8806350710795</t>
         </is>
       </c>
       <c r="L312" t="inlineStr">
@@ -54741,7 +54741,7 @@
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>-37.15173625269058,175.88070407985722</t>
+          <t>-37.151735485408764,175.88070660456785</t>
         </is>
       </c>
       <c r="L313" t="inlineStr">
@@ -54800,7 +54800,7 @@
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>-37.15178110661757,175.8805564893885</t>
+          <t>-37.1517821296559,175.88055312310337</t>
         </is>
       </c>
       <c r="L314" t="inlineStr">
@@ -54874,7 +54874,7 @@
       </c>
       <c r="K316" t="inlineStr">
         <is>
-          <t>-37.15176614467159,175.8806057212974</t>
+          <t>-37.1517656651217,175.88060729924288</t>
         </is>
       </c>
       <c r="L316" t="inlineStr">
@@ -54941,7 +54941,7 @@
       </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>-37.15173586904968,175.88070534221254</t>
+          <t>-37.15173500585758,175.88070818251194</t>
         </is>
       </c>
       <c r="L317" t="inlineStr">
@@ -55008,7 +55008,7 @@
       </c>
       <c r="K318" t="inlineStr">
         <is>
-          <t>-37.15176163690195,175.88062055398387</t>
+          <t>-37.151762372212005,175.8806181344678</t>
         </is>
       </c>
       <c r="L318" t="inlineStr">
@@ -55118,7 +55118,7 @@
       </c>
       <c r="K320" t="inlineStr">
         <is>
-          <t>-37.151820013978984,175.88042846528958</t>
+          <t>-37.15181860730595,175.88043309393652</t>
         </is>
       </c>
       <c r="L320" t="inlineStr">
@@ -55192,7 +55192,7 @@
       </c>
       <c r="K322" t="inlineStr">
         <is>
-          <t>-37.15181195757654,175.88045497481042</t>
+          <t>-37.15181240515461,175.88045350205942</t>
         </is>
       </c>
       <c r="L322" t="inlineStr">
@@ -55259,7 +55259,7 @@
       </c>
       <c r="K323" t="inlineStr">
         <is>
-          <t>-37.15181809578844,175.8804347770808</t>
+          <t>-37.151817360481985,175.8804371966007</t>
         </is>
       </c>
       <c r="L323" t="inlineStr">
@@ -55365,7 +55365,7 @@
       </c>
       <c r="K325" t="inlineStr">
         <is>
-          <t>-37.151841561630484,175.88035756281172</t>
+          <t>-37.15184130587224,175.88035840438442</t>
         </is>
       </c>
       <c r="L325" t="inlineStr">
@@ -55424,7 +55424,7 @@
       </c>
       <c r="K326" t="inlineStr">
         <is>
-          <t>-37.151762915702015,175.88061634612976</t>
+          <t>-37.151763459192004,175.88061455779172</t>
         </is>
       </c>
       <c r="L326" t="inlineStr">
@@ -55491,7 +55491,7 @@
       </c>
       <c r="K327" t="inlineStr">
         <is>
-          <t>-37.151777366132926,175.88056879736766</t>
+          <t>-37.151776822643605,175.88057058570638</t>
         </is>
       </c>
       <c r="L327" t="inlineStr">
@@ -55534,7 +55534,7 @@
       </c>
       <c r="K328" t="inlineStr">
         <is>
-          <t>-37.15178040327868,175.88055880370945</t>
+          <t>-37.1517793802402,175.88056216999442</t>
         </is>
       </c>
       <c r="L328" t="inlineStr">
@@ -55589,7 +55589,7 @@
       </c>
       <c r="K329" t="inlineStr">
         <is>
-          <t>-37.15177356170711,175.8805813157383</t>
+          <t>-37.15177420110649,175.88057921181056</t>
         </is>
       </c>
       <c r="L329" t="inlineStr">
@@ -55691,7 +55691,7 @@
       </c>
       <c r="K331" t="inlineStr">
         <is>
-          <t>-37.151738458625566,175.8806968213139</t>
+          <t>-37.15173781922416,175.88069892523956</t>
         </is>
       </c>
       <c r="L331" t="inlineStr">
@@ -55722,7 +55722,7 @@
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
-          <t>-37.15176234024201,175.88061823966413</t>
+          <t>-37.151761317201895,175.8806216059474</t>
         </is>
       </c>
       <c r="L332" t="inlineStr">
@@ -55769,7 +55769,7 @@
       </c>
       <c r="K333" t="inlineStr">
         <is>
-          <t>-37.151755210929366,175.8806416984486</t>
+          <t>-37.15175434773873,175.88064453874955</t>
         </is>
       </c>
       <c r="L333" t="inlineStr">
@@ -55836,7 +55836,7 @@
       </c>
       <c r="K334" t="inlineStr">
         <is>
-          <t>-37.151744692787304,175.8806763080369</t>
+          <t>-37.15174411732636,175.8806782015703</t>
         </is>
       </c>
       <c r="L334" t="inlineStr">
@@ -55903,7 +55903,7 @@
       </c>
       <c r="K335" t="inlineStr">
         <is>
-          <t>-37.151752813177474,175.88064958817327</t>
+          <t>-37.15175300499764,175.88064895699534</t>
         </is>
       </c>
       <c r="L335" t="inlineStr">
@@ -55970,7 +55970,7 @@
       </c>
       <c r="K336" t="inlineStr">
         <is>
-          <t>-37.15180604315048,175.8804744361612</t>
+          <t>-37.151806011180604,175.88047454135764</t>
         </is>
       </c>
       <c r="L336" t="inlineStr">
@@ -56076,7 +56076,7 @@
       </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>-37.151819726250416,175.8804294120583</t>
+          <t>-37.151819502461535,175.88043014843393</t>
         </is>
       </c>
       <c r="L338" t="inlineStr">
@@ -56143,7 +56143,7 @@
       </c>
       <c r="K339" t="inlineStr">
         <is>
-          <t>-37.1517745847461,175.88057794945388</t>
+          <t>-37.151774680656,175.88057763386473</t>
         </is>
       </c>
       <c r="L339" t="inlineStr">
@@ -56210,7 +56210,7 @@
       </c>
       <c r="K340" t="inlineStr">
         <is>
-          <t>-37.15180764164432,175.88046917633696</t>
+          <t>-37.151806234969754,175.8804738049823</t>
         </is>
       </c>
       <c r="L340" t="inlineStr">
@@ -56273,7 +56273,7 @@
       </c>
       <c r="K341" t="inlineStr">
         <is>
-          <t>-37.15173529358829,175.8807072357455</t>
+          <t>-37.151734334485916,175.88071039163367</t>
         </is>
       </c>
       <c r="L341" t="inlineStr">
@@ -56446,7 +56446,7 @@
       </c>
       <c r="K344" t="inlineStr">
         <is>
-          <t>-37.151722505549955,175.8807493142475</t>
+          <t>-37.15172173826719,175.88075183895714</t>
         </is>
       </c>
       <c r="L344" t="inlineStr">
@@ -56493,7 +56493,7 @@
       </c>
       <c r="K345" t="inlineStr">
         <is>
-          <t>-37.15183641449489,175.8803744994609</t>
+          <t>-37.15183593494797,175.88037607740947</t>
         </is>
       </c>
       <c r="L345" t="inlineStr">
@@ -56611,7 +56611,7 @@
       </c>
       <c r="K347" t="inlineStr">
         <is>
-          <t>-37.15173855453577,175.88069650572504</t>
+          <t>-37.15173717982273,175.88070102916515</t>
         </is>
       </c>
       <c r="L347" t="inlineStr">
@@ -56658,7 +56658,7 @@
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>-37.151761540991934,175.88062086957294</t>
+          <t>-37.15176042204174,175.88062455144518</t>
         </is>
       </c>
       <c r="L348" t="inlineStr">
@@ -56705,7 +56705,7 @@
       </c>
       <c r="K349" t="inlineStr">
         <is>
-          <t>-37.151753708338234,175.88064664267614</t>
+          <t>-37.1517542837987,175.8806447491422</t>
         </is>
       </c>
       <c r="L349" t="inlineStr">
@@ -56839,7 +56839,7 @@
       </c>
       <c r="K351" t="inlineStr">
         <is>
-          <t>-37.15172026764176,175.8807566779838</t>
+          <t>-37.15171930853812,175.88075983387068</t>
         </is>
       </c>
       <c r="L351" t="inlineStr">
@@ -56886,7 +56886,7 @@
       </c>
       <c r="K352" t="inlineStr">
         <is>
-          <t>-37.1517493923839,175.88066084417954</t>
+          <t>-37.151749776024346,175.88065958182378</t>
         </is>
       </c>
       <c r="L352" t="inlineStr">
@@ -57004,7 +57004,7 @@
       </c>
       <c r="K354" t="inlineStr">
         <is>
-          <t>-37.15168299042057,175.88087933672372</t>
+          <t>-37.15168340603349,175.88087796917415</t>
         </is>
       </c>
       <c r="L354" t="inlineStr">
@@ -57071,7 +57071,7 @@
       </c>
       <c r="K355" t="inlineStr">
         <is>
-          <t>-37.151716399256564,175.88076940672693</t>
+          <t>-37.15171655910722,175.88076888074582</t>
         </is>
       </c>
       <c r="L355" t="inlineStr">
@@ -57299,7 +57299,7 @@
       </c>
       <c r="K359" t="inlineStr">
         <is>
-          <t>-37.15170118146401,175.88081948011617</t>
+          <t>-37.15170025432895,175.88082253080518</t>
         </is>
       </c>
       <c r="L359" t="inlineStr"/>
@@ -57354,7 +57354,7 @@
       </c>
       <c r="K360" t="inlineStr">
         <is>
-          <t>-37.15171262678049,175.88078181988</t>
+          <t>-37.15171387361593,175.8807777172279</t>
         </is>
       </c>
       <c r="L360" t="inlineStr">
@@ -57421,7 +57421,7 @@
       </c>
       <c r="K361" t="inlineStr">
         <is>
-          <t>-37.15168235101605,175.8808814406461</t>
+          <t>-37.151683725735715,175.88087691721293</t>
         </is>
       </c>
       <c r="L361" t="inlineStr">
@@ -57476,7 +57476,7 @@
       </c>
       <c r="K362" t="inlineStr">
         <is>
-          <t>-37.151747889792,175.88066578840628</t>
+          <t>-37.15174888086327,175.8806625273206</t>
         </is>
       </c>
       <c r="L362" t="inlineStr">
@@ -57543,7 +57543,7 @@
       </c>
       <c r="K363" t="inlineStr">
         <is>
-          <t>-37.151753132877744,175.88064853621</t>
+          <t>-37.15175399606848,175.88064569590918</t>
         </is>
       </c>
       <c r="L363" t="inlineStr">
@@ -57610,7 +57610,7 @@
       </c>
       <c r="K364" t="inlineStr">
         <is>
-          <t>-37.15169366847069,175.88084420121436</t>
+          <t>-37.15169248557343,175.8808480934719</t>
         </is>
       </c>
       <c r="L364" t="inlineStr">
@@ -57673,7 +57673,7 @@
       </c>
       <c r="K365" t="inlineStr">
         <is>
-          <t>-37.151749999814605,175.88065884544955</t>
+          <t>-37.15175092694563,175.8806557947563</t>
         </is>
       </c>
       <c r="L365" t="inlineStr">
@@ -57728,7 +57728,7 @@
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
-          <t>-37.151757352920626,175.88063465029413</t>
+          <t>-37.151757992320924,175.88063254636734</t>
         </is>
       </c>
       <c r="L366" t="inlineStr">
@@ -57795,7 +57795,7 @@
       </c>
       <c r="K367" t="inlineStr">
         <is>
-          <t>-37.15175505107925,175.88064222443026</t>
+          <t>-37.151755146989316,175.88064190884128</t>
         </is>
       </c>
       <c r="L367" t="inlineStr">
@@ -57838,7 +57838,7 @@
       </c>
       <c r="K368" t="inlineStr">
         <is>
-          <t>-37.151762564032026,175.88061750328967</t>
+          <t>-37.15176313949203,175.88061560975527</t>
         </is>
       </c>
       <c r="L368" t="inlineStr">
@@ -57905,7 +57905,7 @@
       </c>
       <c r="K369" t="inlineStr">
         <is>
-          <t>-37.1517459076492,175.88067231057735</t>
+          <t>-37.15174613143952,175.88067157420323</t>
         </is>
       </c>
       <c r="L369" t="inlineStr">
@@ -58011,7 +58011,7 @@
       </c>
       <c r="K371" t="inlineStr">
         <is>
-          <t>-37.15173666830156,175.8807027123056</t>
+          <t>-37.151735837079606,175.88070544740881</t>
         </is>
       </c>
       <c r="L371" t="inlineStr">
@@ -58070,7 +58070,7 @@
       </c>
       <c r="K372" t="inlineStr">
         <is>
-          <t>-37.15177228290822,175.88058552359368</t>
+          <t>-37.15177122789903,175.88058899507425</t>
         </is>
       </c>
       <c r="L372" t="inlineStr">
@@ -58196,7 +58196,7 @@
       </c>
       <c r="K374" t="inlineStr">
         <is>
-          <t>-37.151714481048536,175.88077571849985</t>
+          <t>-37.15171342603399,175.88077918997482</t>
         </is>
       </c>
       <c r="L374" t="inlineStr">
@@ -58251,7 +58251,7 @@
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
-          <t>-37.15172752485671,175.88073279843726</t>
+          <t>-37.15172723712582,175.88073374520351</t>
         </is>
       </c>
       <c r="L375" t="inlineStr">
@@ -58318,7 +58318,7 @@
       </c>
       <c r="K376" t="inlineStr">
         <is>
-          <t>-37.151731648998826,175.88071922812009</t>
+          <t>-37.15173196869971,175.88071817615744</t>
         </is>
       </c>
       <c r="L376" t="inlineStr">
@@ -58365,7 +58365,7 @@
       </c>
       <c r="K377" t="inlineStr">
         <is>
-          <t>-37.151730050494315,175.88072448793312</t>
+          <t>-37.15172854789986,175.88072943215715</t>
         </is>
       </c>
       <c r="L377" t="inlineStr">
@@ -58420,7 +58420,7 @@
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
-          <t>-37.151736028900054,175.88070481623114</t>
+          <t>-37.15173660436142,175.8807029226982</t>
         </is>
       </c>
       <c r="L378" t="inlineStr">
@@ -58487,7 +58487,7 @@
       </c>
       <c r="K379" t="inlineStr">
         <is>
-          <t>-37.15172448769684,175.8807427920807</t>
+          <t>-37.15172304904187,175.8807475259115</t>
         </is>
       </c>
       <c r="L379" t="inlineStr">
@@ -58554,7 +58554,7 @@
       </c>
       <c r="K380" t="inlineStr">
         <is>
-          <t>-37.15173494191744,175.8807083929045</t>
+          <t>-37.15173542146861,175.88070681496038</t>
         </is>
       </c>
       <c r="L380" t="inlineStr">
@@ -58617,7 +58617,7 @@
       </c>
       <c r="K381" t="inlineStr">
         <is>
-          <t>-37.15176349116201,175.88061445259535</t>
+          <t>-37.151764130561965,175.88061234866822</t>
         </is>
       </c>
       <c r="L381" t="inlineStr">
@@ -58806,7 +58806,7 @@
       </c>
       <c r="K384" t="inlineStr">
         <is>
-          <t>-37.151709333855436,175.88079265508887</t>
+          <t>-37.15170904612405,175.88079360185463</t>
         </is>
       </c>
       <c r="L384" t="inlineStr">
@@ -58873,7 +58873,7 @@
       </c>
       <c r="K385" t="inlineStr">
         <is>
-          <t>-37.151740376829544,175.88069050953675</t>
+          <t>-37.15174056864992,175.880689878359</t>
         </is>
       </c>
       <c r="L385" t="inlineStr">
@@ -58940,7 +58940,7 @@
       </c>
       <c r="K386" t="inlineStr">
         <is>
-          <t>-37.151717646091605,175.88076530407434</t>
+          <t>-37.15171630334617,175.8807697223156</t>
         </is>
       </c>
       <c r="L386" t="inlineStr">
@@ -58979,7 +58979,7 @@
       </c>
       <c r="K387" t="inlineStr">
         <is>
-          <t>-37.15173033822514,175.88072354116682</t>
+          <t>-37.151731297327856,175.88072038527898</t>
         </is>
       </c>
       <c r="L387" t="inlineStr">
@@ -59089,7 +59089,7 @@
       </c>
       <c r="K389" t="inlineStr">
         <is>
-          <t>-37.15177170744868,175.88058741712857</t>
+          <t>-37.15177071637939,175.88059067821632</t>
         </is>
       </c>
       <c r="L389" t="inlineStr">
@@ -59262,7 +59262,7 @@
       </c>
       <c r="K392" t="inlineStr">
         <is>
-          <t>-37.15173094565687,175.88072154243784</t>
+          <t>-37.151730018524226,175.8807245931294</t>
         </is>
       </c>
       <c r="L392" t="inlineStr">
@@ -59329,7 +59329,7 @@
       </c>
       <c r="K393" t="inlineStr">
         <is>
-          <t>-37.151762564032026,175.88061750328967</t>
+          <t>-37.15176339525201,175.88061476818442</t>
         </is>
       </c>
       <c r="L393" t="inlineStr">
@@ -59396,7 +59396,7 @@
       </c>
       <c r="K394" t="inlineStr">
         <is>
-          <t>-37.15171975611983,175.88075836112347</t>
+          <t>-37.151720779163675,175.88075499484412</t>
         </is>
       </c>
       <c r="L394" t="inlineStr">
@@ -59451,7 +59451,7 @@
       </c>
       <c r="K395" t="inlineStr">
         <is>
-          <t>-37.151732767951856,175.88071554625083</t>
+          <t>-37.15173283189203,175.88071533585827</t>
         </is>
       </c>
       <c r="L395" t="inlineStr">
@@ -59494,7 +59494,7 @@
       </c>
       <c r="K396" t="inlineStr">
         <is>
-          <t>-37.151744948547716,175.88067546646647</t>
+          <t>-37.15174459687715,175.88067662362582</t>
         </is>
       </c>
       <c r="L396" t="inlineStr">
@@ -59561,7 +59561,7 @@
       </c>
       <c r="K397" t="inlineStr">
         <is>
-          <t>-37.15174069653017,175.88068945757385</t>
+          <t>-37.151740089098965,175.88069145630334</t>
         </is>
       </c>
       <c r="L397" t="inlineStr">
@@ -59726,7 +59726,7 @@
       </c>
       <c r="K400" t="inlineStr">
         <is>
-          <t>-37.15172736500622,175.88073332441851</t>
+          <t>-37.151726725604185,175.88073542834348</t>
         </is>
       </c>
       <c r="L400" t="inlineStr">
@@ -59785,7 +59785,7 @@
       </c>
       <c r="K401" t="inlineStr">
         <is>
-          <t>-37.15173315159287,175.88071428389563</t>
+          <t>-37.15173225643049,175.88071722939108</t>
         </is>
       </c>
       <c r="L401" t="inlineStr"/>
@@ -59899,7 +59899,7 @@
       </c>
       <c r="K403" t="inlineStr">
         <is>
-          <t>-37.15174012106904,175.88069135110703</t>
+          <t>-37.15174085638048,175.8806889315924</t>
         </is>
       </c>
       <c r="L403" t="inlineStr">
@@ -60013,7 +60013,7 @@
       </c>
       <c r="K405" t="inlineStr">
         <is>
-          <t>-37.151734302515834,175.88071049682992</t>
+          <t>-37.15173462221664,175.88070944486722</t>
         </is>
       </c>
       <c r="L405" t="inlineStr">
@@ -60080,7 +60080,7 @@
       </c>
       <c r="K406" t="inlineStr">
         <is>
-          <t>-37.15173737164316,175.88070039798748</t>
+          <t>-37.1517373396731,175.88070050318376</t>
         </is>
       </c>
       <c r="L406" t="inlineStr">
@@ -60123,7 +60123,7 @@
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
-          <t>-37.151737915134376,175.88069860965072</t>
+          <t>-37.15173839468542,175.88069703170646</t>
         </is>
       </c>
       <c r="L407" t="inlineStr">
@@ -60190,7 +60190,7 @@
       </c>
       <c r="K408" t="inlineStr">
         <is>
-          <t>-37.15171863716553,175.88076204299142</t>
+          <t>-37.151717646091605,175.88076530407434</t>
         </is>
       </c>
       <c r="L408" t="inlineStr">
@@ -60257,7 +60257,7 @@
       </c>
       <c r="K409" t="inlineStr">
         <is>
-          <t>-37.151716431226696,175.8807693015307</t>
+          <t>-37.151716750928,175.88076824956852</t>
         </is>
       </c>
       <c r="L409" t="inlineStr">
@@ -60324,7 +60324,7 @@
       </c>
       <c r="K410" t="inlineStr">
         <is>
-          <t>-37.15170949370617,175.88079212910787</t>
+          <t>-37.15170795913885,175.88079717852526</t>
         </is>
       </c>
       <c r="L410" t="inlineStr"/>
@@ -60387,7 +60387,7 @@
       </c>
       <c r="K411" t="inlineStr">
         <is>
-          <t>-37.15171726245008,175.88076656642897</t>
+          <t>-37.15171802973312,175.88076404171966</t>
         </is>
       </c>
       <c r="L411" t="inlineStr">
@@ -60430,7 +60430,7 @@
       </c>
       <c r="K412" t="inlineStr">
         <is>
-          <t>-37.15172020370152,175.88075688837625</t>
+          <t>-37.15172029961189,175.8807565727876</t>
         </is>
       </c>
       <c r="L412" t="inlineStr">
@@ -60497,7 +60497,7 @@
       </c>
       <c r="K413" t="inlineStr">
         <is>
-          <t>-37.151716399256564,175.88076940672693</t>
+          <t>-37.151716750928,175.88076824956852</t>
         </is>
       </c>
       <c r="L413" t="inlineStr">
@@ -60552,7 +60552,7 @@
       </c>
       <c r="K414" t="inlineStr">
         <is>
-          <t>-37.15171492863044,175.88077424575286</t>
+          <t>-37.15171467286935,175.88077508732258</t>
         </is>
       </c>
       <c r="L414" t="inlineStr">
@@ -60619,7 +60619,7 @@
       </c>
       <c r="K415" t="inlineStr">
         <is>
-          <t>-37.151712690720764,175.88078160948763</t>
+          <t>-37.151712946481894,175.88078076791794</t>
         </is>
       </c>
       <c r="L415" t="inlineStr">
@@ -60666,7 +60666,7 @@
       </c>
       <c r="K416" t="inlineStr">
         <is>
-          <t>-37.15171649516696,175.88076909113826</t>
+          <t>-37.15171531227205,175.8807729833983</t>
         </is>
       </c>
       <c r="L416" t="inlineStr">
@@ -60713,7 +60713,7 @@
       </c>
       <c r="K417" t="inlineStr">
         <is>
-          <t>-37.15170837475085,175.88079581097475</t>
+          <t>-37.15170738367604,175.88079907205673</t>
         </is>
       </c>
       <c r="L417" t="inlineStr">
@@ -60831,7 +60831,7 @@
       </c>
       <c r="K419" t="inlineStr">
         <is>
-          <t>-37.151728707750344,175.8807289061759</t>
+          <t>-37.151728420019474,175.88072985294218</t>
         </is>
       </c>
       <c r="L419" t="inlineStr">
@@ -60898,7 +60898,7 @@
       </c>
       <c r="K420" t="inlineStr">
         <is>
-          <t>-37.15173308765271,175.88071449428816</t>
+          <t>-37.151732480221085,175.88071649301722</t>
         </is>
       </c>
       <c r="L420" t="inlineStr"/>
@@ -61059,7 +61059,7 @@
       </c>
       <c r="K423" t="inlineStr">
         <is>
-          <t>-37.15164437032322,175.88100641356814</t>
+          <t>-37.15164542534418,175.88100294209988</t>
         </is>
       </c>
       <c r="L423" t="inlineStr">
@@ -61118,7 +61118,7 @@
       </c>
       <c r="K424" t="inlineStr">
         <is>
-          <t>-37.15174530021826,175.88067430930715</t>
+          <t>-37.151744277176626,175.8806776755888</t>
         </is>
       </c>
       <c r="L424" t="inlineStr">
@@ -61185,7 +61185,7 @@
       </c>
       <c r="K425" t="inlineStr">
         <is>
-          <t>-37.151695618652425,175.88083778424897</t>
+          <t>-37.151694723487076,175.88084072974132</t>
         </is>
       </c>
       <c r="L425" t="inlineStr">
@@ -61232,7 +61232,7 @@
       </c>
       <c r="K426" t="inlineStr">
         <is>
-          <t>-37.15173542146861,175.88070681496038</t>
+          <t>-37.15173586904968,175.88070534221254</t>
         </is>
       </c>
       <c r="L426" t="inlineStr">
@@ -61299,7 +61299,7 @@
       </c>
       <c r="K427" t="inlineStr">
         <is>
-          <t>-37.15173484600719,175.8807087084933</t>
+          <t>-37.15173455827647,175.88070965525975</t>
         </is>
       </c>
       <c r="L427" t="inlineStr">
@@ -61346,7 +61346,7 @@
       </c>
       <c r="K428" t="inlineStr">
         <is>
-          <t>-37.15174053667985,175.8806899835553</t>
+          <t>-37.15174092032062,175.88068872119982</t>
         </is>
       </c>
       <c r="L428" t="inlineStr">
@@ -61413,7 +61413,7 @@
       </c>
       <c r="K429" t="inlineStr">
         <is>
-          <t>-37.15176285176203,175.88061655652245</t>
+          <t>-37.151763427222015,175.88061466298805</t>
         </is>
       </c>
       <c r="L429" t="inlineStr">
@@ -61629,7 +61629,7 @@
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
-          <t>-37.15170693609384,175.88080054480344</t>
+          <t>-37.15170789519854,175.88079738891767</t>
         </is>
       </c>
       <c r="L433" t="inlineStr">
@@ -61696,7 +61696,7 @@
       </c>
       <c r="K434" t="inlineStr">
         <is>
-          <t>-37.1517046981826,175.88080790853653</t>
+          <t>-37.15170575319796,175.8808044370624</t>
         </is>
       </c>
       <c r="L434" t="inlineStr">
@@ -61763,7 +61763,7 @@
       </c>
       <c r="K435" t="inlineStr">
         <is>
-          <t>-37.1517542837987,175.8806447491422</t>
+          <t>-37.15175562653964,175.88064033089628</t>
         </is>
       </c>
       <c r="L435" t="inlineStr">
@@ -61885,7 +61885,7 @@
       </c>
       <c r="K437" t="inlineStr">
         <is>
-          <t>-37.151694179993804,175.88084251807595</t>
+          <t>-37.15169481939765,175.88084041415286</t>
         </is>
       </c>
       <c r="L437" t="inlineStr">
@@ -61936,7 +61936,7 @@
       </c>
       <c r="K438" t="inlineStr">
         <is>
-          <t>-37.151750831035514,175.88065611034529</t>
+          <t>-37.15174980799439,175.88065947662744</t>
         </is>
       </c>
       <c r="L438" t="inlineStr">
@@ -62003,7 +62003,7 @@
       </c>
       <c r="K439" t="inlineStr">
         <is>
-          <t>-37.15172055537283,175.88075573121776</t>
+          <t>-37.151720363552116,175.88075636239515</t>
         </is>
       </c>
       <c r="L439" t="inlineStr">
@@ -62054,7 +62054,7 @@
       </c>
       <c r="K440" t="inlineStr">
         <is>
-          <t>-37.151747218421086,175.88066799752878</t>
+          <t>-37.15174689872064,175.88066904949187</t>
         </is>
       </c>
       <c r="L440" t="inlineStr">
@@ -62121,7 +62121,7 @@
       </c>
       <c r="K441" t="inlineStr">
         <is>
-          <t>-37.15171496060059,175.88077414055667</t>
+          <t>-37.15171540818246,175.88077266780965</t>
         </is>
       </c>
       <c r="L441" t="inlineStr">
@@ -62235,7 +62235,7 @@
       </c>
       <c r="K443" t="inlineStr">
         <is>
-          <t>-37.1517271731856,175.88073395559599</t>
+          <t>-37.151726022261926,175.88073774266095</t>
         </is>
       </c>
       <c r="L443" t="inlineStr">
@@ -62341,7 +62341,7 @@
       </c>
       <c r="K445" t="inlineStr">
         <is>
-          <t>-37.151743893536,175.88067893794442</t>
+          <t>-37.15174370171567,175.8806795691222</t>
         </is>
       </c>
       <c r="L445" t="inlineStr">
@@ -62443,7 +62443,7 @@
       </c>
       <c r="K447" t="inlineStr">
         <is>
-          <t>-37.15170744761635,175.88079886166435</t>
+          <t>-37.15170735170589,175.88079917725292</t>
         </is>
       </c>
       <c r="L447" t="inlineStr">
@@ -62510,7 +62510,7 @@
       </c>
       <c r="K448" t="inlineStr">
         <is>
-          <t>-37.151717773972116,175.88076488328943</t>
+          <t>-37.15171681486826,175.88076803917608</t>
         </is>
       </c>
       <c r="L448" t="inlineStr">
@@ -62573,7 +62573,7 @@
       </c>
       <c r="K449" t="inlineStr">
         <is>
-          <t>-37.15174446899694,175.88067704441102</t>
+          <t>-37.15174530021826,175.88067430930715</t>
         </is>
       </c>
       <c r="L449" t="inlineStr">
@@ -62628,7 +62628,7 @@
       </c>
       <c r="K450" t="inlineStr">
         <is>
-          <t>-37.15171112418373,175.88078676410166</t>
+          <t>-37.151711699646334,175.88078487057</t>
         </is>
       </c>
       <c r="L450" t="inlineStr">
@@ -62695,7 +62695,7 @@
       </c>
       <c r="K451" t="inlineStr">
         <is>
-          <t>-37.15169763277417,175.88083115689088</t>
+          <t>-37.15169795247601,175.88083010492923</t>
         </is>
       </c>
       <c r="L451" t="inlineStr">
@@ -62762,7 +62762,7 @@
       </c>
       <c r="K452" t="inlineStr">
         <is>
-          <t>-37.15171972414969,175.88075846631972</t>
+          <t>-37.15171988400031,175.88075794033855</t>
         </is>
       </c>
       <c r="L452" t="inlineStr">
@@ -62829,7 +62829,7 @@
       </c>
       <c r="K453" t="inlineStr">
         <is>
-          <t>-37.15172432784628,175.8807433180619</t>
+          <t>-37.151724040115305,175.88074426482805</t>
         </is>
       </c>
       <c r="L453" t="inlineStr">
@@ -62935,7 +62935,7 @@
       </c>
       <c r="K455" t="inlineStr">
         <is>
-          <t>-37.15172173826719,175.88075183895714</t>
+          <t>-37.15172103492463,175.88075415327427</t>
         </is>
       </c>
       <c r="L455" t="inlineStr">
@@ -62990,7 +62990,7 @@
       </c>
       <c r="K456" t="inlineStr">
         <is>
-          <t>-37.151714321197865,175.8807762444809</t>
+          <t>-37.15171512045126,175.8807736145756</t>
         </is>
       </c>
       <c r="L456" t="inlineStr"/>
@@ -63045,7 +63045,7 @@
       </c>
       <c r="K457" t="inlineStr">
         <is>
-          <t>-37.151766240581566,175.88060540570834</t>
+          <t>-37.15176556921172,175.88060761483197</t>
         </is>
       </c>
       <c r="L457" t="inlineStr">
@@ -63143,7 +63143,7 @@
       </c>
       <c r="K459" t="inlineStr">
         <is>
-          <t>-37.151761157351864,175.88062213192916</t>
+          <t>-37.15176205251198,175.88061918643132</t>
         </is>
       </c>
       <c r="L459" t="inlineStr">
@@ -63210,7 +63210,7 @@
       </c>
       <c r="K460" t="inlineStr">
         <is>
-          <t>-37.151701980718336,175.8808168502118</t>
+          <t>-37.151701117523665,175.88081969050853</t>
         </is>
       </c>
       <c r="L460" t="inlineStr">
@@ -63277,7 +63277,7 @@
       </c>
       <c r="K461" t="inlineStr">
         <is>
-          <t>-37.151675317563985,175.8809045837898</t>
+          <t>-37.151676276671346,175.88090142790685</t>
         </is>
       </c>
       <c r="L461" t="inlineStr">
@@ -63332,7 +63332,7 @@
       </c>
       <c r="K462" t="inlineStr">
         <is>
-          <t>-37.15168206328401,175.88088238741116</t>
+          <t>-37.151681583730586,175.8808839653529</t>
         </is>
       </c>
       <c r="L462" t="inlineStr"/>
@@ -63395,7 +63395,7 @@
       </c>
       <c r="K463" t="inlineStr">
         <is>
-          <t>-37.151697153221406,175.8808327348333</t>
+          <t>-37.15169702534067,175.88083315561795</t>
         </is>
       </c>
       <c r="L463" t="inlineStr">
@@ -63450,7 +63450,7 @@
       </c>
       <c r="K464" t="inlineStr">
         <is>
-          <t>-37.15169350861972,175.88084472719513</t>
+          <t>-37.1516936365005,175.88084430641052</t>
         </is>
       </c>
       <c r="L464" t="inlineStr">
@@ -63517,7 +63517,7 @@
       </c>
       <c r="K465" t="inlineStr">
         <is>
-          <t>-37.151680081129726,175.88088890957025</t>
+          <t>-37.15168065659391,175.88088701604022</t>
         </is>
       </c>
       <c r="L465" t="inlineStr">
@@ -63584,7 +63584,7 @@
       </c>
       <c r="K466" t="inlineStr">
         <is>
-          <t>-37.15163845580997,175.88102587482774</t>
+          <t>-37.151638359898925,175.8810261904157</t>
         </is>
       </c>
       <c r="L466" t="inlineStr">
@@ -63651,7 +63651,7 @@
       </c>
       <c r="K467" t="inlineStr">
         <is>
-          <t>-37.15172973079338,175.8807255398957</t>
+          <t>-37.15172889957092,175.88072827499838</t>
         </is>
       </c>
       <c r="L467" t="inlineStr">
@@ -63718,7 +63718,7 @@
       </c>
       <c r="K468" t="inlineStr">
         <is>
-          <t>-37.151710740541965,175.8807880264561</t>
+          <t>-37.151709781437525,175.88079118234208</t>
         </is>
       </c>
       <c r="L468" t="inlineStr">
@@ -63761,7 +63761,7 @@
       </c>
       <c r="K469" t="inlineStr">
         <is>
-          <t>-37.1517290274513,175.88072785421335</t>
+          <t>-37.151728356079275,175.8807300633347</t>
         </is>
       </c>
       <c r="L469" t="inlineStr">
@@ -63875,7 +63875,7 @@
       </c>
       <c r="K471" t="inlineStr">
         <is>
-          <t>-37.15170073388157,175.8808209528626</t>
+          <t>-37.15170041417982,175.88082200482432</t>
         </is>
       </c>
       <c r="L471" t="inlineStr">
@@ -63930,7 +63930,7 @@
       </c>
       <c r="K472" t="inlineStr">
         <is>
-          <t>-37.15171969217958,175.88075857151594</t>
+          <t>-37.15171876504601,175.8807616222065</t>
         </is>
       </c>
       <c r="L472" t="inlineStr">
@@ -63997,7 +63997,7 @@
       </c>
       <c r="K473" t="inlineStr">
         <is>
-          <t>-37.15171278663119,175.880781293899</t>
+          <t>-37.15171329815344,175.88077961075965</t>
         </is>
       </c>
       <c r="L473" t="inlineStr">
@@ -64040,7 +64040,7 @@
       </c>
       <c r="K474" t="inlineStr">
         <is>
-          <t>-37.15174718645104,175.88066810272508</t>
+          <t>-37.15174795373208,175.88066557801366</t>
         </is>
       </c>
       <c r="L474" t="inlineStr">
@@ -64107,7 +64107,7 @@
       </c>
       <c r="K475" t="inlineStr">
         <is>
-          <t>-37.15169977477629,175.88082410874773</t>
+          <t>-37.15170073388157,175.8808209528626</t>
         </is>
       </c>
       <c r="L475" t="inlineStr">
@@ -64154,7 +64154,7 @@
       </c>
       <c r="K476" t="inlineStr">
         <is>
-          <t>-37.15171838140453,175.8807628845612</t>
+          <t>-37.151719500358844,175.8807592026933</t>
         </is>
       </c>
       <c r="L476" t="inlineStr">
@@ -64248,7 +64248,7 @@
       </c>
       <c r="K478" t="inlineStr">
         <is>
-          <t>-37.15169958295522,175.88082473992475</t>
+          <t>-37.151698943551644,175.8808268438481</t>
         </is>
       </c>
       <c r="L478" t="inlineStr">
@@ -64315,7 +64315,7 @@
       </c>
       <c r="K479" t="inlineStr">
         <is>
-          <t>-37.15168538818719,175.88087144701444</t>
+          <t>-37.15168580380003,175.88087007946478</t>
         </is>
       </c>
       <c r="L479" t="inlineStr">
@@ -64429,7 +64429,7 @@
       </c>
       <c r="K481" t="inlineStr">
         <is>
-          <t>-37.15170974946737,175.8807912875383</t>
+          <t>-37.15171003719872,175.8807903407725</t>
         </is>
       </c>
       <c r="L481" t="inlineStr">
@@ -64496,7 +64496,7 @@
       </c>
       <c r="K482" t="inlineStr">
         <is>
-          <t>-37.15172471148759,175.880742055707</t>
+          <t>-37.15172419996585,175.88074373884686</t>
         </is>
       </c>
       <c r="L482" t="inlineStr">
@@ -64618,7 +64618,7 @@
       </c>
       <c r="K484" t="inlineStr">
         <is>
-          <t>-37.15172154644649,175.88075247013455</t>
+          <t>-37.15172186614766,175.88075141817222</t>
         </is>
       </c>
       <c r="L484" t="inlineStr">
@@ -64685,7 +64685,7 @@
       </c>
       <c r="K485" t="inlineStr">
         <is>
-          <t>-37.151709781437525,175.88079118234208</t>
+          <t>-37.151708886273305,175.88079412783563</t>
         </is>
       </c>
       <c r="L485" t="inlineStr">
@@ -64728,7 +64728,7 @@
       </c>
       <c r="K486" t="inlineStr">
         <is>
-          <t>-37.151687402310756,175.88086481965826</t>
+          <t>-37.15168580380003,175.88087007946478</t>
         </is>
       </c>
       <c r="L486" t="inlineStr">
@@ -64795,7 +64795,7 @@
       </c>
       <c r="K487" t="inlineStr">
         <is>
-          <t>-37.151728707750344,175.8807289061759</t>
+          <t>-37.15172950700272,175.8807262762695</t>
         </is>
       </c>
       <c r="L487" t="inlineStr">
@@ -64862,7 +64862,7 @@
       </c>
       <c r="K488" t="inlineStr">
         <is>
-          <t>-37.151740664560116,175.88068956277016</t>
+          <t>-37.15173957757793,175.88069313944393</t>
         </is>
       </c>
       <c r="L488" t="inlineStr">
@@ -64905,7 +64905,7 @@
       </c>
       <c r="K489" t="inlineStr">
         <is>
-          <t>-37.151731041567146,175.88072122684906</t>
+          <t>-37.15172992261394,175.88072490871818</t>
         </is>
       </c>
       <c r="L489" t="inlineStr">
@@ -64972,7 +64972,7 @@
       </c>
       <c r="K490" t="inlineStr">
         <is>
-          <t>-37.15173772331396,175.8806992408284</t>
+          <t>-37.151736188750434,175.88070429024978</t>
         </is>
       </c>
       <c r="L490" t="inlineStr">
@@ -65015,7 +65015,7 @@
       <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr">
         <is>
-          <t>-37.15173909802692,175.88069471738822</t>
+          <t>-37.151738106954795,175.88069797847302</t>
         </is>
       </c>
       <c r="L491" t="inlineStr">
@@ -65074,7 +65074,7 @@
       </c>
       <c r="K492" t="inlineStr">
         <is>
-          <t>-37.15174430914667,175.88067757039252</t>
+          <t>-37.15174370171567,175.8806795691222</t>
         </is>
       </c>
       <c r="L492" t="inlineStr"/>
@@ -65125,7 +65125,7 @@
       </c>
       <c r="K493" t="inlineStr">
         <is>
-          <t>-37.15172435981639,175.88074321286564</t>
+          <t>-37.15172496724844,175.88074121413703</t>
         </is>
       </c>
       <c r="L493" t="inlineStr">
@@ -65192,7 +65192,7 @@
       </c>
       <c r="K494" t="inlineStr">
         <is>
-          <t>-37.15173427054575,175.8807106020262</t>
+          <t>-37.15173391887486,175.88071175918515</t>
         </is>
       </c>
       <c r="L494" t="inlineStr">
@@ -65309,7 +65309,7 @@
       </c>
       <c r="K497" t="inlineStr">
         <is>
-          <t>-37.151761349171906,175.88062150075103</t>
+          <t>-37.15176029416171,175.88062497223055</t>
         </is>
       </c>
       <c r="L497" t="inlineStr">
@@ -65368,7 +65368,7 @@
       </c>
       <c r="K498" t="inlineStr">
         <is>
-          <t>-37.151792200184495,175.88051998622905</t>
+          <t>-37.15179267973325,175.88051840828243</t>
         </is>
       </c>
       <c r="L498" t="inlineStr">
@@ -65450,7 +65450,7 @@
       </c>
       <c r="K500" t="inlineStr">
         <is>
-          <t>-37.151783344513795,175.88054912563965</t>
+          <t>-37.15178206571601,175.8805533334962</t>
         </is>
       </c>
       <c r="L500" t="inlineStr"/>
@@ -65572,7 +65572,7 @@
       </c>
       <c r="K502" t="inlineStr">
         <is>
-          <t>-37.151723496623426,175.88074605316413</t>
+          <t>-37.15172202599824,175.88075089219106</t>
         </is>
       </c>
       <c r="L502" t="inlineStr">
@@ -65639,7 +65639,7 @@
       </c>
       <c r="K503" t="inlineStr">
         <is>
-          <t>-37.15175434773873,175.88064453874955</t>
+          <t>-37.151754795319064,175.88064306600094</t>
         </is>
       </c>
       <c r="L503" t="inlineStr">
@@ -65706,7 +65706,7 @@
       </c>
       <c r="K504" t="inlineStr">
         <is>
-          <t>-37.1517317449091,175.8807189125313</t>
+          <t>-37.15173139323813,175.8807200696902</t>
         </is>
       </c>
       <c r="L504" t="inlineStr">
@@ -65753,7 +65753,7 @@
       </c>
       <c r="K505" t="inlineStr">
         <is>
-          <t>-37.151762212361994,175.88061866044956</t>
+          <t>-37.15176278782201,175.88061676691518</t>
         </is>
       </c>
       <c r="L505" t="inlineStr">
@@ -65820,7 +65820,7 @@
       </c>
       <c r="K506" t="inlineStr">
         <is>
-          <t>-37.15171802973312,175.88076404171966</t>
+          <t>-37.151716910778646,175.8807677235874</t>
         </is>
       </c>
       <c r="L506" t="inlineStr">
@@ -65918,7 +65918,7 @@
       </c>
       <c r="K508" t="inlineStr">
         <is>
-          <t>-37.15175943097147,175.8806278125319</t>
+          <t>-37.151758248081045,175.8806317047966</t>
         </is>
       </c>
       <c r="L508" t="inlineStr">
@@ -65985,7 +65985,7 @@
       </c>
       <c r="K509" t="inlineStr">
         <is>
-          <t>-37.1517040587793,175.8808100124602</t>
+          <t>-37.15170293982344,175.8808136943265</t>
         </is>
       </c>
       <c r="L509" t="inlineStr">
@@ -66052,7 +66052,7 @@
       </c>
       <c r="K510" t="inlineStr">
         <is>
-          <t>-37.1517271731856,175.88073395559599</t>
+          <t>-37.1517269174248,175.880734797166</t>
         </is>
       </c>
       <c r="L510" t="inlineStr">
@@ -66099,7 +66099,7 @@
       </c>
       <c r="K511" t="inlineStr">
         <is>
-          <t>-37.151725798471205,175.88073847903468</t>
+          <t>-37.15172522300931,175.8807403725671</t>
         </is>
       </c>
       <c r="L511" t="inlineStr">
@@ -66166,7 +66166,7 @@
       </c>
       <c r="K512" t="inlineStr">
         <is>
-          <t>-37.151734462366235,175.88070997084859</t>
+          <t>-37.151733854934704,175.8807119695777</t>
         </is>
       </c>
       <c r="L512" t="inlineStr">
@@ -66343,7 +66343,7 @@
       </c>
       <c r="K515" t="inlineStr">
         <is>
-          <t>-37.15176147705193,175.88062107996564</t>
+          <t>-37.15176003840163,175.88062581380134</t>
         </is>
       </c>
       <c r="L515" t="inlineStr">
@@ -66453,7 +66453,7 @@
       </c>
       <c r="K517" t="inlineStr">
         <is>
-          <t>-37.15171518439153,175.88077340418315</t>
+          <t>-37.15171441710828,175.8807759288923</t>
         </is>
       </c>
       <c r="L517" t="inlineStr">
@@ -66508,7 +66508,7 @@
       </c>
       <c r="K518" t="inlineStr">
         <is>
-          <t>-37.1517473782713,175.88066747154724</t>
+          <t>-37.15174785782195,175.8806658936026</t>
         </is>
       </c>
       <c r="L518" t="inlineStr">
@@ -66575,7 +66575,7 @@
       </c>
       <c r="K519" t="inlineStr">
         <is>
-          <t>-37.15171934050823,175.88075972867443</t>
+          <t>-37.15171911671737,175.880760465048</t>
         </is>
       </c>
       <c r="L519" t="inlineStr">
@@ -66626,7 +66626,7 @@
       </c>
       <c r="K520" t="inlineStr">
         <is>
-          <t>-37.15174088835055,175.88068882639612</t>
+          <t>-37.15174044076966,175.88069029914416</t>
         </is>
       </c>
       <c r="L520" t="inlineStr"/>
@@ -66689,7 +66689,7 @@
       </c>
       <c r="K521" t="inlineStr">
         <is>
-          <t>-37.15168628335327,175.88086850152283</t>
+          <t>-37.151686155472404,175.88086892230737</t>
         </is>
       </c>
       <c r="L521" t="inlineStr">
@@ -66744,7 +66744,7 @@
       </c>
       <c r="K522" t="inlineStr">
         <is>
-          <t>-37.151771899268525,175.88058678595024</t>
+          <t>-37.151771100019126,175.8805894158598</t>
         </is>
       </c>
       <c r="L522" t="inlineStr">
@@ -66811,7 +66811,7 @@
       </c>
       <c r="K523" t="inlineStr">
         <is>
-          <t>-37.15176927773029,175.88059541205322</t>
+          <t>-37.15177033273965,175.88059194057283</t>
         </is>
       </c>
       <c r="L523" t="inlineStr">
@@ -66874,7 +66874,7 @@
       </c>
       <c r="K524" t="inlineStr">
         <is>
-          <t>-37.15171809367339,175.88076383132722</t>
+          <t>-37.151717198509814,175.88076677682142</t>
         </is>
       </c>
       <c r="L524" t="inlineStr">
@@ -67023,7 +67023,7 @@
       </c>
       <c r="K527" t="inlineStr">
         <is>
-          <t>-37.15178401588257,175.88054691651493</t>
+          <t>-37.15178404785251,175.8805468113185</t>
         </is>
       </c>
       <c r="L527" t="inlineStr">
@@ -67129,7 +67129,7 @@
       </c>
       <c r="K529" t="inlineStr">
         <is>
-          <t>-37.15173395084494,175.8807116539889</t>
+          <t>-37.15173427054575,175.8807106020262</t>
         </is>
       </c>
       <c r="L529" t="inlineStr">
@@ -67196,7 +67196,7 @@
       </c>
       <c r="K530" t="inlineStr">
         <is>
-          <t>-37.151743222164846,175.88068114706667</t>
+          <t>-37.15174386156593,175.8806790431407</t>
         </is>
       </c>
       <c r="L530" t="inlineStr">
@@ -67263,7 +67263,7 @@
       </c>
       <c r="K531" t="inlineStr">
         <is>
-          <t>-37.15175278120744,175.8806496933696</t>
+          <t>-37.1517539001584,175.8806460114982</t>
         </is>
       </c>
       <c r="L531" t="inlineStr">
@@ -67330,7 +67330,7 @@
       </c>
       <c r="K532" t="inlineStr">
         <is>
-          <t>-37.15172573453099,175.88073868942718</t>
+          <t>-37.15172464754738,175.88074226609947</t>
         </is>
       </c>
       <c r="L532" t="inlineStr">
@@ -67389,7 +67389,7 @@
       </c>
       <c r="K533" t="inlineStr">
         <is>
-          <t>-37.15175783247086,175.88063307234904</t>
+          <t>-37.1517586636912,175.88063033724416</t>
         </is>
       </c>
       <c r="L533" t="inlineStr">
@@ -67456,7 +67456,7 @@
       </c>
       <c r="K534" t="inlineStr">
         <is>
-          <t>-37.15173321553304,175.88071407350307</t>
+          <t>-37.151732576131344,175.8807161774284</t>
         </is>
       </c>
       <c r="L534" t="inlineStr">
@@ -67523,7 +67523,7 @@
       </c>
       <c r="K535" t="inlineStr">
         <is>
-          <t>-37.151741655632016,175.88068630168513</t>
+          <t>-37.15174239094336,175.88068388217036</t>
         </is>
       </c>
       <c r="L535" t="inlineStr">
@@ -67590,7 +67590,7 @@
       </c>
       <c r="K536" t="inlineStr">
         <is>
-          <t>-37.151725798471205,175.88073847903468</t>
+          <t>-37.151726821514494,175.88073511275476</t>
         </is>
       </c>
       <c r="L536" t="inlineStr">
@@ -67657,7 +67657,7 @@
       </c>
       <c r="K537" t="inlineStr">
         <is>
-          <t>-37.151732320370655,175.88071701899852</t>
+          <t>-37.15173107353723,175.8807211216528</t>
         </is>
       </c>
       <c r="L537" t="inlineStr">
@@ -67724,7 +67724,7 @@
       </c>
       <c r="K538" t="inlineStr">
         <is>
-          <t>-37.15176390677198,175.88061308504268</t>
+          <t>-37.151764290411954,175.8806118226864</t>
         </is>
       </c>
       <c r="L538" t="inlineStr">
@@ -67779,7 +67779,7 @@
       </c>
       <c r="K539" t="inlineStr">
         <is>
-          <t>-37.151780754948135,175.88055764654897</t>
+          <t>-37.15177985978951,175.88056059204834</t>
         </is>
       </c>
       <c r="L539" t="inlineStr">
@@ -67846,7 +67846,7 @@
       </c>
       <c r="K540" t="inlineStr">
         <is>
-          <t>-37.15178682923701,175.88053765922984</t>
+          <t>-37.1517856143795,175.88054165669394</t>
         </is>
       </c>
       <c r="L540" t="inlineStr">
@@ -67913,7 +67913,7 @@
       </c>
       <c r="K541" t="inlineStr">
         <is>
-          <t>-37.151771004109186,175.8805897314489</t>
+          <t>-37.15177173941865,175.88058731193217</t>
         </is>
       </c>
       <c r="L541" t="inlineStr">
@@ -67980,7 +67980,7 @@
       </c>
       <c r="K542" t="inlineStr">
         <is>
-          <t>-37.15173612481028,175.8807045006423</t>
+          <t>-37.15173622072052,175.8807041850535</t>
         </is>
       </c>
       <c r="L542" t="inlineStr">
@@ -68047,7 +68047,7 @@
       </c>
       <c r="K543" t="inlineStr">
         <is>
-          <t>-37.151713777705524,175.8807780328165</t>
+          <t>-37.15171345800413,175.8807790847786</t>
         </is>
       </c>
       <c r="L543" t="inlineStr">
@@ -68106,7 +68106,7 @@
       </c>
       <c r="K544" t="inlineStr">
         <is>
-          <t>-37.15174044076966,175.88069029914416</t>
+          <t>-37.15174063259004,175.88068966796644</t>
         </is>
       </c>
       <c r="L544" t="inlineStr">
@@ -68173,7 +68173,7 @@
       </c>
       <c r="K545" t="inlineStr">
         <is>
-          <t>-37.15175041542508,175.88065747789742</t>
+          <t>-37.15174987193446,175.88065926623483</t>
         </is>
       </c>
       <c r="L545" t="inlineStr">
@@ -68240,7 +68240,7 @@
       </c>
       <c r="K546" t="inlineStr">
         <is>
-          <t>-37.15176074174181,175.8806234994817</t>
+          <t>-37.15176080568182,175.880623289089</t>
         </is>
       </c>
       <c r="L546" t="inlineStr">
@@ -68307,7 +68307,7 @@
       </c>
       <c r="K547" t="inlineStr">
         <is>
-          <t>-37.151769053940406,175.88059614842786</t>
+          <t>-37.151767934990936,175.88059983030084</t>
         </is>
       </c>
       <c r="L547" t="inlineStr">
@@ -68366,7 +68366,7 @@
       </c>
       <c r="K548" t="inlineStr">
         <is>
-          <t>-37.15176029416171,175.88062497223055</t>
+          <t>-37.15176086962182,175.88062307869632</t>
         </is>
       </c>
       <c r="L548" t="inlineStr">
@@ -68433,7 +68433,7 @@
       </c>
       <c r="K549" t="inlineStr">
         <is>
-          <t>-37.151766240581566,175.88060540570834</t>
+          <t>-37.15176646437149,175.88060466933376</t>
         </is>
       </c>
       <c r="L549" t="inlineStr">
@@ -68500,7 +68500,7 @@
       </c>
       <c r="K550" t="inlineStr">
         <is>
-          <t>-37.15176492981185,175.8806097187592</t>
+          <t>-37.151765761031676,175.8806069836538</t>
         </is>
       </c>
       <c r="L550" t="inlineStr">
@@ -68567,7 +68567,7 @@
       </c>
       <c r="K551" t="inlineStr">
         <is>
-          <t>-37.15174913662358,175.88066168575008</t>
+          <t>-37.15174881692318,175.8806627377132</t>
         </is>
       </c>
       <c r="L551" t="inlineStr">
@@ -68622,7 +68622,7 @@
       </c>
       <c r="K552" t="inlineStr">
         <is>
-          <t>-37.1517195642991,175.88075899230085</t>
+          <t>-37.15171825352401,175.88076330534608</t>
         </is>
       </c>
       <c r="L552" t="inlineStr">
@@ -68689,7 +68689,7 @@
       </c>
       <c r="K553" t="inlineStr">
         <is>
-          <t>-37.15174050470979,175.88069008875158</t>
+          <t>-37.15174092032062,175.88068872119982</t>
         </is>
       </c>
       <c r="L553" t="inlineStr">
@@ -68866,7 +68866,7 @@
       </c>
       <c r="K556" t="inlineStr">
         <is>
-          <t>-37.151730913686784,175.88072164763412</t>
+          <t>-37.151730306255054,175.88072364636307</t>
         </is>
       </c>
       <c r="L556" t="inlineStr">
@@ -68933,7 +68933,7 @@
       </c>
       <c r="K557" t="inlineStr">
         <is>
-          <t>-37.151731297327856,175.88072038527898</t>
+          <t>-37.1517305300457,175.88072290998923</t>
         </is>
       </c>
       <c r="L557" t="inlineStr">
@@ -69066,7 +69066,7 @@
       </c>
       <c r="K560" t="inlineStr">
         <is>
-          <t>-37.15171617546565,175.88077014310045</t>
+          <t>-37.15171713456955,175.88076698721386</t>
         </is>
       </c>
       <c r="L560" t="inlineStr">
@@ -69176,7 +69176,7 @@
       </c>
       <c r="K562" t="inlineStr">
         <is>
-          <t>-37.15173711588258,175.88070123955774</t>
+          <t>-37.15173756346359,175.88069976680978</t>
         </is>
       </c>
       <c r="L562" t="inlineStr">
@@ -69243,7 +69243,7 @@
       </c>
       <c r="K563" t="inlineStr">
         <is>
-          <t>-37.15176454617191,175.88061098111552</t>
+          <t>-37.15176550527175,175.8806078252247</t>
         </is>
       </c>
       <c r="L563" t="inlineStr">
@@ -69357,7 +69357,7 @@
       </c>
       <c r="K565" t="inlineStr">
         <is>
-          <t>-37.151697504893434,175.88083157767554</t>
+          <t>-37.15169660972825,175.88083452316803</t>
         </is>
       </c>
       <c r="L565" t="inlineStr">
@@ -69424,7 +69424,7 @@
       </c>
       <c r="K566" t="inlineStr">
         <is>
-          <t>-37.15172765273711,175.88073237765224</t>
+          <t>-37.1517269174248,175.880734797166</t>
         </is>
       </c>
       <c r="L566" t="inlineStr">
@@ -69491,7 +69491,7 @@
       </c>
       <c r="K567" t="inlineStr">
         <is>
-          <t>-37.15176790302096,175.8805999354972</t>
+          <t>-37.151769053940406,175.88059614842786</t>
         </is>
       </c>
       <c r="L567" t="inlineStr">
@@ -69597,7 +69597,7 @@
       </c>
       <c r="K569" t="inlineStr">
         <is>
-          <t>-37.15175981461159,175.88062655017578</t>
+          <t>-37.151760390071715,175.88062465664152</t>
         </is>
       </c>
       <c r="L569" t="inlineStr">
@@ -69664,7 +69664,7 @@
       </c>
       <c r="K570" t="inlineStr">
         <is>
-          <t>-37.15171045281065,175.8807889732219</t>
+          <t>-37.15171038887035,175.8807891836143</t>
         </is>
       </c>
       <c r="L570" t="inlineStr">
@@ -69817,7 +69817,7 @@
       </c>
       <c r="K573" t="inlineStr">
         <is>
-          <t>-37.151724583607155,175.88074247649195</t>
+          <t>-37.15172362450387,175.88074563237916</t>
         </is>
       </c>
       <c r="L573" t="inlineStr">
@@ -69923,7 +69923,7 @@
       </c>
       <c r="K575" t="inlineStr">
         <is>
-          <t>-37.151762180392005,175.8806187656459</t>
+          <t>-37.15176259600201,175.8806173980933</t>
         </is>
       </c>
       <c r="L575" t="inlineStr">
@@ -69990,7 +69990,7 @@
       </c>
       <c r="K576" t="inlineStr">
         <is>
-          <t>-37.15172221781892,175.88075026101365</t>
+          <t>-37.151723368742985,175.88074647394907</t>
         </is>
       </c>
       <c r="L576" t="inlineStr">
@@ -70053,7 +70053,7 @@
       </c>
       <c r="K577" t="inlineStr">
         <is>
-          <t>-37.15174526824821,175.88067441450346</t>
+          <t>-37.15174593961924,175.88067220538107</t>
         </is>
       </c>
       <c r="L577" t="inlineStr">
@@ -70120,7 +70120,7 @@
       </c>
       <c r="K578" t="inlineStr">
         <is>
-          <t>-37.15174795373208,175.88066557801366</t>
+          <t>-37.15174875298311,175.88066294810585</t>
         </is>
       </c>
       <c r="L578" t="inlineStr">
@@ -70187,7 +70187,7 @@
       </c>
       <c r="K579" t="inlineStr">
         <is>
-          <t>-37.151701085553505,175.88081979570472</t>
+          <t>-37.15170188480783,175.88081716580032</t>
         </is>
       </c>
       <c r="L579" t="inlineStr">
@@ -70246,7 +70246,7 @@
       </c>
       <c r="K580" t="inlineStr">
         <is>
-          <t>-37.15170297179362,175.8808135891303</t>
+          <t>-37.151703195584794,175.88081285275706</t>
         </is>
       </c>
       <c r="L580" t="inlineStr">
@@ -70352,7 +70352,7 @@
       </c>
       <c r="K582" t="inlineStr">
         <is>
-          <t>-37.15174255079365,175.8806833561889</t>
+          <t>-37.15174181548231,175.88068577570365</t>
         </is>
       </c>
       <c r="L582" t="inlineStr">
@@ -70419,7 +70419,7 @@
       </c>
       <c r="K583" t="inlineStr">
         <is>
-          <t>-37.15176739150117,175.8806016186391</t>
+          <t>-37.151768190750836,175.8805989887299</t>
         </is>
       </c>
       <c r="L583" t="inlineStr">
@@ -70486,7 +70486,7 @@
       </c>
       <c r="K584" t="inlineStr">
         <is>
-          <t>-37.151827974466265,175.88040227135244</t>
+          <t>-37.15182800643608,175.8804021661559</t>
         </is>
       </c>
       <c r="L584" t="inlineStr">
@@ -70553,7 +70553,7 @@
       </c>
       <c r="K585" t="inlineStr">
         <is>
-          <t>-37.15183714980011,175.88037207993975</t>
+          <t>-37.15183679813241,175.88037323710205</t>
         </is>
       </c>
       <c r="L585" t="inlineStr">
@@ -70671,7 +70671,7 @@
       </c>
       <c r="K587" t="inlineStr">
         <is>
-          <t>-37.1517774620428,175.88056848177845</t>
+          <t>-37.15177695052345,175.8805701649208</t>
         </is>
       </c>
       <c r="L587" t="inlineStr">
@@ -70738,7 +70738,7 @@
       </c>
       <c r="K588" t="inlineStr">
         <is>
-          <t>-37.15178420770222,175.8805462853364</t>
+          <t>-37.15178423967216,175.88054618014</t>
         </is>
       </c>
       <c r="L588" t="inlineStr">
@@ -70805,7 +70805,7 @@
       </c>
       <c r="K589" t="inlineStr">
         <is>
-          <t>-37.15179632430314,175.88050641588734</t>
+          <t>-37.15179520535637,175.88051009776316</t>
         </is>
       </c>
       <c r="L589" t="inlineStr">
@@ -70868,7 +70868,7 @@
       </c>
       <c r="K590" t="inlineStr">
         <is>
-          <t>-37.151767775140996,175.88060035628268</t>
+          <t>-37.151768446510715,175.88059814715893</t>
         </is>
       </c>
       <c r="L590" t="inlineStr">
@@ -70935,7 +70935,7 @@
       </c>
       <c r="K591" t="inlineStr">
         <is>
-          <t>-37.15175728898059,175.88063486068683</t>
+          <t>-37.15175764065077,175.88063370352708</t>
         </is>
       </c>
       <c r="L591" t="inlineStr">
@@ -70974,7 +70974,7 @@
       </c>
       <c r="K592" t="inlineStr">
         <is>
-          <t>-37.15178065903828,175.8805579621382</t>
+          <t>-37.15178008357916,175.8805598556735</t>
         </is>
       </c>
       <c r="L592" t="inlineStr">
@@ -71041,7 +71041,7 @@
       </c>
       <c r="K593" t="inlineStr">
         <is>
-          <t>-37.151840762385966,175.88036019272636</t>
+          <t>-37.15184018692989,175.88036208626485</t>
         </is>
       </c>
       <c r="L593" t="inlineStr">
@@ -71108,7 +71108,7 @@
       </c>
       <c r="K594" t="inlineStr">
         <is>
-          <t>-37.15181915079327,175.8804313055957</t>
+          <t>-37.15181819169797,175.88043446149123</t>
         </is>
       </c>
       <c r="L594" t="inlineStr">
@@ -71249,7 +71249,7 @@
       </c>
       <c r="K597" t="inlineStr">
         <is>
-          <t>-37.15177918842047,175.88056280117283</t>
+          <t>-37.15177861296127,175.88056469470806</t>
         </is>
       </c>
       <c r="L597" t="inlineStr">
@@ -71347,7 +71347,7 @@
       </c>
       <c r="K599" t="inlineStr">
         <is>
-          <t>-37.15177436095634,175.8805786858286</t>
+          <t>-37.15177410519659,175.88057952739973</t>
         </is>
       </c>
       <c r="L599" t="inlineStr">
@@ -71414,7 +71414,7 @@
       </c>
       <c r="K600" t="inlineStr">
         <is>
-          <t>-37.15174779388187,175.88066610399522</t>
+          <t>-37.15174820949242,175.88066473644318</t>
         </is>
       </c>
       <c r="L600" t="inlineStr">
@@ -71481,7 +71481,7 @@
       </c>
       <c r="K601" t="inlineStr">
         <is>
-          <t>-37.15178964259077,175.88052840194405</t>
+          <t>-37.15178970653061,175.88052819155118</t>
         </is>
       </c>
       <c r="L601" t="inlineStr">
@@ -71548,7 +71548,7 @@
       </c>
       <c r="K602" t="inlineStr">
         <is>
-          <t>-37.151755146989316,175.88064190884128</t>
+          <t>-37.15175476334905,175.88064317119725</t>
         </is>
       </c>
       <c r="L602" t="inlineStr">
@@ -71615,7 +71615,7 @@
       </c>
       <c r="K603" t="inlineStr">
         <is>
-          <t>-37.15179475777762,175.88051157051342</t>
+          <t>-37.151795237326276,175.8805099925667</t>
         </is>
       </c>
       <c r="L603" t="inlineStr">
@@ -71682,7 +71682,7 @@
       </c>
       <c r="K604" t="inlineStr">
         <is>
-          <t>-37.151773401857234,175.88058184172021</t>
+          <t>-37.15177429701639,175.88057889622138</t>
         </is>
       </c>
       <c r="L604" t="inlineStr">
@@ -71749,7 +71749,7 @@
       </c>
       <c r="K605" t="inlineStr">
         <is>
-          <t>-37.15177532005532,175.88057552993692</t>
+          <t>-37.15177650294398,175.88057163767036</t>
         </is>
       </c>
       <c r="L605" t="inlineStr">
@@ -71816,7 +71816,7 @@
       </c>
       <c r="K606" t="inlineStr">
         <is>
-          <t>-37.151723912234864,175.88074468561302</t>
+          <t>-37.15172256949018,175.88074910385504</t>
         </is>
       </c>
       <c r="L606" t="inlineStr">
@@ -71941,7 +71941,7 @@
       </c>
       <c r="K609" t="inlineStr">
         <is>
-          <t>-37.151768254690786,175.88059877833714</t>
+          <t>-37.15176889409048,175.88059667440973</t>
         </is>
       </c>
       <c r="L609" t="inlineStr">
@@ -72008,7 +72008,7 @@
       </c>
       <c r="K610" t="inlineStr">
         <is>
-          <t>-37.15174114411105,175.88068798482578</t>
+          <t>-37.15174028091935,175.8806908251256</t>
         </is>
       </c>
       <c r="L610" t="inlineStr">
@@ -72075,7 +72075,7 @@
       </c>
       <c r="K611" t="inlineStr">
         <is>
-          <t>-37.151760166281676,175.88062539301595</t>
+          <t>-37.15176074174181,175.8806234994817</t>
         </is>
       </c>
       <c r="L611" t="inlineStr">
@@ -72142,7 +72142,7 @@
       </c>
       <c r="K612" t="inlineStr">
         <is>
-          <t>-37.15174171957213,175.88068609129252</t>
+          <t>-37.15174149578171,175.88068682766658</t>
         </is>
       </c>
       <c r="L612" t="inlineStr">
@@ -72209,7 +72209,7 @@
       </c>
       <c r="K613" t="inlineStr">
         <is>
-          <t>-37.151739929248635,175.8806919822848</t>
+          <t>-37.151739481667725,175.8806934550328</t>
         </is>
       </c>
       <c r="L613" t="inlineStr">
@@ -72276,7 +72276,7 @@
       </c>
       <c r="K614" t="inlineStr">
         <is>
-          <t>-37.151724040115305,175.88074426482805</t>
+          <t>-37.15172295313153,175.88074784150018</t>
         </is>
       </c>
       <c r="L614" t="inlineStr">
@@ -72331,7 +72331,7 @@
       </c>
       <c r="K615" t="inlineStr">
         <is>
-          <t>-37.15175914324138,175.88062875929901</t>
+          <t>-37.15176003840163,175.88062581380134</t>
         </is>
       </c>
       <c r="L615" t="inlineStr">
@@ -72398,7 +72398,7 @@
       </c>
       <c r="K616" t="inlineStr">
         <is>
-          <t>-37.15180661860829,175.8804725426245</t>
+          <t>-37.15180530784325,175.88047685568026</t>
         </is>
       </c>
       <c r="L616" t="inlineStr">
@@ -72465,7 +72465,7 @@
       </c>
       <c r="K617" t="inlineStr">
         <is>
-          <t>-37.151783792092985,175.88054765288985</t>
+          <t>-37.15178452740162,175.88054523337223</t>
         </is>
       </c>
       <c r="L617" t="inlineStr">
@@ -72532,7 +72532,7 @@
       </c>
       <c r="K618" t="inlineStr">
         <is>
-          <t>-37.15178714893635,175.88053660726558</t>
+          <t>-37.1517878203049,175.8805343981406</t>
         </is>
       </c>
       <c r="L618" t="inlineStr">
@@ -72599,7 +72599,7 @@
       </c>
       <c r="K619" t="inlineStr">
         <is>
-          <t>-37.15179645218276,175.88050599510154</t>
+          <t>-37.15179677188182,175.880504943137</t>
         </is>
       </c>
       <c r="L619" t="inlineStr">
@@ -72705,7 +72705,7 @@
       </c>
       <c r="K621" t="inlineStr">
         <is>
-          <t>-37.151812692883354,175.8804525552909</t>
+          <t>-37.15181317243125,175.88045097734337</t>
         </is>
       </c>
       <c r="L621" t="inlineStr">
@@ -72772,7 +72772,7 @@
       </c>
       <c r="K622" t="inlineStr">
         <is>
-          <t>-37.151744884607616,175.88067567685908</t>
+          <t>-37.151745012487815,175.88067525607389</t>
         </is>
       </c>
       <c r="L622" t="inlineStr">
@@ -72831,7 +72831,7 @@
       </c>
       <c r="K623" t="inlineStr">
         <is>
-          <t>-37.151733375383465,175.88071354752174</t>
+          <t>-37.151733535233866,175.8807130215404</t>
         </is>
       </c>
       <c r="L623" t="inlineStr">
@@ -72874,7 +72874,7 @@
       </c>
       <c r="K624" t="inlineStr">
         <is>
-          <t>-37.151742518823596,175.8806834613852</t>
+          <t>-37.15174120805116,175.8806877744332</t>
         </is>
       </c>
       <c r="L624" t="inlineStr">
@@ -72941,7 +72941,7 @@
       </c>
       <c r="K625" t="inlineStr">
         <is>
-          <t>-37.151763459192004,175.88061455779172</t>
+          <t>-37.15176275585202,175.88061687211155</t>
         </is>
       </c>
       <c r="L625" t="inlineStr">
@@ -73008,7 +73008,7 @@
       </c>
       <c r="K626" t="inlineStr">
         <is>
-          <t>-37.1517281003185,175.8807309049047</t>
+          <t>-37.1517267895444,175.880735217951</t>
         </is>
       </c>
       <c r="L626" t="inlineStr">
@@ -73130,7 +73130,7 @@
       </c>
       <c r="K628" t="inlineStr">
         <is>
-          <t>-37.151793766710355,175.8805148316033</t>
+          <t>-37.15179258382349,175.88051872387175</t>
         </is>
       </c>
       <c r="L628" t="inlineStr">
@@ -73197,7 +73197,7 @@
       </c>
       <c r="K629" t="inlineStr">
         <is>
-          <t>-37.15176192463198,175.88061960721672</t>
+          <t>-37.15176246812201,175.88061781887873</t>
         </is>
       </c>
       <c r="L629" t="inlineStr">
@@ -73264,7 +73264,7 @@
       </c>
       <c r="K630" t="inlineStr">
         <is>
-          <t>-37.15176687998136,175.880603301781</t>
+          <t>-37.151767647261075,175.8806007770682</t>
         </is>
       </c>
       <c r="L630" t="inlineStr">
@@ -73331,7 +73331,7 @@
       </c>
       <c r="K631" t="inlineStr">
         <is>
-          <t>-37.15177279442779,175.88058384045155</t>
+          <t>-37.15177119592906,175.88058910027064</t>
         </is>
       </c>
       <c r="L631" t="inlineStr">
@@ -73398,7 +73398,7 @@
       </c>
       <c r="K632" t="inlineStr">
         <is>
-          <t>-37.15179626036333,175.88050662628024</t>
+          <t>-37.15179491762718,175.88051104453118</t>
         </is>
       </c>
       <c r="L632" t="inlineStr">
@@ -73465,7 +73465,7 @@
       </c>
       <c r="K633" t="inlineStr">
         <is>
-          <t>-37.151735485408764,175.88070660456785</t>
+          <t>-37.151734494336324,175.8807098656523</t>
         </is>
       </c>
       <c r="L633" t="inlineStr">
@@ -73532,7 +73532,7 @@
       </c>
       <c r="K634" t="inlineStr">
         <is>
-          <t>-37.151759494911474,175.8806276021392</t>
+          <t>-37.15176035810172,175.88062476183788</t>
         </is>
       </c>
       <c r="L634" t="inlineStr">
@@ -73599,7 +73599,7 @@
       </c>
       <c r="K635" t="inlineStr">
         <is>
-          <t>-37.15174651508008,175.88067031184755</t>
+          <t>-37.15174683478055,175.88066925988448</t>
         </is>
       </c>
       <c r="L635" t="inlineStr">
@@ -73666,7 +73666,7 @@
       </c>
       <c r="K636" t="inlineStr">
         <is>
-          <t>-37.15172503118866,175.88074100374456</t>
+          <t>-37.15172448769684,175.8807427920807</t>
         </is>
       </c>
       <c r="L636" t="inlineStr">
@@ -73733,7 +73733,7 @@
       </c>
       <c r="K637" t="inlineStr">
         <is>
-          <t>-37.15175338863797,175.8806476946394</t>
+          <t>-37.151753420607996,175.88064758944307</t>
         </is>
       </c>
       <c r="L637" t="inlineStr">
@@ -73780,7 +73780,7 @@
       </c>
       <c r="K638" t="inlineStr">
         <is>
-          <t>-37.15174437308678,175.8806773599999</t>
+          <t>-37.1517439574761,175.8806787275518</t>
         </is>
       </c>
       <c r="L638" t="inlineStr">
@@ -73847,7 +73847,7 @@
       </c>
       <c r="K639" t="inlineStr">
         <is>
-          <t>-37.15176767923105,175.8806006718718</t>
+          <t>-37.15176771120104,175.88060056667544</t>
         </is>
       </c>
       <c r="L639" t="inlineStr">
@@ -73906,7 +73906,7 @@
       </c>
       <c r="K640" t="inlineStr">
         <is>
-          <t>-37.151776215214326,175.8805725844379</t>
+          <t>-37.1517757996048,175.880573951991</t>
         </is>
       </c>
       <c r="L640" t="inlineStr">
@@ -73973,7 +73973,7 @@
       </c>
       <c r="K641" t="inlineStr">
         <is>
-          <t>-37.15173072186624,175.88072227881167</t>
+          <t>-37.151731265357775,175.88072049047526</t>
         </is>
       </c>
       <c r="L641" t="inlineStr">
@@ -74040,7 +74040,7 @@
       </c>
       <c r="K642" t="inlineStr">
         <is>
-          <t>-37.15172170629708,175.8807519441534</t>
+          <t>-37.151720907044144,175.8807545740592</t>
         </is>
       </c>
       <c r="L642" t="inlineStr">
@@ -74107,7 +74107,7 @@
       </c>
       <c r="K643" t="inlineStr">
         <is>
-          <t>-37.15175923915141,175.88062844370998</t>
+          <t>-37.15176013431166,175.88062549821228</t>
         </is>
       </c>
       <c r="L643" t="inlineStr">
@@ -74174,7 +74174,7 @@
       </c>
       <c r="K644" t="inlineStr">
         <is>
-          <t>-37.151746738870415,175.8806695754734</t>
+          <t>-37.15174568385885,175.88067304695153</t>
         </is>
       </c>
       <c r="L644" t="inlineStr">
@@ -74229,7 +74229,7 @@
       </c>
       <c r="K645" t="inlineStr">
         <is>
-          <t>-37.15168756216182,175.8808642936776</t>
+          <t>-37.151686603055424,175.88086744956155</t>
         </is>
       </c>
       <c r="L645" t="inlineStr">
@@ -74292,7 +74292,7 @@
       </c>
       <c r="K646" t="inlineStr">
         <is>
-          <t>-37.15177493641574,175.8805767922936</t>
+          <t>-37.1517745847461,175.88057794945388</t>
         </is>
       </c>
       <c r="L646" t="inlineStr">
@@ -74359,7 +74359,7 @@
       </c>
       <c r="K647" t="inlineStr">
         <is>
-          <t>-37.151744852637556,175.8806757820554</t>
+          <t>-37.15174514036801,175.88067483528866</t>
         </is>
       </c>
       <c r="L647" t="inlineStr">
@@ -74426,7 +74426,7 @@
       </c>
       <c r="K648" t="inlineStr">
         <is>
-          <t>-37.15174108017091,175.88068819521837</t>
+          <t>-37.15174056864992,175.880689878359</t>
         </is>
       </c>
       <c r="L648" t="inlineStr">
@@ -74489,7 +74489,7 @@
       </c>
       <c r="K649" t="inlineStr">
         <is>
-          <t>-37.151819054883745,175.88043162118527</t>
+          <t>-37.15181876715516,175.88043256795393</t>
         </is>
       </c>
       <c r="L649" t="inlineStr">
@@ -74556,7 +74556,7 @@
       </c>
       <c r="K650" t="inlineStr">
         <is>
-          <t>-37.15173411069535,175.88071112800753</t>
+          <t>-37.15173321553304,175.88071407350307</t>
         </is>
       </c>
       <c r="L650" t="inlineStr">
@@ -74623,7 +74623,7 @@
       </c>
       <c r="K651" t="inlineStr">
         <is>
-          <t>-37.15174523627817,175.88067451969977</t>
+          <t>-37.15174616340958,175.88067146900696</t>
         </is>
       </c>
       <c r="L651" t="inlineStr">
@@ -74690,7 +74690,7 @@
       </c>
       <c r="K652" t="inlineStr">
         <is>
-          <t>-37.15177090819926,175.88059004703805</t>
+          <t>-37.15176998106987,175.88059309773297</t>
         </is>
       </c>
       <c r="L652" t="inlineStr">
@@ -74757,7 +74757,7 @@
       </c>
       <c r="K653" t="inlineStr">
         <is>
-          <t>-37.151753708338234,175.88064664267614</t>
+          <t>-37.15175460349894,175.8806436971789</t>
         </is>
       </c>
       <c r="L653" t="inlineStr">
@@ -74824,7 +74824,7 @@
       </c>
       <c r="K654" t="inlineStr">
         <is>
-          <t>-37.1517492325337,175.88066137016114</t>
+          <t>-37.15174980799439,175.88065947662744</t>
         </is>
       </c>
       <c r="L654" t="inlineStr">
@@ -74891,7 +74891,7 @@
       </c>
       <c r="K655" t="inlineStr">
         <is>
-          <t>-37.15171464089923,175.8807751925188</t>
+          <t>-37.151713777705524,175.8807780328165</t>
         </is>
       </c>
       <c r="L655" t="inlineStr">
@@ -74958,7 +74958,7 @@
       </c>
       <c r="K656" t="inlineStr">
         <is>
-          <t>-37.15172627802276,175.88073690109098</t>
+          <t>-37.151726853484604,175.8807350075585</t>
         </is>
       </c>
       <c r="L656" t="inlineStr">
@@ -75025,7 +75025,7 @@
       </c>
       <c r="K657" t="inlineStr">
         <is>
-          <t>-37.1517290274513,175.88072785421335</t>
+          <t>-37.15172851592976,175.88072953735343</t>
         </is>
       </c>
       <c r="L657" t="inlineStr">
@@ -75092,7 +75092,7 @@
       </c>
       <c r="K658" t="inlineStr">
         <is>
-          <t>-37.15173976939831,175.8806925082662</t>
+          <t>-37.15173989727857,175.88069208748107</t>
         </is>
       </c>
       <c r="L658" t="inlineStr">
@@ -75159,7 +75159,7 @@
       </c>
       <c r="K659" t="inlineStr">
         <is>
-          <t>-37.15174053667985,175.8806899835553</t>
+          <t>-37.151740185009146,175.88069114071448</t>
         </is>
       </c>
       <c r="L659" t="inlineStr">
@@ -75226,7 +75226,7 @@
       </c>
       <c r="K660" t="inlineStr">
         <is>
-          <t>-37.15174629128977,175.8806710482217</t>
+          <t>-37.151746355229854,175.8806708378291</t>
         </is>
       </c>
       <c r="L660" t="inlineStr">
@@ -75293,7 +75293,7 @@
       </c>
       <c r="K661" t="inlineStr">
         <is>
-          <t>-37.15172857986996,175.88072932696093</t>
+          <t>-37.151729123361584,175.8807275386246</t>
         </is>
       </c>
       <c r="L661" t="inlineStr">
@@ -75360,7 +75360,7 @@
       </c>
       <c r="K662" t="inlineStr">
         <is>
-          <t>-37.15173264007152,175.8807159670359</t>
+          <t>-37.15173334341337,175.88071365271801</t>
         </is>
       </c>
       <c r="L662" t="inlineStr">
@@ -75427,7 +75427,7 @@
       </c>
       <c r="K663" t="inlineStr">
         <is>
-          <t>-37.15171259481035,175.88078192507623</t>
+          <t>-37.15171134797475,175.88078602772822</t>
         </is>
       </c>
       <c r="L663" t="inlineStr">
@@ -75494,7 +75494,7 @@
       </c>
       <c r="K664" t="inlineStr">
         <is>
-          <t>-37.15167883429055,175.8808930122185</t>
+          <t>-37.15167972945716,175.88089006672746</t>
         </is>
       </c>
       <c r="L664" t="inlineStr">
@@ -75561,7 +75561,7 @@
       </c>
       <c r="K665" t="inlineStr">
         <is>
-          <t>-37.15171237101934,175.88078266144967</t>
+          <t>-37.15171272269091,175.8807815042914</t>
         </is>
       </c>
       <c r="L665" t="inlineStr">
@@ -75628,7 +75628,7 @@
       </c>
       <c r="K666" t="inlineStr">
         <is>
-          <t>-37.15175185407656,175.88065274406298</t>
+          <t>-37.15175105482577,175.88065537397105</t>
         </is>
       </c>
       <c r="L666" t="inlineStr">
@@ -75695,7 +75695,7 @@
       </c>
       <c r="K667" t="inlineStr">
         <is>
-          <t>-37.15169795247601,175.88083010492923</t>
+          <t>-37.151697281102145,175.88083231404866</t>
         </is>
       </c>
       <c r="L667" t="inlineStr">
@@ -75750,7 +75750,7 @@
       </c>
       <c r="K668" t="inlineStr">
         <is>
-          <t>-37.15165981198384,175.88095560388606</t>
+          <t>-37.15165978001355,175.88095570908212</t>
         </is>
       </c>
       <c r="L668" t="inlineStr"/>
@@ -75813,7 +75813,7 @@
       </c>
       <c r="K669" t="inlineStr">
         <is>
-          <t>-37.15173046610551,175.88072312038176</t>
+          <t>-37.151730018524226,175.8807245931294</t>
         </is>
       </c>
       <c r="L669" t="inlineStr">
@@ -75880,7 +75880,7 @@
       </c>
       <c r="K670" t="inlineStr">
         <is>
-          <t>-37.15173295977237,175.8807149150732</t>
+          <t>-37.151733247503124,175.88071396830682</t>
         </is>
       </c>
       <c r="L670" t="inlineStr">
@@ -75947,7 +75947,7 @@
       </c>
       <c r="K671" t="inlineStr">
         <is>
-          <t>-37.151728068348405,175.880731010101</t>
+          <t>-37.151728707750344,175.8807289061759</t>
         </is>
       </c>
       <c r="L671" t="inlineStr">
@@ -76014,7 +76014,7 @@
       </c>
       <c r="K672" t="inlineStr">
         <is>
-          <t>-37.15173283189203,175.88071533585827</t>
+          <t>-37.151733535233866,175.8807130215404</t>
         </is>
       </c>
       <c r="L672" t="inlineStr">
@@ -76081,7 +76081,7 @@
       </c>
       <c r="K673" t="inlineStr">
         <is>
-          <t>-37.15174916859362,175.88066158055378</t>
+          <t>-37.151749520264055,175.88066042339432</t>
         </is>
       </c>
       <c r="L673" t="inlineStr">
@@ -76148,7 +76148,7 @@
       </c>
       <c r="K674" t="inlineStr">
         <is>
-          <t>-37.151717773972116,175.88076488328943</t>
+          <t>-37.15171687880852,175.88076782878363</t>
         </is>
       </c>
       <c r="L674" t="inlineStr">
@@ -76215,7 +76215,7 @@
       </c>
       <c r="K675" t="inlineStr">
         <is>
-          <t>-37.15171911671737,175.880760465048</t>
+          <t>-37.151718477314894,175.88076256897253</t>
         </is>
       </c>
       <c r="L675" t="inlineStr">
@@ -76282,7 +76282,7 @@
       </c>
       <c r="K676" t="inlineStr">
         <is>
-          <t>-37.151730913686784,175.88072164763412</t>
+          <t>-37.15173180884928,175.88071870213878</t>
         </is>
       </c>
       <c r="L676" t="inlineStr">
@@ -76349,7 +76349,7 @@
       </c>
       <c r="K677" t="inlineStr">
         <is>
-          <t>-37.15173663633148,175.88070281750188</t>
+          <t>-37.151736156780366,175.88070439544606</t>
         </is>
       </c>
       <c r="L677" t="inlineStr">
@@ -76416,7 +76416,7 @@
       </c>
       <c r="K678" t="inlineStr">
         <is>
-          <t>-37.151741559721835,175.880686617274</t>
+          <t>-37.15174168760208,175.88068619648882</t>
         </is>
       </c>
       <c r="L678" t="inlineStr">
@@ -76483,7 +76483,7 @@
       </c>
       <c r="K679" t="inlineStr">
         <is>
-          <t>-37.151751694226405,175.8806532700446</t>
+          <t>-37.15175182210654,175.88065284925932</t>
         </is>
       </c>
       <c r="L679" t="inlineStr">
@@ -76550,7 +76550,7 @@
       </c>
       <c r="K680" t="inlineStr">
         <is>
-          <t>-37.15173775528402,175.8806991356321</t>
+          <t>-37.1517384266555,175.88069692651018</t>
         </is>
       </c>
       <c r="L680" t="inlineStr">
@@ -76617,7 +76617,7 @@
       </c>
       <c r="K681" t="inlineStr">
         <is>
-          <t>-37.15174814555234,175.8806649468358</t>
+          <t>-37.1517476660017,175.88066652478045</t>
         </is>
       </c>
       <c r="L681" t="inlineStr">
@@ -76684,7 +76684,7 @@
       </c>
       <c r="K682" t="inlineStr">
         <is>
-          <t>-37.1517369880023,175.88070166034285</t>
+          <t>-37.151737851194234,175.88069882004328</t>
         </is>
       </c>
       <c r="L682" t="inlineStr">
@@ -76751,7 +76751,7 @@
       </c>
       <c r="K683" t="inlineStr">
         <is>
-          <t>-37.15167330343828,175.8809112111438</t>
+          <t>-37.15167234433067,175.88091436702646</t>
         </is>
       </c>
       <c r="L683" t="inlineStr">
@@ -76818,7 +76818,7 @@
       </c>
       <c r="K684" t="inlineStr">
         <is>
-          <t>-37.1517290274513,175.88072785421335</t>
+          <t>-37.15172998655413,175.88072469832565</t>
         </is>
       </c>
       <c r="L684" t="inlineStr">
@@ -76885,7 +76885,7 @@
       </c>
       <c r="K685" t="inlineStr">
         <is>
-          <t>-37.15171416134717,175.88077677046195</t>
+          <t>-37.15171502454084,175.88077393016422</t>
         </is>
       </c>
       <c r="L685" t="inlineStr">
@@ -76952,7 +76952,7 @@
       </c>
       <c r="K686" t="inlineStr">
         <is>
-          <t>-37.151736316630746,175.88070386946467</t>
+          <t>-37.151735453438675,175.8807067097641</t>
         </is>
       </c>
       <c r="L686" t="inlineStr">
@@ -77019,7 +77019,7 @@
       </c>
       <c r="K687" t="inlineStr">
         <is>
-          <t>-37.15173804301465,175.88069818886558</t>
+          <t>-37.15173727573294,175.88070071357632</t>
         </is>
       </c>
       <c r="L687" t="inlineStr">
@@ -77086,7 +77086,7 @@
       </c>
       <c r="K688" t="inlineStr">
         <is>
-          <t>-37.15172442375662,175.88074300247317</t>
+          <t>-37.15172570256088,175.88073879462343</t>
         </is>
       </c>
       <c r="L688" t="inlineStr">
@@ -77153,7 +77153,7 @@
       </c>
       <c r="K689" t="inlineStr">
         <is>
-          <t>-37.15174296640439,175.88068198863704</t>
+          <t>-37.15174325413489,175.88068104187036</t>
         </is>
       </c>
       <c r="L689" t="inlineStr">
@@ -77220,7 +77220,7 @@
       </c>
       <c r="K690" t="inlineStr">
         <is>
-          <t>-37.15174210321284,175.880684828937</t>
+          <t>-37.15174178351225,175.88068588089996</t>
         </is>
       </c>
       <c r="L690" t="inlineStr">
@@ -77287,7 +77287,7 @@
       </c>
       <c r="K691" t="inlineStr">
         <is>
-          <t>-37.15173797907452,175.88069839925814</t>
+          <t>-37.15173711588258,175.88070123955774</t>
         </is>
       </c>
       <c r="L691" t="inlineStr">
@@ -77354,7 +77354,7 @@
       </c>
       <c r="K692" t="inlineStr">
         <is>
-          <t>-37.15174875298311,175.88066294810585</t>
+          <t>-37.15174961617415,175.88066010780534</t>
         </is>
       </c>
       <c r="L692" t="inlineStr">
@@ -77421,7 +77421,7 @@
       </c>
       <c r="K693" t="inlineStr">
         <is>
-          <t>-37.15172301707176,175.8807476311077</t>
+          <t>-37.15172416799575,175.88074384404308</t>
         </is>
       </c>
       <c r="L693" t="inlineStr">
@@ -77488,7 +77488,7 @@
       </c>
       <c r="K694" t="inlineStr">
         <is>
-          <t>-37.15174760206161,175.88066673517307</t>
+          <t>-37.15174654705014,175.88067020665125</t>
         </is>
       </c>
       <c r="L694" t="inlineStr">
@@ -77594,7 +77594,7 @@
       </c>
       <c r="K696" t="inlineStr">
         <is>
-          <t>-37.15172675757431,175.88073532314726</t>
+          <t>-37.15172589438151,175.88073816344593</t>
         </is>
       </c>
       <c r="L696" t="inlineStr">
@@ -77661,7 +77661,7 @@
       </c>
       <c r="K697" t="inlineStr">
         <is>
-          <t>-37.151720459462474,175.88075604680643</t>
+          <t>-37.15171988400031,175.88075794033855</t>
         </is>
       </c>
       <c r="L697" t="inlineStr">
@@ -77728,7 +77728,7 @@
       </c>
       <c r="K698" t="inlineStr">
         <is>
-          <t>-37.1516737510218,175.8809097383985</t>
+          <t>-37.15167384693255,175.8809094228102</t>
         </is>
       </c>
       <c r="L698" t="inlineStr">
@@ -77795,7 +77795,7 @@
       </c>
       <c r="K699" t="inlineStr">
         <is>
-          <t>-37.15171064463153,175.8807883420447</t>
+          <t>-37.151710197049454,175.8807898147915</t>
         </is>
       </c>
       <c r="L699" t="inlineStr">
